--- a/Process/Timesheet/Timesheet1-vis.xlsx
+++ b/Process/Timesheet/Timesheet1-vis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vinoth\GIT\TeamProject\Project\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{120D3810-897C-415F-A7E2-29086180C2CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B424A654-8283-459F-8E65-75B6D2F56B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19414" windowHeight="10303" firstSheet="24" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19414" windowHeight="10303" firstSheet="25" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Day 3(06-04-2022)" sheetId="40" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3982" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3978" uniqueCount="791">
   <si>
     <t>Column1</t>
   </si>
@@ -2775,6 +2775,30 @@
     <t>implementing cards on drive pages, navbar and created login page</t>
   </si>
   <si>
+    <t>worked on deparment service(Flow)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        07:25:00</t>
+  </si>
+  <si>
+    <t>worked on deparment service(Exception Handling)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        00:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> worked on deparment service(Exception Handling)</t>
+  </si>
+  <si>
+    <t>worked on deparment service(Validation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         10:00.00</t>
+  </si>
+  <si>
+    <t>worked on department services(logger)</t>
+  </si>
+  <si>
     <t>Worked on Admin view department [spec,Component]</t>
   </si>
   <si>
@@ -2809,6 +2833,36 @@
   </si>
   <si>
     <t>Continued testing on Department service</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> worked on department services(changes)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         01:40:00</t>
+  </si>
+  <si>
+    <t>worked on department service(documentation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          08:00.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    00:50:00</t>
+  </si>
+  <si>
+    <t>Pagination error in component files -major Fixes (Altering name)</t>
+  </si>
+  <si>
+    <t>Self Exploration -Intergration on Db and Angular</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lunch break and Disrupt [WFH]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin path and solving Import errors - Admin view page</t>
+  </si>
+  <si>
+    <t>Explored what is swagger</t>
   </si>
   <si>
     <t>Started working on Refined Sequence diagram</t>
@@ -2836,7 +2890,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]hh:mm:ss;@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2910,8 +2964,15 @@
       <name val="Calibri"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2921,6 +2982,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3174,7 +3247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3329,10 +3402,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3341,7 +3414,7 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3350,6 +3423,10 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="21" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="21" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -16309,7 +16386,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="69" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -16339,7 +16416,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="68"/>
+      <c r="A3" s="69"/>
       <c r="B3" s="51" t="s">
         <v>289</v>
       </c>
@@ -16368,7 +16445,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="68"/>
+      <c r="A4" s="69"/>
       <c r="B4" s="51" t="s">
         <v>291</v>
       </c>
@@ -16397,7 +16474,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="68"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="51" t="s">
         <v>292</v>
       </c>
@@ -16426,7 +16503,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="68"/>
+      <c r="A6" s="69"/>
       <c r="B6" s="51" t="s">
         <v>294</v>
       </c>
@@ -16455,7 +16532,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="68"/>
+      <c r="A7" s="69"/>
       <c r="B7" t="s">
         <v>297</v>
       </c>
@@ -16484,7 +16561,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="68"/>
+      <c r="A8" s="69"/>
       <c r="B8" s="51" t="s">
         <v>298</v>
       </c>
@@ -16510,7 +16587,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="68"/>
+      <c r="A9" s="69"/>
       <c r="B9" s="51" t="s">
         <v>299</v>
       </c>
@@ -16536,7 +16613,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="68"/>
+      <c r="A10" s="69"/>
       <c r="B10" s="51" t="s">
         <v>301</v>
       </c>
@@ -16556,7 +16633,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="68"/>
+      <c r="A11" s="69"/>
       <c r="B11" s="51" t="s">
         <v>302</v>
       </c>
@@ -16576,7 +16653,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="68"/>
+      <c r="A12" s="69"/>
       <c r="B12" s="51" t="s">
         <v>303</v>
       </c>
@@ -16595,7 +16672,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="68"/>
+      <c r="A13" s="69"/>
       <c r="B13" s="51" t="s">
         <v>304</v>
       </c>
@@ -16614,7 +16691,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="68"/>
+      <c r="A14" s="69"/>
       <c r="B14" s="51" t="s">
         <v>305</v>
       </c>
@@ -16633,7 +16710,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="68"/>
+      <c r="A15" s="69"/>
       <c r="B15" s="51" t="s">
         <v>306</v>
       </c>
@@ -16652,7 +16729,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="68"/>
+      <c r="A16" s="69"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
       <c r="D16" s="52"/>
@@ -16663,7 +16740,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="68" t="s">
+      <c r="A17" s="69" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51"/>
@@ -16686,7 +16763,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="68"/>
+      <c r="A18" s="69"/>
       <c r="B18" s="51"/>
       <c r="C18" s="51"/>
       <c r="D18" s="52">
@@ -16708,7 +16785,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="68"/>
+      <c r="A19" s="69"/>
       <c r="B19" s="51"/>
       <c r="C19" s="51"/>
       <c r="D19" s="52">
@@ -16730,7 +16807,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="68"/>
+      <c r="A20" s="69"/>
       <c r="B20" s="51"/>
       <c r="C20" s="51"/>
       <c r="D20" s="52">
@@ -16752,7 +16829,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="68"/>
+      <c r="A21" s="69"/>
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
       <c r="D21" s="52">
@@ -16774,7 +16851,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="68"/>
+      <c r="A22" s="69"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
       <c r="D22" s="52">
@@ -16796,7 +16873,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="68"/>
+      <c r="A23" s="69"/>
       <c r="B23" s="51" t="s">
         <v>73</v>
       </c>
@@ -16820,7 +16897,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="68"/>
+      <c r="A24" s="69"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
       <c r="D24" s="52">
@@ -16842,7 +16919,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="68"/>
+      <c r="A25" s="69"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
       <c r="D25" s="52">
@@ -16858,7 +16935,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="68"/>
+      <c r="A26" s="69"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
       <c r="D26" s="52"/>
@@ -16870,7 +16947,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="68"/>
+      <c r="A27" s="69"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
       <c r="D27" s="52"/>
@@ -16881,7 +16958,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="68"/>
+      <c r="A28" s="69"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="52"/>
@@ -16892,7 +16969,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="68"/>
+      <c r="A29" s="69"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="52"/>
@@ -16903,7 +16980,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="68"/>
+      <c r="A30" s="69"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -16914,7 +16991,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="68"/>
+      <c r="A31" s="69"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -16925,7 +17002,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="68" t="s">
+      <c r="A32" s="69" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -16952,7 +17029,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="68"/>
+      <c r="A33" s="69"/>
       <c r="B33" s="51" t="s">
         <v>307</v>
       </c>
@@ -16978,7 +17055,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="68"/>
+      <c r="A34" s="69"/>
       <c r="B34" s="51" t="s">
         <v>308</v>
       </c>
@@ -17004,7 +17081,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="68"/>
+      <c r="A35" s="69"/>
       <c r="B35" s="51" t="s">
         <v>309</v>
       </c>
@@ -17030,7 +17107,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="68"/>
+      <c r="A36" s="69"/>
       <c r="B36" s="51" t="s">
         <v>310</v>
       </c>
@@ -17056,7 +17133,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="68"/>
+      <c r="A37" s="69"/>
       <c r="B37" s="51" t="s">
         <v>311</v>
       </c>
@@ -17082,7 +17159,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="68"/>
+      <c r="A38" s="69"/>
       <c r="B38" s="51" t="s">
         <v>312</v>
       </c>
@@ -17108,7 +17185,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="68"/>
+      <c r="A39" s="69"/>
       <c r="B39" s="51" t="s">
         <v>313</v>
       </c>
@@ -17134,7 +17211,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="68"/>
+      <c r="A40" s="69"/>
       <c r="B40" s="51" t="s">
         <v>314</v>
       </c>
@@ -17154,7 +17231,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="68"/>
+      <c r="A41" s="69"/>
       <c r="B41" s="51" t="s">
         <v>312</v>
       </c>
@@ -17174,7 +17251,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="68"/>
+      <c r="A42" s="69"/>
       <c r="B42" s="51" t="s">
         <v>315</v>
       </c>
@@ -17193,7 +17270,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="68"/>
+      <c r="A43" s="69"/>
       <c r="B43" s="51" t="s">
         <v>309</v>
       </c>
@@ -17212,7 +17289,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="68"/>
+      <c r="A44" s="69"/>
       <c r="B44" s="51" t="s">
         <v>316</v>
       </c>
@@ -17231,7 +17308,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="68"/>
+      <c r="A45" s="69"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -17477,7 +17554,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="72" t="s">
+      <c r="A62" s="68" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -17504,7 +17581,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="68"/>
+      <c r="A63" s="69"/>
       <c r="B63" s="51" t="s">
         <v>284</v>
       </c>
@@ -17529,7 +17606,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="68"/>
+      <c r="A64" s="69"/>
       <c r="B64" s="51" t="s">
         <v>318</v>
       </c>
@@ -17555,7 +17632,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="68"/>
+      <c r="A65" s="69"/>
       <c r="B65" s="51" t="s">
         <v>313</v>
       </c>
@@ -17581,7 +17658,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="68"/>
+      <c r="A66" s="69"/>
       <c r="B66" s="51" t="s">
         <v>319</v>
       </c>
@@ -17607,7 +17684,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="68"/>
+      <c r="A67" s="69"/>
       <c r="B67" s="51" t="s">
         <v>302</v>
       </c>
@@ -17633,7 +17710,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="68"/>
+      <c r="A68" s="69"/>
       <c r="B68" s="51" t="s">
         <v>304</v>
       </c>
@@ -17659,7 +17736,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="68"/>
+      <c r="A69" s="69"/>
       <c r="B69" s="51" t="s">
         <v>315</v>
       </c>
@@ -17685,7 +17762,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="68"/>
+      <c r="A70" s="69"/>
       <c r="B70" s="51" t="s">
         <v>320</v>
       </c>
@@ -17705,7 +17782,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="68"/>
+      <c r="A71" s="69"/>
       <c r="B71" s="51" t="s">
         <v>306</v>
       </c>
@@ -17725,7 +17802,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="68"/>
+      <c r="A72" s="69"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -17736,7 +17813,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="68"/>
+      <c r="A73" s="69"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -17747,7 +17824,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="68"/>
+      <c r="A74" s="69"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -17758,7 +17835,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="68"/>
+      <c r="A75" s="69"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -17769,7 +17846,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="68"/>
+      <c r="A76" s="69"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -17780,7 +17857,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="68" t="s">
+      <c r="A77" s="69" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -17807,7 +17884,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="68"/>
+      <c r="A78" s="69"/>
       <c r="B78" s="51" t="s">
         <v>322</v>
       </c>
@@ -17833,7 +17910,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="68"/>
+      <c r="A79" s="69"/>
       <c r="B79" s="51" t="s">
         <v>323</v>
       </c>
@@ -17859,7 +17936,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="68"/>
+      <c r="A80" s="69"/>
       <c r="B80" s="51" t="s">
         <v>324</v>
       </c>
@@ -17885,7 +17962,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="68"/>
+      <c r="A81" s="69"/>
       <c r="B81" s="51" t="s">
         <v>325</v>
       </c>
@@ -17911,7 +17988,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="68"/>
+      <c r="A82" s="69"/>
       <c r="B82" s="51" t="s">
         <v>326</v>
       </c>
@@ -17937,7 +18014,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="68"/>
+      <c r="A83" s="69"/>
       <c r="B83" s="51" t="s">
         <v>327</v>
       </c>
@@ -17963,7 +18040,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="68"/>
+      <c r="A84" s="69"/>
       <c r="B84" s="51" t="s">
         <v>328</v>
       </c>
@@ -17989,7 +18066,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="68"/>
+      <c r="A85" s="69"/>
       <c r="B85" s="51" t="s">
         <v>294</v>
       </c>
@@ -18009,7 +18086,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="68"/>
+      <c r="A86" s="69"/>
       <c r="B86" s="51" t="s">
         <v>329</v>
       </c>
@@ -18029,7 +18106,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="68"/>
+      <c r="A87" s="69"/>
       <c r="B87" s="51" t="s">
         <v>304</v>
       </c>
@@ -18048,7 +18125,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="68"/>
+      <c r="A88" s="69"/>
       <c r="B88" s="51"/>
       <c r="C88" s="51"/>
       <c r="D88" s="52"/>
@@ -18059,7 +18136,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="68"/>
+      <c r="A89" s="69"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="52"/>
@@ -18070,7 +18147,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="68"/>
+      <c r="A90" s="69"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -18081,7 +18158,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="69"/>
+      <c r="A91" s="72"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -18092,7 +18169,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="72" t="s">
+      <c r="A92" s="68" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -18119,7 +18196,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="68"/>
+      <c r="A93" s="69"/>
       <c r="B93" s="51" t="s">
         <v>330</v>
       </c>
@@ -18145,7 +18222,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="68"/>
+      <c r="A94" s="69"/>
       <c r="B94" s="56" t="s">
         <v>331</v>
       </c>
@@ -18171,7 +18248,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="68"/>
+      <c r="A95" s="69"/>
       <c r="B95" s="51" t="s">
         <v>309</v>
       </c>
@@ -18197,7 +18274,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="68"/>
+      <c r="A96" s="69"/>
       <c r="B96" s="51" t="s">
         <v>332</v>
       </c>
@@ -18223,7 +18300,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="68"/>
+      <c r="A97" s="69"/>
       <c r="B97" s="51" t="s">
         <v>311</v>
       </c>
@@ -18249,7 +18326,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="68"/>
+      <c r="A98" s="69"/>
       <c r="B98" s="51" t="s">
         <v>313</v>
       </c>
@@ -18275,7 +18352,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="68"/>
+      <c r="A99" s="69"/>
       <c r="B99" s="51" t="s">
         <v>333</v>
       </c>
@@ -18301,7 +18378,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="68"/>
+      <c r="A100" s="69"/>
       <c r="B100" s="51" t="s">
         <v>334</v>
       </c>
@@ -18321,7 +18398,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="68"/>
+      <c r="A101" s="69"/>
       <c r="B101" s="51" t="s">
         <v>309</v>
       </c>
@@ -18341,7 +18418,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="68"/>
+      <c r="A102" s="69"/>
       <c r="B102" s="51" t="s">
         <v>316</v>
       </c>
@@ -18360,7 +18437,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="68"/>
+      <c r="A103" s="69"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51"/>
       <c r="D103" s="52"/>
@@ -18368,7 +18445,7 @@
       <c r="F103" s="52"/>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="68"/>
+      <c r="A104" s="69"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51"/>
       <c r="D104" s="52"/>
@@ -18376,7 +18453,7 @@
       <c r="F104" s="52"/>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="68"/>
+      <c r="A105" s="69"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51"/>
       <c r="D105" s="52"/>
@@ -18704,7 +18781,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="72" t="s">
+      <c r="A122" s="68" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51" t="s">
@@ -18731,7 +18808,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="68"/>
+      <c r="A123" s="69"/>
       <c r="B123" s="51" t="s">
         <v>322</v>
       </c>
@@ -18757,7 +18834,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="68"/>
+      <c r="A124" s="69"/>
       <c r="B124" s="51" t="s">
         <v>294</v>
       </c>
@@ -18783,7 +18860,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="68"/>
+      <c r="A125" s="69"/>
       <c r="B125" s="51" t="s">
         <v>344</v>
       </c>
@@ -18809,7 +18886,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="68"/>
+      <c r="A126" s="69"/>
       <c r="B126" s="51" t="s">
         <v>329</v>
       </c>
@@ -18835,7 +18912,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="68"/>
+      <c r="A127" s="69"/>
       <c r="B127" s="56" t="s">
         <v>345</v>
       </c>
@@ -18861,7 +18938,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="68"/>
+      <c r="A128" s="69"/>
       <c r="B128" s="51" t="s">
         <v>346</v>
       </c>
@@ -18887,7 +18964,7 @@
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="68"/>
+      <c r="A129" s="69"/>
       <c r="B129" s="56" t="s">
         <v>304</v>
       </c>
@@ -18913,7 +18990,7 @@
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="68"/>
+      <c r="A130" s="69"/>
       <c r="B130" s="56" t="s">
         <v>304</v>
       </c>
@@ -18933,7 +19010,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="68"/>
+      <c r="A131" s="69"/>
       <c r="B131" s="51" t="s">
         <v>347</v>
       </c>
@@ -18953,7 +19030,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="68"/>
+      <c r="A132" s="69"/>
       <c r="B132" s="51" t="s">
         <v>348</v>
       </c>
@@ -18972,7 +19049,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="68"/>
+      <c r="A133" s="69"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
@@ -18983,7 +19060,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="68"/>
+      <c r="A134" s="69"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -18994,7 +19071,7 @@
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="68"/>
+      <c r="A135" s="69"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -19320,7 +19397,7 @@
       </c>
     </row>
     <row r="152" spans="1:9">
-      <c r="A152" s="72" t="s">
+      <c r="A152" s="68" t="s">
         <v>355</v>
       </c>
       <c r="B152" s="51" t="s">
@@ -19347,7 +19424,7 @@
       </c>
     </row>
     <row r="153" spans="1:9">
-      <c r="A153" s="68"/>
+      <c r="A153" s="69"/>
       <c r="B153" s="51" t="s">
         <v>357</v>
       </c>
@@ -19373,7 +19450,7 @@
       </c>
     </row>
     <row r="154" spans="1:9">
-      <c r="A154" s="68"/>
+      <c r="A154" s="69"/>
       <c r="B154" s="51" t="s">
         <v>341</v>
       </c>
@@ -19399,7 +19476,7 @@
       </c>
     </row>
     <row r="155" spans="1:9">
-      <c r="A155" s="68"/>
+      <c r="A155" s="69"/>
       <c r="B155" s="51" t="s">
         <v>357</v>
       </c>
@@ -19425,7 +19502,7 @@
       </c>
     </row>
     <row r="156" spans="1:9">
-      <c r="A156" s="68"/>
+      <c r="A156" s="69"/>
       <c r="B156" s="51" t="s">
         <v>301</v>
       </c>
@@ -19451,7 +19528,7 @@
       </c>
     </row>
     <row r="157" spans="1:9">
-      <c r="A157" s="68"/>
+      <c r="A157" s="69"/>
       <c r="B157" s="51" t="s">
         <v>294</v>
       </c>
@@ -19477,7 +19554,7 @@
       </c>
     </row>
     <row r="158" spans="1:9">
-      <c r="A158" s="68"/>
+      <c r="A158" s="69"/>
       <c r="B158" s="51" t="s">
         <v>304</v>
       </c>
@@ -19503,7 +19580,7 @@
       </c>
     </row>
     <row r="159" spans="1:9">
-      <c r="A159" s="68"/>
+      <c r="A159" s="69"/>
       <c r="B159" s="51" t="s">
         <v>358</v>
       </c>
@@ -19529,7 +19606,7 @@
       </c>
     </row>
     <row r="160" spans="1:9">
-      <c r="A160" s="68"/>
+      <c r="A160" s="69"/>
       <c r="B160" s="51" t="s">
         <v>359</v>
       </c>
@@ -19549,7 +19626,7 @@
       <c r="I160" s="54"/>
     </row>
     <row r="161" spans="1:9">
-      <c r="A161" s="68"/>
+      <c r="A161" s="69"/>
       <c r="B161" s="51"/>
       <c r="C161" s="51"/>
       <c r="D161" s="52"/>
@@ -19561,7 +19638,7 @@
       <c r="I161" s="54"/>
     </row>
     <row r="162" spans="1:9">
-      <c r="A162" s="68"/>
+      <c r="A162" s="69"/>
       <c r="B162" s="51"/>
       <c r="C162" s="51"/>
       <c r="D162" s="52"/>
@@ -19572,7 +19649,7 @@
       </c>
     </row>
     <row r="163" spans="1:9">
-      <c r="A163" s="68"/>
+      <c r="A163" s="69"/>
       <c r="B163" s="51"/>
       <c r="C163" s="51"/>
       <c r="D163" s="52"/>
@@ -19583,7 +19660,7 @@
       </c>
     </row>
     <row r="164" spans="1:9">
-      <c r="A164" s="68"/>
+      <c r="A164" s="69"/>
       <c r="B164" s="51"/>
       <c r="C164" s="51"/>
       <c r="D164" s="52"/>
@@ -19594,7 +19671,7 @@
       </c>
     </row>
     <row r="165" spans="1:9">
-      <c r="A165" s="68"/>
+      <c r="A165" s="69"/>
       <c r="B165" s="51"/>
       <c r="C165" s="51"/>
       <c r="D165" s="52"/>
@@ -19605,7 +19682,7 @@
       </c>
     </row>
     <row r="166" spans="1:9">
-      <c r="A166" s="68"/>
+      <c r="A166" s="69"/>
       <c r="B166" s="51"/>
       <c r="C166" s="51"/>
       <c r="D166" s="52"/>
@@ -19617,17 +19694,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="129" priority="12" operator="greaterThan">
@@ -19733,7 +19810,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="69" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -19763,7 +19840,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="68"/>
+      <c r="A3" s="69"/>
       <c r="B3" s="51" t="s">
         <v>360</v>
       </c>
@@ -19792,7 +19869,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="68"/>
+      <c r="A4" s="69"/>
       <c r="B4" s="51" t="s">
         <v>361</v>
       </c>
@@ -19821,7 +19898,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="68"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="51" t="s">
         <v>309</v>
       </c>
@@ -19850,7 +19927,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="68"/>
+      <c r="A6" s="69"/>
       <c r="B6" s="51" t="s">
         <v>311</v>
       </c>
@@ -19879,7 +19956,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="68"/>
+      <c r="A7" s="69"/>
       <c r="B7" t="s">
         <v>362</v>
       </c>
@@ -19908,7 +19985,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="68"/>
+      <c r="A8" s="69"/>
       <c r="B8" s="51" t="s">
         <v>363</v>
       </c>
@@ -19934,7 +20011,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="68"/>
+      <c r="A9" s="69"/>
       <c r="B9" s="51" t="s">
         <v>364</v>
       </c>
@@ -19960,7 +20037,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="68"/>
+      <c r="A10" s="69"/>
       <c r="B10" s="51" t="s">
         <v>329</v>
       </c>
@@ -19980,7 +20057,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="68"/>
+      <c r="A11" s="69"/>
       <c r="B11" s="51" t="s">
         <v>365</v>
       </c>
@@ -20000,7 +20077,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="68"/>
+      <c r="A12" s="69"/>
       <c r="B12" s="51" t="s">
         <v>345</v>
       </c>
@@ -20019,7 +20096,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="68"/>
+      <c r="A13" s="69"/>
       <c r="B13" s="51" t="s">
         <v>309</v>
       </c>
@@ -20038,7 +20115,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="68"/>
+      <c r="A14" s="69"/>
       <c r="B14" s="51" t="s">
         <v>366</v>
       </c>
@@ -20057,7 +20134,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="68"/>
+      <c r="A15" s="69"/>
       <c r="B15" s="51" t="s">
         <v>367</v>
       </c>
@@ -20076,7 +20153,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="68"/>
+      <c r="A16" s="69"/>
       <c r="B16" s="51" t="s">
         <v>368</v>
       </c>
@@ -20095,7 +20172,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="68" t="s">
+      <c r="A17" s="69" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -20122,7 +20199,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="68"/>
+      <c r="A18" s="69"/>
       <c r="B18" s="51" t="s">
         <v>370</v>
       </c>
@@ -20148,7 +20225,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="68"/>
+      <c r="A19" s="69"/>
       <c r="B19" s="51" t="s">
         <v>342</v>
       </c>
@@ -20174,7 +20251,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="68"/>
+      <c r="A20" s="69"/>
       <c r="B20" s="51" t="s">
         <v>371</v>
       </c>
@@ -20200,7 +20277,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="68"/>
+      <c r="A21" s="69"/>
       <c r="B21" s="51" t="s">
         <v>372</v>
       </c>
@@ -20226,7 +20303,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="68"/>
+      <c r="A22" s="69"/>
       <c r="B22" s="51" t="s">
         <v>329</v>
       </c>
@@ -20252,7 +20329,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="68"/>
+      <c r="A23" s="69"/>
       <c r="B23" s="51" t="s">
         <v>373</v>
       </c>
@@ -20278,7 +20355,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="68"/>
+      <c r="A24" s="69"/>
       <c r="B24" s="51" t="s">
         <v>374</v>
       </c>
@@ -20304,7 +20381,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="68"/>
+      <c r="A25" s="69"/>
       <c r="B25" s="51" t="s">
         <v>304</v>
       </c>
@@ -20324,7 +20401,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="68"/>
+      <c r="A26" s="69"/>
       <c r="B26" s="51" t="s">
         <v>375</v>
       </c>
@@ -20344,7 +20421,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="68"/>
+      <c r="A27" s="69"/>
       <c r="B27" s="51" t="s">
         <v>376</v>
       </c>
@@ -20363,7 +20440,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="68"/>
+      <c r="A28" s="69"/>
       <c r="B28" s="51" t="s">
         <v>377</v>
       </c>
@@ -20382,7 +20459,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="68"/>
+      <c r="A29" s="69"/>
       <c r="B29" s="51" t="s">
         <v>378</v>
       </c>
@@ -20401,7 +20478,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="68"/>
+      <c r="A30" s="69"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -20412,7 +20489,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="68"/>
+      <c r="A31" s="69"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -20423,7 +20500,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="68" t="s">
+      <c r="A32" s="69" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -20450,7 +20527,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="68"/>
+      <c r="A33" s="69"/>
       <c r="B33" s="51" t="s">
         <v>380</v>
       </c>
@@ -20476,7 +20553,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="68"/>
+      <c r="A34" s="69"/>
       <c r="B34" s="51" t="s">
         <v>370</v>
       </c>
@@ -20502,7 +20579,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="68"/>
+      <c r="A35" s="69"/>
       <c r="B35" s="51" t="s">
         <v>294</v>
       </c>
@@ -20528,7 +20605,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="68"/>
+      <c r="A36" s="69"/>
       <c r="B36" s="51" t="s">
         <v>381</v>
       </c>
@@ -20554,7 +20631,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="68"/>
+      <c r="A37" s="69"/>
       <c r="B37" s="51" t="s">
         <v>311</v>
       </c>
@@ -20580,7 +20657,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="68"/>
+      <c r="A38" s="69"/>
       <c r="B38" s="51" t="s">
         <v>382</v>
       </c>
@@ -20606,7 +20683,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="68"/>
+      <c r="A39" s="69"/>
       <c r="B39" s="51" t="s">
         <v>329</v>
       </c>
@@ -20632,7 +20709,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="68"/>
+      <c r="A40" s="69"/>
       <c r="B40" s="51" t="s">
         <v>383</v>
       </c>
@@ -20652,7 +20729,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="68"/>
+      <c r="A41" s="69"/>
       <c r="B41" s="51" t="s">
         <v>374</v>
       </c>
@@ -20672,7 +20749,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="68"/>
+      <c r="A42" s="69"/>
       <c r="B42" s="51" t="s">
         <v>304</v>
       </c>
@@ -20691,7 +20768,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="68"/>
+      <c r="A43" s="69"/>
       <c r="B43" s="51" t="s">
         <v>384</v>
       </c>
@@ -20710,7 +20787,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="68"/>
+      <c r="A44" s="69"/>
       <c r="B44" s="51" t="s">
         <v>385</v>
       </c>
@@ -20729,7 +20806,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="68"/>
+      <c r="A45" s="69"/>
       <c r="B45" s="51" t="s">
         <v>386</v>
       </c>
@@ -20993,7 +21070,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="72" t="s">
+      <c r="A62" s="68" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -21020,7 +21097,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="68"/>
+      <c r="A63" s="69"/>
       <c r="B63" s="51" t="s">
         <v>390</v>
       </c>
@@ -21045,7 +21122,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="68"/>
+      <c r="A64" s="69"/>
       <c r="B64" s="51" t="s">
         <v>370</v>
       </c>
@@ -21071,7 +21148,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="68"/>
+      <c r="A65" s="69"/>
       <c r="B65" s="51" t="s">
         <v>309</v>
       </c>
@@ -21097,7 +21174,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="68"/>
+      <c r="A66" s="69"/>
       <c r="B66" s="51" t="s">
         <v>391</v>
       </c>
@@ -21123,7 +21200,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="68"/>
+      <c r="A67" s="69"/>
       <c r="B67" s="51" t="s">
         <v>392</v>
       </c>
@@ -21149,7 +21226,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="68"/>
+      <c r="A68" s="69"/>
       <c r="B68" s="56" t="s">
         <v>313</v>
       </c>
@@ -21175,7 +21252,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="68"/>
+      <c r="A69" s="69"/>
       <c r="B69" s="51" t="s">
         <v>393</v>
       </c>
@@ -21201,7 +21278,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="68"/>
+      <c r="A70" s="69"/>
       <c r="B70" s="51" t="s">
         <v>394</v>
       </c>
@@ -21221,7 +21298,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="68"/>
+      <c r="A71" s="69"/>
       <c r="B71" s="51" t="s">
         <v>342</v>
       </c>
@@ -21241,7 +21318,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="68"/>
+      <c r="A72" s="69"/>
       <c r="B72" s="51" t="s">
         <v>385</v>
       </c>
@@ -21260,7 +21337,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="68"/>
+      <c r="A73" s="69"/>
       <c r="B73" s="51" t="s">
         <v>395</v>
       </c>
@@ -21279,7 +21356,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="68"/>
+      <c r="A74" s="69"/>
       <c r="B74" s="51" t="s">
         <v>396</v>
       </c>
@@ -21298,7 +21375,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="68"/>
+      <c r="A75" s="69"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -21309,7 +21386,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="68"/>
+      <c r="A76" s="69"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -21320,7 +21397,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="68" t="s">
+      <c r="A77" s="69" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -21347,7 +21424,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="68"/>
+      <c r="A78" s="69"/>
       <c r="B78" s="51" t="s">
         <v>397</v>
       </c>
@@ -21373,7 +21450,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="68"/>
+      <c r="A79" s="69"/>
       <c r="B79" s="51" t="s">
         <v>398</v>
       </c>
@@ -21399,7 +21476,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="68"/>
+      <c r="A80" s="69"/>
       <c r="B80" s="51" t="s">
         <v>309</v>
       </c>
@@ -21425,7 +21502,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="68"/>
+      <c r="A81" s="69"/>
       <c r="B81" s="51" t="s">
         <v>399</v>
       </c>
@@ -21451,7 +21528,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="68"/>
+      <c r="A82" s="69"/>
       <c r="B82" s="51" t="s">
         <v>400</v>
       </c>
@@ -21477,7 +21554,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="68"/>
+      <c r="A83" s="69"/>
       <c r="B83" s="51" t="s">
         <v>329</v>
       </c>
@@ -21503,7 +21580,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="68"/>
+      <c r="A84" s="69"/>
       <c r="B84" s="51" t="s">
         <v>401</v>
       </c>
@@ -21529,7 +21606,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="68"/>
+      <c r="A85" s="69"/>
       <c r="B85" s="51" t="s">
         <v>394</v>
       </c>
@@ -21549,7 +21626,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="68"/>
+      <c r="A86" s="69"/>
       <c r="B86" s="51" t="s">
         <v>309</v>
       </c>
@@ -21569,7 +21646,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="68"/>
+      <c r="A87" s="69"/>
       <c r="B87" s="51" t="s">
         <v>385</v>
       </c>
@@ -21588,7 +21665,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="68"/>
+      <c r="A88" s="69"/>
       <c r="B88" s="51" t="s">
         <v>402</v>
       </c>
@@ -21607,7 +21684,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="68"/>
+      <c r="A89" s="69"/>
       <c r="B89" s="51" t="s">
         <v>403</v>
       </c>
@@ -21626,7 +21703,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="68"/>
+      <c r="A90" s="69"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -21637,7 +21714,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="69"/>
+      <c r="A91" s="72"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -21648,7 +21725,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="72" t="s">
+      <c r="A92" s="68" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -21675,7 +21752,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="68"/>
+      <c r="A93" s="69"/>
       <c r="B93" s="51" t="s">
         <v>405</v>
       </c>
@@ -21701,7 +21778,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="68"/>
+      <c r="A94" s="69"/>
       <c r="B94" s="56" t="s">
         <v>406</v>
       </c>
@@ -21727,7 +21804,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="68"/>
+      <c r="A95" s="69"/>
       <c r="B95" s="51" t="s">
         <v>407</v>
       </c>
@@ -21753,7 +21830,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="68"/>
+      <c r="A96" s="69"/>
       <c r="B96" s="51" t="s">
         <v>342</v>
       </c>
@@ -21779,7 +21856,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="68"/>
+      <c r="A97" s="69"/>
       <c r="B97" s="51" t="s">
         <v>408</v>
       </c>
@@ -21805,7 +21882,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="68"/>
+      <c r="A98" s="69"/>
       <c r="B98" s="51" t="s">
         <v>409</v>
       </c>
@@ -21831,7 +21908,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="68"/>
+      <c r="A99" s="69"/>
       <c r="B99" s="51" t="s">
         <v>410</v>
       </c>
@@ -21857,7 +21934,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="68"/>
+      <c r="A100" s="69"/>
       <c r="B100" s="51" t="s">
         <v>411</v>
       </c>
@@ -21877,7 +21954,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="68"/>
+      <c r="A101" s="69"/>
       <c r="B101" s="51" t="s">
         <v>412</v>
       </c>
@@ -21897,7 +21974,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="68"/>
+      <c r="A102" s="69"/>
       <c r="B102" s="51" t="s">
         <v>413</v>
       </c>
@@ -21916,7 +21993,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="68"/>
+      <c r="A103" s="69"/>
       <c r="B103" s="51" t="s">
         <v>414</v>
       </c>
@@ -21935,7 +22012,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="68"/>
+      <c r="A104" s="69"/>
       <c r="B104" s="51" t="s">
         <v>304</v>
       </c>
@@ -21954,7 +22031,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="68"/>
+      <c r="A105" s="69"/>
       <c r="B105" s="51" t="s">
         <v>415</v>
       </c>
@@ -22316,7 +22393,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="72" t="s">
+      <c r="A122" s="68" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51" t="s">
@@ -22343,7 +22420,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="68"/>
+      <c r="A123" s="69"/>
       <c r="B123" s="51" t="s">
         <v>426</v>
       </c>
@@ -22369,7 +22446,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="68"/>
+      <c r="A124" s="69"/>
       <c r="B124" s="51" t="s">
         <v>427</v>
       </c>
@@ -22395,7 +22472,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="68"/>
+      <c r="A125" s="69"/>
       <c r="B125" s="51" t="s">
         <v>428</v>
       </c>
@@ -22421,7 +22498,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="68"/>
+      <c r="A126" s="69"/>
       <c r="B126" s="51" t="s">
         <v>429</v>
       </c>
@@ -22447,7 +22524,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="68"/>
+      <c r="A127" s="69"/>
       <c r="B127" s="56" t="s">
         <v>430</v>
       </c>
@@ -22473,7 +22550,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="68"/>
+      <c r="A128" s="69"/>
       <c r="B128" s="51" t="s">
         <v>431</v>
       </c>
@@ -22499,7 +22576,7 @@
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="68"/>
+      <c r="A129" s="69"/>
       <c r="B129" s="56" t="s">
         <v>432</v>
       </c>
@@ -22525,7 +22602,7 @@
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="68"/>
+      <c r="A130" s="69"/>
       <c r="B130" s="56" t="s">
         <v>433</v>
       </c>
@@ -22545,7 +22622,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="68"/>
+      <c r="A131" s="69"/>
       <c r="B131" s="51" t="s">
         <v>294</v>
       </c>
@@ -22565,7 +22642,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="68"/>
+      <c r="A132" s="69"/>
       <c r="B132" s="51" t="s">
         <v>329</v>
       </c>
@@ -22584,7 +22661,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="68"/>
+      <c r="A133" s="69"/>
       <c r="B133" s="51" t="s">
         <v>304</v>
       </c>
@@ -22603,7 +22680,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="68"/>
+      <c r="A134" s="69"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -22614,7 +22691,7 @@
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="68"/>
+      <c r="A135" s="69"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -23072,7 +23149,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="69" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -23102,7 +23179,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="68"/>
+      <c r="A3" s="69"/>
       <c r="B3" s="51" t="s">
         <v>311</v>
       </c>
@@ -23131,7 +23208,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="68"/>
+      <c r="A4" s="69"/>
       <c r="B4" s="51" t="s">
         <v>440</v>
       </c>
@@ -23160,7 +23237,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="68"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="56" t="s">
         <v>441</v>
       </c>
@@ -23189,7 +23266,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="68"/>
+      <c r="A6" s="69"/>
       <c r="B6" s="51" t="s">
         <v>342</v>
       </c>
@@ -23218,7 +23295,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="68"/>
+      <c r="A7" s="69"/>
       <c r="B7" t="s">
         <v>442</v>
       </c>
@@ -23247,7 +23324,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="68"/>
+      <c r="A8" s="69"/>
       <c r="B8" t="s">
         <v>443</v>
       </c>
@@ -23273,7 +23350,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="68"/>
+      <c r="A9" s="69"/>
       <c r="B9" s="51" t="s">
         <v>329</v>
       </c>
@@ -23299,7 +23376,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="68"/>
+      <c r="A10" s="69"/>
       <c r="B10" s="51" t="s">
         <v>444</v>
       </c>
@@ -23319,7 +23396,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="68"/>
+      <c r="A11" s="69"/>
       <c r="B11" s="51" t="s">
         <v>445</v>
       </c>
@@ -23339,7 +23416,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="68"/>
+      <c r="A12" s="69"/>
       <c r="B12" s="51" t="s">
         <v>446</v>
       </c>
@@ -23358,7 +23435,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="68"/>
+      <c r="A13" s="69"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51" t="s">
         <v>295</v>
@@ -23371,7 +23448,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="68"/>
+      <c r="A14" s="69"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51" t="s">
         <v>288</v>
@@ -23384,7 +23461,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="68"/>
+      <c r="A15" s="69"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51" t="s">
         <v>293</v>
@@ -23397,7 +23474,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="68"/>
+      <c r="A16" s="69"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51" t="s">
         <v>290</v>
@@ -23410,7 +23487,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="68" t="s">
+      <c r="A17" s="69" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -23437,7 +23514,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="68"/>
+      <c r="A18" s="69"/>
       <c r="B18" s="51" t="s">
         <v>447</v>
       </c>
@@ -23463,7 +23540,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="68"/>
+      <c r="A19" s="69"/>
       <c r="B19" s="51" t="s">
         <v>342</v>
       </c>
@@ -23489,7 +23566,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="68"/>
+      <c r="A20" s="69"/>
       <c r="B20" s="51" t="s">
         <v>371</v>
       </c>
@@ -23515,7 +23592,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="68"/>
+      <c r="A21" s="69"/>
       <c r="B21" s="51" t="s">
         <v>372</v>
       </c>
@@ -23541,7 +23618,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="68"/>
+      <c r="A22" s="69"/>
       <c r="B22" s="51" t="s">
         <v>329</v>
       </c>
@@ -23567,7 +23644,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="68"/>
+      <c r="A23" s="69"/>
       <c r="B23" s="51" t="s">
         <v>373</v>
       </c>
@@ -23593,7 +23670,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="68"/>
+      <c r="A24" s="69"/>
       <c r="B24" s="51" t="s">
         <v>374</v>
       </c>
@@ -23619,7 +23696,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="68"/>
+      <c r="A25" s="69"/>
       <c r="B25" s="51" t="s">
         <v>304</v>
       </c>
@@ -23639,7 +23716,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="68"/>
+      <c r="A26" s="69"/>
       <c r="B26" s="51" t="s">
         <v>375</v>
       </c>
@@ -23659,7 +23736,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="68"/>
+      <c r="A27" s="69"/>
       <c r="B27" s="51" t="s">
         <v>376</v>
       </c>
@@ -23678,7 +23755,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="68"/>
+      <c r="A28" s="69"/>
       <c r="B28" s="51" t="s">
         <v>377</v>
       </c>
@@ -23697,7 +23774,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="68"/>
+      <c r="A29" s="69"/>
       <c r="B29" s="51" t="s">
         <v>378</v>
       </c>
@@ -23716,7 +23793,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="68"/>
+      <c r="A30" s="69"/>
       <c r="B30" s="51" t="s">
         <v>448</v>
       </c>
@@ -23735,7 +23812,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="68"/>
+      <c r="A31" s="69"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -23746,7 +23823,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="68" t="s">
+      <c r="A32" s="69" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -23773,7 +23850,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="68"/>
+      <c r="A33" s="69"/>
       <c r="B33" s="51" t="s">
         <v>449</v>
       </c>
@@ -23799,7 +23876,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="68"/>
+      <c r="A34" s="69"/>
       <c r="B34" s="51" t="s">
         <v>450</v>
       </c>
@@ -23825,7 +23902,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="68"/>
+      <c r="A35" s="69"/>
       <c r="B35" s="51" t="s">
         <v>294</v>
       </c>
@@ -23851,7 +23928,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="68"/>
+      <c r="A36" s="69"/>
       <c r="B36" s="51" t="s">
         <v>451</v>
       </c>
@@ -23877,7 +23954,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="68"/>
+      <c r="A37" s="69"/>
       <c r="B37" s="51" t="s">
         <v>311</v>
       </c>
@@ -23903,7 +23980,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="68"/>
+      <c r="A38" s="69"/>
       <c r="B38" s="51" t="s">
         <v>452</v>
       </c>
@@ -23929,7 +24006,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="68"/>
+      <c r="A39" s="69"/>
       <c r="B39" s="51" t="s">
         <v>329</v>
       </c>
@@ -23955,7 +24032,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="68"/>
+      <c r="A40" s="69"/>
       <c r="B40" s="51" t="s">
         <v>453</v>
       </c>
@@ -23975,7 +24052,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="68"/>
+      <c r="A41" s="69"/>
       <c r="B41" s="51" t="s">
         <v>454</v>
       </c>
@@ -23995,7 +24072,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="68"/>
+      <c r="A42" s="69"/>
       <c r="B42" s="51" t="s">
         <v>304</v>
       </c>
@@ -24014,7 +24091,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="68"/>
+      <c r="A43" s="69"/>
       <c r="B43" s="51" t="s">
         <v>455</v>
       </c>
@@ -24033,7 +24110,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="68"/>
+      <c r="A44" s="69"/>
       <c r="B44" s="51" t="s">
         <v>448</v>
       </c>
@@ -24052,7 +24129,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="68"/>
+      <c r="A45" s="69"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
       <c r="E45" s="52"/>
@@ -24299,7 +24376,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="72" t="s">
+      <c r="A62" s="68" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51"/>
@@ -24318,7 +24395,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="68"/>
+      <c r="A63" s="69"/>
       <c r="B63" s="51"/>
       <c r="C63" s="51"/>
       <c r="D63" s="52"/>
@@ -24335,7 +24412,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="68"/>
+      <c r="A64" s="69"/>
       <c r="B64" s="51"/>
       <c r="C64" s="51"/>
       <c r="D64" s="52"/>
@@ -24353,7 +24430,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="68"/>
+      <c r="A65" s="69"/>
       <c r="B65" s="51"/>
       <c r="C65" s="51"/>
       <c r="D65" s="52"/>
@@ -24371,7 +24448,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="68"/>
+      <c r="A66" s="69"/>
       <c r="B66" s="51"/>
       <c r="C66" s="51"/>
       <c r="D66" s="52"/>
@@ -24389,7 +24466,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="68"/>
+      <c r="A67" s="69"/>
       <c r="B67" s="51"/>
       <c r="C67" s="51"/>
       <c r="D67" s="52"/>
@@ -24407,7 +24484,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="68"/>
+      <c r="A68" s="69"/>
       <c r="B68" s="56" t="s">
         <v>456</v>
       </c>
@@ -24427,7 +24504,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="68"/>
+      <c r="A69" s="69"/>
       <c r="B69" s="51"/>
       <c r="C69" s="51"/>
       <c r="D69" s="52"/>
@@ -24445,7 +24522,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="68"/>
+      <c r="A70" s="69"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51"/>
       <c r="D70" s="52"/>
@@ -24457,7 +24534,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="68"/>
+      <c r="A71" s="69"/>
       <c r="B71" s="51"/>
       <c r="C71" s="51"/>
       <c r="D71" s="52"/>
@@ -24469,7 +24546,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="68"/>
+      <c r="A72" s="69"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -24480,7 +24557,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="68"/>
+      <c r="A73" s="69"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -24491,7 +24568,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="68"/>
+      <c r="A74" s="69"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -24502,7 +24579,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="68"/>
+      <c r="A75" s="69"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -24513,7 +24590,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="68"/>
+      <c r="A76" s="69"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -24524,7 +24601,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="68" t="s">
+      <c r="A77" s="69" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -24551,7 +24628,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="68"/>
+      <c r="A78" s="69"/>
       <c r="B78" s="51" t="s">
         <v>457</v>
       </c>
@@ -24577,7 +24654,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="68"/>
+      <c r="A79" s="69"/>
       <c r="B79" s="51" t="s">
         <v>458</v>
       </c>
@@ -24603,7 +24680,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="68"/>
+      <c r="A80" s="69"/>
       <c r="B80" s="51" t="s">
         <v>309</v>
       </c>
@@ -24629,7 +24706,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="68"/>
+      <c r="A81" s="69"/>
       <c r="B81" s="51" t="s">
         <v>459</v>
       </c>
@@ -24655,7 +24732,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="68"/>
+      <c r="A82" s="69"/>
       <c r="B82" s="51" t="s">
         <v>400</v>
       </c>
@@ -24681,7 +24758,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="68"/>
+      <c r="A83" s="69"/>
       <c r="B83" s="51" t="s">
         <v>329</v>
       </c>
@@ -24707,7 +24784,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="68"/>
+      <c r="A84" s="69"/>
       <c r="B84" s="51" t="s">
         <v>401</v>
       </c>
@@ -24733,7 +24810,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="68"/>
+      <c r="A85" s="69"/>
       <c r="B85" s="51" t="s">
         <v>394</v>
       </c>
@@ -24753,7 +24830,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="68"/>
+      <c r="A86" s="69"/>
       <c r="B86" s="51" t="s">
         <v>309</v>
       </c>
@@ -24773,7 +24850,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="68"/>
+      <c r="A87" s="69"/>
       <c r="B87" s="51" t="s">
         <v>385</v>
       </c>
@@ -24792,7 +24869,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="68"/>
+      <c r="A88" s="69"/>
       <c r="B88" s="51" t="s">
         <v>402</v>
       </c>
@@ -24811,7 +24888,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="68"/>
+      <c r="A89" s="69"/>
       <c r="B89" s="51" t="s">
         <v>403</v>
       </c>
@@ -24830,7 +24907,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="68"/>
+      <c r="A90" s="69"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -24841,7 +24918,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="69"/>
+      <c r="A91" s="72"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -24852,7 +24929,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="72" t="s">
+      <c r="A92" s="68" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -24879,7 +24956,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="68"/>
+      <c r="A93" s="69"/>
       <c r="B93" s="51" t="s">
         <v>461</v>
       </c>
@@ -24905,7 +24982,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="68"/>
+      <c r="A94" s="69"/>
       <c r="B94" s="56" t="s">
         <v>309</v>
       </c>
@@ -24931,7 +25008,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="68"/>
+      <c r="A95" s="69"/>
       <c r="B95" s="51" t="s">
         <v>462</v>
       </c>
@@ -24957,7 +25034,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="68"/>
+      <c r="A96" s="69"/>
       <c r="B96" s="51" t="s">
         <v>463</v>
       </c>
@@ -24983,7 +25060,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="68"/>
+      <c r="A97" s="69"/>
       <c r="B97" s="51" t="s">
         <v>464</v>
       </c>
@@ -25009,7 +25086,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="68"/>
+      <c r="A98" s="69"/>
       <c r="B98" s="51" t="s">
         <v>465</v>
       </c>
@@ -25035,7 +25112,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="68"/>
+      <c r="A99" s="69"/>
       <c r="B99" s="51" t="s">
         <v>466</v>
       </c>
@@ -25061,7 +25138,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="68"/>
+      <c r="A100" s="69"/>
       <c r="B100" s="51" t="s">
         <v>421</v>
       </c>
@@ -25081,7 +25158,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="68"/>
+      <c r="A101" s="69"/>
       <c r="B101" s="51" t="s">
         <v>467</v>
       </c>
@@ -25101,7 +25178,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="68"/>
+      <c r="A102" s="69"/>
       <c r="B102" s="51" t="s">
         <v>468</v>
       </c>
@@ -25120,7 +25197,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="68"/>
+      <c r="A103" s="69"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51" t="s">
         <v>296</v>
@@ -25137,7 +25214,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="68"/>
+      <c r="A104" s="69"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51" t="s">
         <v>295</v>
@@ -25154,7 +25231,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="68"/>
+      <c r="A105" s="69"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51" t="s">
         <v>288</v>
@@ -25414,7 +25491,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="72" t="s">
+      <c r="A122" s="68" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51"/>
@@ -25439,7 +25516,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="68"/>
+      <c r="A123" s="69"/>
       <c r="B123" s="51"/>
       <c r="C123" s="51" t="s">
         <v>295</v>
@@ -25463,7 +25540,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="68"/>
+      <c r="A124" s="69"/>
       <c r="B124" s="51"/>
       <c r="C124" s="51" t="s">
         <v>288</v>
@@ -25487,7 +25564,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="68"/>
+      <c r="A125" s="69"/>
       <c r="B125" s="51"/>
       <c r="C125" s="51" t="s">
         <v>295</v>
@@ -25511,7 +25588,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="68"/>
+      <c r="A126" s="69"/>
       <c r="B126" s="58"/>
       <c r="C126" s="51" t="s">
         <v>288</v>
@@ -25607,7 +25684,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="68"/>
+      <c r="A131" s="69"/>
       <c r="B131" s="59"/>
       <c r="C131" s="51"/>
       <c r="D131" s="52"/>
@@ -25616,7 +25693,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="68"/>
+      <c r="A132" s="69"/>
       <c r="B132" s="51"/>
       <c r="C132" s="51"/>
       <c r="D132" s="52"/>
@@ -25624,7 +25701,7 @@
       <c r="F132" s="52"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="68"/>
+      <c r="A133" s="69"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
@@ -25632,7 +25709,7 @@
       <c r="F133" s="52"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="68"/>
+      <c r="A134" s="69"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -25640,7 +25717,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="68"/>
+      <c r="A135" s="69"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -26402,7 +26479,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="69" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -26432,7 +26509,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="68"/>
+      <c r="A3" s="69"/>
       <c r="B3" s="51" t="s">
         <v>470</v>
       </c>
@@ -26461,7 +26538,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="68"/>
+      <c r="A4" s="69"/>
       <c r="B4" s="51" t="s">
         <v>471</v>
       </c>
@@ -26490,7 +26567,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="68"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="51" t="s">
         <v>472</v>
       </c>
@@ -26519,7 +26596,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="68"/>
+      <c r="A6" s="69"/>
       <c r="B6" s="51" t="s">
         <v>329</v>
       </c>
@@ -26548,7 +26625,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="68"/>
+      <c r="A7" s="69"/>
       <c r="B7" t="s">
         <v>473</v>
       </c>
@@ -26577,7 +26654,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="68"/>
+      <c r="A8" s="69"/>
       <c r="B8" s="51" t="s">
         <v>474</v>
       </c>
@@ -26603,7 +26680,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="68"/>
+      <c r="A9" s="69"/>
       <c r="B9" s="51"/>
       <c r="C9" s="51" t="s">
         <v>288</v>
@@ -26623,7 +26700,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="68"/>
+      <c r="A10" s="69"/>
       <c r="B10" s="51"/>
       <c r="C10" s="51" t="s">
         <v>295</v>
@@ -26637,7 +26714,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="68"/>
+      <c r="A11" s="69"/>
       <c r="B11" s="51"/>
       <c r="C11" s="51" t="s">
         <v>288</v>
@@ -26651,7 +26728,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="68"/>
+      <c r="A12" s="69"/>
       <c r="B12" s="51"/>
       <c r="C12" s="51" t="s">
         <v>296</v>
@@ -26664,7 +26741,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="68"/>
+      <c r="A13" s="69"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51" t="s">
         <v>295</v>
@@ -26677,7 +26754,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="68"/>
+      <c r="A14" s="69"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51" t="s">
         <v>288</v>
@@ -26690,7 +26767,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="68"/>
+      <c r="A15" s="69"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51" t="s">
         <v>293</v>
@@ -26703,7 +26780,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="68"/>
+      <c r="A16" s="69"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51" t="s">
         <v>290</v>
@@ -26716,7 +26793,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="68" t="s">
+      <c r="A17" s="69" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -26743,7 +26820,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="68"/>
+      <c r="A18" s="69"/>
       <c r="B18" s="51" t="s">
         <v>476</v>
       </c>
@@ -26769,7 +26846,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="68"/>
+      <c r="A19" s="69"/>
       <c r="B19" s="51" t="s">
         <v>329</v>
       </c>
@@ -26795,7 +26872,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="68"/>
+      <c r="A20" s="69"/>
       <c r="B20" s="51" t="s">
         <v>477</v>
       </c>
@@ -26821,7 +26898,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="68"/>
+      <c r="A21" s="69"/>
       <c r="B21" s="51" t="s">
         <v>309</v>
       </c>
@@ -26847,7 +26924,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="68"/>
+      <c r="A22" s="69"/>
       <c r="B22" s="51" t="s">
         <v>478</v>
       </c>
@@ -26873,7 +26950,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="68"/>
+      <c r="A23" s="69"/>
       <c r="B23" s="51"/>
       <c r="C23" s="51"/>
       <c r="D23" s="52"/>
@@ -26888,7 +26965,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="68"/>
+      <c r="A24" s="69"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
       <c r="D24" s="52"/>
@@ -26903,7 +26980,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="68"/>
+      <c r="A25" s="69"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
       <c r="D25" s="52"/>
@@ -26912,7 +26989,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="68"/>
+      <c r="A26" s="69"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
       <c r="D26" s="52"/>
@@ -26924,7 +27001,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="68"/>
+      <c r="A27" s="69"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
       <c r="D27" s="52"/>
@@ -26935,7 +27012,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="68"/>
+      <c r="A28" s="69"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="52"/>
@@ -26946,7 +27023,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="68"/>
+      <c r="A29" s="69"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="52"/>
@@ -26957,7 +27034,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="68"/>
+      <c r="A30" s="69"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -26968,7 +27045,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="68"/>
+      <c r="A31" s="69"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -26979,7 +27056,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="68" t="s">
+      <c r="A32" s="69" t="s">
         <v>263</v>
       </c>
       <c r="C32" s="51"/>
@@ -26997,7 +27074,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="68"/>
+      <c r="A33" s="69"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
       <c r="D33" s="52"/>
@@ -27015,7 +27092,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="68"/>
+      <c r="A34" s="69"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
       <c r="D34" s="52"/>
@@ -27033,7 +27110,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="68"/>
+      <c r="A35" s="69"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
       <c r="D35" s="52"/>
@@ -27051,7 +27128,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="68"/>
+      <c r="A36" s="69"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
       <c r="D36" s="52"/>
@@ -27069,7 +27146,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="68"/>
+      <c r="A37" s="69"/>
       <c r="B37" s="51" t="s">
         <v>479</v>
       </c>
@@ -27089,7 +27166,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="68"/>
+      <c r="A38" s="69"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
       <c r="D38" s="52"/>
@@ -27107,7 +27184,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="68"/>
+      <c r="A39" s="69"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
       <c r="D39" s="52"/>
@@ -27125,7 +27202,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="68"/>
+      <c r="A40" s="69"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
       <c r="D40" s="52"/>
@@ -27137,7 +27214,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="68"/>
+      <c r="A41" s="69"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
       <c r="D41" s="52"/>
@@ -27149,7 +27226,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="68"/>
+      <c r="A42" s="69"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
       <c r="D42" s="52"/>
@@ -27160,7 +27237,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="68"/>
+      <c r="A43" s="69"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
       <c r="D43" s="52"/>
@@ -27171,7 +27248,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="68"/>
+      <c r="A44" s="69"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
       <c r="D44" s="52"/>
@@ -27182,7 +27259,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="68"/>
+      <c r="A45" s="69"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -27474,7 +27551,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="72" t="s">
+      <c r="A62" s="68" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51"/>
@@ -27493,7 +27570,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="68"/>
+      <c r="A63" s="69"/>
       <c r="B63" s="51"/>
       <c r="C63" s="51"/>
       <c r="D63" s="52"/>
@@ -27510,7 +27587,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="68"/>
+      <c r="A64" s="69"/>
       <c r="B64" s="51"/>
       <c r="C64" s="51"/>
       <c r="D64" s="52"/>
@@ -27528,7 +27605,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="68"/>
+      <c r="A65" s="69"/>
       <c r="B65" s="51"/>
       <c r="C65" s="51"/>
       <c r="D65" s="52"/>
@@ -27546,7 +27623,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="68"/>
+      <c r="A66" s="69"/>
       <c r="B66" s="51"/>
       <c r="C66" s="51"/>
       <c r="D66" s="52"/>
@@ -27564,7 +27641,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="68"/>
+      <c r="A67" s="69"/>
       <c r="B67" s="51"/>
       <c r="C67" s="51"/>
       <c r="D67" s="52"/>
@@ -27582,7 +27659,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="68"/>
+      <c r="A68" s="69"/>
       <c r="B68" s="56" t="s">
         <v>488</v>
       </c>
@@ -27602,7 +27679,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="68"/>
+      <c r="A69" s="69"/>
       <c r="B69" s="51"/>
       <c r="C69" s="51"/>
       <c r="D69" s="52"/>
@@ -27620,7 +27697,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="68"/>
+      <c r="A70" s="69"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51"/>
       <c r="D70" s="52"/>
@@ -27632,7 +27709,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="68"/>
+      <c r="A71" s="69"/>
       <c r="B71" s="51"/>
       <c r="C71" s="51"/>
       <c r="D71" s="52"/>
@@ -27644,7 +27721,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="68"/>
+      <c r="A72" s="69"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -27655,7 +27732,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="68"/>
+      <c r="A73" s="69"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -27666,7 +27743,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="68"/>
+      <c r="A74" s="69"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -27677,7 +27754,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="68"/>
+      <c r="A75" s="69"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -27688,7 +27765,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="68"/>
+      <c r="A76" s="69"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -27699,7 +27776,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="68" t="s">
+      <c r="A77" s="69" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -27720,7 +27797,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="68"/>
+      <c r="A78" s="69"/>
       <c r="B78" s="51"/>
       <c r="C78" s="51"/>
       <c r="D78" s="52"/>
@@ -27738,7 +27815,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="68"/>
+      <c r="A79" s="69"/>
       <c r="B79" s="51"/>
       <c r="C79" s="51"/>
       <c r="D79" s="52"/>
@@ -27756,7 +27833,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="68"/>
+      <c r="A80" s="69"/>
       <c r="B80" s="51"/>
       <c r="C80" s="51"/>
       <c r="D80" s="52"/>
@@ -27774,7 +27851,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="68"/>
+      <c r="A81" s="69"/>
       <c r="B81" s="51"/>
       <c r="C81" s="51"/>
       <c r="D81" s="52"/>
@@ -27792,7 +27869,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="68"/>
+      <c r="A82" s="69"/>
       <c r="B82" s="51"/>
       <c r="C82" s="51"/>
       <c r="D82" s="52"/>
@@ -27810,7 +27887,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="68"/>
+      <c r="A83" s="69"/>
       <c r="B83" s="51"/>
       <c r="C83" s="51"/>
       <c r="D83" s="52"/>
@@ -27828,7 +27905,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="68"/>
+      <c r="A84" s="69"/>
       <c r="B84" s="51"/>
       <c r="C84" s="51"/>
       <c r="D84" s="52"/>
@@ -27846,7 +27923,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="68"/>
+      <c r="A85" s="69"/>
       <c r="B85" s="51"/>
       <c r="C85" s="51"/>
       <c r="D85" s="52"/>
@@ -27858,7 +27935,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="68"/>
+      <c r="A86" s="69"/>
       <c r="B86" s="51"/>
       <c r="C86" s="51"/>
       <c r="D86" s="52"/>
@@ -27870,7 +27947,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="68"/>
+      <c r="A87" s="69"/>
       <c r="B87" s="51"/>
       <c r="C87" s="51"/>
       <c r="D87" s="52"/>
@@ -27881,7 +27958,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="68"/>
+      <c r="A88" s="69"/>
       <c r="B88" s="51"/>
       <c r="C88" s="51"/>
       <c r="D88" s="52"/>
@@ -27892,7 +27969,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="68"/>
+      <c r="A89" s="69"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="52"/>
@@ -27903,7 +27980,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="68"/>
+      <c r="A90" s="69"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -27914,7 +27991,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="69"/>
+      <c r="A91" s="72"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -27925,7 +28002,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="72" t="s">
+      <c r="A92" s="68" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -27952,7 +28029,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="68"/>
+      <c r="A93" s="69"/>
       <c r="B93" s="51" t="s">
         <v>491</v>
       </c>
@@ -27978,7 +28055,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="68"/>
+      <c r="A94" s="69"/>
       <c r="B94" s="56" t="s">
         <v>492</v>
       </c>
@@ -28004,7 +28081,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="68"/>
+      <c r="A95" s="69"/>
       <c r="B95" s="51"/>
       <c r="C95" s="51" t="s">
         <v>293</v>
@@ -28028,7 +28105,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="68"/>
+      <c r="A96" s="69"/>
       <c r="B96" s="51"/>
       <c r="C96" s="51" t="s">
         <v>295</v>
@@ -28052,7 +28129,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="68"/>
+      <c r="A97" s="69"/>
       <c r="B97" s="51"/>
       <c r="C97" s="51" t="s">
         <v>288</v>
@@ -28076,7 +28153,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="68"/>
+      <c r="A98" s="69"/>
       <c r="B98" s="51"/>
       <c r="C98" s="51" t="s">
         <v>285</v>
@@ -28100,7 +28177,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="68"/>
+      <c r="A99" s="69"/>
       <c r="B99" s="51"/>
       <c r="C99" s="51" t="s">
         <v>290</v>
@@ -28124,7 +28201,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="68"/>
+      <c r="A100" s="69"/>
       <c r="B100" s="51"/>
       <c r="C100" s="51" t="s">
         <v>288</v>
@@ -28142,7 +28219,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="68"/>
+      <c r="A101" s="69"/>
       <c r="B101" s="51"/>
       <c r="C101" s="51" t="s">
         <v>295</v>
@@ -28160,7 +28237,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="68"/>
+      <c r="A102" s="69"/>
       <c r="B102" s="51"/>
       <c r="C102" s="51" t="s">
         <v>288</v>
@@ -28177,7 +28254,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="68"/>
+      <c r="A103" s="69"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51" t="s">
         <v>296</v>
@@ -28194,7 +28271,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="68"/>
+      <c r="A104" s="69"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51" t="s">
         <v>295</v>
@@ -28211,7 +28288,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="68"/>
+      <c r="A105" s="69"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51" t="s">
         <v>288</v>
@@ -28471,7 +28548,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="72" t="s">
+      <c r="A122" s="68" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51" t="s">
@@ -28498,7 +28575,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="68"/>
+      <c r="A123" s="69"/>
       <c r="B123" s="51" t="s">
         <v>494</v>
       </c>
@@ -28524,7 +28601,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="68"/>
+      <c r="A124" s="69"/>
       <c r="B124" s="51" t="s">
         <v>495</v>
       </c>
@@ -28550,7 +28627,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="68"/>
+      <c r="A125" s="69"/>
       <c r="B125" s="51" t="s">
         <v>496</v>
       </c>
@@ -28576,7 +28653,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="68"/>
+      <c r="A126" s="69"/>
       <c r="B126" s="58" t="s">
         <v>497</v>
       </c>
@@ -28698,7 +28775,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="68"/>
+      <c r="A131" s="69"/>
       <c r="B131" s="59" t="s">
         <v>502</v>
       </c>
@@ -28717,7 +28794,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="68"/>
+      <c r="A132" s="69"/>
       <c r="B132" s="51" t="s">
         <v>503</v>
       </c>
@@ -28735,7 +28812,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="68"/>
+      <c r="A133" s="69"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
@@ -28743,7 +28820,7 @@
       <c r="F133" s="52"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="68"/>
+      <c r="A134" s="69"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -28751,7 +28828,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="68"/>
+      <c r="A135" s="69"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -29171,7 +29248,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="69" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51"/>
@@ -29195,7 +29272,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="68"/>
+      <c r="A3" s="69"/>
       <c r="B3" s="51"/>
       <c r="C3" s="51" t="s">
         <v>288</v>
@@ -29218,7 +29295,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="68"/>
+      <c r="A4" s="69"/>
       <c r="B4" s="51"/>
       <c r="C4" s="51" t="s">
         <v>285</v>
@@ -29241,7 +29318,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="68"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="51"/>
       <c r="C5" s="51" t="s">
         <v>295</v>
@@ -29264,7 +29341,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="68"/>
+      <c r="A6" s="69"/>
       <c r="B6" s="51"/>
       <c r="C6" s="51" t="s">
         <v>285</v>
@@ -29287,7 +29364,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="68"/>
+      <c r="A7" s="69"/>
       <c r="C7" s="51" t="s">
         <v>288</v>
       </c>
@@ -29309,7 +29386,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="68"/>
+      <c r="A8" s="69"/>
       <c r="B8" s="51"/>
       <c r="C8" s="51" t="s">
         <v>288</v>
@@ -29329,7 +29406,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="68"/>
+      <c r="A9" s="69"/>
       <c r="B9" s="51" t="s">
         <v>388</v>
       </c>
@@ -29351,7 +29428,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="68"/>
+      <c r="A10" s="69"/>
       <c r="B10" s="51"/>
       <c r="C10" s="51" t="s">
         <v>295</v>
@@ -29365,7 +29442,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="68"/>
+      <c r="A11" s="69"/>
       <c r="B11" s="51"/>
       <c r="C11" s="51" t="s">
         <v>288</v>
@@ -29379,7 +29456,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="68"/>
+      <c r="A12" s="69"/>
       <c r="B12" s="51"/>
       <c r="C12" s="51" t="s">
         <v>296</v>
@@ -29392,7 +29469,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="68"/>
+      <c r="A13" s="69"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51" t="s">
         <v>295</v>
@@ -29405,7 +29482,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="68"/>
+      <c r="A14" s="69"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51" t="s">
         <v>288</v>
@@ -29418,7 +29495,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="68"/>
+      <c r="A15" s="69"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51" t="s">
         <v>293</v>
@@ -29431,7 +29508,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="68"/>
+      <c r="A16" s="69"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51" t="s">
         <v>290</v>
@@ -29444,7 +29521,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="68" t="s">
+      <c r="A17" s="69" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -29471,7 +29548,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="68"/>
+      <c r="A18" s="69"/>
       <c r="B18" s="51" t="s">
         <v>510</v>
       </c>
@@ -29497,7 +29574,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="68"/>
+      <c r="A19" s="69"/>
       <c r="B19" s="51" t="s">
         <v>329</v>
       </c>
@@ -29523,7 +29600,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="68"/>
+      <c r="A20" s="69"/>
       <c r="B20" s="51" t="s">
         <v>477</v>
       </c>
@@ -29549,7 +29626,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="68"/>
+      <c r="A21" s="69"/>
       <c r="B21" s="51" t="s">
         <v>511</v>
       </c>
@@ -29575,7 +29652,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="68"/>
+      <c r="A22" s="69"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
       <c r="D22" s="52"/>
@@ -29593,7 +29670,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="68"/>
+      <c r="A23" s="69"/>
       <c r="B23" s="51"/>
       <c r="C23" s="51"/>
       <c r="D23" s="52"/>
@@ -29608,7 +29685,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="68"/>
+      <c r="A24" s="69"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
       <c r="D24" s="52"/>
@@ -29623,7 +29700,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="68"/>
+      <c r="A25" s="69"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
       <c r="D25" s="52"/>
@@ -29632,7 +29709,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="68"/>
+      <c r="A26" s="69"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
       <c r="D26" s="52"/>
@@ -29644,7 +29721,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="68"/>
+      <c r="A27" s="69"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
       <c r="D27" s="52"/>
@@ -29655,7 +29732,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="68"/>
+      <c r="A28" s="69"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="52"/>
@@ -29666,7 +29743,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="68"/>
+      <c r="A29" s="69"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="52"/>
@@ -29677,7 +29754,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="68"/>
+      <c r="A30" s="69"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -29688,7 +29765,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="68"/>
+      <c r="A31" s="69"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -29699,7 +29776,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="68" t="s">
+      <c r="A32" s="69" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -29720,7 +29797,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="68"/>
+      <c r="A33" s="69"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
       <c r="D33" s="52"/>
@@ -29738,7 +29815,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="68"/>
+      <c r="A34" s="69"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
       <c r="D34" s="52"/>
@@ -29756,7 +29833,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="68"/>
+      <c r="A35" s="69"/>
       <c r="B35" s="51" t="s">
         <v>513</v>
       </c>
@@ -29782,7 +29859,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="68"/>
+      <c r="A36" s="69"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
       <c r="D36" s="52"/>
@@ -29800,7 +29877,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="68"/>
+      <c r="A37" s="69"/>
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
       <c r="D37" s="52"/>
@@ -29818,7 +29895,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="68"/>
+      <c r="A38" s="69"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
       <c r="D38" s="52"/>
@@ -29836,7 +29913,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="68"/>
+      <c r="A39" s="69"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
       <c r="D39" s="52"/>
@@ -29854,7 +29931,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="68"/>
+      <c r="A40" s="69"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
       <c r="D40" s="52"/>
@@ -29866,7 +29943,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="68"/>
+      <c r="A41" s="69"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
       <c r="D41" s="52"/>
@@ -29878,7 +29955,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="68"/>
+      <c r="A42" s="69"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
       <c r="D42" s="52"/>
@@ -29889,7 +29966,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="68"/>
+      <c r="A43" s="69"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
       <c r="D43" s="52"/>
@@ -29900,7 +29977,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="68"/>
+      <c r="A44" s="69"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
       <c r="D44" s="52"/>
@@ -29911,7 +29988,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="68"/>
+      <c r="A45" s="69"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -30171,7 +30248,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="72" t="s">
+      <c r="A62" s="68" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51"/>
@@ -30190,7 +30267,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="68"/>
+      <c r="A63" s="69"/>
       <c r="B63" s="51"/>
       <c r="C63" s="51"/>
       <c r="D63" s="52"/>
@@ -30207,7 +30284,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="68"/>
+      <c r="A64" s="69"/>
       <c r="B64" s="51"/>
       <c r="C64" s="51"/>
       <c r="D64" s="52"/>
@@ -30225,7 +30302,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="68"/>
+      <c r="A65" s="69"/>
       <c r="B65" s="51"/>
       <c r="C65" s="51"/>
       <c r="D65" s="52"/>
@@ -30243,7 +30320,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="68"/>
+      <c r="A66" s="69"/>
       <c r="B66" s="51"/>
       <c r="C66" s="51"/>
       <c r="D66" s="52"/>
@@ -30261,7 +30338,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="68"/>
+      <c r="A67" s="69"/>
       <c r="B67" s="51"/>
       <c r="C67" s="51"/>
       <c r="D67" s="52"/>
@@ -30279,7 +30356,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="68"/>
+      <c r="A68" s="69"/>
       <c r="B68" s="56" t="s">
         <v>520</v>
       </c>
@@ -30299,7 +30376,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="68"/>
+      <c r="A69" s="69"/>
       <c r="B69" s="51"/>
       <c r="C69" s="51"/>
       <c r="D69" s="52"/>
@@ -30317,7 +30394,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="68"/>
+      <c r="A70" s="69"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51"/>
       <c r="D70" s="52"/>
@@ -30329,7 +30406,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="68"/>
+      <c r="A71" s="69"/>
       <c r="B71" s="51"/>
       <c r="C71" s="51"/>
       <c r="D71" s="52"/>
@@ -30341,7 +30418,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="68"/>
+      <c r="A72" s="69"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -30352,7 +30429,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="68"/>
+      <c r="A73" s="69"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -30363,7 +30440,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="68"/>
+      <c r="A74" s="69"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -30374,7 +30451,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="68"/>
+      <c r="A75" s="69"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -30385,7 +30462,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="68"/>
+      <c r="A76" s="69"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -30396,7 +30473,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="68" t="s">
+      <c r="A77" s="69" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -30423,7 +30500,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="68"/>
+      <c r="A78" s="69"/>
       <c r="B78" s="56" t="s">
         <v>522</v>
       </c>
@@ -30449,7 +30526,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="68"/>
+      <c r="A79" s="69"/>
       <c r="B79" s="51" t="s">
         <v>523</v>
       </c>
@@ -30475,7 +30552,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="68"/>
+      <c r="A80" s="69"/>
       <c r="B80" s="51" t="s">
         <v>524</v>
       </c>
@@ -30501,7 +30578,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="68"/>
+      <c r="A81" s="69"/>
       <c r="B81" s="51" t="s">
         <v>525</v>
       </c>
@@ -30527,7 +30604,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="68"/>
+      <c r="A82" s="69"/>
       <c r="B82" s="51" t="s">
         <v>329</v>
       </c>
@@ -30553,7 +30630,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="68"/>
+      <c r="A83" s="69"/>
       <c r="B83" s="56" t="s">
         <v>526</v>
       </c>
@@ -30579,7 +30656,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="68"/>
+      <c r="A84" s="69"/>
       <c r="B84" s="51"/>
       <c r="C84" s="51"/>
       <c r="D84" s="52"/>
@@ -30597,7 +30674,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="68"/>
+      <c r="A85" s="69"/>
       <c r="B85" s="51"/>
       <c r="C85" s="51"/>
       <c r="D85" s="52"/>
@@ -30609,7 +30686,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="68"/>
+      <c r="A86" s="69"/>
       <c r="B86" s="51"/>
       <c r="C86" s="51"/>
       <c r="D86" s="52"/>
@@ -30621,7 +30698,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="68"/>
+      <c r="A87" s="69"/>
       <c r="B87" s="51"/>
       <c r="C87" s="51"/>
       <c r="D87" s="52"/>
@@ -30632,7 +30709,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="68"/>
+      <c r="A88" s="69"/>
       <c r="B88" s="51"/>
       <c r="C88" s="51"/>
       <c r="D88" s="52"/>
@@ -30643,7 +30720,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="68"/>
+      <c r="A89" s="69"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="52"/>
@@ -30654,7 +30731,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="68"/>
+      <c r="A90" s="69"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -30665,7 +30742,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="69"/>
+      <c r="A91" s="72"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -30676,7 +30753,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="72" t="s">
+      <c r="A92" s="68" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51"/>
@@ -30701,7 +30778,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="68"/>
+      <c r="A93" s="69"/>
       <c r="B93" s="51"/>
       <c r="C93" s="51" t="s">
         <v>288</v>
@@ -30725,7 +30802,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="68"/>
+      <c r="A94" s="69"/>
       <c r="B94" s="56"/>
       <c r="C94" s="51" t="s">
         <v>288</v>
@@ -30749,7 +30826,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="68"/>
+      <c r="A95" s="69"/>
       <c r="B95" s="51"/>
       <c r="C95" s="51" t="s">
         <v>293</v>
@@ -30773,7 +30850,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="68"/>
+      <c r="A96" s="69"/>
       <c r="B96" s="51"/>
       <c r="C96" s="51" t="s">
         <v>295</v>
@@ -30797,7 +30874,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="68"/>
+      <c r="A97" s="69"/>
       <c r="B97" s="51"/>
       <c r="C97" s="51" t="s">
         <v>288</v>
@@ -30821,7 +30898,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="68"/>
+      <c r="A98" s="69"/>
       <c r="B98" s="51"/>
       <c r="C98" s="51" t="s">
         <v>285</v>
@@ -30845,7 +30922,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="68"/>
+      <c r="A99" s="69"/>
       <c r="B99" s="51" t="s">
         <v>388</v>
       </c>
@@ -30871,7 +30948,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="68"/>
+      <c r="A100" s="69"/>
       <c r="B100" s="51"/>
       <c r="C100" s="51" t="s">
         <v>288</v>
@@ -30889,7 +30966,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="68"/>
+      <c r="A101" s="69"/>
       <c r="B101" s="51"/>
       <c r="C101" s="51" t="s">
         <v>295</v>
@@ -30907,7 +30984,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="68"/>
+      <c r="A102" s="69"/>
       <c r="B102" s="51"/>
       <c r="C102" s="51" t="s">
         <v>288</v>
@@ -30924,7 +31001,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="68"/>
+      <c r="A103" s="69"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51" t="s">
         <v>296</v>
@@ -30941,7 +31018,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="68"/>
+      <c r="A104" s="69"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51" t="s">
         <v>295</v>
@@ -30958,7 +31035,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="68"/>
+      <c r="A105" s="69"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51" t="s">
         <v>288</v>
@@ -31218,7 +31295,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="72" t="s">
+      <c r="A122" s="68" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51" t="s">
@@ -31245,7 +31322,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="68"/>
+      <c r="A123" s="69"/>
       <c r="B123" s="51" t="s">
         <v>529</v>
       </c>
@@ -31271,7 +31348,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="68"/>
+      <c r="A124" s="69"/>
       <c r="B124" s="51" t="s">
         <v>530</v>
       </c>
@@ -31297,7 +31374,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="68"/>
+      <c r="A125" s="69"/>
       <c r="B125" s="51" t="s">
         <v>313</v>
       </c>
@@ -31323,7 +31400,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="68"/>
+      <c r="A126" s="69"/>
       <c r="B126" s="58" t="s">
         <v>531</v>
       </c>
@@ -31445,7 +31522,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="68"/>
+      <c r="A131" s="69"/>
       <c r="B131" s="59"/>
       <c r="C131" s="51"/>
       <c r="D131" s="52"/>
@@ -31454,7 +31531,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="68"/>
+      <c r="A132" s="69"/>
       <c r="B132" s="51"/>
       <c r="C132" s="51"/>
       <c r="D132" s="52"/>
@@ -31462,7 +31539,7 @@
       <c r="F132" s="52"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="68"/>
+      <c r="A133" s="69"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
@@ -31470,7 +31547,7 @@
       <c r="F133" s="52"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="68"/>
+      <c r="A134" s="69"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -31478,7 +31555,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="68"/>
+      <c r="A135" s="69"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -31906,7 +31983,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="69" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -31936,7 +32013,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="68"/>
+      <c r="A3" s="69"/>
       <c r="B3" s="51" t="s">
         <v>545</v>
       </c>
@@ -31965,7 +32042,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="68"/>
+      <c r="A4" s="69"/>
       <c r="B4" s="51" t="s">
         <v>546</v>
       </c>
@@ -31994,7 +32071,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="68"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="51" t="s">
         <v>547</v>
       </c>
@@ -32023,7 +32100,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="68"/>
+      <c r="A6" s="69"/>
       <c r="B6" s="51" t="s">
         <v>342</v>
       </c>
@@ -32052,7 +32129,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="68"/>
+      <c r="A7" s="69"/>
       <c r="C7" s="51" t="s">
         <v>288</v>
       </c>
@@ -32074,7 +32151,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="68"/>
+      <c r="A8" s="69"/>
       <c r="B8" s="51" t="s">
         <v>465</v>
       </c>
@@ -32100,7 +32177,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="68"/>
+      <c r="A9" s="69"/>
       <c r="B9" s="51"/>
       <c r="C9" s="51" t="s">
         <v>288</v>
@@ -32120,7 +32197,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="68"/>
+      <c r="A10" s="69"/>
       <c r="B10" s="51" t="s">
         <v>548</v>
       </c>
@@ -32140,7 +32217,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="68"/>
+      <c r="A11" s="69"/>
       <c r="B11" s="51"/>
       <c r="C11" s="51" t="s">
         <v>288</v>
@@ -32154,7 +32231,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="68"/>
+      <c r="A12" s="69"/>
       <c r="B12" s="51"/>
       <c r="C12" s="51" t="s">
         <v>296</v>
@@ -32167,7 +32244,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="68"/>
+      <c r="A13" s="69"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51" t="s">
         <v>295</v>
@@ -32180,7 +32257,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="68"/>
+      <c r="A14" s="69"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51" t="s">
         <v>288</v>
@@ -32193,7 +32270,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="68"/>
+      <c r="A15" s="69"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51" t="s">
         <v>293</v>
@@ -32206,7 +32283,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="68"/>
+      <c r="A16" s="69"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51" t="s">
         <v>290</v>
@@ -32219,7 +32296,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="68" t="s">
+      <c r="A17" s="69" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -32246,7 +32323,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="68"/>
+      <c r="A18" s="69"/>
       <c r="B18" s="51" t="s">
         <v>549</v>
       </c>
@@ -32272,7 +32349,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="68"/>
+      <c r="A19" s="69"/>
       <c r="B19" s="51" t="s">
         <v>329</v>
       </c>
@@ -32298,7 +32375,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="68"/>
+      <c r="A20" s="69"/>
       <c r="B20" s="51" t="s">
         <v>550</v>
       </c>
@@ -32324,7 +32401,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="68"/>
+      <c r="A21" s="69"/>
       <c r="B21" s="51" t="s">
         <v>550</v>
       </c>
@@ -32350,7 +32427,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="68"/>
+      <c r="A22" s="69"/>
       <c r="B22" s="58" t="s">
         <v>551</v>
       </c>
@@ -32394,7 +32471,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="68"/>
+      <c r="A24" s="69"/>
       <c r="B24" s="59"/>
       <c r="C24" s="59"/>
       <c r="D24" s="63"/>
@@ -32412,7 +32489,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="68"/>
+      <c r="A25" s="69"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
       <c r="D25" s="52"/>
@@ -32424,7 +32501,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="68"/>
+      <c r="A26" s="69"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
       <c r="D26" s="52"/>
@@ -32436,7 +32513,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="68"/>
+      <c r="A27" s="69"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
       <c r="D27" s="52"/>
@@ -32447,7 +32524,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="68"/>
+      <c r="A28" s="69"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="52"/>
@@ -32458,7 +32535,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="68"/>
+      <c r="A29" s="69"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="52"/>
@@ -32469,7 +32546,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="68"/>
+      <c r="A30" s="69"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -32480,7 +32557,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="68"/>
+      <c r="A31" s="69"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -32491,7 +32568,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="68" t="s">
+      <c r="A32" s="69" t="s">
         <v>263</v>
       </c>
       <c r="C32" s="51"/>
@@ -32509,7 +32586,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="68"/>
+      <c r="A33" s="69"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
       <c r="D33" s="52"/>
@@ -32527,7 +32604,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="68"/>
+      <c r="A34" s="69"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
       <c r="D34" s="52"/>
@@ -32545,7 +32622,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="68"/>
+      <c r="A35" s="69"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
       <c r="D35" s="52"/>
@@ -32563,7 +32640,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="68"/>
+      <c r="A36" s="69"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
       <c r="D36" s="52"/>
@@ -32581,7 +32658,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="68"/>
+      <c r="A37" s="69"/>
       <c r="B37" s="51" t="s">
         <v>73</v>
       </c>
@@ -32601,7 +32678,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="68"/>
+      <c r="A38" s="69"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
       <c r="D38" s="52"/>
@@ -32619,7 +32696,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="68"/>
+      <c r="A39" s="69"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
       <c r="D39" s="52"/>
@@ -32637,7 +32714,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="68"/>
+      <c r="A40" s="69"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
       <c r="D40" s="52"/>
@@ -32649,7 +32726,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="68"/>
+      <c r="A41" s="69"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
       <c r="D41" s="52"/>
@@ -32661,7 +32738,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="68"/>
+      <c r="A42" s="69"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
       <c r="D42" s="52"/>
@@ -32672,7 +32749,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="68"/>
+      <c r="A43" s="69"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
       <c r="D43" s="52"/>
@@ -32683,7 +32760,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="68"/>
+      <c r="A44" s="69"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
       <c r="D44" s="52"/>
@@ -32694,7 +32771,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="68"/>
+      <c r="A45" s="69"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -33013,7 +33090,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="72" t="s">
+      <c r="A62" s="68" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -33040,7 +33117,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="68"/>
+      <c r="A63" s="69"/>
       <c r="B63" s="51" t="s">
         <v>575</v>
       </c>
@@ -33066,7 +33143,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="68"/>
+      <c r="A64" s="69"/>
       <c r="B64" s="51" t="s">
         <v>576</v>
       </c>
@@ -33092,7 +33169,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="68"/>
+      <c r="A65" s="69"/>
       <c r="B65" s="51" t="s">
         <v>309</v>
       </c>
@@ -33118,7 +33195,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="68"/>
+      <c r="A66" s="69"/>
       <c r="B66" s="51" t="s">
         <v>551</v>
       </c>
@@ -33144,7 +33221,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="68"/>
+      <c r="A67" s="69"/>
       <c r="B67" s="51" t="s">
         <v>577</v>
       </c>
@@ -33170,7 +33247,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="68"/>
+      <c r="A68" s="69"/>
       <c r="B68" s="56"/>
       <c r="C68" s="51"/>
       <c r="D68" s="52"/>
@@ -33188,7 +33265,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="68"/>
+      <c r="A69" s="69"/>
       <c r="B69" s="51"/>
       <c r="C69" s="51"/>
       <c r="D69" s="52"/>
@@ -33206,7 +33283,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="68"/>
+      <c r="A70" s="69"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51"/>
       <c r="D70" s="52"/>
@@ -33218,7 +33295,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="68"/>
+      <c r="A71" s="69"/>
       <c r="B71" s="51"/>
       <c r="C71" s="51"/>
       <c r="D71" s="52"/>
@@ -33230,7 +33307,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="68"/>
+      <c r="A72" s="69"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -33241,7 +33318,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="68"/>
+      <c r="A73" s="69"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -33252,7 +33329,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="68"/>
+      <c r="A74" s="69"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -33263,7 +33340,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="68"/>
+      <c r="A75" s="69"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -33274,7 +33351,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="68"/>
+      <c r="A76" s="69"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -33285,7 +33362,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="68" t="s">
+      <c r="A77" s="69" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -33312,7 +33389,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="68"/>
+      <c r="A78" s="69"/>
       <c r="B78" s="51" t="s">
         <v>579</v>
       </c>
@@ -33338,7 +33415,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="68"/>
+      <c r="A79" s="69"/>
       <c r="B79" s="51" t="s">
         <v>580</v>
       </c>
@@ -33364,7 +33441,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="68"/>
+      <c r="A80" s="69"/>
       <c r="B80" s="51" t="s">
         <v>581</v>
       </c>
@@ -33390,7 +33467,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="68"/>
+      <c r="A81" s="69"/>
       <c r="B81" s="51" t="s">
         <v>582</v>
       </c>
@@ -33416,7 +33493,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="68"/>
+      <c r="A82" s="69"/>
       <c r="B82" s="51" t="s">
         <v>583</v>
       </c>
@@ -33442,7 +33519,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="68"/>
+      <c r="A83" s="69"/>
       <c r="B83" s="51" t="s">
         <v>584</v>
       </c>
@@ -33468,7 +33545,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="68"/>
+      <c r="A84" s="69"/>
       <c r="B84" s="51" t="s">
         <v>585</v>
       </c>
@@ -33494,7 +33571,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="68"/>
+      <c r="A85" s="69"/>
       <c r="B85" s="51" t="s">
         <v>586</v>
       </c>
@@ -33514,7 +33591,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="68"/>
+      <c r="A86" s="69"/>
       <c r="B86" s="51" t="s">
         <v>551</v>
       </c>
@@ -33534,7 +33611,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="68"/>
+      <c r="A87" s="69"/>
       <c r="B87" s="51" t="s">
         <v>587</v>
       </c>
@@ -33553,7 +33630,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="68"/>
+      <c r="A88" s="69"/>
       <c r="B88" s="51" t="s">
         <v>588</v>
       </c>
@@ -33572,7 +33649,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="68"/>
+      <c r="A89" s="69"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="52"/>
@@ -33583,7 +33660,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="68"/>
+      <c r="A90" s="69"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -33594,7 +33671,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="69"/>
+      <c r="A91" s="72"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -33605,7 +33682,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="72" t="s">
+      <c r="A92" s="68" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -33632,7 +33709,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="68"/>
+      <c r="A93" s="69"/>
       <c r="B93" s="51" t="s">
         <v>589</v>
       </c>
@@ -33658,7 +33735,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="68"/>
+      <c r="A94" s="69"/>
       <c r="B94" s="56" t="s">
         <v>590</v>
       </c>
@@ -33684,7 +33761,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="68"/>
+      <c r="A95" s="69"/>
       <c r="B95" s="51" t="s">
         <v>591</v>
       </c>
@@ -33710,7 +33787,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="68"/>
+      <c r="A96" s="69"/>
       <c r="B96" s="51" t="s">
         <v>465</v>
       </c>
@@ -33736,7 +33813,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="68"/>
+      <c r="A97" s="69"/>
       <c r="B97" s="51" t="s">
         <v>592</v>
       </c>
@@ -33762,7 +33839,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="68"/>
+      <c r="A98" s="69"/>
       <c r="B98" s="51" t="s">
         <v>593</v>
       </c>
@@ -33788,7 +33865,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="68"/>
+      <c r="A99" s="69"/>
       <c r="B99" s="51" t="s">
         <v>309</v>
       </c>
@@ -33814,7 +33891,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="68"/>
+      <c r="A100" s="69"/>
       <c r="B100" s="51" t="s">
         <v>594</v>
       </c>
@@ -33834,7 +33911,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="68"/>
+      <c r="A101" s="69"/>
       <c r="B101" s="51" t="s">
         <v>595</v>
       </c>
@@ -33854,7 +33931,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="68"/>
+      <c r="A102" s="69"/>
       <c r="B102" s="51"/>
       <c r="C102" s="51" t="s">
         <v>288</v>
@@ -33871,7 +33948,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="68"/>
+      <c r="A103" s="69"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51" t="s">
         <v>296</v>
@@ -33888,7 +33965,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="68"/>
+      <c r="A104" s="69"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51" t="s">
         <v>295</v>
@@ -33905,7 +33982,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="68"/>
+      <c r="A105" s="69"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51" t="s">
         <v>288</v>
@@ -34163,7 +34240,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="72" t="s">
+      <c r="A122" s="68" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51"/>
@@ -34182,7 +34259,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="68"/>
+      <c r="A123" s="69"/>
       <c r="B123" s="51"/>
       <c r="C123" s="51"/>
       <c r="D123" s="52"/>
@@ -34200,7 +34277,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="68"/>
+      <c r="A124" s="69"/>
       <c r="B124" s="51"/>
       <c r="C124" s="51"/>
       <c r="D124" s="52"/>
@@ -34218,7 +34295,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="68"/>
+      <c r="A125" s="69"/>
       <c r="B125" s="51"/>
       <c r="C125" s="51"/>
       <c r="D125" s="52"/>
@@ -34236,7 +34313,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="68"/>
+      <c r="A126" s="69"/>
       <c r="B126" s="58"/>
       <c r="C126" s="51"/>
       <c r="D126" s="52"/>
@@ -34316,7 +34393,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="68"/>
+      <c r="A131" s="69"/>
       <c r="B131" s="59"/>
       <c r="C131" s="51"/>
       <c r="D131" s="52"/>
@@ -34325,7 +34402,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="68"/>
+      <c r="A132" s="69"/>
       <c r="B132" s="51"/>
       <c r="C132" s="51"/>
       <c r="D132" s="52"/>
@@ -34333,7 +34410,7 @@
       <c r="F132" s="52"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="68"/>
+      <c r="A133" s="69"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
@@ -34341,7 +34418,7 @@
       <c r="F133" s="52"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="68"/>
+      <c r="A134" s="69"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -34349,7 +34426,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="68"/>
+      <c r="A135" s="69"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -34783,7 +34860,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="69" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -34813,7 +34890,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="68"/>
+      <c r="A3" s="69"/>
       <c r="B3" s="51" t="s">
         <v>604</v>
       </c>
@@ -34842,7 +34919,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="68"/>
+      <c r="A4" s="69"/>
       <c r="B4" s="51" t="s">
         <v>605</v>
       </c>
@@ -34871,7 +34948,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="68"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="51" t="s">
         <v>309</v>
       </c>
@@ -34900,7 +34977,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="68"/>
+      <c r="A6" s="69"/>
       <c r="B6" s="51" t="s">
         <v>606</v>
       </c>
@@ -34929,7 +35006,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="68"/>
+      <c r="A7" s="69"/>
       <c r="B7" t="s">
         <v>607</v>
       </c>
@@ -34958,7 +35035,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="68"/>
+      <c r="A8" s="69"/>
       <c r="B8" s="51" t="s">
         <v>608</v>
       </c>
@@ -34984,7 +35061,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="68"/>
+      <c r="A9" s="69"/>
       <c r="B9" s="51" t="s">
         <v>329</v>
       </c>
@@ -35010,7 +35087,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="68"/>
+      <c r="A10" s="69"/>
       <c r="B10" s="51" t="s">
         <v>608</v>
       </c>
@@ -35030,7 +35107,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="68"/>
+      <c r="A11" s="69"/>
       <c r="B11" s="51" t="s">
         <v>609</v>
       </c>
@@ -35050,7 +35127,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="68"/>
+      <c r="A12" s="69"/>
       <c r="B12" s="51" t="s">
         <v>610</v>
       </c>
@@ -35069,7 +35146,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="68"/>
+      <c r="A13" s="69"/>
       <c r="B13" s="51" t="s">
         <v>309</v>
       </c>
@@ -35088,7 +35165,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="68"/>
+      <c r="A14" s="69"/>
       <c r="B14" s="51" t="s">
         <v>611</v>
       </c>
@@ -35107,7 +35184,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="68"/>
+      <c r="A15" s="69"/>
       <c r="B15" s="51" t="s">
         <v>612</v>
       </c>
@@ -35126,7 +35203,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="68"/>
+      <c r="A16" s="69"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51" t="s">
         <v>290</v>
@@ -35139,7 +35216,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="68" t="s">
+      <c r="A17" s="69" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -35166,7 +35243,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="68"/>
+      <c r="A18" s="69"/>
       <c r="B18" s="51" t="s">
         <v>614</v>
       </c>
@@ -35192,7 +35269,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="68"/>
+      <c r="A19" s="69"/>
       <c r="B19" s="51" t="s">
         <v>309</v>
       </c>
@@ -35218,7 +35295,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="68"/>
+      <c r="A20" s="69"/>
       <c r="B20" s="51" t="s">
         <v>615</v>
       </c>
@@ -35244,7 +35321,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="68"/>
+      <c r="A21" s="69"/>
       <c r="B21" s="51" t="s">
         <v>616</v>
       </c>
@@ -35270,7 +35347,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="68"/>
+      <c r="A22" s="69"/>
       <c r="B22" s="51" t="s">
         <v>329</v>
       </c>
@@ -35296,7 +35373,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="68"/>
+      <c r="A23" s="69"/>
       <c r="B23" s="51" t="s">
         <v>617</v>
       </c>
@@ -35322,7 +35399,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="68"/>
+      <c r="A24" s="69"/>
       <c r="B24" s="51" t="s">
         <v>618</v>
       </c>
@@ -35348,7 +35425,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="68"/>
+      <c r="A25" s="69"/>
       <c r="B25" s="51" t="s">
         <v>309</v>
       </c>
@@ -35368,7 +35445,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="68"/>
+      <c r="A26" s="69"/>
       <c r="B26" s="51" t="s">
         <v>617</v>
       </c>
@@ -35388,7 +35465,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="68"/>
+      <c r="A27" s="69"/>
       <c r="B27" s="51" t="s">
         <v>619</v>
       </c>
@@ -35407,7 +35484,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="68"/>
+      <c r="A28" s="69"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="52"/>
@@ -35418,7 +35495,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="68"/>
+      <c r="A29" s="69"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="52"/>
@@ -35429,7 +35506,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="68"/>
+      <c r="A30" s="69"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -35440,7 +35517,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="68"/>
+      <c r="A31" s="69"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -35451,7 +35528,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="68" t="s">
+      <c r="A32" s="69" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -35478,7 +35555,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="68"/>
+      <c r="A33" s="69"/>
       <c r="B33" s="51" t="s">
         <v>620</v>
       </c>
@@ -35504,7 +35581,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="68"/>
+      <c r="A34" s="69"/>
       <c r="B34" s="51" t="s">
         <v>621</v>
       </c>
@@ -35530,7 +35607,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="68"/>
+      <c r="A35" s="69"/>
       <c r="B35" s="51" t="s">
         <v>622</v>
       </c>
@@ -35556,7 +35633,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="68"/>
+      <c r="A36" s="69"/>
       <c r="B36" s="51" t="s">
         <v>623</v>
       </c>
@@ -35582,7 +35659,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="68"/>
+      <c r="A37" s="69"/>
       <c r="B37" s="51" t="s">
         <v>607</v>
       </c>
@@ -35608,7 +35685,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="68"/>
+      <c r="A38" s="69"/>
       <c r="B38" s="51" t="s">
         <v>624</v>
       </c>
@@ -35634,7 +35711,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="68"/>
+      <c r="A39" s="69"/>
       <c r="B39" s="51" t="s">
         <v>329</v>
       </c>
@@ -35660,7 +35737,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="68"/>
+      <c r="A40" s="69"/>
       <c r="B40" s="51" t="s">
         <v>625</v>
       </c>
@@ -35680,7 +35757,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="68"/>
+      <c r="A41" s="69"/>
       <c r="B41" s="51" t="s">
         <v>626</v>
       </c>
@@ -35700,7 +35777,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="68"/>
+      <c r="A42" s="69"/>
       <c r="B42" s="51" t="s">
         <v>309</v>
       </c>
@@ -35719,7 +35796,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="68"/>
+      <c r="A43" s="69"/>
       <c r="B43" s="51" t="s">
         <v>627</v>
       </c>
@@ -35738,7 +35815,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="68"/>
+      <c r="A44" s="69"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
       <c r="D44" s="52"/>
@@ -35749,7 +35826,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="68"/>
+      <c r="A45" s="69"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -36019,7 +36096,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="72" t="s">
+      <c r="A62" s="68" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -36046,7 +36123,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="68"/>
+      <c r="A63" s="69"/>
       <c r="B63" s="51" t="s">
         <v>635</v>
       </c>
@@ -36071,7 +36148,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="68"/>
+      <c r="A64" s="69"/>
       <c r="B64" s="51" t="s">
         <v>636</v>
       </c>
@@ -36097,7 +36174,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="68"/>
+      <c r="A65" s="69"/>
       <c r="B65" s="51" t="s">
         <v>637</v>
       </c>
@@ -36123,7 +36200,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="68"/>
+      <c r="A66" s="69"/>
       <c r="B66" s="51" t="s">
         <v>638</v>
       </c>
@@ -36149,7 +36226,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="68"/>
+      <c r="A67" s="69"/>
       <c r="B67" s="51" t="s">
         <v>599</v>
       </c>
@@ -36175,7 +36252,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="68"/>
+      <c r="A68" s="69"/>
       <c r="B68" s="56" t="s">
         <v>639</v>
       </c>
@@ -36201,7 +36278,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="68"/>
+      <c r="A69" s="69"/>
       <c r="B69" s="51" t="s">
         <v>342</v>
       </c>
@@ -36227,7 +36304,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="68"/>
+      <c r="A70" s="69"/>
       <c r="B70" s="51" t="s">
         <v>640</v>
       </c>
@@ -36247,7 +36324,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="68"/>
+      <c r="A71" s="69"/>
       <c r="B71" s="51" t="s">
         <v>641</v>
       </c>
@@ -36267,7 +36344,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="68"/>
+      <c r="A72" s="69"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -36278,7 +36355,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="68"/>
+      <c r="A73" s="69"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -36289,7 +36366,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="68"/>
+      <c r="A74" s="69"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -36300,7 +36377,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="68"/>
+      <c r="A75" s="69"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -36311,7 +36388,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="68"/>
+      <c r="A76" s="69"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -36322,7 +36399,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="68" t="s">
+      <c r="A77" s="69" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -36349,7 +36426,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="68"/>
+      <c r="A78" s="69"/>
       <c r="B78" s="51" t="s">
         <v>643</v>
       </c>
@@ -36375,7 +36452,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="68"/>
+      <c r="A79" s="69"/>
       <c r="B79" s="51" t="s">
         <v>309</v>
       </c>
@@ -36401,7 +36478,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="68"/>
+      <c r="A80" s="69"/>
       <c r="B80" s="51" t="s">
         <v>644</v>
       </c>
@@ -36427,7 +36504,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="68"/>
+      <c r="A81" s="69"/>
       <c r="B81" s="51" t="s">
         <v>645</v>
       </c>
@@ -36453,7 +36530,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="68"/>
+      <c r="A82" s="69"/>
       <c r="B82" s="51" t="s">
         <v>646</v>
       </c>
@@ -36479,7 +36556,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="68"/>
+      <c r="A83" s="69"/>
       <c r="B83" s="51" t="s">
         <v>647</v>
       </c>
@@ -36505,7 +36582,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="68"/>
+      <c r="A84" s="69"/>
       <c r="B84" s="51" t="s">
         <v>580</v>
       </c>
@@ -36531,7 +36608,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="68"/>
+      <c r="A85" s="69"/>
       <c r="B85" s="51" t="s">
         <v>648</v>
       </c>
@@ -36551,7 +36628,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="68"/>
+      <c r="A86" s="69"/>
       <c r="B86" s="51" t="s">
         <v>649</v>
       </c>
@@ -36571,7 +36648,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="68"/>
+      <c r="A87" s="69"/>
       <c r="B87" s="51" t="s">
         <v>650</v>
       </c>
@@ -36591,7 +36668,7 @@
       <c r="I87" s="54"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="68"/>
+      <c r="A88" s="69"/>
       <c r="B88" s="51"/>
       <c r="C88" s="51"/>
       <c r="D88" s="52"/>
@@ -36602,7 +36679,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="68"/>
+      <c r="A89" s="69"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="52"/>
@@ -36613,7 +36690,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="68"/>
+      <c r="A90" s="69"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -36624,7 +36701,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="68"/>
+      <c r="A91" s="69"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -36635,7 +36712,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="69"/>
+      <c r="A92" s="72"/>
       <c r="B92" s="51"/>
       <c r="C92" s="51"/>
       <c r="D92" s="52"/>
@@ -36646,7 +36723,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="72" t="s">
+      <c r="A93" s="68" t="s">
         <v>54</v>
       </c>
       <c r="B93" s="51" t="s">
@@ -36673,7 +36750,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="68"/>
+      <c r="A94" s="69"/>
       <c r="B94" s="51" t="s">
         <v>651</v>
       </c>
@@ -36699,7 +36776,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="68"/>
+      <c r="A95" s="69"/>
       <c r="B95" s="56" t="s">
         <v>586</v>
       </c>
@@ -36725,7 +36802,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="68"/>
+      <c r="A96" s="69"/>
       <c r="B96" s="51" t="s">
         <v>652</v>
       </c>
@@ -36751,7 +36828,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="68"/>
+      <c r="A97" s="69"/>
       <c r="B97" s="51" t="s">
         <v>653</v>
       </c>
@@ -36777,7 +36854,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="68"/>
+      <c r="A98" s="69"/>
       <c r="B98" s="51" t="s">
         <v>654</v>
       </c>
@@ -36803,7 +36880,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="68"/>
+      <c r="A99" s="69"/>
       <c r="B99" s="51" t="s">
         <v>342</v>
       </c>
@@ -36829,7 +36906,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="68"/>
+      <c r="A100" s="69"/>
       <c r="B100" s="51" t="s">
         <v>655</v>
       </c>
@@ -36855,7 +36932,7 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="68"/>
+      <c r="A101" s="69"/>
       <c r="B101" s="51"/>
       <c r="C101" s="51" t="s">
         <v>288</v>
@@ -36873,7 +36950,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="68"/>
+      <c r="A102" s="69"/>
       <c r="B102" s="51"/>
       <c r="C102" s="51" t="s">
         <v>295</v>
@@ -36891,7 +36968,7 @@
       <c r="I102" s="54"/>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="68"/>
+      <c r="A103" s="69"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51" t="s">
         <v>288</v>
@@ -36908,7 +36985,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="68"/>
+      <c r="A104" s="69"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51" t="s">
         <v>296</v>
@@ -36925,7 +37002,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="68"/>
+      <c r="A105" s="69"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51" t="s">
         <v>295</v>
@@ -36942,7 +37019,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="68"/>
+      <c r="A106" s="69"/>
       <c r="B106" s="51"/>
       <c r="C106" s="51" t="s">
         <v>288</v>
@@ -37304,7 +37381,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="72" t="s">
+      <c r="A123" s="68" t="s">
         <v>273</v>
       </c>
       <c r="B123" s="51" t="s">
@@ -37331,7 +37408,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="68"/>
+      <c r="A124" s="69"/>
       <c r="B124" s="51" t="s">
         <v>665</v>
       </c>
@@ -37357,7 +37434,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="68"/>
+      <c r="A125" s="69"/>
       <c r="B125" s="51" t="s">
         <v>342</v>
       </c>
@@ -37383,7 +37460,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="68"/>
+      <c r="A126" s="69"/>
       <c r="B126" s="51" t="s">
         <v>666</v>
       </c>
@@ -37409,7 +37486,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="68"/>
+      <c r="A127" s="69"/>
       <c r="B127" s="58" t="s">
         <v>645</v>
       </c>
@@ -37531,7 +37608,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="68"/>
+      <c r="A132" s="69"/>
       <c r="B132" s="59" t="s">
         <v>669</v>
       </c>
@@ -37550,7 +37627,7 @@
       <c r="I132" s="54"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="68"/>
+      <c r="A133" s="69"/>
       <c r="B133" s="51" t="s">
         <v>670</v>
       </c>
@@ -37568,7 +37645,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="68"/>
+      <c r="A134" s="69"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -37576,7 +37653,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="68"/>
+      <c r="A135" s="69"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -37584,7 +37661,7 @@
       <c r="F135" s="52"/>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="68"/>
+      <c r="A136" s="69"/>
       <c r="B136" s="51"/>
       <c r="C136" s="51"/>
       <c r="D136" s="52"/>
@@ -38368,7 +38445,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="68" t="s">
+      <c r="A17" s="69" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="59" t="s">
@@ -38395,7 +38472,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="68"/>
+      <c r="A18" s="69"/>
       <c r="B18" s="51" t="s">
         <v>689</v>
       </c>
@@ -38421,7 +38498,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="68"/>
+      <c r="A19" s="69"/>
       <c r="B19" s="51" t="s">
         <v>690</v>
       </c>
@@ -38447,7 +38524,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="68"/>
+      <c r="A20" s="69"/>
       <c r="B20" s="51" t="s">
         <v>691</v>
       </c>
@@ -38473,7 +38550,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="68"/>
+      <c r="A21" s="69"/>
       <c r="B21" s="51" t="s">
         <v>309</v>
       </c>
@@ -38499,7 +38576,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="68"/>
+      <c r="A22" s="69"/>
       <c r="B22" s="51" t="s">
         <v>692</v>
       </c>
@@ -38525,7 +38602,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="68"/>
+      <c r="A23" s="69"/>
       <c r="B23" s="51" t="s">
         <v>329</v>
       </c>
@@ -38551,7 +38628,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="68"/>
+      <c r="A24" s="69"/>
       <c r="B24" s="51" t="s">
         <v>693</v>
       </c>
@@ -38577,7 +38654,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="68"/>
+      <c r="A25" s="69"/>
       <c r="B25" s="51" t="s">
         <v>694</v>
       </c>
@@ -38597,7 +38674,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="68"/>
+      <c r="A26" s="69"/>
       <c r="B26" s="51" t="s">
         <v>695</v>
       </c>
@@ -38617,7 +38694,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="68"/>
+      <c r="A27" s="69"/>
       <c r="B27" s="51" t="s">
         <v>296</v>
       </c>
@@ -38636,7 +38713,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="68"/>
+      <c r="A28" s="69"/>
       <c r="B28" s="51" t="s">
         <v>696</v>
       </c>
@@ -38655,7 +38732,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="68"/>
+      <c r="A29" s="69"/>
       <c r="B29" s="51" t="s">
         <v>309</v>
       </c>
@@ -38674,7 +38751,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="68"/>
+      <c r="A30" s="69"/>
       <c r="B30" s="51" t="s">
         <v>697</v>
       </c>
@@ -38693,7 +38770,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="68"/>
+      <c r="A31" s="69"/>
       <c r="B31" s="51" t="s">
         <v>698</v>
       </c>
@@ -38712,7 +38789,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="68" t="s">
+      <c r="A32" s="69" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -38739,7 +38816,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="68"/>
+      <c r="A33" s="69"/>
       <c r="B33" s="51" t="s">
         <v>699</v>
       </c>
@@ -38765,7 +38842,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="68"/>
+      <c r="A34" s="69"/>
       <c r="B34" s="51" t="s">
         <v>309</v>
       </c>
@@ -38791,7 +38868,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="68"/>
+      <c r="A35" s="69"/>
       <c r="B35" s="51" t="s">
         <v>700</v>
       </c>
@@ -38817,7 +38894,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="68"/>
+      <c r="A36" s="69"/>
       <c r="B36" s="51" t="s">
         <v>311</v>
       </c>
@@ -38843,7 +38920,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="68"/>
+      <c r="A37" s="69"/>
       <c r="B37" s="51" t="s">
         <v>701</v>
       </c>
@@ -38869,7 +38946,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="68"/>
+      <c r="A38" s="69"/>
       <c r="B38" s="51" t="s">
         <v>329</v>
       </c>
@@ -38895,7 +38972,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="68"/>
+      <c r="A39" s="69"/>
       <c r="B39" s="51" t="s">
         <v>702</v>
       </c>
@@ -38921,7 +38998,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="68"/>
+      <c r="A40" s="69"/>
       <c r="B40" s="51" t="s">
         <v>703</v>
       </c>
@@ -38941,7 +39018,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="68"/>
+      <c r="A41" s="69"/>
       <c r="B41" s="51" t="s">
         <v>695</v>
       </c>
@@ -38961,7 +39038,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="68"/>
+      <c r="A42" s="69"/>
       <c r="B42" s="51" t="s">
         <v>454</v>
       </c>
@@ -38980,7 +39057,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="68"/>
+      <c r="A43" s="69"/>
       <c r="B43" s="51" t="s">
         <v>309</v>
       </c>
@@ -38999,7 +39076,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="68"/>
+      <c r="A44" s="69"/>
       <c r="B44" t="s">
         <v>704</v>
       </c>
@@ -39018,7 +39095,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="68"/>
+      <c r="A45" s="69"/>
       <c r="B45" s="51" t="s">
         <v>705</v>
       </c>
@@ -39366,7 +39443,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="72" t="s">
+      <c r="A62" s="68" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -39393,7 +39470,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="68"/>
+      <c r="A63" s="69"/>
       <c r="B63" s="51" t="s">
         <v>717</v>
       </c>
@@ -39419,7 +39496,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="68"/>
+      <c r="A64" s="69"/>
       <c r="B64" s="51" t="s">
         <v>718</v>
       </c>
@@ -39445,7 +39522,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="68"/>
+      <c r="A65" s="69"/>
       <c r="B65" s="51" t="s">
         <v>342</v>
       </c>
@@ -39471,7 +39548,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="68"/>
+      <c r="A66" s="69"/>
       <c r="B66" s="51" t="s">
         <v>719</v>
       </c>
@@ -39497,7 +39574,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="68"/>
+      <c r="A67" s="69"/>
       <c r="B67" s="51" t="s">
         <v>329</v>
       </c>
@@ -39523,7 +39600,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="68"/>
+      <c r="A68" s="69"/>
       <c r="B68" s="56" t="s">
         <v>720</v>
       </c>
@@ -39549,7 +39626,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="68"/>
+      <c r="A69" s="69"/>
       <c r="B69" s="51" t="s">
         <v>342</v>
       </c>
@@ -39575,7 +39652,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="68"/>
+      <c r="A70" s="69"/>
       <c r="B70" s="51" t="s">
         <v>721</v>
       </c>
@@ -39595,7 +39672,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="68"/>
+      <c r="A71" s="69"/>
       <c r="B71" s="51" t="s">
         <v>685</v>
       </c>
@@ -39615,7 +39692,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="68"/>
+      <c r="A72" s="69"/>
       <c r="B72" s="51" t="s">
         <v>722</v>
       </c>
@@ -39634,7 +39711,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="68"/>
+      <c r="A73" s="69"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -39645,7 +39722,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="68"/>
+      <c r="A74" s="69"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -39656,7 +39733,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="68"/>
+      <c r="A75" s="69"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -39667,7 +39744,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="68"/>
+      <c r="A76" s="69"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -39678,7 +39755,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="68" t="s">
+      <c r="A77" s="69" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -39705,7 +39782,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="68"/>
+      <c r="A78" s="69"/>
       <c r="B78" s="51" t="s">
         <v>724</v>
       </c>
@@ -39731,7 +39808,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="68"/>
+      <c r="A79" s="69"/>
       <c r="B79" s="51" t="s">
         <v>725</v>
       </c>
@@ -39757,7 +39834,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="68"/>
+      <c r="A80" s="69"/>
       <c r="B80" s="65" t="s">
         <v>342</v>
       </c>
@@ -39783,7 +39860,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="68"/>
+      <c r="A81" s="69"/>
       <c r="B81" s="59" t="s">
         <v>726</v>
       </c>
@@ -39809,7 +39886,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="68"/>
+      <c r="A82" s="69"/>
       <c r="B82" s="58" t="s">
         <v>727</v>
       </c>
@@ -39861,7 +39938,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="68"/>
+      <c r="A84" s="69"/>
       <c r="B84" t="s">
         <v>728</v>
       </c>
@@ -39887,7 +39964,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="68"/>
+      <c r="A85" s="69"/>
       <c r="B85" s="51" t="s">
         <v>727</v>
       </c>
@@ -39907,7 +39984,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="68"/>
+      <c r="A86" s="69"/>
       <c r="B86" s="51" t="s">
         <v>729</v>
       </c>
@@ -39927,7 +40004,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="68"/>
+      <c r="A87" s="69"/>
       <c r="B87" s="51" t="s">
         <v>394</v>
       </c>
@@ -39947,7 +40024,7 @@
       <c r="I87" s="54"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="68"/>
+      <c r="A88" s="69"/>
       <c r="B88" s="51" t="s">
         <v>730</v>
       </c>
@@ -39966,7 +40043,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="68"/>
+      <c r="A89" s="69"/>
       <c r="B89" s="51" t="s">
         <v>731</v>
       </c>
@@ -39985,7 +40062,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="68"/>
+      <c r="A90" s="69"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -39996,7 +40073,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="68"/>
+      <c r="A91" s="69"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -40007,7 +40084,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="69"/>
+      <c r="A92" s="72"/>
       <c r="B92" s="51"/>
       <c r="C92" s="51"/>
       <c r="D92" s="52"/>
@@ -40018,7 +40095,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="72" t="s">
+      <c r="A93" s="68" t="s">
         <v>54</v>
       </c>
       <c r="B93" s="51" t="s">
@@ -40045,7 +40122,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="68"/>
+      <c r="A94" s="69"/>
       <c r="B94" s="51" t="s">
         <v>732</v>
       </c>
@@ -40071,7 +40148,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="68"/>
+      <c r="A95" s="69"/>
       <c r="B95" s="56" t="s">
         <v>309</v>
       </c>
@@ -40097,7 +40174,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="68"/>
+      <c r="A96" s="69"/>
       <c r="B96" s="51" t="s">
         <v>733</v>
       </c>
@@ -40123,7 +40200,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="68"/>
+      <c r="A97" s="69"/>
       <c r="B97" s="51" t="s">
         <v>653</v>
       </c>
@@ -40149,7 +40226,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="68"/>
+      <c r="A98" s="69"/>
       <c r="B98" s="51" t="s">
         <v>734</v>
       </c>
@@ -40175,7 +40252,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="68"/>
+      <c r="A99" s="69"/>
       <c r="B99" s="51" t="s">
         <v>735</v>
       </c>
@@ -40201,7 +40278,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="68"/>
+      <c r="A100" s="69"/>
       <c r="B100" s="51" t="s">
         <v>736</v>
       </c>
@@ -40227,7 +40304,7 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="68"/>
+      <c r="A101" s="69"/>
       <c r="B101" s="51" t="s">
         <v>737</v>
       </c>
@@ -40247,7 +40324,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="68"/>
+      <c r="A102" s="69"/>
       <c r="B102" s="51" t="s">
         <v>738</v>
       </c>
@@ -40267,7 +40344,7 @@
       <c r="I102" s="54"/>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="68"/>
+      <c r="A103" s="69"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51" t="s">
         <v>288</v>
@@ -40284,7 +40361,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="68"/>
+      <c r="A104" s="69"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51" t="s">
         <v>296</v>
@@ -40301,7 +40378,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="68"/>
+      <c r="A105" s="69"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51" t="s">
         <v>295</v>
@@ -40318,7 +40395,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="68"/>
+      <c r="A106" s="69"/>
       <c r="B106" s="51"/>
       <c r="C106" s="51" t="s">
         <v>288</v>
@@ -40682,7 +40759,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="72" t="s">
+      <c r="A123" s="68" t="s">
         <v>273</v>
       </c>
       <c r="B123" s="51" t="s">
@@ -40709,7 +40786,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="68"/>
+      <c r="A124" s="69"/>
       <c r="B124" s="51" t="s">
         <v>665</v>
       </c>
@@ -40735,7 +40812,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="68"/>
+      <c r="A125" s="69"/>
       <c r="B125" s="51" t="s">
         <v>342</v>
       </c>
@@ -40761,7 +40838,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="68"/>
+      <c r="A126" s="69"/>
       <c r="B126" s="51" t="s">
         <v>666</v>
       </c>
@@ -40787,7 +40864,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="68"/>
+      <c r="A127" s="69"/>
       <c r="B127" s="58" t="s">
         <v>645</v>
       </c>
@@ -40909,7 +40986,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="68"/>
+      <c r="A132" s="69"/>
       <c r="B132" s="59" t="s">
         <v>669</v>
       </c>
@@ -40928,7 +41005,7 @@
       <c r="I132" s="54"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="68"/>
+      <c r="A133" s="69"/>
       <c r="B133" s="51" t="s">
         <v>670</v>
       </c>
@@ -40946,7 +41023,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="68"/>
+      <c r="A134" s="69"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -40954,7 +41031,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="68"/>
+      <c r="A135" s="69"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -40962,7 +41039,7 @@
       <c r="F135" s="52"/>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="68"/>
+      <c r="A136" s="69"/>
       <c r="B136" s="51"/>
       <c r="C136" s="51"/>
       <c r="D136" s="52"/>
@@ -41358,8 +41435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FDA6F8B-4351-4F96-943E-CADFA321636C}">
   <dimension ref="A1:Q152"/>
   <sheetViews>
-    <sheetView topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView topLeftCell="B32" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -41754,7 +41831,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="68" t="s">
+      <c r="A17" s="69" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="59" t="s">
@@ -41781,7 +41858,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="68"/>
+      <c r="A18" s="69"/>
       <c r="B18" s="51" t="s">
         <v>689</v>
       </c>
@@ -41807,7 +41884,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="68"/>
+      <c r="A19" s="69"/>
       <c r="B19" s="51" t="s">
         <v>690</v>
       </c>
@@ -41833,7 +41910,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="68"/>
+      <c r="A20" s="69"/>
       <c r="B20" s="51" t="s">
         <v>691</v>
       </c>
@@ -41859,7 +41936,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="68"/>
+      <c r="A21" s="69"/>
       <c r="B21" s="51" t="s">
         <v>309</v>
       </c>
@@ -41885,7 +41962,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="68"/>
+      <c r="A22" s="69"/>
       <c r="B22" s="51" t="s">
         <v>692</v>
       </c>
@@ -41911,7 +41988,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="68"/>
+      <c r="A23" s="69"/>
       <c r="B23" s="51" t="s">
         <v>329</v>
       </c>
@@ -41937,7 +42014,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="68"/>
+      <c r="A24" s="69"/>
       <c r="B24" s="51" t="s">
         <v>693</v>
       </c>
@@ -41963,7 +42040,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="68"/>
+      <c r="A25" s="69"/>
       <c r="B25" s="51" t="s">
         <v>694</v>
       </c>
@@ -41983,7 +42060,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="68"/>
+      <c r="A26" s="69"/>
       <c r="B26" s="51" t="s">
         <v>695</v>
       </c>
@@ -42003,7 +42080,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="68"/>
+      <c r="A27" s="69"/>
       <c r="B27" s="51" t="s">
         <v>296</v>
       </c>
@@ -42022,7 +42099,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="68"/>
+      <c r="A28" s="69"/>
       <c r="B28" s="51" t="s">
         <v>696</v>
       </c>
@@ -42041,7 +42118,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="68"/>
+      <c r="A29" s="69"/>
       <c r="B29" s="51" t="s">
         <v>309</v>
       </c>
@@ -42060,7 +42137,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="68"/>
+      <c r="A30" s="69"/>
       <c r="B30" s="51" t="s">
         <v>697</v>
       </c>
@@ -42079,7 +42156,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="68"/>
+      <c r="A31" s="69"/>
       <c r="B31" s="51" t="s">
         <v>698</v>
       </c>
@@ -42098,7 +42175,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="68" t="s">
+      <c r="A32" s="69" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -42125,7 +42202,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="68"/>
+      <c r="A33" s="69"/>
       <c r="B33" s="51" t="s">
         <v>699</v>
       </c>
@@ -42151,7 +42228,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="68"/>
+      <c r="A34" s="69"/>
       <c r="B34" s="51" t="s">
         <v>309</v>
       </c>
@@ -42177,7 +42254,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="68"/>
+      <c r="A35" s="69"/>
       <c r="B35" s="51" t="s">
         <v>700</v>
       </c>
@@ -42203,7 +42280,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="68"/>
+      <c r="A36" s="69"/>
       <c r="B36" s="51" t="s">
         <v>311</v>
       </c>
@@ -42229,7 +42306,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="68"/>
+      <c r="A37" s="69"/>
       <c r="B37" s="51" t="s">
         <v>701</v>
       </c>
@@ -42255,7 +42332,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="68"/>
+      <c r="A38" s="69"/>
       <c r="B38" s="51" t="s">
         <v>329</v>
       </c>
@@ -42281,7 +42358,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="68"/>
+      <c r="A39" s="69"/>
       <c r="B39" s="51" t="s">
         <v>702</v>
       </c>
@@ -42307,7 +42384,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="68"/>
+      <c r="A40" s="69"/>
       <c r="B40" s="51" t="s">
         <v>703</v>
       </c>
@@ -42327,7 +42404,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="68"/>
+      <c r="A41" s="69"/>
       <c r="B41" s="51" t="s">
         <v>695</v>
       </c>
@@ -42347,7 +42424,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="68"/>
+      <c r="A42" s="69"/>
       <c r="B42" s="51" t="s">
         <v>454</v>
       </c>
@@ -42366,7 +42443,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="68"/>
+      <c r="A43" s="69"/>
       <c r="B43" s="51" t="s">
         <v>309</v>
       </c>
@@ -42385,7 +42462,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="68"/>
+      <c r="A44" s="69"/>
       <c r="B44" t="s">
         <v>704</v>
       </c>
@@ -42404,7 +42481,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="68"/>
+      <c r="A45" s="69"/>
       <c r="B45" s="51" t="s">
         <v>705</v>
       </c>
@@ -42470,7 +42547,7 @@
     <row r="48" spans="1:9">
       <c r="A48" s="71"/>
       <c r="B48" s="55" t="s">
-        <v>707</v>
+        <v>755</v>
       </c>
       <c r="C48" s="51" t="s">
         <v>288</v>
@@ -42487,9 +42564,8 @@
       <c r="H48" s="53" t="s">
         <v>288</v>
       </c>
-      <c r="I48" s="52">
-        <f>SUMIFS(F47:F61, C47:C61,H48)</f>
-        <v>0.30555555555555558</v>
+      <c r="I48" s="52" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -42520,7 +42596,7 @@
     <row r="50" spans="1:9">
       <c r="A50" s="71"/>
       <c r="B50" s="51" t="s">
-        <v>708</v>
+        <v>757</v>
       </c>
       <c r="C50" s="51" t="s">
         <v>288</v>
@@ -42529,34 +42605,34 @@
         <v>0.44444444444444442</v>
       </c>
       <c r="E50" s="52">
-        <v>0.5</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="F50" s="52">
-        <v>5.5555555555555552E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="H50" s="53" t="s">
         <v>290</v>
       </c>
       <c r="I50" s="52" t="s">
-        <v>709</v>
+        <v>758</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="71"/>
       <c r="B51" s="55" t="s">
-        <v>710</v>
+        <v>759</v>
       </c>
       <c r="C51" s="51" t="s">
         <v>288</v>
       </c>
       <c r="D51" s="52">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="E51" s="52">
         <v>0.5</v>
       </c>
-      <c r="E51" s="52">
-        <v>0.52083333333333337</v>
-      </c>
       <c r="F51" s="52">
-        <v>2.0833333333333332E-2</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="H51" s="53" t="s">
         <v>293</v>
@@ -42569,19 +42645,19 @@
     <row r="52" spans="1:9">
       <c r="A52" s="71"/>
       <c r="B52" s="55" t="s">
-        <v>329</v>
+        <v>760</v>
       </c>
       <c r="C52" s="51" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="D52" s="52">
-        <v>0.52083333333333337</v>
+        <v>0.5</v>
       </c>
       <c r="E52" s="52">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F52" s="52">
         <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="F52" s="52">
-        <v>2.0833333333333332E-2</v>
       </c>
       <c r="H52" s="53" t="s">
         <v>296</v>
@@ -42594,19 +42670,19 @@
     <row r="53" spans="1:9">
       <c r="A53" s="71"/>
       <c r="B53" s="55" t="s">
-        <v>711</v>
+        <v>599</v>
       </c>
       <c r="C53" s="51" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="D53" s="52">
-        <v>4.1666666666666664E-2</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E53" s="52">
-        <v>8.3333333333333329E-2</v>
+        <v>0.5625</v>
       </c>
       <c r="F53" s="52">
-        <v>4.1666666666666664E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="H53" s="53" t="s">
         <v>295</v>
@@ -42618,45 +42694,45 @@
     <row r="54" spans="1:9">
       <c r="A54" s="71"/>
       <c r="B54" s="55" t="s">
-        <v>713</v>
+        <v>760</v>
       </c>
       <c r="C54" s="51" t="s">
         <v>288</v>
       </c>
       <c r="D54" s="52">
-        <v>0.58333333333333337</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="E54" s="52">
-        <v>0.64583333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="F54" s="52">
         <f t="shared" si="0"/>
-        <v>6.25E-2</v>
+        <v>5.208333333333337E-2</v>
       </c>
       <c r="H54" s="48" t="s">
         <v>300</v>
       </c>
       <c r="I54" s="49" t="s">
-        <v>714</v>
+        <v>761</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="71"/>
       <c r="B55" s="56" t="s">
-        <v>715</v>
+        <v>516</v>
       </c>
       <c r="C55" s="51" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D55" s="52">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="E55" s="52">
         <v>0.66666666666666663</v>
-      </c>
-      <c r="E55" s="52">
-        <v>0.70138888888888884</v>
       </c>
       <c r="F55" s="52">
         <f t="shared" si="0"/>
-        <v>3.472222222222221E-2</v>
+        <v>2.7777777777777679E-2</v>
       </c>
       <c r="I55" s="54"/>
     </row>
@@ -42669,13 +42745,12 @@
         <v>296</v>
       </c>
       <c r="D56" s="52">
-        <v>0.70833333333333337</v>
+        <v>0.68055555555555547</v>
       </c>
       <c r="E56" s="52">
-        <v>0.77083333333333337</v>
+        <v>0.75694444444444453</v>
       </c>
       <c r="F56" s="52">
-        <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
       <c r="I56" s="54"/>
@@ -42689,33 +42764,33 @@
         <v>295</v>
       </c>
       <c r="D57" s="52">
-        <v>0.77083333333333337</v>
+        <v>0.75694444444444453</v>
       </c>
       <c r="E57" s="52">
-        <v>0.77777777777777779</v>
+        <v>0.76388888888888884</v>
       </c>
       <c r="F57" s="52">
         <f t="shared" si="0"/>
-        <v>6.9444444444444198E-3</v>
+        <v>6.9444444444443088E-3</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="71"/>
       <c r="B58" s="55" t="s">
-        <v>716</v>
+        <v>762</v>
       </c>
       <c r="C58" s="51" t="s">
         <v>288</v>
       </c>
       <c r="D58" s="52">
-        <v>0.77777777777777779</v>
+        <v>0.76388888888888884</v>
       </c>
       <c r="E58" s="52">
-        <v>0.84027777777777779</v>
+        <v>0.79861111111111116</v>
       </c>
       <c r="F58" s="52">
         <f t="shared" si="0"/>
-        <v>6.25E-2</v>
+        <v>3.4722222222222321E-2</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -42752,7 +42827,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="72" t="s">
+      <c r="A62" s="68" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -42779,7 +42854,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="68"/>
+      <c r="A63" s="69"/>
       <c r="B63" s="51" t="s">
         <v>717</v>
       </c>
@@ -42805,7 +42880,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="68"/>
+      <c r="A64" s="69"/>
       <c r="B64" s="51" t="s">
         <v>718</v>
       </c>
@@ -42831,7 +42906,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="68"/>
+      <c r="A65" s="69"/>
       <c r="B65" s="51" t="s">
         <v>342</v>
       </c>
@@ -42857,7 +42932,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="68"/>
+      <c r="A66" s="69"/>
       <c r="B66" s="51" t="s">
         <v>719</v>
       </c>
@@ -42883,7 +42958,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="68"/>
+      <c r="A67" s="69"/>
       <c r="B67" s="51" t="s">
         <v>329</v>
       </c>
@@ -42909,7 +42984,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="68"/>
+      <c r="A68" s="69"/>
       <c r="B68" s="56" t="s">
         <v>720</v>
       </c>
@@ -42935,7 +43010,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="68"/>
+      <c r="A69" s="69"/>
       <c r="B69" s="51" t="s">
         <v>342</v>
       </c>
@@ -42961,7 +43036,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="68"/>
+      <c r="A70" s="69"/>
       <c r="B70" s="51" t="s">
         <v>721</v>
       </c>
@@ -42981,7 +43056,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="68"/>
+      <c r="A71" s="69"/>
       <c r="B71" s="51" t="s">
         <v>685</v>
       </c>
@@ -43001,7 +43076,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="68"/>
+      <c r="A72" s="69"/>
       <c r="B72" s="51" t="s">
         <v>722</v>
       </c>
@@ -43020,7 +43095,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="68"/>
+      <c r="A73" s="69"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -43031,7 +43106,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="68"/>
+      <c r="A74" s="69"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -43042,7 +43117,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="68"/>
+      <c r="A75" s="69"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -43053,7 +43128,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="68"/>
+      <c r="A76" s="69"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -43064,7 +43139,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="68" t="s">
+      <c r="A77" s="69" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -43091,7 +43166,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="68"/>
+      <c r="A78" s="69"/>
       <c r="B78" s="51" t="s">
         <v>724</v>
       </c>
@@ -43117,7 +43192,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="68"/>
+      <c r="A79" s="69"/>
       <c r="B79" s="51" t="s">
         <v>725</v>
       </c>
@@ -43143,7 +43218,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="68"/>
+      <c r="A80" s="69"/>
       <c r="B80" s="65" t="s">
         <v>342</v>
       </c>
@@ -43169,7 +43244,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="68"/>
+      <c r="A81" s="69"/>
       <c r="B81" s="59" t="s">
         <v>726</v>
       </c>
@@ -43195,7 +43270,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="68"/>
+      <c r="A82" s="69"/>
       <c r="B82" s="58" t="s">
         <v>727</v>
       </c>
@@ -43247,7 +43322,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="68"/>
+      <c r="A84" s="69"/>
       <c r="B84" t="s">
         <v>728</v>
       </c>
@@ -43273,7 +43348,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="68"/>
+      <c r="A85" s="69"/>
       <c r="B85" s="51" t="s">
         <v>727</v>
       </c>
@@ -43293,7 +43368,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="68"/>
+      <c r="A86" s="69"/>
       <c r="B86" s="51" t="s">
         <v>729</v>
       </c>
@@ -43313,7 +43388,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="68"/>
+      <c r="A87" s="69"/>
       <c r="B87" s="51" t="s">
         <v>394</v>
       </c>
@@ -43333,7 +43408,7 @@
       <c r="I87" s="54"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="68"/>
+      <c r="A88" s="69"/>
       <c r="B88" s="51" t="s">
         <v>730</v>
       </c>
@@ -43352,7 +43427,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="68"/>
+      <c r="A89" s="69"/>
       <c r="B89" s="51" t="s">
         <v>731</v>
       </c>
@@ -43371,7 +43446,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="68"/>
+      <c r="A90" s="69"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -43382,7 +43457,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="68"/>
+      <c r="A91" s="69"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -43393,7 +43468,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="69"/>
+      <c r="A92" s="72"/>
       <c r="B92" s="51"/>
       <c r="C92" s="51"/>
       <c r="D92" s="52"/>
@@ -43404,7 +43479,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="72" t="s">
+      <c r="A93" s="68" t="s">
         <v>54</v>
       </c>
       <c r="B93" s="51" t="s">
@@ -43431,9 +43506,9 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="68"/>
+      <c r="A94" s="69"/>
       <c r="B94" s="51" t="s">
-        <v>755</v>
+        <v>763</v>
       </c>
       <c r="C94" s="51" t="s">
         <v>288</v>
@@ -43457,7 +43532,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="68"/>
+      <c r="A95" s="69"/>
       <c r="B95" s="56" t="s">
         <v>309</v>
       </c>
@@ -43483,9 +43558,9 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="68"/>
+      <c r="A96" s="69"/>
       <c r="B96" s="51" t="s">
-        <v>756</v>
+        <v>764</v>
       </c>
       <c r="C96" s="51" t="s">
         <v>288</v>
@@ -43509,7 +43584,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="68"/>
+      <c r="A97" s="69"/>
       <c r="B97" s="51" t="s">
         <v>653</v>
       </c>
@@ -43535,9 +43610,9 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="68"/>
+      <c r="A98" s="69"/>
       <c r="B98" s="51" t="s">
-        <v>757</v>
+        <v>765</v>
       </c>
       <c r="C98" s="51" t="s">
         <v>288</v>
@@ -43561,9 +43636,9 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="68"/>
+      <c r="A99" s="69"/>
       <c r="B99" s="51" t="s">
-        <v>758</v>
+        <v>766</v>
       </c>
       <c r="C99" s="51" t="s">
         <v>293</v>
@@ -43587,7 +43662,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="68"/>
+      <c r="A100" s="69"/>
       <c r="B100" s="51" t="s">
         <v>736</v>
       </c>
@@ -43613,9 +43688,9 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="68"/>
+      <c r="A101" s="69"/>
       <c r="B101" s="51" t="s">
-        <v>759</v>
+        <v>767</v>
       </c>
       <c r="C101" s="51" t="s">
         <v>288</v>
@@ -43633,7 +43708,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="68"/>
+      <c r="A102" s="69"/>
       <c r="B102" s="51"/>
       <c r="C102" s="51"/>
       <c r="D102" s="52"/>
@@ -43642,7 +43717,7 @@
       <c r="I102" s="54"/>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="68"/>
+      <c r="A103" s="69"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51"/>
       <c r="D103" s="52"/>
@@ -43650,7 +43725,7 @@
       <c r="F103" s="52"/>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="68"/>
+      <c r="A104" s="69"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51"/>
       <c r="D104" s="52"/>
@@ -43658,7 +43733,7 @@
       <c r="F104" s="52"/>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="68"/>
+      <c r="A105" s="69"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51"/>
       <c r="D105" s="52"/>
@@ -43666,7 +43741,7 @@
       <c r="F105" s="52"/>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="68"/>
+      <c r="A106" s="69"/>
       <c r="B106" s="51"/>
       <c r="C106" s="51"/>
       <c r="D106" s="52"/>
@@ -44012,11 +44087,11 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="72" t="s">
+      <c r="A123" s="68" t="s">
         <v>273</v>
       </c>
       <c r="B123" s="51" t="s">
-        <v>760</v>
+        <v>768</v>
       </c>
       <c r="C123" s="51" t="s">
         <v>288</v>
@@ -44039,9 +44114,9 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="68"/>
+      <c r="A124" s="69"/>
       <c r="B124" s="51" t="s">
-        <v>761</v>
+        <v>769</v>
       </c>
       <c r="C124" s="51" t="s">
         <v>288</v>
@@ -44065,7 +44140,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="68"/>
+      <c r="A125" s="69"/>
       <c r="B125" s="51" t="s">
         <v>342</v>
       </c>
@@ -44091,9 +44166,9 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="68"/>
+      <c r="A126" s="69"/>
       <c r="B126" s="51" t="s">
-        <v>762</v>
+        <v>770</v>
       </c>
       <c r="C126" s="51" t="s">
         <v>288</v>
@@ -44117,9 +44192,9 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="68"/>
+      <c r="A127" s="69"/>
       <c r="B127" s="58" t="s">
-        <v>763</v>
+        <v>771</v>
       </c>
       <c r="C127" s="51" t="s">
         <v>288</v>
@@ -44171,7 +44246,7 @@
     <row r="129" spans="1:9">
       <c r="A129" s="73"/>
       <c r="B129" s="57" t="s">
-        <v>764</v>
+        <v>772</v>
       </c>
       <c r="C129" s="55" t="s">
         <v>288</v>
@@ -44197,7 +44272,7 @@
     <row r="130" spans="1:9">
       <c r="A130" s="73"/>
       <c r="B130" s="57" t="s">
-        <v>765</v>
+        <v>773</v>
       </c>
       <c r="C130" s="55" t="s">
         <v>288</v>
@@ -44239,9 +44314,9 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="68"/>
+      <c r="A132" s="69"/>
       <c r="B132" s="59" t="s">
-        <v>766</v>
+        <v>774</v>
       </c>
       <c r="C132" s="51" t="s">
         <v>288</v>
@@ -44258,7 +44333,7 @@
       <c r="I132" s="54"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="68"/>
+      <c r="A133" s="69"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
@@ -44266,7 +44341,7 @@
       <c r="F133" s="52"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="68"/>
+      <c r="A134" s="69"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -44274,7 +44349,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="68"/>
+      <c r="A135" s="69"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -44282,7 +44357,7 @@
       <c r="F135" s="52"/>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="68"/>
+      <c r="A136" s="69"/>
       <c r="B136" s="51"/>
       <c r="C136" s="51"/>
       <c r="D136" s="52"/>
@@ -44678,8 +44753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7764F1B-A8E7-4FBB-88CE-929509A01D8F}">
   <dimension ref="A1:Q152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="F131" sqref="F131"/>
+    <sheetView tabSelected="1" topLeftCell="B32" workbookViewId="0">
+      <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -45074,7 +45149,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="68" t="s">
+      <c r="A17" s="69" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="59" t="s">
@@ -45101,7 +45176,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="68"/>
+      <c r="A18" s="69"/>
       <c r="B18" s="51" t="s">
         <v>689</v>
       </c>
@@ -45127,7 +45202,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="68"/>
+      <c r="A19" s="69"/>
       <c r="B19" s="51" t="s">
         <v>690</v>
       </c>
@@ -45153,7 +45228,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="68"/>
+      <c r="A20" s="69"/>
       <c r="B20" s="51" t="s">
         <v>691</v>
       </c>
@@ -45179,7 +45254,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="68"/>
+      <c r="A21" s="69"/>
       <c r="B21" s="51" t="s">
         <v>309</v>
       </c>
@@ -45205,7 +45280,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="68"/>
+      <c r="A22" s="69"/>
       <c r="B22" s="51" t="s">
         <v>692</v>
       </c>
@@ -45231,7 +45306,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="68"/>
+      <c r="A23" s="69"/>
       <c r="B23" s="51" t="s">
         <v>329</v>
       </c>
@@ -45257,7 +45332,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="68"/>
+      <c r="A24" s="69"/>
       <c r="B24" s="51" t="s">
         <v>693</v>
       </c>
@@ -45283,7 +45358,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="68"/>
+      <c r="A25" s="69"/>
       <c r="B25" s="51" t="s">
         <v>694</v>
       </c>
@@ -45303,7 +45378,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="68"/>
+      <c r="A26" s="69"/>
       <c r="B26" s="51" t="s">
         <v>695</v>
       </c>
@@ -45323,7 +45398,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="68"/>
+      <c r="A27" s="69"/>
       <c r="B27" s="51" t="s">
         <v>296</v>
       </c>
@@ -45342,7 +45417,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="68"/>
+      <c r="A28" s="69"/>
       <c r="B28" s="51" t="s">
         <v>696</v>
       </c>
@@ -45361,7 +45436,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="68"/>
+      <c r="A29" s="69"/>
       <c r="B29" s="51" t="s">
         <v>309</v>
       </c>
@@ -45380,7 +45455,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="68"/>
+      <c r="A30" s="69"/>
       <c r="B30" s="51" t="s">
         <v>697</v>
       </c>
@@ -45399,7 +45474,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="68"/>
+      <c r="A31" s="69"/>
       <c r="B31" s="51" t="s">
         <v>698</v>
       </c>
@@ -45418,7 +45493,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="68" t="s">
+      <c r="A32" s="69" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -45445,7 +45520,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="68"/>
+      <c r="A33" s="69"/>
       <c r="B33" s="51" t="s">
         <v>699</v>
       </c>
@@ -45471,7 +45546,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="68"/>
+      <c r="A34" s="69"/>
       <c r="B34" s="51" t="s">
         <v>309</v>
       </c>
@@ -45497,7 +45572,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="68"/>
+      <c r="A35" s="69"/>
       <c r="B35" s="51" t="s">
         <v>700</v>
       </c>
@@ -45523,7 +45598,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="68"/>
+      <c r="A36" s="69"/>
       <c r="B36" s="51" t="s">
         <v>311</v>
       </c>
@@ -45549,7 +45624,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="68"/>
+      <c r="A37" s="69"/>
       <c r="B37" s="51" t="s">
         <v>701</v>
       </c>
@@ -45575,7 +45650,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="68"/>
+      <c r="A38" s="69"/>
       <c r="B38" s="51" t="s">
         <v>329</v>
       </c>
@@ -45601,7 +45676,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="68"/>
+      <c r="A39" s="69"/>
       <c r="B39" s="51" t="s">
         <v>702</v>
       </c>
@@ -45627,7 +45702,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="68"/>
+      <c r="A40" s="69"/>
       <c r="B40" s="51" t="s">
         <v>703</v>
       </c>
@@ -45647,7 +45722,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="68"/>
+      <c r="A41" s="69"/>
       <c r="B41" s="51" t="s">
         <v>695</v>
       </c>
@@ -45667,7 +45742,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="68"/>
+      <c r="A42" s="69"/>
       <c r="B42" s="51" t="s">
         <v>454</v>
       </c>
@@ -45686,7 +45761,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="68"/>
+      <c r="A43" s="69"/>
       <c r="B43" s="51" t="s">
         <v>309</v>
       </c>
@@ -45705,7 +45780,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="68"/>
+      <c r="A44" s="69"/>
       <c r="B44" t="s">
         <v>704</v>
       </c>
@@ -45724,7 +45799,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="68"/>
+      <c r="A45" s="69"/>
       <c r="B45" s="51" t="s">
         <v>705</v>
       </c>
@@ -45772,10 +45847,10 @@
         <v>285</v>
       </c>
       <c r="D47" s="52">
-        <v>0.36458333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="E47" s="52">
-        <v>0.375</v>
+        <v>0.38541666666666669</v>
       </c>
       <c r="F47" s="52">
         <v>1.0416666666666666E-2</v>
@@ -45790,44 +45865,43 @@
     <row r="48" spans="1:9">
       <c r="A48" s="71"/>
       <c r="B48" s="55" t="s">
-        <v>707</v>
+        <v>775</v>
       </c>
       <c r="C48" s="51" t="s">
         <v>288</v>
       </c>
       <c r="D48" s="52">
-        <v>0.375</v>
+        <v>0.38541666666666669</v>
       </c>
       <c r="E48" s="52">
-        <v>0.4375</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="F48" s="52">
-        <v>6.25E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="H48" s="53" t="s">
         <v>288</v>
       </c>
-      <c r="I48" s="52">
-        <f>SUMIFS(F47:F61, C47:C61,H48)</f>
-        <v>0.30555555555555558</v>
+      <c r="I48" s="78">
+        <v>0.25347222222222221</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="71"/>
       <c r="B49" s="55" t="s">
-        <v>558</v>
+        <v>757</v>
       </c>
       <c r="C49" s="51" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="D49" s="52">
-        <v>0.4375</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="E49" s="52">
-        <v>0.44444444444444442</v>
+        <v>0.46875</v>
       </c>
       <c r="F49" s="52">
-        <v>6.9444444444444441E-3</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="H49" s="53" t="s">
         <v>285</v>
@@ -45840,43 +45914,43 @@
     <row r="50" spans="1:9">
       <c r="A50" s="71"/>
       <c r="B50" s="51" t="s">
-        <v>708</v>
+        <v>586</v>
       </c>
       <c r="C50" s="51" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="D50" s="52">
-        <v>0.44444444444444442</v>
+        <v>0.46875</v>
       </c>
       <c r="E50" s="52">
-        <v>0.5</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="F50" s="52">
-        <v>5.5555555555555552E-2</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="H50" s="53" t="s">
         <v>290</v>
       </c>
       <c r="I50" s="52" t="s">
-        <v>709</v>
+        <v>758</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="71"/>
       <c r="B51" s="55" t="s">
-        <v>710</v>
+        <v>760</v>
       </c>
       <c r="C51" s="51" t="s">
         <v>288</v>
       </c>
       <c r="D51" s="52">
-        <v>0.5</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="E51" s="52">
         <v>0.52083333333333337</v>
       </c>
       <c r="F51" s="52">
-        <v>2.0833333333333332E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="H51" s="53" t="s">
         <v>293</v>
@@ -45898,56 +45972,56 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="E52" s="52">
-        <v>4.1666666666666664E-2</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="F52" s="52">
-        <v>2.0833333333333332E-2</v>
+        <v>5.2083333333333336E-2</v>
       </c>
       <c r="H52" s="53" t="s">
         <v>296</v>
       </c>
       <c r="I52" s="52">
         <f>SUMIFS(F47:F61, C47:C61,H52)</f>
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="71"/>
       <c r="B53" s="55" t="s">
-        <v>711</v>
+        <v>762</v>
       </c>
       <c r="C53" s="51" t="s">
         <v>288</v>
       </c>
       <c r="D53" s="52">
-        <v>4.1666666666666664E-2</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="E53" s="52">
-        <v>8.3333333333333329E-2</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="F53" s="52">
-        <v>4.1666666666666664E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="H53" s="53" t="s">
         <v>295</v>
       </c>
       <c r="I53" s="52" t="s">
-        <v>712</v>
+        <v>776</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="71"/>
       <c r="B54" s="55" t="s">
-        <v>713</v>
+        <v>777</v>
       </c>
       <c r="C54" s="51" t="s">
         <v>288</v>
       </c>
-      <c r="D54" s="52">
-        <v>0.58333333333333337</v>
+      <c r="D54" s="75">
+        <v>0.60416666666666663</v>
       </c>
       <c r="E54" s="52">
-        <v>0.64583333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F54" s="52">
         <f t="shared" si="0"/>
@@ -45957,85 +46031,70 @@
         <v>300</v>
       </c>
       <c r="I54" s="49" t="s">
-        <v>714</v>
+        <v>778</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="71"/>
-      <c r="B55" s="56" t="s">
-        <v>715</v>
+      <c r="B55" s="55" t="s">
+        <v>309</v>
       </c>
       <c r="C55" s="51" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D55" s="52">
         <v>0.66666666666666663</v>
       </c>
       <c r="E55" s="52">
-        <v>0.70138888888888884</v>
+        <v>0.67361111111111116</v>
       </c>
       <c r="F55" s="52">
         <f t="shared" si="0"/>
-        <v>3.472222222222221E-2</v>
+        <v>6.9444444444445308E-3</v>
       </c>
       <c r="I55" s="54"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="71"/>
       <c r="B56" s="55" t="s">
-        <v>454</v>
+        <v>760</v>
       </c>
       <c r="C56" s="51" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="D56" s="52">
-        <v>0.70833333333333337</v>
+        <v>0.67361111111111116</v>
       </c>
       <c r="E56" s="52">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="F56" s="52">
-        <f t="shared" si="0"/>
-        <v>6.25E-2</v>
+        <v>0.625</v>
+      </c>
+      <c r="F56" s="52" t="s">
+        <v>779</v>
       </c>
       <c r="I56" s="54"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="71"/>
-      <c r="B57" s="55" t="s">
-        <v>586</v>
-      </c>
-      <c r="C57" s="51" t="s">
-        <v>295</v>
-      </c>
-      <c r="D57" s="52">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="E57" s="52">
-        <v>0.77777777777777779</v>
-      </c>
+      <c r="B57" s="55"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="52"/>
+      <c r="E57" s="52"/>
       <c r="F57" s="52">
         <f t="shared" si="0"/>
-        <v>6.9444444444444198E-3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" s="76"/>
+      <c r="I57" s="77"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="71"/>
-      <c r="B58" s="55" t="s">
-        <v>716</v>
-      </c>
-      <c r="C58" s="51" t="s">
-        <v>288</v>
-      </c>
-      <c r="D58" s="52">
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="E58" s="52">
-        <v>0.84027777777777779</v>
-      </c>
+      <c r="B58" s="55"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="52"/>
+      <c r="E58" s="52"/>
       <c r="F58" s="52">
         <f t="shared" si="0"/>
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -46072,7 +46131,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="72" t="s">
+      <c r="A62" s="68" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -46099,7 +46158,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="68"/>
+      <c r="A63" s="69"/>
       <c r="B63" s="51" t="s">
         <v>717</v>
       </c>
@@ -46125,7 +46184,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="68"/>
+      <c r="A64" s="69"/>
       <c r="B64" s="51" t="s">
         <v>718</v>
       </c>
@@ -46151,7 +46210,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="68"/>
+      <c r="A65" s="69"/>
       <c r="B65" s="51" t="s">
         <v>342</v>
       </c>
@@ -46177,7 +46236,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="68"/>
+      <c r="A66" s="69"/>
       <c r="B66" s="51" t="s">
         <v>719</v>
       </c>
@@ -46203,7 +46262,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="68"/>
+      <c r="A67" s="69"/>
       <c r="B67" s="51" t="s">
         <v>329</v>
       </c>
@@ -46229,7 +46288,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="68"/>
+      <c r="A68" s="69"/>
       <c r="B68" s="56" t="s">
         <v>720</v>
       </c>
@@ -46255,7 +46314,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="68"/>
+      <c r="A69" s="69"/>
       <c r="B69" s="51" t="s">
         <v>342</v>
       </c>
@@ -46281,7 +46340,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="68"/>
+      <c r="A70" s="69"/>
       <c r="B70" s="51" t="s">
         <v>721</v>
       </c>
@@ -46301,7 +46360,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="68"/>
+      <c r="A71" s="69"/>
       <c r="B71" s="51" t="s">
         <v>685</v>
       </c>
@@ -46321,7 +46380,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="68"/>
+      <c r="A72" s="69"/>
       <c r="B72" s="51" t="s">
         <v>722</v>
       </c>
@@ -46340,7 +46399,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="68"/>
+      <c r="A73" s="69"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -46351,7 +46410,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="68"/>
+      <c r="A74" s="69"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -46362,7 +46421,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="68"/>
+      <c r="A75" s="69"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -46373,7 +46432,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="68"/>
+      <c r="A76" s="69"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -46384,7 +46443,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="68" t="s">
+      <c r="A77" s="69" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -46411,7 +46470,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="68"/>
+      <c r="A78" s="69"/>
       <c r="B78" s="51" t="s">
         <v>724</v>
       </c>
@@ -46437,7 +46496,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="68"/>
+      <c r="A79" s="69"/>
       <c r="B79" s="51" t="s">
         <v>725</v>
       </c>
@@ -46463,7 +46522,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="68"/>
+      <c r="A80" s="69"/>
       <c r="B80" s="65" t="s">
         <v>342</v>
       </c>
@@ -46489,7 +46548,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="68"/>
+      <c r="A81" s="69"/>
       <c r="B81" s="59" t="s">
         <v>726</v>
       </c>
@@ -46515,7 +46574,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="68"/>
+      <c r="A82" s="69"/>
       <c r="B82" s="58" t="s">
         <v>727</v>
       </c>
@@ -46567,7 +46626,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="68"/>
+      <c r="A84" s="69"/>
       <c r="B84" t="s">
         <v>728</v>
       </c>
@@ -46593,7 +46652,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="68"/>
+      <c r="A85" s="69"/>
       <c r="B85" s="51" t="s">
         <v>727</v>
       </c>
@@ -46613,7 +46672,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="68"/>
+      <c r="A86" s="69"/>
       <c r="B86" s="51" t="s">
         <v>729</v>
       </c>
@@ -46633,7 +46692,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="68"/>
+      <c r="A87" s="69"/>
       <c r="B87" s="51" t="s">
         <v>394</v>
       </c>
@@ -46653,7 +46712,7 @@
       <c r="I87" s="54"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="68"/>
+      <c r="A88" s="69"/>
       <c r="B88" s="51" t="s">
         <v>730</v>
       </c>
@@ -46672,7 +46731,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="68"/>
+      <c r="A89" s="69"/>
       <c r="B89" s="51" t="s">
         <v>731</v>
       </c>
@@ -46691,7 +46750,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="68"/>
+      <c r="A90" s="69"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -46702,7 +46761,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="68"/>
+      <c r="A91" s="69"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -46713,7 +46772,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="69"/>
+      <c r="A92" s="72"/>
       <c r="B92" s="51"/>
       <c r="C92" s="51"/>
       <c r="D92" s="52"/>
@@ -46724,7 +46783,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="72" t="s">
+      <c r="A93" s="68" t="s">
         <v>54</v>
       </c>
       <c r="B93" s="51" t="s">
@@ -46734,14 +46793,14 @@
         <v>285</v>
       </c>
       <c r="D93" s="52">
-        <v>0.36805555555555558</v>
+        <v>0.375</v>
       </c>
       <c r="E93" s="52">
-        <v>0.37152777777777773</v>
+        <v>0.38194444444444442</v>
       </c>
       <c r="F93" s="52">
         <f t="shared" si="1"/>
-        <v>3.4722222222221544E-3</v>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="H93" s="49" t="s">
         <v>286</v>
@@ -46751,33 +46810,33 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="68"/>
+      <c r="A94" s="69"/>
       <c r="B94" s="51" t="s">
-        <v>755</v>
+        <v>780</v>
       </c>
       <c r="C94" s="51" t="s">
         <v>288</v>
       </c>
       <c r="D94" s="52">
-        <v>0.37291666666666662</v>
+        <v>0.38541666666666669</v>
       </c>
       <c r="E94" s="52">
-        <v>0.4368055555555555</v>
+        <v>0.4548611111111111</v>
       </c>
       <c r="F94" s="52">
         <f t="shared" si="1"/>
-        <v>6.3888888888888884E-2</v>
+        <v>6.944444444444442E-2</v>
       </c>
       <c r="H94" s="53" t="s">
         <v>288</v>
       </c>
       <c r="I94" s="52">
         <f>SUMIFS(F93:F107, C93:C107,H94)</f>
-        <v>0.33819444444444441</v>
+        <v>0.14236111111111105</v>
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="68"/>
+      <c r="A95" s="69"/>
       <c r="B95" s="56" t="s">
         <v>309</v>
       </c>
@@ -46785,175 +46844,171 @@
         <v>295</v>
       </c>
       <c r="D95" s="52">
-        <v>0.4375</v>
+        <v>0.45624999999999999</v>
       </c>
       <c r="E95" s="52">
-        <v>0.44444444444444442</v>
+        <v>0.47569444444444442</v>
       </c>
       <c r="F95" s="52">
         <f t="shared" si="1"/>
-        <v>6.9444444444444198E-3</v>
+        <v>1.9444444444444431E-2</v>
       </c>
       <c r="H95" s="53" t="s">
         <v>285</v>
       </c>
       <c r="I95" s="52">
         <f>SUMIFS(F93:F107, C93:C107,H95)</f>
-        <v>3.4722222222221544E-3</v>
+        <v>6.9444444444444198E-3</v>
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="68"/>
+      <c r="A96" s="69"/>
       <c r="B96" s="51" t="s">
-        <v>756</v>
+        <v>781</v>
       </c>
       <c r="C96" s="51" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D96" s="52">
-        <v>0.45208333333333334</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="E96" s="52">
-        <v>0.53263888888888888</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="F96" s="52">
         <f t="shared" si="1"/>
-        <v>8.0555555555555547E-2</v>
+        <v>3.1249999999999944E-2</v>
       </c>
       <c r="H96" s="53" t="s">
         <v>290</v>
       </c>
       <c r="I96" s="52">
         <f>SUMIFS(F93:F107, C93:C107,H96)</f>
-        <v>0</v>
+        <v>4.1666666666666574E-2</v>
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="68"/>
+      <c r="A97" s="69"/>
       <c r="B97" s="51" t="s">
-        <v>653</v>
+        <v>782</v>
       </c>
       <c r="C97" s="51" t="s">
         <v>295</v>
       </c>
       <c r="D97" s="52">
-        <v>0.53472222222222221</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="E97" s="52">
-        <v>0.55486111111111114</v>
+        <v>0.58680555555555558</v>
       </c>
       <c r="F97" s="52">
         <f t="shared" si="1"/>
-        <v>2.0138888888888928E-2</v>
+        <v>6.597222222222221E-2</v>
       </c>
       <c r="H97" s="53" t="s">
         <v>293</v>
       </c>
       <c r="I97" s="52">
         <f>SUMIFS(F93:F107, C93:C107,H97)</f>
-        <v>3.125E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="68"/>
+      <c r="A98" s="69"/>
       <c r="B98" s="51" t="s">
-        <v>757</v>
+        <v>783</v>
       </c>
       <c r="C98" s="51" t="s">
         <v>288</v>
       </c>
       <c r="D98" s="52">
-        <v>0.55555555555555558</v>
+        <v>0.59027777777777779</v>
       </c>
       <c r="E98" s="52">
-        <v>0.66597222222222219</v>
+        <v>0.66319444444444442</v>
       </c>
       <c r="F98" s="52">
         <f t="shared" si="1"/>
-        <v>0.11041666666666661</v>
+        <v>7.291666666666663E-2</v>
       </c>
       <c r="H98" s="53" t="s">
         <v>296</v>
       </c>
       <c r="I98" s="52">
         <f>SUMIFS(F93:F107, C93:C107,H98)</f>
-        <v>5.7638888888888795E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="68"/>
+      <c r="A99" s="69"/>
       <c r="B99" s="51" t="s">
-        <v>758</v>
+        <v>784</v>
       </c>
       <c r="C99" s="51" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D99" s="52">
-        <v>0.67013888888888884</v>
+        <v>0.67361111111111116</v>
       </c>
       <c r="E99" s="52">
-        <v>0.70138888888888884</v>
+        <v>0.68402777777777779</v>
       </c>
       <c r="F99" s="52">
         <f t="shared" si="1"/>
-        <v>3.125E-2</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="H99" s="53" t="s">
         <v>295</v>
       </c>
       <c r="I99" s="52">
         <f>SUMIFS(F93:F107, C93:C107,H99)</f>
-        <v>2.7083333333333348E-2</v>
+        <v>8.5416666666666641E-2</v>
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="68"/>
-      <c r="B100" s="51" t="s">
-        <v>736</v>
-      </c>
+      <c r="A100" s="69"/>
+      <c r="B100" s="51"/>
       <c r="C100" s="51" t="s">
         <v>296</v>
       </c>
       <c r="D100" s="52">
-        <v>0.70277777777777783</v>
+        <v>0</v>
       </c>
       <c r="E100" s="52">
-        <v>0.76041666666666663</v>
+        <v>0</v>
       </c>
       <c r="F100" s="52">
         <f t="shared" si="1"/>
-        <v>5.7638888888888795E-2</v>
+        <v>0</v>
       </c>
       <c r="H100" s="48" t="s">
         <v>300</v>
       </c>
       <c r="I100" s="49">
         <f>SUM(I94:I99)</f>
-        <v>0.45763888888888871</v>
+        <v>0.27638888888888868</v>
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="68"/>
-      <c r="B101" s="51" t="s">
-        <v>759</v>
-      </c>
+      <c r="A101" s="69"/>
+      <c r="B101" s="51"/>
       <c r="C101" s="51" t="s">
         <v>288</v>
       </c>
       <c r="D101" s="52">
-        <v>0.77777777777777779</v>
+        <v>0</v>
       </c>
       <c r="E101" s="52">
-        <v>0.86111111111111116</v>
+        <v>0</v>
       </c>
       <c r="F101" s="52">
         <f t="shared" si="1"/>
-        <v>8.333333333333337E-2</v>
+        <v>0</v>
       </c>
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="68"/>
+      <c r="A102" s="69"/>
       <c r="B102" s="51"/>
       <c r="C102" s="51"/>
       <c r="D102" s="52"/>
@@ -46962,7 +47017,7 @@
       <c r="I102" s="54"/>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="68"/>
+      <c r="A103" s="69"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51"/>
       <c r="D103" s="52"/>
@@ -46970,7 +47025,7 @@
       <c r="F103" s="52"/>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="68"/>
+      <c r="A104" s="69"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51"/>
       <c r="D104" s="52"/>
@@ -46978,7 +47033,7 @@
       <c r="F104" s="52"/>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="68"/>
+      <c r="A105" s="69"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51"/>
       <c r="D105" s="52"/>
@@ -46986,7 +47041,7 @@
       <c r="F105" s="52"/>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="68"/>
+      <c r="A106" s="69"/>
       <c r="B106" s="51"/>
       <c r="C106" s="51"/>
       <c r="D106" s="52"/>
@@ -47332,11 +47387,11 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="72" t="s">
+      <c r="A123" s="68" t="s">
         <v>273</v>
       </c>
       <c r="B123" s="51" t="s">
-        <v>767</v>
+        <v>785</v>
       </c>
       <c r="C123" s="51" t="s">
         <v>288</v>
@@ -47359,9 +47414,9 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="68"/>
+      <c r="A124" s="69"/>
       <c r="B124" s="51" t="s">
-        <v>768</v>
+        <v>786</v>
       </c>
       <c r="C124" s="51" t="s">
         <v>288</v>
@@ -47385,7 +47440,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="68"/>
+      <c r="A125" s="69"/>
       <c r="B125" s="51" t="s">
         <v>342</v>
       </c>
@@ -47411,9 +47466,9 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="68"/>
+      <c r="A126" s="69"/>
       <c r="B126" s="51" t="s">
-        <v>769</v>
+        <v>787</v>
       </c>
       <c r="C126" s="51" t="s">
         <v>288</v>
@@ -47437,9 +47492,9 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="68"/>
+      <c r="A127" s="69"/>
       <c r="B127" s="58" t="s">
-        <v>770</v>
+        <v>788</v>
       </c>
       <c r="C127" s="51" t="s">
         <v>288</v>
@@ -47465,7 +47520,7 @@
     <row r="128" spans="1:9">
       <c r="A128" s="73"/>
       <c r="B128" s="57" t="s">
-        <v>771</v>
+        <v>789</v>
       </c>
       <c r="C128" s="55" t="s">
         <v>290</v>
@@ -47517,7 +47572,7 @@
     <row r="130" spans="1:9">
       <c r="A130" s="73"/>
       <c r="B130" s="57" t="s">
-        <v>772</v>
+        <v>790</v>
       </c>
       <c r="C130" s="55" t="s">
         <v>290</v>
@@ -47549,7 +47604,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="68"/>
+      <c r="A132" s="69"/>
       <c r="B132" s="59"/>
       <c r="C132" s="51"/>
       <c r="D132" s="52"/>
@@ -47558,7 +47613,7 @@
       <c r="I132" s="54"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="68"/>
+      <c r="A133" s="69"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
@@ -47566,7 +47621,7 @@
       <c r="F133" s="52"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="68"/>
+      <c r="A134" s="69"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -47574,7 +47629,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="68"/>
+      <c r="A135" s="69"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -47582,7 +47637,7 @@
       <c r="F135" s="52"/>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="68"/>
+      <c r="A136" s="69"/>
       <c r="B136" s="51"/>
       <c r="C136" s="51"/>
       <c r="D136" s="52"/>
@@ -47914,7 +47969,7 @@
     <mergeCell ref="A62:A76"/>
     <mergeCell ref="A77:A92"/>
   </mergeCells>
-  <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I94 I109 I124 I139">
+  <conditionalFormatting sqref="I3 I18 I33 I63 I78 I94 I109 I124 I139">
     <cfRule type="cellIs" dxfId="12" priority="12" operator="greaterThan">
       <formula>0.25</formula>
     </cfRule>

--- a/Process/Timesheet/Timesheet1-vis.xlsx
+++ b/Process/Timesheet/Timesheet1-vis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vinoth\GIT\TeamProject\Project\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67930A1D-4DE0-4BBA-8A39-8350BFAABA6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{667A9A60-CFF8-4D6F-AA7F-C124ED3CF5B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="19414" windowHeight="10303" firstSheet="25" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3969" uniqueCount="803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3969" uniqueCount="813">
   <si>
     <t>Column1</t>
   </si>
@@ -2832,6 +2832,18 @@
     <t>Asked TL about Naming conversion, changed camelCase and its component name without errors</t>
   </si>
   <si>
+    <t>Modified on Manage pool Components page for TAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corrected the Alignment of the page </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Listened the flow of the API services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on TAC create pool components </t>
+  </si>
+  <si>
     <t>Started working on testing location service with More datas in Database</t>
   </si>
   <si>
@@ -2899,6 +2911,24 @@
   </si>
   <si>
     <t>Explored what is swagger</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Corrections on setting the Nav Bar for all the components </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Resolving the errors on routing page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Looking on interviewer's drive invite methods </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resolving the errors </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checking on the methods or services needed for integeration </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   02:00:00</t>
   </si>
   <si>
     <t>Started working on Refined Sequence diagram</t>
@@ -3442,10 +3472,10 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="21" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3454,7 +3484,7 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -16422,7 +16452,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -16452,7 +16482,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="72"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="51" t="s">
         <v>289</v>
       </c>
@@ -16481,7 +16511,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="72"/>
+      <c r="A4" s="73"/>
       <c r="B4" s="51" t="s">
         <v>291</v>
       </c>
@@ -16510,7 +16540,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="72"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="51" t="s">
         <v>292</v>
       </c>
@@ -16539,7 +16569,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="72"/>
+      <c r="A6" s="73"/>
       <c r="B6" s="51" t="s">
         <v>294</v>
       </c>
@@ -16568,7 +16598,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="72"/>
+      <c r="A7" s="73"/>
       <c r="B7" t="s">
         <v>297</v>
       </c>
@@ -16597,7 +16627,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="72"/>
+      <c r="A8" s="73"/>
       <c r="B8" s="51" t="s">
         <v>298</v>
       </c>
@@ -16623,7 +16653,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="72"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="51" t="s">
         <v>299</v>
       </c>
@@ -16649,7 +16679,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="72"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="51" t="s">
         <v>301</v>
       </c>
@@ -16669,7 +16699,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="72"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="51" t="s">
         <v>302</v>
       </c>
@@ -16689,7 +16719,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="72"/>
+      <c r="A12" s="73"/>
       <c r="B12" s="51" t="s">
         <v>303</v>
       </c>
@@ -16708,7 +16738,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="72"/>
+      <c r="A13" s="73"/>
       <c r="B13" s="51" t="s">
         <v>304</v>
       </c>
@@ -16727,7 +16757,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="72"/>
+      <c r="A14" s="73"/>
       <c r="B14" s="51" t="s">
         <v>305</v>
       </c>
@@ -16746,7 +16776,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="72"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="51" t="s">
         <v>306</v>
       </c>
@@ -16765,7 +16795,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="72"/>
+      <c r="A16" s="73"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
       <c r="D16" s="52"/>
@@ -16776,7 +16806,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="73" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51"/>
@@ -16799,7 +16829,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="72"/>
+      <c r="A18" s="73"/>
       <c r="B18" s="51"/>
       <c r="C18" s="51"/>
       <c r="D18" s="52">
@@ -16821,7 +16851,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="72"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="51"/>
       <c r="C19" s="51"/>
       <c r="D19" s="52">
@@ -16843,7 +16873,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="72"/>
+      <c r="A20" s="73"/>
       <c r="B20" s="51"/>
       <c r="C20" s="51"/>
       <c r="D20" s="52">
@@ -16865,7 +16895,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="72"/>
+      <c r="A21" s="73"/>
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
       <c r="D21" s="52">
@@ -16887,7 +16917,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="72"/>
+      <c r="A22" s="73"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
       <c r="D22" s="52">
@@ -16909,7 +16939,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="72"/>
+      <c r="A23" s="73"/>
       <c r="B23" s="51" t="s">
         <v>73</v>
       </c>
@@ -16933,7 +16963,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="72"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
       <c r="D24" s="52">
@@ -16955,7 +16985,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="72"/>
+      <c r="A25" s="73"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
       <c r="D25" s="52">
@@ -16971,7 +17001,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="72"/>
+      <c r="A26" s="73"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
       <c r="D26" s="52"/>
@@ -16983,7 +17013,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="72"/>
+      <c r="A27" s="73"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
       <c r="D27" s="52"/>
@@ -16994,7 +17024,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="72"/>
+      <c r="A28" s="73"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="52"/>
@@ -17005,7 +17035,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="72"/>
+      <c r="A29" s="73"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="52"/>
@@ -17016,7 +17046,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="72"/>
+      <c r="A30" s="73"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -17027,7 +17057,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="72"/>
+      <c r="A31" s="73"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -17038,7 +17068,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="72" t="s">
+      <c r="A32" s="73" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -17065,7 +17095,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="72"/>
+      <c r="A33" s="73"/>
       <c r="B33" s="51" t="s">
         <v>307</v>
       </c>
@@ -17091,7 +17121,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="72"/>
+      <c r="A34" s="73"/>
       <c r="B34" s="51" t="s">
         <v>308</v>
       </c>
@@ -17117,7 +17147,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="72"/>
+      <c r="A35" s="73"/>
       <c r="B35" s="51" t="s">
         <v>309</v>
       </c>
@@ -17143,7 +17173,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="72"/>
+      <c r="A36" s="73"/>
       <c r="B36" s="51" t="s">
         <v>310</v>
       </c>
@@ -17169,7 +17199,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="72"/>
+      <c r="A37" s="73"/>
       <c r="B37" s="51" t="s">
         <v>311</v>
       </c>
@@ -17195,7 +17225,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="72"/>
+      <c r="A38" s="73"/>
       <c r="B38" s="51" t="s">
         <v>312</v>
       </c>
@@ -17221,7 +17251,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="72"/>
+      <c r="A39" s="73"/>
       <c r="B39" s="51" t="s">
         <v>313</v>
       </c>
@@ -17247,7 +17277,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="72"/>
+      <c r="A40" s="73"/>
       <c r="B40" s="51" t="s">
         <v>314</v>
       </c>
@@ -17267,7 +17297,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="72"/>
+      <c r="A41" s="73"/>
       <c r="B41" s="51" t="s">
         <v>312</v>
       </c>
@@ -17287,7 +17317,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="72"/>
+      <c r="A42" s="73"/>
       <c r="B42" s="51" t="s">
         <v>315</v>
       </c>
@@ -17306,7 +17336,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="72"/>
+      <c r="A43" s="73"/>
       <c r="B43" s="51" t="s">
         <v>309</v>
       </c>
@@ -17325,7 +17355,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="72"/>
+      <c r="A44" s="73"/>
       <c r="B44" s="51" t="s">
         <v>316</v>
       </c>
@@ -17344,7 +17374,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="72"/>
+      <c r="A45" s="73"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -17590,7 +17620,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="76" t="s">
+      <c r="A62" s="72" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -17617,7 +17647,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="72"/>
+      <c r="A63" s="73"/>
       <c r="B63" s="51" t="s">
         <v>284</v>
       </c>
@@ -17642,7 +17672,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="72"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="51" t="s">
         <v>318</v>
       </c>
@@ -17668,7 +17698,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="72"/>
+      <c r="A65" s="73"/>
       <c r="B65" s="51" t="s">
         <v>313</v>
       </c>
@@ -17694,7 +17724,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="72"/>
+      <c r="A66" s="73"/>
       <c r="B66" s="51" t="s">
         <v>319</v>
       </c>
@@ -17720,7 +17750,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="72"/>
+      <c r="A67" s="73"/>
       <c r="B67" s="51" t="s">
         <v>302</v>
       </c>
@@ -17746,7 +17776,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="72"/>
+      <c r="A68" s="73"/>
       <c r="B68" s="51" t="s">
         <v>304</v>
       </c>
@@ -17772,7 +17802,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="72"/>
+      <c r="A69" s="73"/>
       <c r="B69" s="51" t="s">
         <v>315</v>
       </c>
@@ -17798,7 +17828,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="72"/>
+      <c r="A70" s="73"/>
       <c r="B70" s="51" t="s">
         <v>320</v>
       </c>
@@ -17818,7 +17848,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="72"/>
+      <c r="A71" s="73"/>
       <c r="B71" s="51" t="s">
         <v>306</v>
       </c>
@@ -17838,7 +17868,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="72"/>
+      <c r="A72" s="73"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -17849,7 +17879,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="72"/>
+      <c r="A73" s="73"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -17860,7 +17890,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="72"/>
+      <c r="A74" s="73"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -17871,7 +17901,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="72"/>
+      <c r="A75" s="73"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -17882,7 +17912,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="72"/>
+      <c r="A76" s="73"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -17893,7 +17923,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="72" t="s">
+      <c r="A77" s="73" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -17920,7 +17950,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="72"/>
+      <c r="A78" s="73"/>
       <c r="B78" s="51" t="s">
         <v>322</v>
       </c>
@@ -17946,7 +17976,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="72"/>
+      <c r="A79" s="73"/>
       <c r="B79" s="51" t="s">
         <v>323</v>
       </c>
@@ -17972,7 +18002,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="72"/>
+      <c r="A80" s="73"/>
       <c r="B80" s="51" t="s">
         <v>324</v>
       </c>
@@ -17998,7 +18028,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="72"/>
+      <c r="A81" s="73"/>
       <c r="B81" s="51" t="s">
         <v>325</v>
       </c>
@@ -18024,7 +18054,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="72"/>
+      <c r="A82" s="73"/>
       <c r="B82" s="51" t="s">
         <v>326</v>
       </c>
@@ -18050,7 +18080,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="72"/>
+      <c r="A83" s="73"/>
       <c r="B83" s="51" t="s">
         <v>327</v>
       </c>
@@ -18076,7 +18106,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="72"/>
+      <c r="A84" s="73"/>
       <c r="B84" s="51" t="s">
         <v>328</v>
       </c>
@@ -18102,7 +18132,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="72"/>
+      <c r="A85" s="73"/>
       <c r="B85" s="51" t="s">
         <v>294</v>
       </c>
@@ -18122,7 +18152,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="72"/>
+      <c r="A86" s="73"/>
       <c r="B86" s="51" t="s">
         <v>329</v>
       </c>
@@ -18142,7 +18172,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="72"/>
+      <c r="A87" s="73"/>
       <c r="B87" s="51" t="s">
         <v>304</v>
       </c>
@@ -18161,7 +18191,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="72"/>
+      <c r="A88" s="73"/>
       <c r="B88" s="51"/>
       <c r="C88" s="51"/>
       <c r="D88" s="52"/>
@@ -18172,7 +18202,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="72"/>
+      <c r="A89" s="73"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="52"/>
@@ -18183,7 +18213,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="72"/>
+      <c r="A90" s="73"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -18194,7 +18224,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="73"/>
+      <c r="A91" s="76"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -18205,7 +18235,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="76" t="s">
+      <c r="A92" s="72" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -18232,7 +18262,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="72"/>
+      <c r="A93" s="73"/>
       <c r="B93" s="51" t="s">
         <v>330</v>
       </c>
@@ -18258,7 +18288,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="72"/>
+      <c r="A94" s="73"/>
       <c r="B94" s="56" t="s">
         <v>331</v>
       </c>
@@ -18284,7 +18314,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="72"/>
+      <c r="A95" s="73"/>
       <c r="B95" s="51" t="s">
         <v>309</v>
       </c>
@@ -18310,7 +18340,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="72"/>
+      <c r="A96" s="73"/>
       <c r="B96" s="51" t="s">
         <v>332</v>
       </c>
@@ -18336,7 +18366,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="72"/>
+      <c r="A97" s="73"/>
       <c r="B97" s="51" t="s">
         <v>311</v>
       </c>
@@ -18362,7 +18392,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="72"/>
+      <c r="A98" s="73"/>
       <c r="B98" s="51" t="s">
         <v>313</v>
       </c>
@@ -18388,7 +18418,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="72"/>
+      <c r="A99" s="73"/>
       <c r="B99" s="51" t="s">
         <v>333</v>
       </c>
@@ -18414,7 +18444,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="72"/>
+      <c r="A100" s="73"/>
       <c r="B100" s="51" t="s">
         <v>334</v>
       </c>
@@ -18434,7 +18464,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="72"/>
+      <c r="A101" s="73"/>
       <c r="B101" s="51" t="s">
         <v>309</v>
       </c>
@@ -18454,7 +18484,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="72"/>
+      <c r="A102" s="73"/>
       <c r="B102" s="51" t="s">
         <v>316</v>
       </c>
@@ -18473,7 +18503,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="72"/>
+      <c r="A103" s="73"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51"/>
       <c r="D103" s="52"/>
@@ -18481,7 +18511,7 @@
       <c r="F103" s="52"/>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="72"/>
+      <c r="A104" s="73"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51"/>
       <c r="D104" s="52"/>
@@ -18489,7 +18519,7 @@
       <c r="F104" s="52"/>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="72"/>
+      <c r="A105" s="73"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51"/>
       <c r="D105" s="52"/>
@@ -18817,7 +18847,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="76" t="s">
+      <c r="A122" s="72" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51" t="s">
@@ -18844,7 +18874,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="72"/>
+      <c r="A123" s="73"/>
       <c r="B123" s="51" t="s">
         <v>322</v>
       </c>
@@ -18870,7 +18900,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="72"/>
+      <c r="A124" s="73"/>
       <c r="B124" s="51" t="s">
         <v>294</v>
       </c>
@@ -18896,7 +18926,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="72"/>
+      <c r="A125" s="73"/>
       <c r="B125" s="51" t="s">
         <v>344</v>
       </c>
@@ -18922,7 +18952,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="72"/>
+      <c r="A126" s="73"/>
       <c r="B126" s="51" t="s">
         <v>329</v>
       </c>
@@ -18948,7 +18978,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="72"/>
+      <c r="A127" s="73"/>
       <c r="B127" s="56" t="s">
         <v>345</v>
       </c>
@@ -18974,7 +19004,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="72"/>
+      <c r="A128" s="73"/>
       <c r="B128" s="51" t="s">
         <v>346</v>
       </c>
@@ -19000,7 +19030,7 @@
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="72"/>
+      <c r="A129" s="73"/>
       <c r="B129" s="56" t="s">
         <v>304</v>
       </c>
@@ -19026,7 +19056,7 @@
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="72"/>
+      <c r="A130" s="73"/>
       <c r="B130" s="56" t="s">
         <v>304</v>
       </c>
@@ -19046,7 +19076,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="72"/>
+      <c r="A131" s="73"/>
       <c r="B131" s="51" t="s">
         <v>347</v>
       </c>
@@ -19066,7 +19096,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="72"/>
+      <c r="A132" s="73"/>
       <c r="B132" s="51" t="s">
         <v>348</v>
       </c>
@@ -19085,7 +19115,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="72"/>
+      <c r="A133" s="73"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
@@ -19096,7 +19126,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="72"/>
+      <c r="A134" s="73"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -19107,7 +19137,7 @@
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="72"/>
+      <c r="A135" s="73"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -19433,7 +19463,7 @@
       </c>
     </row>
     <row r="152" spans="1:9">
-      <c r="A152" s="76" t="s">
+      <c r="A152" s="72" t="s">
         <v>355</v>
       </c>
       <c r="B152" s="51" t="s">
@@ -19460,7 +19490,7 @@
       </c>
     </row>
     <row r="153" spans="1:9">
-      <c r="A153" s="72"/>
+      <c r="A153" s="73"/>
       <c r="B153" s="51" t="s">
         <v>357</v>
       </c>
@@ -19486,7 +19516,7 @@
       </c>
     </row>
     <row r="154" spans="1:9">
-      <c r="A154" s="72"/>
+      <c r="A154" s="73"/>
       <c r="B154" s="51" t="s">
         <v>341</v>
       </c>
@@ -19512,7 +19542,7 @@
       </c>
     </row>
     <row r="155" spans="1:9">
-      <c r="A155" s="72"/>
+      <c r="A155" s="73"/>
       <c r="B155" s="51" t="s">
         <v>357</v>
       </c>
@@ -19538,7 +19568,7 @@
       </c>
     </row>
     <row r="156" spans="1:9">
-      <c r="A156" s="72"/>
+      <c r="A156" s="73"/>
       <c r="B156" s="51" t="s">
         <v>301</v>
       </c>
@@ -19564,7 +19594,7 @@
       </c>
     </row>
     <row r="157" spans="1:9">
-      <c r="A157" s="72"/>
+      <c r="A157" s="73"/>
       <c r="B157" s="51" t="s">
         <v>294</v>
       </c>
@@ -19590,7 +19620,7 @@
       </c>
     </row>
     <row r="158" spans="1:9">
-      <c r="A158" s="72"/>
+      <c r="A158" s="73"/>
       <c r="B158" s="51" t="s">
         <v>304</v>
       </c>
@@ -19616,7 +19646,7 @@
       </c>
     </row>
     <row r="159" spans="1:9">
-      <c r="A159" s="72"/>
+      <c r="A159" s="73"/>
       <c r="B159" s="51" t="s">
         <v>358</v>
       </c>
@@ -19642,7 +19672,7 @@
       </c>
     </row>
     <row r="160" spans="1:9">
-      <c r="A160" s="72"/>
+      <c r="A160" s="73"/>
       <c r="B160" s="51" t="s">
         <v>359</v>
       </c>
@@ -19662,7 +19692,7 @@
       <c r="I160" s="54"/>
     </row>
     <row r="161" spans="1:9">
-      <c r="A161" s="72"/>
+      <c r="A161" s="73"/>
       <c r="B161" s="51"/>
       <c r="C161" s="51"/>
       <c r="D161" s="52"/>
@@ -19674,7 +19704,7 @@
       <c r="I161" s="54"/>
     </row>
     <row r="162" spans="1:9">
-      <c r="A162" s="72"/>
+      <c r="A162" s="73"/>
       <c r="B162" s="51"/>
       <c r="C162" s="51"/>
       <c r="D162" s="52"/>
@@ -19685,7 +19715,7 @@
       </c>
     </row>
     <row r="163" spans="1:9">
-      <c r="A163" s="72"/>
+      <c r="A163" s="73"/>
       <c r="B163" s="51"/>
       <c r="C163" s="51"/>
       <c r="D163" s="52"/>
@@ -19696,7 +19726,7 @@
       </c>
     </row>
     <row r="164" spans="1:9">
-      <c r="A164" s="72"/>
+      <c r="A164" s="73"/>
       <c r="B164" s="51"/>
       <c r="C164" s="51"/>
       <c r="D164" s="52"/>
@@ -19707,7 +19737,7 @@
       </c>
     </row>
     <row r="165" spans="1:9">
-      <c r="A165" s="72"/>
+      <c r="A165" s="73"/>
       <c r="B165" s="51"/>
       <c r="C165" s="51"/>
       <c r="D165" s="52"/>
@@ -19718,7 +19748,7 @@
       </c>
     </row>
     <row r="166" spans="1:9">
-      <c r="A166" s="72"/>
+      <c r="A166" s="73"/>
       <c r="B166" s="51"/>
       <c r="C166" s="51"/>
       <c r="D166" s="52"/>
@@ -19730,17 +19760,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="129" priority="12" operator="greaterThan">
@@ -19846,7 +19876,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -19876,7 +19906,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="72"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="51" t="s">
         <v>360</v>
       </c>
@@ -19905,7 +19935,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="72"/>
+      <c r="A4" s="73"/>
       <c r="B4" s="51" t="s">
         <v>361</v>
       </c>
@@ -19934,7 +19964,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="72"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="51" t="s">
         <v>309</v>
       </c>
@@ -19963,7 +19993,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="72"/>
+      <c r="A6" s="73"/>
       <c r="B6" s="51" t="s">
         <v>311</v>
       </c>
@@ -19992,7 +20022,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="72"/>
+      <c r="A7" s="73"/>
       <c r="B7" t="s">
         <v>362</v>
       </c>
@@ -20021,7 +20051,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="72"/>
+      <c r="A8" s="73"/>
       <c r="B8" s="51" t="s">
         <v>363</v>
       </c>
@@ -20047,7 +20077,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="72"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="51" t="s">
         <v>364</v>
       </c>
@@ -20073,7 +20103,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="72"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="51" t="s">
         <v>329</v>
       </c>
@@ -20093,7 +20123,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="72"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="51" t="s">
         <v>365</v>
       </c>
@@ -20113,7 +20143,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="72"/>
+      <c r="A12" s="73"/>
       <c r="B12" s="51" t="s">
         <v>345</v>
       </c>
@@ -20132,7 +20162,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="72"/>
+      <c r="A13" s="73"/>
       <c r="B13" s="51" t="s">
         <v>309</v>
       </c>
@@ -20151,7 +20181,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="72"/>
+      <c r="A14" s="73"/>
       <c r="B14" s="51" t="s">
         <v>366</v>
       </c>
@@ -20170,7 +20200,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="72"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="51" t="s">
         <v>367</v>
       </c>
@@ -20189,7 +20219,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="72"/>
+      <c r="A16" s="73"/>
       <c r="B16" s="51" t="s">
         <v>368</v>
       </c>
@@ -20208,7 +20238,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="73" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -20235,7 +20265,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="72"/>
+      <c r="A18" s="73"/>
       <c r="B18" s="51" t="s">
         <v>370</v>
       </c>
@@ -20261,7 +20291,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="72"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="51" t="s">
         <v>342</v>
       </c>
@@ -20287,7 +20317,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="72"/>
+      <c r="A20" s="73"/>
       <c r="B20" s="51" t="s">
         <v>371</v>
       </c>
@@ -20313,7 +20343,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="72"/>
+      <c r="A21" s="73"/>
       <c r="B21" s="51" t="s">
         <v>372</v>
       </c>
@@ -20339,7 +20369,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="72"/>
+      <c r="A22" s="73"/>
       <c r="B22" s="51" t="s">
         <v>329</v>
       </c>
@@ -20365,7 +20395,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="72"/>
+      <c r="A23" s="73"/>
       <c r="B23" s="51" t="s">
         <v>373</v>
       </c>
@@ -20391,7 +20421,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="72"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="51" t="s">
         <v>374</v>
       </c>
@@ -20417,7 +20447,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="72"/>
+      <c r="A25" s="73"/>
       <c r="B25" s="51" t="s">
         <v>304</v>
       </c>
@@ -20437,7 +20467,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="72"/>
+      <c r="A26" s="73"/>
       <c r="B26" s="51" t="s">
         <v>375</v>
       </c>
@@ -20457,7 +20487,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="72"/>
+      <c r="A27" s="73"/>
       <c r="B27" s="51" t="s">
         <v>376</v>
       </c>
@@ -20476,7 +20506,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="72"/>
+      <c r="A28" s="73"/>
       <c r="B28" s="51" t="s">
         <v>377</v>
       </c>
@@ -20495,7 +20525,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="72"/>
+      <c r="A29" s="73"/>
       <c r="B29" s="51" t="s">
         <v>378</v>
       </c>
@@ -20514,7 +20544,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="72"/>
+      <c r="A30" s="73"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -20525,7 +20555,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="72"/>
+      <c r="A31" s="73"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -20536,7 +20566,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="72" t="s">
+      <c r="A32" s="73" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -20563,7 +20593,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="72"/>
+      <c r="A33" s="73"/>
       <c r="B33" s="51" t="s">
         <v>380</v>
       </c>
@@ -20589,7 +20619,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="72"/>
+      <c r="A34" s="73"/>
       <c r="B34" s="51" t="s">
         <v>370</v>
       </c>
@@ -20615,7 +20645,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="72"/>
+      <c r="A35" s="73"/>
       <c r="B35" s="51" t="s">
         <v>294</v>
       </c>
@@ -20641,7 +20671,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="72"/>
+      <c r="A36" s="73"/>
       <c r="B36" s="51" t="s">
         <v>381</v>
       </c>
@@ -20667,7 +20697,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="72"/>
+      <c r="A37" s="73"/>
       <c r="B37" s="51" t="s">
         <v>311</v>
       </c>
@@ -20693,7 +20723,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="72"/>
+      <c r="A38" s="73"/>
       <c r="B38" s="51" t="s">
         <v>382</v>
       </c>
@@ -20719,7 +20749,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="72"/>
+      <c r="A39" s="73"/>
       <c r="B39" s="51" t="s">
         <v>329</v>
       </c>
@@ -20745,7 +20775,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="72"/>
+      <c r="A40" s="73"/>
       <c r="B40" s="51" t="s">
         <v>383</v>
       </c>
@@ -20765,7 +20795,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="72"/>
+      <c r="A41" s="73"/>
       <c r="B41" s="51" t="s">
         <v>374</v>
       </c>
@@ -20785,7 +20815,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="72"/>
+      <c r="A42" s="73"/>
       <c r="B42" s="51" t="s">
         <v>304</v>
       </c>
@@ -20804,7 +20834,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="72"/>
+      <c r="A43" s="73"/>
       <c r="B43" s="51" t="s">
         <v>384</v>
       </c>
@@ -20823,7 +20853,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="72"/>
+      <c r="A44" s="73"/>
       <c r="B44" s="51" t="s">
         <v>385</v>
       </c>
@@ -20842,7 +20872,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="72"/>
+      <c r="A45" s="73"/>
       <c r="B45" s="51" t="s">
         <v>386</v>
       </c>
@@ -21106,7 +21136,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="76" t="s">
+      <c r="A62" s="72" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -21133,7 +21163,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="72"/>
+      <c r="A63" s="73"/>
       <c r="B63" s="51" t="s">
         <v>390</v>
       </c>
@@ -21158,7 +21188,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="72"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="51" t="s">
         <v>370</v>
       </c>
@@ -21184,7 +21214,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="72"/>
+      <c r="A65" s="73"/>
       <c r="B65" s="51" t="s">
         <v>309</v>
       </c>
@@ -21210,7 +21240,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="72"/>
+      <c r="A66" s="73"/>
       <c r="B66" s="51" t="s">
         <v>391</v>
       </c>
@@ -21236,7 +21266,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="72"/>
+      <c r="A67" s="73"/>
       <c r="B67" s="51" t="s">
         <v>392</v>
       </c>
@@ -21262,7 +21292,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="72"/>
+      <c r="A68" s="73"/>
       <c r="B68" s="56" t="s">
         <v>313</v>
       </c>
@@ -21288,7 +21318,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="72"/>
+      <c r="A69" s="73"/>
       <c r="B69" s="51" t="s">
         <v>393</v>
       </c>
@@ -21314,7 +21344,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="72"/>
+      <c r="A70" s="73"/>
       <c r="B70" s="51" t="s">
         <v>394</v>
       </c>
@@ -21334,7 +21364,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="72"/>
+      <c r="A71" s="73"/>
       <c r="B71" s="51" t="s">
         <v>342</v>
       </c>
@@ -21354,7 +21384,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="72"/>
+      <c r="A72" s="73"/>
       <c r="B72" s="51" t="s">
         <v>385</v>
       </c>
@@ -21373,7 +21403,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="72"/>
+      <c r="A73" s="73"/>
       <c r="B73" s="51" t="s">
         <v>395</v>
       </c>
@@ -21392,7 +21422,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="72"/>
+      <c r="A74" s="73"/>
       <c r="B74" s="51" t="s">
         <v>396</v>
       </c>
@@ -21411,7 +21441,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="72"/>
+      <c r="A75" s="73"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -21422,7 +21452,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="72"/>
+      <c r="A76" s="73"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -21433,7 +21463,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="72" t="s">
+      <c r="A77" s="73" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -21460,7 +21490,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="72"/>
+      <c r="A78" s="73"/>
       <c r="B78" s="51" t="s">
         <v>397</v>
       </c>
@@ -21486,7 +21516,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="72"/>
+      <c r="A79" s="73"/>
       <c r="B79" s="51" t="s">
         <v>398</v>
       </c>
@@ -21512,7 +21542,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="72"/>
+      <c r="A80" s="73"/>
       <c r="B80" s="51" t="s">
         <v>309</v>
       </c>
@@ -21538,7 +21568,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="72"/>
+      <c r="A81" s="73"/>
       <c r="B81" s="51" t="s">
         <v>399</v>
       </c>
@@ -21564,7 +21594,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="72"/>
+      <c r="A82" s="73"/>
       <c r="B82" s="51" t="s">
         <v>400</v>
       </c>
@@ -21590,7 +21620,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="72"/>
+      <c r="A83" s="73"/>
       <c r="B83" s="51" t="s">
         <v>329</v>
       </c>
@@ -21616,7 +21646,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="72"/>
+      <c r="A84" s="73"/>
       <c r="B84" s="51" t="s">
         <v>401</v>
       </c>
@@ -21642,7 +21672,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="72"/>
+      <c r="A85" s="73"/>
       <c r="B85" s="51" t="s">
         <v>394</v>
       </c>
@@ -21662,7 +21692,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="72"/>
+      <c r="A86" s="73"/>
       <c r="B86" s="51" t="s">
         <v>309</v>
       </c>
@@ -21682,7 +21712,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="72"/>
+      <c r="A87" s="73"/>
       <c r="B87" s="51" t="s">
         <v>385</v>
       </c>
@@ -21701,7 +21731,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="72"/>
+      <c r="A88" s="73"/>
       <c r="B88" s="51" t="s">
         <v>402</v>
       </c>
@@ -21720,7 +21750,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="72"/>
+      <c r="A89" s="73"/>
       <c r="B89" s="51" t="s">
         <v>403</v>
       </c>
@@ -21739,7 +21769,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="72"/>
+      <c r="A90" s="73"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -21750,7 +21780,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="73"/>
+      <c r="A91" s="76"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -21761,7 +21791,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="76" t="s">
+      <c r="A92" s="72" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -21788,7 +21818,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="72"/>
+      <c r="A93" s="73"/>
       <c r="B93" s="51" t="s">
         <v>405</v>
       </c>
@@ -21814,7 +21844,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="72"/>
+      <c r="A94" s="73"/>
       <c r="B94" s="56" t="s">
         <v>406</v>
       </c>
@@ -21840,7 +21870,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="72"/>
+      <c r="A95" s="73"/>
       <c r="B95" s="51" t="s">
         <v>407</v>
       </c>
@@ -21866,7 +21896,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="72"/>
+      <c r="A96" s="73"/>
       <c r="B96" s="51" t="s">
         <v>342</v>
       </c>
@@ -21892,7 +21922,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="72"/>
+      <c r="A97" s="73"/>
       <c r="B97" s="51" t="s">
         <v>408</v>
       </c>
@@ -21918,7 +21948,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="72"/>
+      <c r="A98" s="73"/>
       <c r="B98" s="51" t="s">
         <v>409</v>
       </c>
@@ -21944,7 +21974,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="72"/>
+      <c r="A99" s="73"/>
       <c r="B99" s="51" t="s">
         <v>410</v>
       </c>
@@ -21970,7 +22000,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="72"/>
+      <c r="A100" s="73"/>
       <c r="B100" s="51" t="s">
         <v>411</v>
       </c>
@@ -21990,7 +22020,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="72"/>
+      <c r="A101" s="73"/>
       <c r="B101" s="51" t="s">
         <v>412</v>
       </c>
@@ -22010,7 +22040,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="72"/>
+      <c r="A102" s="73"/>
       <c r="B102" s="51" t="s">
         <v>413</v>
       </c>
@@ -22029,7 +22059,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="72"/>
+      <c r="A103" s="73"/>
       <c r="B103" s="51" t="s">
         <v>414</v>
       </c>
@@ -22048,7 +22078,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="72"/>
+      <c r="A104" s="73"/>
       <c r="B104" s="51" t="s">
         <v>304</v>
       </c>
@@ -22067,7 +22097,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="72"/>
+      <c r="A105" s="73"/>
       <c r="B105" s="51" t="s">
         <v>415</v>
       </c>
@@ -22429,7 +22459,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="76" t="s">
+      <c r="A122" s="72" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51" t="s">
@@ -22456,7 +22486,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="72"/>
+      <c r="A123" s="73"/>
       <c r="B123" s="51" t="s">
         <v>426</v>
       </c>
@@ -22482,7 +22512,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="72"/>
+      <c r="A124" s="73"/>
       <c r="B124" s="51" t="s">
         <v>427</v>
       </c>
@@ -22508,7 +22538,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="72"/>
+      <c r="A125" s="73"/>
       <c r="B125" s="51" t="s">
         <v>428</v>
       </c>
@@ -22534,7 +22564,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="72"/>
+      <c r="A126" s="73"/>
       <c r="B126" s="51" t="s">
         <v>429</v>
       </c>
@@ -22560,7 +22590,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="72"/>
+      <c r="A127" s="73"/>
       <c r="B127" s="56" t="s">
         <v>430</v>
       </c>
@@ -22586,7 +22616,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="72"/>
+      <c r="A128" s="73"/>
       <c r="B128" s="51" t="s">
         <v>431</v>
       </c>
@@ -22612,7 +22642,7 @@
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="72"/>
+      <c r="A129" s="73"/>
       <c r="B129" s="56" t="s">
         <v>432</v>
       </c>
@@ -22638,7 +22668,7 @@
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="72"/>
+      <c r="A130" s="73"/>
       <c r="B130" s="56" t="s">
         <v>433</v>
       </c>
@@ -22658,7 +22688,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="72"/>
+      <c r="A131" s="73"/>
       <c r="B131" s="51" t="s">
         <v>294</v>
       </c>
@@ -22678,7 +22708,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="72"/>
+      <c r="A132" s="73"/>
       <c r="B132" s="51" t="s">
         <v>329</v>
       </c>
@@ -22697,7 +22727,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="72"/>
+      <c r="A133" s="73"/>
       <c r="B133" s="51" t="s">
         <v>304</v>
       </c>
@@ -22716,7 +22746,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="72"/>
+      <c r="A134" s="73"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -22727,7 +22757,7 @@
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="72"/>
+      <c r="A135" s="73"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -23185,7 +23215,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -23215,7 +23245,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="72"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="51" t="s">
         <v>311</v>
       </c>
@@ -23244,7 +23274,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="72"/>
+      <c r="A4" s="73"/>
       <c r="B4" s="51" t="s">
         <v>440</v>
       </c>
@@ -23273,7 +23303,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="72"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="56" t="s">
         <v>441</v>
       </c>
@@ -23302,7 +23332,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="72"/>
+      <c r="A6" s="73"/>
       <c r="B6" s="51" t="s">
         <v>342</v>
       </c>
@@ -23331,7 +23361,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="72"/>
+      <c r="A7" s="73"/>
       <c r="B7" t="s">
         <v>442</v>
       </c>
@@ -23360,7 +23390,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="72"/>
+      <c r="A8" s="73"/>
       <c r="B8" t="s">
         <v>443</v>
       </c>
@@ -23386,7 +23416,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="72"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="51" t="s">
         <v>329</v>
       </c>
@@ -23412,7 +23442,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="72"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="51" t="s">
         <v>444</v>
       </c>
@@ -23432,7 +23462,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="72"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="51" t="s">
         <v>445</v>
       </c>
@@ -23452,7 +23482,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="72"/>
+      <c r="A12" s="73"/>
       <c r="B12" s="51" t="s">
         <v>446</v>
       </c>
@@ -23471,7 +23501,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="72"/>
+      <c r="A13" s="73"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51" t="s">
         <v>295</v>
@@ -23484,7 +23514,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="72"/>
+      <c r="A14" s="73"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51" t="s">
         <v>288</v>
@@ -23497,7 +23527,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="72"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51" t="s">
         <v>293</v>
@@ -23510,7 +23540,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="72"/>
+      <c r="A16" s="73"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51" t="s">
         <v>290</v>
@@ -23523,7 +23553,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="73" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -23550,7 +23580,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="72"/>
+      <c r="A18" s="73"/>
       <c r="B18" s="51" t="s">
         <v>447</v>
       </c>
@@ -23576,7 +23606,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="72"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="51" t="s">
         <v>342</v>
       </c>
@@ -23602,7 +23632,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="72"/>
+      <c r="A20" s="73"/>
       <c r="B20" s="51" t="s">
         <v>371</v>
       </c>
@@ -23628,7 +23658,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="72"/>
+      <c r="A21" s="73"/>
       <c r="B21" s="51" t="s">
         <v>372</v>
       </c>
@@ -23654,7 +23684,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="72"/>
+      <c r="A22" s="73"/>
       <c r="B22" s="51" t="s">
         <v>329</v>
       </c>
@@ -23680,7 +23710,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="72"/>
+      <c r="A23" s="73"/>
       <c r="B23" s="51" t="s">
         <v>373</v>
       </c>
@@ -23706,7 +23736,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="72"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="51" t="s">
         <v>374</v>
       </c>
@@ -23732,7 +23762,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="72"/>
+      <c r="A25" s="73"/>
       <c r="B25" s="51" t="s">
         <v>304</v>
       </c>
@@ -23752,7 +23782,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="72"/>
+      <c r="A26" s="73"/>
       <c r="B26" s="51" t="s">
         <v>375</v>
       </c>
@@ -23772,7 +23802,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="72"/>
+      <c r="A27" s="73"/>
       <c r="B27" s="51" t="s">
         <v>376</v>
       </c>
@@ -23791,7 +23821,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="72"/>
+      <c r="A28" s="73"/>
       <c r="B28" s="51" t="s">
         <v>377</v>
       </c>
@@ -23810,7 +23840,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="72"/>
+      <c r="A29" s="73"/>
       <c r="B29" s="51" t="s">
         <v>378</v>
       </c>
@@ -23829,7 +23859,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="72"/>
+      <c r="A30" s="73"/>
       <c r="B30" s="51" t="s">
         <v>448</v>
       </c>
@@ -23848,7 +23878,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="72"/>
+      <c r="A31" s="73"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -23859,7 +23889,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="72" t="s">
+      <c r="A32" s="73" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -23886,7 +23916,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="72"/>
+      <c r="A33" s="73"/>
       <c r="B33" s="51" t="s">
         <v>449</v>
       </c>
@@ -23912,7 +23942,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="72"/>
+      <c r="A34" s="73"/>
       <c r="B34" s="51" t="s">
         <v>450</v>
       </c>
@@ -23938,7 +23968,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="72"/>
+      <c r="A35" s="73"/>
       <c r="B35" s="51" t="s">
         <v>294</v>
       </c>
@@ -23964,7 +23994,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="72"/>
+      <c r="A36" s="73"/>
       <c r="B36" s="51" t="s">
         <v>451</v>
       </c>
@@ -23990,7 +24020,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="72"/>
+      <c r="A37" s="73"/>
       <c r="B37" s="51" t="s">
         <v>311</v>
       </c>
@@ -24016,7 +24046,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="72"/>
+      <c r="A38" s="73"/>
       <c r="B38" s="51" t="s">
         <v>452</v>
       </c>
@@ -24042,7 +24072,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="72"/>
+      <c r="A39" s="73"/>
       <c r="B39" s="51" t="s">
         <v>329</v>
       </c>
@@ -24068,7 +24098,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="72"/>
+      <c r="A40" s="73"/>
       <c r="B40" s="51" t="s">
         <v>453</v>
       </c>
@@ -24088,7 +24118,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="72"/>
+      <c r="A41" s="73"/>
       <c r="B41" s="51" t="s">
         <v>454</v>
       </c>
@@ -24108,7 +24138,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="72"/>
+      <c r="A42" s="73"/>
       <c r="B42" s="51" t="s">
         <v>304</v>
       </c>
@@ -24127,7 +24157,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="72"/>
+      <c r="A43" s="73"/>
       <c r="B43" s="51" t="s">
         <v>455</v>
       </c>
@@ -24146,7 +24176,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="72"/>
+      <c r="A44" s="73"/>
       <c r="B44" s="51" t="s">
         <v>448</v>
       </c>
@@ -24165,7 +24195,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="72"/>
+      <c r="A45" s="73"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
       <c r="E45" s="52"/>
@@ -24412,7 +24442,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="76" t="s">
+      <c r="A62" s="72" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51"/>
@@ -24431,7 +24461,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="72"/>
+      <c r="A63" s="73"/>
       <c r="B63" s="51"/>
       <c r="C63" s="51"/>
       <c r="D63" s="52"/>
@@ -24448,7 +24478,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="72"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="51"/>
       <c r="C64" s="51"/>
       <c r="D64" s="52"/>
@@ -24466,7 +24496,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="72"/>
+      <c r="A65" s="73"/>
       <c r="B65" s="51"/>
       <c r="C65" s="51"/>
       <c r="D65" s="52"/>
@@ -24484,7 +24514,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="72"/>
+      <c r="A66" s="73"/>
       <c r="B66" s="51"/>
       <c r="C66" s="51"/>
       <c r="D66" s="52"/>
@@ -24502,7 +24532,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="72"/>
+      <c r="A67" s="73"/>
       <c r="B67" s="51"/>
       <c r="C67" s="51"/>
       <c r="D67" s="52"/>
@@ -24520,7 +24550,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="72"/>
+      <c r="A68" s="73"/>
       <c r="B68" s="56" t="s">
         <v>456</v>
       </c>
@@ -24540,7 +24570,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="72"/>
+      <c r="A69" s="73"/>
       <c r="B69" s="51"/>
       <c r="C69" s="51"/>
       <c r="D69" s="52"/>
@@ -24558,7 +24588,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="72"/>
+      <c r="A70" s="73"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51"/>
       <c r="D70" s="52"/>
@@ -24570,7 +24600,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="72"/>
+      <c r="A71" s="73"/>
       <c r="B71" s="51"/>
       <c r="C71" s="51"/>
       <c r="D71" s="52"/>
@@ -24582,7 +24612,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="72"/>
+      <c r="A72" s="73"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -24593,7 +24623,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="72"/>
+      <c r="A73" s="73"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -24604,7 +24634,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="72"/>
+      <c r="A74" s="73"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -24615,7 +24645,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="72"/>
+      <c r="A75" s="73"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -24626,7 +24656,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="72"/>
+      <c r="A76" s="73"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -24637,7 +24667,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="72" t="s">
+      <c r="A77" s="73" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -24664,7 +24694,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="72"/>
+      <c r="A78" s="73"/>
       <c r="B78" s="51" t="s">
         <v>457</v>
       </c>
@@ -24690,7 +24720,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="72"/>
+      <c r="A79" s="73"/>
       <c r="B79" s="51" t="s">
         <v>458</v>
       </c>
@@ -24716,7 +24746,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="72"/>
+      <c r="A80" s="73"/>
       <c r="B80" s="51" t="s">
         <v>309</v>
       </c>
@@ -24742,7 +24772,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="72"/>
+      <c r="A81" s="73"/>
       <c r="B81" s="51" t="s">
         <v>459</v>
       </c>
@@ -24768,7 +24798,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="72"/>
+      <c r="A82" s="73"/>
       <c r="B82" s="51" t="s">
         <v>400</v>
       </c>
@@ -24794,7 +24824,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="72"/>
+      <c r="A83" s="73"/>
       <c r="B83" s="51" t="s">
         <v>329</v>
       </c>
@@ -24820,7 +24850,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="72"/>
+      <c r="A84" s="73"/>
       <c r="B84" s="51" t="s">
         <v>401</v>
       </c>
@@ -24846,7 +24876,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="72"/>
+      <c r="A85" s="73"/>
       <c r="B85" s="51" t="s">
         <v>394</v>
       </c>
@@ -24866,7 +24896,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="72"/>
+      <c r="A86" s="73"/>
       <c r="B86" s="51" t="s">
         <v>309</v>
       </c>
@@ -24886,7 +24916,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="72"/>
+      <c r="A87" s="73"/>
       <c r="B87" s="51" t="s">
         <v>385</v>
       </c>
@@ -24905,7 +24935,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="72"/>
+      <c r="A88" s="73"/>
       <c r="B88" s="51" t="s">
         <v>402</v>
       </c>
@@ -24924,7 +24954,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="72"/>
+      <c r="A89" s="73"/>
       <c r="B89" s="51" t="s">
         <v>403</v>
       </c>
@@ -24943,7 +24973,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="72"/>
+      <c r="A90" s="73"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -24954,7 +24984,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="73"/>
+      <c r="A91" s="76"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -24965,7 +24995,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="76" t="s">
+      <c r="A92" s="72" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -24992,7 +25022,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="72"/>
+      <c r="A93" s="73"/>
       <c r="B93" s="51" t="s">
         <v>461</v>
       </c>
@@ -25018,7 +25048,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="72"/>
+      <c r="A94" s="73"/>
       <c r="B94" s="56" t="s">
         <v>309</v>
       </c>
@@ -25044,7 +25074,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="72"/>
+      <c r="A95" s="73"/>
       <c r="B95" s="51" t="s">
         <v>462</v>
       </c>
@@ -25070,7 +25100,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="72"/>
+      <c r="A96" s="73"/>
       <c r="B96" s="51" t="s">
         <v>463</v>
       </c>
@@ -25096,7 +25126,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="72"/>
+      <c r="A97" s="73"/>
       <c r="B97" s="51" t="s">
         <v>464</v>
       </c>
@@ -25122,7 +25152,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="72"/>
+      <c r="A98" s="73"/>
       <c r="B98" s="51" t="s">
         <v>465</v>
       </c>
@@ -25148,7 +25178,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="72"/>
+      <c r="A99" s="73"/>
       <c r="B99" s="51" t="s">
         <v>466</v>
       </c>
@@ -25174,7 +25204,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="72"/>
+      <c r="A100" s="73"/>
       <c r="B100" s="51" t="s">
         <v>421</v>
       </c>
@@ -25194,7 +25224,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="72"/>
+      <c r="A101" s="73"/>
       <c r="B101" s="51" t="s">
         <v>467</v>
       </c>
@@ -25214,7 +25244,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="72"/>
+      <c r="A102" s="73"/>
       <c r="B102" s="51" t="s">
         <v>468</v>
       </c>
@@ -25233,7 +25263,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="72"/>
+      <c r="A103" s="73"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51" t="s">
         <v>296</v>
@@ -25250,7 +25280,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="72"/>
+      <c r="A104" s="73"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51" t="s">
         <v>295</v>
@@ -25267,7 +25297,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="72"/>
+      <c r="A105" s="73"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51" t="s">
         <v>288</v>
@@ -25527,7 +25557,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="76" t="s">
+      <c r="A122" s="72" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51"/>
@@ -25552,7 +25582,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="72"/>
+      <c r="A123" s="73"/>
       <c r="B123" s="51"/>
       <c r="C123" s="51" t="s">
         <v>295</v>
@@ -25576,7 +25606,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="72"/>
+      <c r="A124" s="73"/>
       <c r="B124" s="51"/>
       <c r="C124" s="51" t="s">
         <v>288</v>
@@ -25600,7 +25630,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="72"/>
+      <c r="A125" s="73"/>
       <c r="B125" s="51"/>
       <c r="C125" s="51" t="s">
         <v>295</v>
@@ -25624,7 +25654,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="72"/>
+      <c r="A126" s="73"/>
       <c r="B126" s="58"/>
       <c r="C126" s="51" t="s">
         <v>288</v>
@@ -25720,7 +25750,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="72"/>
+      <c r="A131" s="73"/>
       <c r="B131" s="59"/>
       <c r="C131" s="51"/>
       <c r="D131" s="52"/>
@@ -25729,7 +25759,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="72"/>
+      <c r="A132" s="73"/>
       <c r="B132" s="51"/>
       <c r="C132" s="51"/>
       <c r="D132" s="52"/>
@@ -25737,7 +25767,7 @@
       <c r="F132" s="52"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="72"/>
+      <c r="A133" s="73"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
@@ -25745,7 +25775,7 @@
       <c r="F133" s="52"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="72"/>
+      <c r="A134" s="73"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -25753,7 +25783,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="72"/>
+      <c r="A135" s="73"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -26515,7 +26545,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -26545,7 +26575,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="72"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="51" t="s">
         <v>470</v>
       </c>
@@ -26574,7 +26604,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="72"/>
+      <c r="A4" s="73"/>
       <c r="B4" s="51" t="s">
         <v>471</v>
       </c>
@@ -26603,7 +26633,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="72"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="51" t="s">
         <v>472</v>
       </c>
@@ -26632,7 +26662,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="72"/>
+      <c r="A6" s="73"/>
       <c r="B6" s="51" t="s">
         <v>329</v>
       </c>
@@ -26661,7 +26691,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="72"/>
+      <c r="A7" s="73"/>
       <c r="B7" t="s">
         <v>473</v>
       </c>
@@ -26690,7 +26720,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="72"/>
+      <c r="A8" s="73"/>
       <c r="B8" s="51" t="s">
         <v>474</v>
       </c>
@@ -26716,7 +26746,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="72"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="51"/>
       <c r="C9" s="51" t="s">
         <v>288</v>
@@ -26736,7 +26766,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="72"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="51"/>
       <c r="C10" s="51" t="s">
         <v>295</v>
@@ -26750,7 +26780,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="72"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="51"/>
       <c r="C11" s="51" t="s">
         <v>288</v>
@@ -26764,7 +26794,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="72"/>
+      <c r="A12" s="73"/>
       <c r="B12" s="51"/>
       <c r="C12" s="51" t="s">
         <v>296</v>
@@ -26777,7 +26807,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="72"/>
+      <c r="A13" s="73"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51" t="s">
         <v>295</v>
@@ -26790,7 +26820,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="72"/>
+      <c r="A14" s="73"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51" t="s">
         <v>288</v>
@@ -26803,7 +26833,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="72"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51" t="s">
         <v>293</v>
@@ -26816,7 +26846,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="72"/>
+      <c r="A16" s="73"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51" t="s">
         <v>290</v>
@@ -26829,7 +26859,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="73" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -26856,7 +26886,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="72"/>
+      <c r="A18" s="73"/>
       <c r="B18" s="51" t="s">
         <v>476</v>
       </c>
@@ -26882,7 +26912,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="72"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="51" t="s">
         <v>329</v>
       </c>
@@ -26908,7 +26938,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="72"/>
+      <c r="A20" s="73"/>
       <c r="B20" s="51" t="s">
         <v>477</v>
       </c>
@@ -26934,7 +26964,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="72"/>
+      <c r="A21" s="73"/>
       <c r="B21" s="51" t="s">
         <v>309</v>
       </c>
@@ -26960,7 +26990,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="72"/>
+      <c r="A22" s="73"/>
       <c r="B22" s="51" t="s">
         <v>478</v>
       </c>
@@ -26986,7 +27016,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="72"/>
+      <c r="A23" s="73"/>
       <c r="B23" s="51"/>
       <c r="C23" s="51"/>
       <c r="D23" s="52"/>
@@ -27001,7 +27031,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="72"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
       <c r="D24" s="52"/>
@@ -27016,7 +27046,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="72"/>
+      <c r="A25" s="73"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
       <c r="D25" s="52"/>
@@ -27025,7 +27055,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="72"/>
+      <c r="A26" s="73"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
       <c r="D26" s="52"/>
@@ -27037,7 +27067,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="72"/>
+      <c r="A27" s="73"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
       <c r="D27" s="52"/>
@@ -27048,7 +27078,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="72"/>
+      <c r="A28" s="73"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="52"/>
@@ -27059,7 +27089,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="72"/>
+      <c r="A29" s="73"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="52"/>
@@ -27070,7 +27100,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="72"/>
+      <c r="A30" s="73"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -27081,7 +27111,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="72"/>
+      <c r="A31" s="73"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -27092,7 +27122,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="72" t="s">
+      <c r="A32" s="73" t="s">
         <v>263</v>
       </c>
       <c r="C32" s="51"/>
@@ -27110,7 +27140,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="72"/>
+      <c r="A33" s="73"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
       <c r="D33" s="52"/>
@@ -27128,7 +27158,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="72"/>
+      <c r="A34" s="73"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
       <c r="D34" s="52"/>
@@ -27146,7 +27176,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="72"/>
+      <c r="A35" s="73"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
       <c r="D35" s="52"/>
@@ -27164,7 +27194,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="72"/>
+      <c r="A36" s="73"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
       <c r="D36" s="52"/>
@@ -27182,7 +27212,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="72"/>
+      <c r="A37" s="73"/>
       <c r="B37" s="51" t="s">
         <v>479</v>
       </c>
@@ -27202,7 +27232,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="72"/>
+      <c r="A38" s="73"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
       <c r="D38" s="52"/>
@@ -27220,7 +27250,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="72"/>
+      <c r="A39" s="73"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
       <c r="D39" s="52"/>
@@ -27238,7 +27268,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="72"/>
+      <c r="A40" s="73"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
       <c r="D40" s="52"/>
@@ -27250,7 +27280,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="72"/>
+      <c r="A41" s="73"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
       <c r="D41" s="52"/>
@@ -27262,7 +27292,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="72"/>
+      <c r="A42" s="73"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
       <c r="D42" s="52"/>
@@ -27273,7 +27303,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="72"/>
+      <c r="A43" s="73"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
       <c r="D43" s="52"/>
@@ -27284,7 +27314,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="72"/>
+      <c r="A44" s="73"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
       <c r="D44" s="52"/>
@@ -27295,7 +27325,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="72"/>
+      <c r="A45" s="73"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -27587,7 +27617,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="76" t="s">
+      <c r="A62" s="72" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51"/>
@@ -27606,7 +27636,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="72"/>
+      <c r="A63" s="73"/>
       <c r="B63" s="51"/>
       <c r="C63" s="51"/>
       <c r="D63" s="52"/>
@@ -27623,7 +27653,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="72"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="51"/>
       <c r="C64" s="51"/>
       <c r="D64" s="52"/>
@@ -27641,7 +27671,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="72"/>
+      <c r="A65" s="73"/>
       <c r="B65" s="51"/>
       <c r="C65" s="51"/>
       <c r="D65" s="52"/>
@@ -27659,7 +27689,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="72"/>
+      <c r="A66" s="73"/>
       <c r="B66" s="51"/>
       <c r="C66" s="51"/>
       <c r="D66" s="52"/>
@@ -27677,7 +27707,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="72"/>
+      <c r="A67" s="73"/>
       <c r="B67" s="51"/>
       <c r="C67" s="51"/>
       <c r="D67" s="52"/>
@@ -27695,7 +27725,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="72"/>
+      <c r="A68" s="73"/>
       <c r="B68" s="56" t="s">
         <v>488</v>
       </c>
@@ -27715,7 +27745,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="72"/>
+      <c r="A69" s="73"/>
       <c r="B69" s="51"/>
       <c r="C69" s="51"/>
       <c r="D69" s="52"/>
@@ -27733,7 +27763,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="72"/>
+      <c r="A70" s="73"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51"/>
       <c r="D70" s="52"/>
@@ -27745,7 +27775,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="72"/>
+      <c r="A71" s="73"/>
       <c r="B71" s="51"/>
       <c r="C71" s="51"/>
       <c r="D71" s="52"/>
@@ -27757,7 +27787,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="72"/>
+      <c r="A72" s="73"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -27768,7 +27798,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="72"/>
+      <c r="A73" s="73"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -27779,7 +27809,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="72"/>
+      <c r="A74" s="73"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -27790,7 +27820,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="72"/>
+      <c r="A75" s="73"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -27801,7 +27831,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="72"/>
+      <c r="A76" s="73"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -27812,7 +27842,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="72" t="s">
+      <c r="A77" s="73" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -27833,7 +27863,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="72"/>
+      <c r="A78" s="73"/>
       <c r="B78" s="51"/>
       <c r="C78" s="51"/>
       <c r="D78" s="52"/>
@@ -27851,7 +27881,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="72"/>
+      <c r="A79" s="73"/>
       <c r="B79" s="51"/>
       <c r="C79" s="51"/>
       <c r="D79" s="52"/>
@@ -27869,7 +27899,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="72"/>
+      <c r="A80" s="73"/>
       <c r="B80" s="51"/>
       <c r="C80" s="51"/>
       <c r="D80" s="52"/>
@@ -27887,7 +27917,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="72"/>
+      <c r="A81" s="73"/>
       <c r="B81" s="51"/>
       <c r="C81" s="51"/>
       <c r="D81" s="52"/>
@@ -27905,7 +27935,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="72"/>
+      <c r="A82" s="73"/>
       <c r="B82" s="51"/>
       <c r="C82" s="51"/>
       <c r="D82" s="52"/>
@@ -27923,7 +27953,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="72"/>
+      <c r="A83" s="73"/>
       <c r="B83" s="51"/>
       <c r="C83" s="51"/>
       <c r="D83" s="52"/>
@@ -27941,7 +27971,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="72"/>
+      <c r="A84" s="73"/>
       <c r="B84" s="51"/>
       <c r="C84" s="51"/>
       <c r="D84" s="52"/>
@@ -27959,7 +27989,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="72"/>
+      <c r="A85" s="73"/>
       <c r="B85" s="51"/>
       <c r="C85" s="51"/>
       <c r="D85" s="52"/>
@@ -27971,7 +28001,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="72"/>
+      <c r="A86" s="73"/>
       <c r="B86" s="51"/>
       <c r="C86" s="51"/>
       <c r="D86" s="52"/>
@@ -27983,7 +28013,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="72"/>
+      <c r="A87" s="73"/>
       <c r="B87" s="51"/>
       <c r="C87" s="51"/>
       <c r="D87" s="52"/>
@@ -27994,7 +28024,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="72"/>
+      <c r="A88" s="73"/>
       <c r="B88" s="51"/>
       <c r="C88" s="51"/>
       <c r="D88" s="52"/>
@@ -28005,7 +28035,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="72"/>
+      <c r="A89" s="73"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="52"/>
@@ -28016,7 +28046,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="72"/>
+      <c r="A90" s="73"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -28027,7 +28057,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="73"/>
+      <c r="A91" s="76"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -28038,7 +28068,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="76" t="s">
+      <c r="A92" s="72" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -28065,7 +28095,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="72"/>
+      <c r="A93" s="73"/>
       <c r="B93" s="51" t="s">
         <v>491</v>
       </c>
@@ -28091,7 +28121,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="72"/>
+      <c r="A94" s="73"/>
       <c r="B94" s="56" t="s">
         <v>492</v>
       </c>
@@ -28117,7 +28147,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="72"/>
+      <c r="A95" s="73"/>
       <c r="B95" s="51"/>
       <c r="C95" s="51" t="s">
         <v>293</v>
@@ -28141,7 +28171,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="72"/>
+      <c r="A96" s="73"/>
       <c r="B96" s="51"/>
       <c r="C96" s="51" t="s">
         <v>295</v>
@@ -28165,7 +28195,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="72"/>
+      <c r="A97" s="73"/>
       <c r="B97" s="51"/>
       <c r="C97" s="51" t="s">
         <v>288</v>
@@ -28189,7 +28219,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="72"/>
+      <c r="A98" s="73"/>
       <c r="B98" s="51"/>
       <c r="C98" s="51" t="s">
         <v>285</v>
@@ -28213,7 +28243,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="72"/>
+      <c r="A99" s="73"/>
       <c r="B99" s="51"/>
       <c r="C99" s="51" t="s">
         <v>290</v>
@@ -28237,7 +28267,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="72"/>
+      <c r="A100" s="73"/>
       <c r="B100" s="51"/>
       <c r="C100" s="51" t="s">
         <v>288</v>
@@ -28255,7 +28285,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="72"/>
+      <c r="A101" s="73"/>
       <c r="B101" s="51"/>
       <c r="C101" s="51" t="s">
         <v>295</v>
@@ -28273,7 +28303,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="72"/>
+      <c r="A102" s="73"/>
       <c r="B102" s="51"/>
       <c r="C102" s="51" t="s">
         <v>288</v>
@@ -28290,7 +28320,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="72"/>
+      <c r="A103" s="73"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51" t="s">
         <v>296</v>
@@ -28307,7 +28337,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="72"/>
+      <c r="A104" s="73"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51" t="s">
         <v>295</v>
@@ -28324,7 +28354,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="72"/>
+      <c r="A105" s="73"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51" t="s">
         <v>288</v>
@@ -28584,7 +28614,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="76" t="s">
+      <c r="A122" s="72" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51" t="s">
@@ -28611,7 +28641,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="72"/>
+      <c r="A123" s="73"/>
       <c r="B123" s="51" t="s">
         <v>494</v>
       </c>
@@ -28637,7 +28667,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="72"/>
+      <c r="A124" s="73"/>
       <c r="B124" s="51" t="s">
         <v>495</v>
       </c>
@@ -28663,7 +28693,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="72"/>
+      <c r="A125" s="73"/>
       <c r="B125" s="51" t="s">
         <v>496</v>
       </c>
@@ -28689,7 +28719,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="72"/>
+      <c r="A126" s="73"/>
       <c r="B126" s="58" t="s">
         <v>497</v>
       </c>
@@ -28811,7 +28841,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="72"/>
+      <c r="A131" s="73"/>
       <c r="B131" s="59" t="s">
         <v>502</v>
       </c>
@@ -28830,7 +28860,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="72"/>
+      <c r="A132" s="73"/>
       <c r="B132" s="51" t="s">
         <v>503</v>
       </c>
@@ -28848,7 +28878,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="72"/>
+      <c r="A133" s="73"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
@@ -28856,7 +28886,7 @@
       <c r="F133" s="52"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="72"/>
+      <c r="A134" s="73"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -28864,7 +28894,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="72"/>
+      <c r="A135" s="73"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -29284,7 +29314,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51"/>
@@ -29308,7 +29338,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="72"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="51"/>
       <c r="C3" s="51" t="s">
         <v>288</v>
@@ -29331,7 +29361,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="72"/>
+      <c r="A4" s="73"/>
       <c r="B4" s="51"/>
       <c r="C4" s="51" t="s">
         <v>285</v>
@@ -29354,7 +29384,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="72"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="51"/>
       <c r="C5" s="51" t="s">
         <v>295</v>
@@ -29377,7 +29407,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="72"/>
+      <c r="A6" s="73"/>
       <c r="B6" s="51"/>
       <c r="C6" s="51" t="s">
         <v>285</v>
@@ -29400,7 +29430,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="72"/>
+      <c r="A7" s="73"/>
       <c r="C7" s="51" t="s">
         <v>288</v>
       </c>
@@ -29422,7 +29452,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="72"/>
+      <c r="A8" s="73"/>
       <c r="B8" s="51"/>
       <c r="C8" s="51" t="s">
         <v>288</v>
@@ -29442,7 +29472,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="72"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="51" t="s">
         <v>388</v>
       </c>
@@ -29464,7 +29494,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="72"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="51"/>
       <c r="C10" s="51" t="s">
         <v>295</v>
@@ -29478,7 +29508,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="72"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="51"/>
       <c r="C11" s="51" t="s">
         <v>288</v>
@@ -29492,7 +29522,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="72"/>
+      <c r="A12" s="73"/>
       <c r="B12" s="51"/>
       <c r="C12" s="51" t="s">
         <v>296</v>
@@ -29505,7 +29535,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="72"/>
+      <c r="A13" s="73"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51" t="s">
         <v>295</v>
@@ -29518,7 +29548,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="72"/>
+      <c r="A14" s="73"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51" t="s">
         <v>288</v>
@@ -29531,7 +29561,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="72"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51" t="s">
         <v>293</v>
@@ -29544,7 +29574,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="72"/>
+      <c r="A16" s="73"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51" t="s">
         <v>290</v>
@@ -29557,7 +29587,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="73" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -29584,7 +29614,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="72"/>
+      <c r="A18" s="73"/>
       <c r="B18" s="51" t="s">
         <v>510</v>
       </c>
@@ -29610,7 +29640,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="72"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="51" t="s">
         <v>329</v>
       </c>
@@ -29636,7 +29666,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="72"/>
+      <c r="A20" s="73"/>
       <c r="B20" s="51" t="s">
         <v>477</v>
       </c>
@@ -29662,7 +29692,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="72"/>
+      <c r="A21" s="73"/>
       <c r="B21" s="51" t="s">
         <v>511</v>
       </c>
@@ -29688,7 +29718,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="72"/>
+      <c r="A22" s="73"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
       <c r="D22" s="52"/>
@@ -29706,7 +29736,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="72"/>
+      <c r="A23" s="73"/>
       <c r="B23" s="51"/>
       <c r="C23" s="51"/>
       <c r="D23" s="52"/>
@@ -29721,7 +29751,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="72"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
       <c r="D24" s="52"/>
@@ -29736,7 +29766,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="72"/>
+      <c r="A25" s="73"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
       <c r="D25" s="52"/>
@@ -29745,7 +29775,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="72"/>
+      <c r="A26" s="73"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
       <c r="D26" s="52"/>
@@ -29757,7 +29787,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="72"/>
+      <c r="A27" s="73"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
       <c r="D27" s="52"/>
@@ -29768,7 +29798,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="72"/>
+      <c r="A28" s="73"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="52"/>
@@ -29779,7 +29809,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="72"/>
+      <c r="A29" s="73"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="52"/>
@@ -29790,7 +29820,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="72"/>
+      <c r="A30" s="73"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -29801,7 +29831,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="72"/>
+      <c r="A31" s="73"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -29812,7 +29842,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="72" t="s">
+      <c r="A32" s="73" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -29833,7 +29863,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="72"/>
+      <c r="A33" s="73"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
       <c r="D33" s="52"/>
@@ -29851,7 +29881,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="72"/>
+      <c r="A34" s="73"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
       <c r="D34" s="52"/>
@@ -29869,7 +29899,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="72"/>
+      <c r="A35" s="73"/>
       <c r="B35" s="51" t="s">
         <v>513</v>
       </c>
@@ -29895,7 +29925,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="72"/>
+      <c r="A36" s="73"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
       <c r="D36" s="52"/>
@@ -29913,7 +29943,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="72"/>
+      <c r="A37" s="73"/>
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
       <c r="D37" s="52"/>
@@ -29931,7 +29961,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="72"/>
+      <c r="A38" s="73"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
       <c r="D38" s="52"/>
@@ -29949,7 +29979,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="72"/>
+      <c r="A39" s="73"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
       <c r="D39" s="52"/>
@@ -29967,7 +29997,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="72"/>
+      <c r="A40" s="73"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
       <c r="D40" s="52"/>
@@ -29979,7 +30009,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="72"/>
+      <c r="A41" s="73"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
       <c r="D41" s="52"/>
@@ -29991,7 +30021,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="72"/>
+      <c r="A42" s="73"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
       <c r="D42" s="52"/>
@@ -30002,7 +30032,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="72"/>
+      <c r="A43" s="73"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
       <c r="D43" s="52"/>
@@ -30013,7 +30043,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="72"/>
+      <c r="A44" s="73"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
       <c r="D44" s="52"/>
@@ -30024,7 +30054,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="72"/>
+      <c r="A45" s="73"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -30284,7 +30314,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="76" t="s">
+      <c r="A62" s="72" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51"/>
@@ -30303,7 +30333,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="72"/>
+      <c r="A63" s="73"/>
       <c r="B63" s="51"/>
       <c r="C63" s="51"/>
       <c r="D63" s="52"/>
@@ -30320,7 +30350,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="72"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="51"/>
       <c r="C64" s="51"/>
       <c r="D64" s="52"/>
@@ -30338,7 +30368,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="72"/>
+      <c r="A65" s="73"/>
       <c r="B65" s="51"/>
       <c r="C65" s="51"/>
       <c r="D65" s="52"/>
@@ -30356,7 +30386,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="72"/>
+      <c r="A66" s="73"/>
       <c r="B66" s="51"/>
       <c r="C66" s="51"/>
       <c r="D66" s="52"/>
@@ -30374,7 +30404,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="72"/>
+      <c r="A67" s="73"/>
       <c r="B67" s="51"/>
       <c r="C67" s="51"/>
       <c r="D67" s="52"/>
@@ -30392,7 +30422,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="72"/>
+      <c r="A68" s="73"/>
       <c r="B68" s="56" t="s">
         <v>520</v>
       </c>
@@ -30412,7 +30442,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="72"/>
+      <c r="A69" s="73"/>
       <c r="B69" s="51"/>
       <c r="C69" s="51"/>
       <c r="D69" s="52"/>
@@ -30430,7 +30460,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="72"/>
+      <c r="A70" s="73"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51"/>
       <c r="D70" s="52"/>
@@ -30442,7 +30472,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="72"/>
+      <c r="A71" s="73"/>
       <c r="B71" s="51"/>
       <c r="C71" s="51"/>
       <c r="D71" s="52"/>
@@ -30454,7 +30484,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="72"/>
+      <c r="A72" s="73"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -30465,7 +30495,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="72"/>
+      <c r="A73" s="73"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -30476,7 +30506,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="72"/>
+      <c r="A74" s="73"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -30487,7 +30517,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="72"/>
+      <c r="A75" s="73"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -30498,7 +30528,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="72"/>
+      <c r="A76" s="73"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -30509,7 +30539,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="72" t="s">
+      <c r="A77" s="73" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -30536,7 +30566,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="72"/>
+      <c r="A78" s="73"/>
       <c r="B78" s="56" t="s">
         <v>522</v>
       </c>
@@ -30562,7 +30592,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="72"/>
+      <c r="A79" s="73"/>
       <c r="B79" s="51" t="s">
         <v>523</v>
       </c>
@@ -30588,7 +30618,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="72"/>
+      <c r="A80" s="73"/>
       <c r="B80" s="51" t="s">
         <v>524</v>
       </c>
@@ -30614,7 +30644,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="72"/>
+      <c r="A81" s="73"/>
       <c r="B81" s="51" t="s">
         <v>525</v>
       </c>
@@ -30640,7 +30670,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="72"/>
+      <c r="A82" s="73"/>
       <c r="B82" s="51" t="s">
         <v>329</v>
       </c>
@@ -30666,7 +30696,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="72"/>
+      <c r="A83" s="73"/>
       <c r="B83" s="56" t="s">
         <v>526</v>
       </c>
@@ -30692,7 +30722,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="72"/>
+      <c r="A84" s="73"/>
       <c r="B84" s="51"/>
       <c r="C84" s="51"/>
       <c r="D84" s="52"/>
@@ -30710,7 +30740,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="72"/>
+      <c r="A85" s="73"/>
       <c r="B85" s="51"/>
       <c r="C85" s="51"/>
       <c r="D85" s="52"/>
@@ -30722,7 +30752,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="72"/>
+      <c r="A86" s="73"/>
       <c r="B86" s="51"/>
       <c r="C86" s="51"/>
       <c r="D86" s="52"/>
@@ -30734,7 +30764,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="72"/>
+      <c r="A87" s="73"/>
       <c r="B87" s="51"/>
       <c r="C87" s="51"/>
       <c r="D87" s="52"/>
@@ -30745,7 +30775,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="72"/>
+      <c r="A88" s="73"/>
       <c r="B88" s="51"/>
       <c r="C88" s="51"/>
       <c r="D88" s="52"/>
@@ -30756,7 +30786,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="72"/>
+      <c r="A89" s="73"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="52"/>
@@ -30767,7 +30797,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="72"/>
+      <c r="A90" s="73"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -30778,7 +30808,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="73"/>
+      <c r="A91" s="76"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -30789,7 +30819,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="76" t="s">
+      <c r="A92" s="72" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51"/>
@@ -30814,7 +30844,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="72"/>
+      <c r="A93" s="73"/>
       <c r="B93" s="51"/>
       <c r="C93" s="51" t="s">
         <v>288</v>
@@ -30838,7 +30868,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="72"/>
+      <c r="A94" s="73"/>
       <c r="B94" s="56"/>
       <c r="C94" s="51" t="s">
         <v>288</v>
@@ -30862,7 +30892,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="72"/>
+      <c r="A95" s="73"/>
       <c r="B95" s="51"/>
       <c r="C95" s="51" t="s">
         <v>293</v>
@@ -30886,7 +30916,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="72"/>
+      <c r="A96" s="73"/>
       <c r="B96" s="51"/>
       <c r="C96" s="51" t="s">
         <v>295</v>
@@ -30910,7 +30940,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="72"/>
+      <c r="A97" s="73"/>
       <c r="B97" s="51"/>
       <c r="C97" s="51" t="s">
         <v>288</v>
@@ -30934,7 +30964,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="72"/>
+      <c r="A98" s="73"/>
       <c r="B98" s="51"/>
       <c r="C98" s="51" t="s">
         <v>285</v>
@@ -30958,7 +30988,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="72"/>
+      <c r="A99" s="73"/>
       <c r="B99" s="51" t="s">
         <v>388</v>
       </c>
@@ -30984,7 +31014,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="72"/>
+      <c r="A100" s="73"/>
       <c r="B100" s="51"/>
       <c r="C100" s="51" t="s">
         <v>288</v>
@@ -31002,7 +31032,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="72"/>
+      <c r="A101" s="73"/>
       <c r="B101" s="51"/>
       <c r="C101" s="51" t="s">
         <v>295</v>
@@ -31020,7 +31050,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="72"/>
+      <c r="A102" s="73"/>
       <c r="B102" s="51"/>
       <c r="C102" s="51" t="s">
         <v>288</v>
@@ -31037,7 +31067,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="72"/>
+      <c r="A103" s="73"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51" t="s">
         <v>296</v>
@@ -31054,7 +31084,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="72"/>
+      <c r="A104" s="73"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51" t="s">
         <v>295</v>
@@ -31071,7 +31101,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="72"/>
+      <c r="A105" s="73"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51" t="s">
         <v>288</v>
@@ -31331,7 +31361,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="76" t="s">
+      <c r="A122" s="72" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51" t="s">
@@ -31358,7 +31388,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="72"/>
+      <c r="A123" s="73"/>
       <c r="B123" s="51" t="s">
         <v>529</v>
       </c>
@@ -31384,7 +31414,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="72"/>
+      <c r="A124" s="73"/>
       <c r="B124" s="51" t="s">
         <v>530</v>
       </c>
@@ -31410,7 +31440,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="72"/>
+      <c r="A125" s="73"/>
       <c r="B125" s="51" t="s">
         <v>313</v>
       </c>
@@ -31436,7 +31466,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="72"/>
+      <c r="A126" s="73"/>
       <c r="B126" s="58" t="s">
         <v>531</v>
       </c>
@@ -31558,7 +31588,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="72"/>
+      <c r="A131" s="73"/>
       <c r="B131" s="59"/>
       <c r="C131" s="51"/>
       <c r="D131" s="52"/>
@@ -31567,7 +31597,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="72"/>
+      <c r="A132" s="73"/>
       <c r="B132" s="51"/>
       <c r="C132" s="51"/>
       <c r="D132" s="52"/>
@@ -31575,7 +31605,7 @@
       <c r="F132" s="52"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="72"/>
+      <c r="A133" s="73"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
@@ -31583,7 +31613,7 @@
       <c r="F133" s="52"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="72"/>
+      <c r="A134" s="73"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -31591,7 +31621,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="72"/>
+      <c r="A135" s="73"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -32019,7 +32049,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -32049,7 +32079,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="72"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="51" t="s">
         <v>545</v>
       </c>
@@ -32078,7 +32108,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="72"/>
+      <c r="A4" s="73"/>
       <c r="B4" s="51" t="s">
         <v>546</v>
       </c>
@@ -32107,7 +32137,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="72"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="51" t="s">
         <v>547</v>
       </c>
@@ -32136,7 +32166,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="72"/>
+      <c r="A6" s="73"/>
       <c r="B6" s="51" t="s">
         <v>342</v>
       </c>
@@ -32165,7 +32195,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="72"/>
+      <c r="A7" s="73"/>
       <c r="C7" s="51" t="s">
         <v>288</v>
       </c>
@@ -32187,7 +32217,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="72"/>
+      <c r="A8" s="73"/>
       <c r="B8" s="51" t="s">
         <v>465</v>
       </c>
@@ -32213,7 +32243,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="72"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="51"/>
       <c r="C9" s="51" t="s">
         <v>288</v>
@@ -32233,7 +32263,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="72"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="51" t="s">
         <v>548</v>
       </c>
@@ -32253,7 +32283,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="72"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="51"/>
       <c r="C11" s="51" t="s">
         <v>288</v>
@@ -32267,7 +32297,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="72"/>
+      <c r="A12" s="73"/>
       <c r="B12" s="51"/>
       <c r="C12" s="51" t="s">
         <v>296</v>
@@ -32280,7 +32310,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="72"/>
+      <c r="A13" s="73"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51" t="s">
         <v>295</v>
@@ -32293,7 +32323,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="72"/>
+      <c r="A14" s="73"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51" t="s">
         <v>288</v>
@@ -32306,7 +32336,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="72"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51" t="s">
         <v>293</v>
@@ -32319,7 +32349,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="72"/>
+      <c r="A16" s="73"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51" t="s">
         <v>290</v>
@@ -32332,7 +32362,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="73" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -32359,7 +32389,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="72"/>
+      <c r="A18" s="73"/>
       <c r="B18" s="51" t="s">
         <v>549</v>
       </c>
@@ -32385,7 +32415,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="72"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="51" t="s">
         <v>329</v>
       </c>
@@ -32411,7 +32441,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="72"/>
+      <c r="A20" s="73"/>
       <c r="B20" s="51" t="s">
         <v>550</v>
       </c>
@@ -32437,7 +32467,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="72"/>
+      <c r="A21" s="73"/>
       <c r="B21" s="51" t="s">
         <v>550</v>
       </c>
@@ -32463,7 +32493,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="72"/>
+      <c r="A22" s="73"/>
       <c r="B22" s="58" t="s">
         <v>551</v>
       </c>
@@ -32507,7 +32537,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="72"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="59"/>
       <c r="C24" s="59"/>
       <c r="D24" s="63"/>
@@ -32525,7 +32555,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="72"/>
+      <c r="A25" s="73"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
       <c r="D25" s="52"/>
@@ -32537,7 +32567,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="72"/>
+      <c r="A26" s="73"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
       <c r="D26" s="52"/>
@@ -32549,7 +32579,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="72"/>
+      <c r="A27" s="73"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
       <c r="D27" s="52"/>
@@ -32560,7 +32590,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="72"/>
+      <c r="A28" s="73"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="52"/>
@@ -32571,7 +32601,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="72"/>
+      <c r="A29" s="73"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="52"/>
@@ -32582,7 +32612,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="72"/>
+      <c r="A30" s="73"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -32593,7 +32623,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="72"/>
+      <c r="A31" s="73"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -32604,7 +32634,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="72" t="s">
+      <c r="A32" s="73" t="s">
         <v>263</v>
       </c>
       <c r="C32" s="51"/>
@@ -32622,7 +32652,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="72"/>
+      <c r="A33" s="73"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
       <c r="D33" s="52"/>
@@ -32640,7 +32670,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="72"/>
+      <c r="A34" s="73"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
       <c r="D34" s="52"/>
@@ -32658,7 +32688,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="72"/>
+      <c r="A35" s="73"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
       <c r="D35" s="52"/>
@@ -32676,7 +32706,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="72"/>
+      <c r="A36" s="73"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
       <c r="D36" s="52"/>
@@ -32694,7 +32724,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="72"/>
+      <c r="A37" s="73"/>
       <c r="B37" s="51" t="s">
         <v>73</v>
       </c>
@@ -32714,7 +32744,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="72"/>
+      <c r="A38" s="73"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
       <c r="D38" s="52"/>
@@ -32732,7 +32762,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="72"/>
+      <c r="A39" s="73"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
       <c r="D39" s="52"/>
@@ -32750,7 +32780,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="72"/>
+      <c r="A40" s="73"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
       <c r="D40" s="52"/>
@@ -32762,7 +32792,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="72"/>
+      <c r="A41" s="73"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
       <c r="D41" s="52"/>
@@ -32774,7 +32804,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="72"/>
+      <c r="A42" s="73"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
       <c r="D42" s="52"/>
@@ -32785,7 +32815,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="72"/>
+      <c r="A43" s="73"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
       <c r="D43" s="52"/>
@@ -32796,7 +32826,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="72"/>
+      <c r="A44" s="73"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
       <c r="D44" s="52"/>
@@ -32807,7 +32837,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="72"/>
+      <c r="A45" s="73"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -33126,7 +33156,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="76" t="s">
+      <c r="A62" s="72" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -33153,7 +33183,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="72"/>
+      <c r="A63" s="73"/>
       <c r="B63" s="51" t="s">
         <v>575</v>
       </c>
@@ -33179,7 +33209,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="72"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="51" t="s">
         <v>576</v>
       </c>
@@ -33205,7 +33235,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="72"/>
+      <c r="A65" s="73"/>
       <c r="B65" s="51" t="s">
         <v>309</v>
       </c>
@@ -33231,7 +33261,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="72"/>
+      <c r="A66" s="73"/>
       <c r="B66" s="51" t="s">
         <v>551</v>
       </c>
@@ -33257,7 +33287,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="72"/>
+      <c r="A67" s="73"/>
       <c r="B67" s="51" t="s">
         <v>577</v>
       </c>
@@ -33283,7 +33313,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="72"/>
+      <c r="A68" s="73"/>
       <c r="B68" s="56"/>
       <c r="C68" s="51"/>
       <c r="D68" s="52"/>
@@ -33301,7 +33331,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="72"/>
+      <c r="A69" s="73"/>
       <c r="B69" s="51"/>
       <c r="C69" s="51"/>
       <c r="D69" s="52"/>
@@ -33319,7 +33349,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="72"/>
+      <c r="A70" s="73"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51"/>
       <c r="D70" s="52"/>
@@ -33331,7 +33361,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="72"/>
+      <c r="A71" s="73"/>
       <c r="B71" s="51"/>
       <c r="C71" s="51"/>
       <c r="D71" s="52"/>
@@ -33343,7 +33373,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="72"/>
+      <c r="A72" s="73"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -33354,7 +33384,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="72"/>
+      <c r="A73" s="73"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -33365,7 +33395,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="72"/>
+      <c r="A74" s="73"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -33376,7 +33406,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="72"/>
+      <c r="A75" s="73"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -33387,7 +33417,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="72"/>
+      <c r="A76" s="73"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -33398,7 +33428,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="72" t="s">
+      <c r="A77" s="73" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -33425,7 +33455,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="72"/>
+      <c r="A78" s="73"/>
       <c r="B78" s="51" t="s">
         <v>579</v>
       </c>
@@ -33451,7 +33481,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="72"/>
+      <c r="A79" s="73"/>
       <c r="B79" s="51" t="s">
         <v>580</v>
       </c>
@@ -33477,7 +33507,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="72"/>
+      <c r="A80" s="73"/>
       <c r="B80" s="51" t="s">
         <v>581</v>
       </c>
@@ -33503,7 +33533,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="72"/>
+      <c r="A81" s="73"/>
       <c r="B81" s="51" t="s">
         <v>582</v>
       </c>
@@ -33529,7 +33559,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="72"/>
+      <c r="A82" s="73"/>
       <c r="B82" s="51" t="s">
         <v>583</v>
       </c>
@@ -33555,7 +33585,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="72"/>
+      <c r="A83" s="73"/>
       <c r="B83" s="51" t="s">
         <v>584</v>
       </c>
@@ -33581,7 +33611,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="72"/>
+      <c r="A84" s="73"/>
       <c r="B84" s="51" t="s">
         <v>585</v>
       </c>
@@ -33607,7 +33637,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="72"/>
+      <c r="A85" s="73"/>
       <c r="B85" s="51" t="s">
         <v>586</v>
       </c>
@@ -33627,7 +33657,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="72"/>
+      <c r="A86" s="73"/>
       <c r="B86" s="51" t="s">
         <v>551</v>
       </c>
@@ -33647,7 +33677,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="72"/>
+      <c r="A87" s="73"/>
       <c r="B87" s="51" t="s">
         <v>587</v>
       </c>
@@ -33666,7 +33696,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="72"/>
+      <c r="A88" s="73"/>
       <c r="B88" s="51" t="s">
         <v>588</v>
       </c>
@@ -33685,7 +33715,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="72"/>
+      <c r="A89" s="73"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="52"/>
@@ -33696,7 +33726,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="72"/>
+      <c r="A90" s="73"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -33707,7 +33737,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="73"/>
+      <c r="A91" s="76"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -33718,7 +33748,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="76" t="s">
+      <c r="A92" s="72" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -33745,7 +33775,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="72"/>
+      <c r="A93" s="73"/>
       <c r="B93" s="51" t="s">
         <v>589</v>
       </c>
@@ -33771,7 +33801,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="72"/>
+      <c r="A94" s="73"/>
       <c r="B94" s="56" t="s">
         <v>590</v>
       </c>
@@ -33797,7 +33827,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="72"/>
+      <c r="A95" s="73"/>
       <c r="B95" s="51" t="s">
         <v>591</v>
       </c>
@@ -33823,7 +33853,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="72"/>
+      <c r="A96" s="73"/>
       <c r="B96" s="51" t="s">
         <v>465</v>
       </c>
@@ -33849,7 +33879,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="72"/>
+      <c r="A97" s="73"/>
       <c r="B97" s="51" t="s">
         <v>592</v>
       </c>
@@ -33875,7 +33905,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="72"/>
+      <c r="A98" s="73"/>
       <c r="B98" s="51" t="s">
         <v>593</v>
       </c>
@@ -33901,7 +33931,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="72"/>
+      <c r="A99" s="73"/>
       <c r="B99" s="51" t="s">
         <v>309</v>
       </c>
@@ -33927,7 +33957,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="72"/>
+      <c r="A100" s="73"/>
       <c r="B100" s="51" t="s">
         <v>594</v>
       </c>
@@ -33947,7 +33977,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="72"/>
+      <c r="A101" s="73"/>
       <c r="B101" s="51" t="s">
         <v>595</v>
       </c>
@@ -33967,7 +33997,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="72"/>
+      <c r="A102" s="73"/>
       <c r="B102" s="51"/>
       <c r="C102" s="51" t="s">
         <v>288</v>
@@ -33984,7 +34014,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="72"/>
+      <c r="A103" s="73"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51" t="s">
         <v>296</v>
@@ -34001,7 +34031,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="72"/>
+      <c r="A104" s="73"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51" t="s">
         <v>295</v>
@@ -34018,7 +34048,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="72"/>
+      <c r="A105" s="73"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51" t="s">
         <v>288</v>
@@ -34276,7 +34306,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="76" t="s">
+      <c r="A122" s="72" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51"/>
@@ -34295,7 +34325,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="72"/>
+      <c r="A123" s="73"/>
       <c r="B123" s="51"/>
       <c r="C123" s="51"/>
       <c r="D123" s="52"/>
@@ -34313,7 +34343,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="72"/>
+      <c r="A124" s="73"/>
       <c r="B124" s="51"/>
       <c r="C124" s="51"/>
       <c r="D124" s="52"/>
@@ -34331,7 +34361,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="72"/>
+      <c r="A125" s="73"/>
       <c r="B125" s="51"/>
       <c r="C125" s="51"/>
       <c r="D125" s="52"/>
@@ -34349,7 +34379,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="72"/>
+      <c r="A126" s="73"/>
       <c r="B126" s="58"/>
       <c r="C126" s="51"/>
       <c r="D126" s="52"/>
@@ -34429,7 +34459,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="72"/>
+      <c r="A131" s="73"/>
       <c r="B131" s="59"/>
       <c r="C131" s="51"/>
       <c r="D131" s="52"/>
@@ -34438,7 +34468,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="72"/>
+      <c r="A132" s="73"/>
       <c r="B132" s="51"/>
       <c r="C132" s="51"/>
       <c r="D132" s="52"/>
@@ -34446,7 +34476,7 @@
       <c r="F132" s="52"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="72"/>
+      <c r="A133" s="73"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
@@ -34454,7 +34484,7 @@
       <c r="F133" s="52"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="72"/>
+      <c r="A134" s="73"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -34462,7 +34492,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="72"/>
+      <c r="A135" s="73"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -34896,7 +34926,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -34926,7 +34956,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="72"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="51" t="s">
         <v>604</v>
       </c>
@@ -34955,7 +34985,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="72"/>
+      <c r="A4" s="73"/>
       <c r="B4" s="51" t="s">
         <v>605</v>
       </c>
@@ -34984,7 +35014,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="72"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="51" t="s">
         <v>309</v>
       </c>
@@ -35013,7 +35043,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="72"/>
+      <c r="A6" s="73"/>
       <c r="B6" s="51" t="s">
         <v>606</v>
       </c>
@@ -35042,7 +35072,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="72"/>
+      <c r="A7" s="73"/>
       <c r="B7" t="s">
         <v>607</v>
       </c>
@@ -35071,7 +35101,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="72"/>
+      <c r="A8" s="73"/>
       <c r="B8" s="51" t="s">
         <v>608</v>
       </c>
@@ -35097,7 +35127,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="72"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="51" t="s">
         <v>329</v>
       </c>
@@ -35123,7 +35153,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="72"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="51" t="s">
         <v>608</v>
       </c>
@@ -35143,7 +35173,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="72"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="51" t="s">
         <v>609</v>
       </c>
@@ -35163,7 +35193,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="72"/>
+      <c r="A12" s="73"/>
       <c r="B12" s="51" t="s">
         <v>610</v>
       </c>
@@ -35182,7 +35212,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="72"/>
+      <c r="A13" s="73"/>
       <c r="B13" s="51" t="s">
         <v>309</v>
       </c>
@@ -35201,7 +35231,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="72"/>
+      <c r="A14" s="73"/>
       <c r="B14" s="51" t="s">
         <v>611</v>
       </c>
@@ -35220,7 +35250,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="72"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="51" t="s">
         <v>612</v>
       </c>
@@ -35239,7 +35269,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="72"/>
+      <c r="A16" s="73"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51" t="s">
         <v>290</v>
@@ -35252,7 +35282,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="73" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -35279,7 +35309,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="72"/>
+      <c r="A18" s="73"/>
       <c r="B18" s="51" t="s">
         <v>614</v>
       </c>
@@ -35305,7 +35335,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="72"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="51" t="s">
         <v>309</v>
       </c>
@@ -35331,7 +35361,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="72"/>
+      <c r="A20" s="73"/>
       <c r="B20" s="51" t="s">
         <v>615</v>
       </c>
@@ -35357,7 +35387,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="72"/>
+      <c r="A21" s="73"/>
       <c r="B21" s="51" t="s">
         <v>616</v>
       </c>
@@ -35383,7 +35413,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="72"/>
+      <c r="A22" s="73"/>
       <c r="B22" s="51" t="s">
         <v>329</v>
       </c>
@@ -35409,7 +35439,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="72"/>
+      <c r="A23" s="73"/>
       <c r="B23" s="51" t="s">
         <v>617</v>
       </c>
@@ -35435,7 +35465,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="72"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="51" t="s">
         <v>618</v>
       </c>
@@ -35461,7 +35491,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="72"/>
+      <c r="A25" s="73"/>
       <c r="B25" s="51" t="s">
         <v>309</v>
       </c>
@@ -35481,7 +35511,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="72"/>
+      <c r="A26" s="73"/>
       <c r="B26" s="51" t="s">
         <v>617</v>
       </c>
@@ -35501,7 +35531,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="72"/>
+      <c r="A27" s="73"/>
       <c r="B27" s="51" t="s">
         <v>619</v>
       </c>
@@ -35520,7 +35550,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="72"/>
+      <c r="A28" s="73"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="52"/>
@@ -35531,7 +35561,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="72"/>
+      <c r="A29" s="73"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="52"/>
@@ -35542,7 +35572,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="72"/>
+      <c r="A30" s="73"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -35553,7 +35583,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="72"/>
+      <c r="A31" s="73"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -35564,7 +35594,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="72" t="s">
+      <c r="A32" s="73" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -35591,7 +35621,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="72"/>
+      <c r="A33" s="73"/>
       <c r="B33" s="51" t="s">
         <v>620</v>
       </c>
@@ -35617,7 +35647,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="72"/>
+      <c r="A34" s="73"/>
       <c r="B34" s="51" t="s">
         <v>621</v>
       </c>
@@ -35643,7 +35673,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="72"/>
+      <c r="A35" s="73"/>
       <c r="B35" s="51" t="s">
         <v>622</v>
       </c>
@@ -35669,7 +35699,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="72"/>
+      <c r="A36" s="73"/>
       <c r="B36" s="51" t="s">
         <v>623</v>
       </c>
@@ -35695,7 +35725,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="72"/>
+      <c r="A37" s="73"/>
       <c r="B37" s="51" t="s">
         <v>607</v>
       </c>
@@ -35721,7 +35751,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="72"/>
+      <c r="A38" s="73"/>
       <c r="B38" s="51" t="s">
         <v>624</v>
       </c>
@@ -35747,7 +35777,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="72"/>
+      <c r="A39" s="73"/>
       <c r="B39" s="51" t="s">
         <v>329</v>
       </c>
@@ -35773,7 +35803,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="72"/>
+      <c r="A40" s="73"/>
       <c r="B40" s="51" t="s">
         <v>625</v>
       </c>
@@ -35793,7 +35823,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="72"/>
+      <c r="A41" s="73"/>
       <c r="B41" s="51" t="s">
         <v>626</v>
       </c>
@@ -35813,7 +35843,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="72"/>
+      <c r="A42" s="73"/>
       <c r="B42" s="51" t="s">
         <v>309</v>
       </c>
@@ -35832,7 +35862,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="72"/>
+      <c r="A43" s="73"/>
       <c r="B43" s="51" t="s">
         <v>627</v>
       </c>
@@ -35851,7 +35881,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="72"/>
+      <c r="A44" s="73"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
       <c r="D44" s="52"/>
@@ -35862,7 +35892,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="72"/>
+      <c r="A45" s="73"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -36132,7 +36162,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="76" t="s">
+      <c r="A62" s="72" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -36159,7 +36189,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="72"/>
+      <c r="A63" s="73"/>
       <c r="B63" s="51" t="s">
         <v>635</v>
       </c>
@@ -36184,7 +36214,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="72"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="51" t="s">
         <v>636</v>
       </c>
@@ -36210,7 +36240,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="72"/>
+      <c r="A65" s="73"/>
       <c r="B65" s="51" t="s">
         <v>637</v>
       </c>
@@ -36236,7 +36266,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="72"/>
+      <c r="A66" s="73"/>
       <c r="B66" s="51" t="s">
         <v>638</v>
       </c>
@@ -36262,7 +36292,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="72"/>
+      <c r="A67" s="73"/>
       <c r="B67" s="51" t="s">
         <v>599</v>
       </c>
@@ -36288,7 +36318,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="72"/>
+      <c r="A68" s="73"/>
       <c r="B68" s="56" t="s">
         <v>639</v>
       </c>
@@ -36314,7 +36344,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="72"/>
+      <c r="A69" s="73"/>
       <c r="B69" s="51" t="s">
         <v>342</v>
       </c>
@@ -36340,7 +36370,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="72"/>
+      <c r="A70" s="73"/>
       <c r="B70" s="51" t="s">
         <v>640</v>
       </c>
@@ -36360,7 +36390,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="72"/>
+      <c r="A71" s="73"/>
       <c r="B71" s="51" t="s">
         <v>641</v>
       </c>
@@ -36380,7 +36410,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="72"/>
+      <c r="A72" s="73"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -36391,7 +36421,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="72"/>
+      <c r="A73" s="73"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -36402,7 +36432,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="72"/>
+      <c r="A74" s="73"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -36413,7 +36443,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="72"/>
+      <c r="A75" s="73"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -36424,7 +36454,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="72"/>
+      <c r="A76" s="73"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -36435,7 +36465,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="72" t="s">
+      <c r="A77" s="73" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -36462,7 +36492,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="72"/>
+      <c r="A78" s="73"/>
       <c r="B78" s="51" t="s">
         <v>643</v>
       </c>
@@ -36488,7 +36518,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="72"/>
+      <c r="A79" s="73"/>
       <c r="B79" s="51" t="s">
         <v>309</v>
       </c>
@@ -36514,7 +36544,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="72"/>
+      <c r="A80" s="73"/>
       <c r="B80" s="51" t="s">
         <v>644</v>
       </c>
@@ -36540,7 +36570,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="72"/>
+      <c r="A81" s="73"/>
       <c r="B81" s="51" t="s">
         <v>645</v>
       </c>
@@ -36566,7 +36596,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="72"/>
+      <c r="A82" s="73"/>
       <c r="B82" s="51" t="s">
         <v>646</v>
       </c>
@@ -36592,7 +36622,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="72"/>
+      <c r="A83" s="73"/>
       <c r="B83" s="51" t="s">
         <v>647</v>
       </c>
@@ -36618,7 +36648,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="72"/>
+      <c r="A84" s="73"/>
       <c r="B84" s="51" t="s">
         <v>580</v>
       </c>
@@ -36644,7 +36674,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="72"/>
+      <c r="A85" s="73"/>
       <c r="B85" s="51" t="s">
         <v>648</v>
       </c>
@@ -36664,7 +36694,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="72"/>
+      <c r="A86" s="73"/>
       <c r="B86" s="51" t="s">
         <v>649</v>
       </c>
@@ -36684,7 +36714,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="72"/>
+      <c r="A87" s="73"/>
       <c r="B87" s="51" t="s">
         <v>650</v>
       </c>
@@ -36704,7 +36734,7 @@
       <c r="I87" s="54"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="72"/>
+      <c r="A88" s="73"/>
       <c r="B88" s="51"/>
       <c r="C88" s="51"/>
       <c r="D88" s="52"/>
@@ -36715,7 +36745,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="72"/>
+      <c r="A89" s="73"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="52"/>
@@ -36726,7 +36756,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="72"/>
+      <c r="A90" s="73"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -36737,7 +36767,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="72"/>
+      <c r="A91" s="73"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -36748,7 +36778,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="73"/>
+      <c r="A92" s="76"/>
       <c r="B92" s="51"/>
       <c r="C92" s="51"/>
       <c r="D92" s="52"/>
@@ -36759,7 +36789,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="76" t="s">
+      <c r="A93" s="72" t="s">
         <v>54</v>
       </c>
       <c r="B93" s="51" t="s">
@@ -36786,7 +36816,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="72"/>
+      <c r="A94" s="73"/>
       <c r="B94" s="51" t="s">
         <v>651</v>
       </c>
@@ -36812,7 +36842,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="72"/>
+      <c r="A95" s="73"/>
       <c r="B95" s="56" t="s">
         <v>586</v>
       </c>
@@ -36838,7 +36868,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="72"/>
+      <c r="A96" s="73"/>
       <c r="B96" s="51" t="s">
         <v>652</v>
       </c>
@@ -36864,7 +36894,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="72"/>
+      <c r="A97" s="73"/>
       <c r="B97" s="51" t="s">
         <v>653</v>
       </c>
@@ -36890,7 +36920,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="72"/>
+      <c r="A98" s="73"/>
       <c r="B98" s="51" t="s">
         <v>654</v>
       </c>
@@ -36916,7 +36946,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="72"/>
+      <c r="A99" s="73"/>
       <c r="B99" s="51" t="s">
         <v>342</v>
       </c>
@@ -36942,7 +36972,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="72"/>
+      <c r="A100" s="73"/>
       <c r="B100" s="51" t="s">
         <v>655</v>
       </c>
@@ -36968,7 +36998,7 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="72"/>
+      <c r="A101" s="73"/>
       <c r="B101" s="51"/>
       <c r="C101" s="51" t="s">
         <v>288</v>
@@ -36986,7 +37016,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="72"/>
+      <c r="A102" s="73"/>
       <c r="B102" s="51"/>
       <c r="C102" s="51" t="s">
         <v>295</v>
@@ -37004,7 +37034,7 @@
       <c r="I102" s="54"/>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="72"/>
+      <c r="A103" s="73"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51" t="s">
         <v>288</v>
@@ -37021,7 +37051,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="72"/>
+      <c r="A104" s="73"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51" t="s">
         <v>296</v>
@@ -37038,7 +37068,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="72"/>
+      <c r="A105" s="73"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51" t="s">
         <v>295</v>
@@ -37055,7 +37085,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="72"/>
+      <c r="A106" s="73"/>
       <c r="B106" s="51"/>
       <c r="C106" s="51" t="s">
         <v>288</v>
@@ -37417,7 +37447,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="76" t="s">
+      <c r="A123" s="72" t="s">
         <v>273</v>
       </c>
       <c r="B123" s="51" t="s">
@@ -37444,7 +37474,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="72"/>
+      <c r="A124" s="73"/>
       <c r="B124" s="51" t="s">
         <v>665</v>
       </c>
@@ -37470,7 +37500,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="72"/>
+      <c r="A125" s="73"/>
       <c r="B125" s="51" t="s">
         <v>342</v>
       </c>
@@ -37496,7 +37526,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="72"/>
+      <c r="A126" s="73"/>
       <c r="B126" s="51" t="s">
         <v>666</v>
       </c>
@@ -37522,7 +37552,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="72"/>
+      <c r="A127" s="73"/>
       <c r="B127" s="58" t="s">
         <v>645</v>
       </c>
@@ -37644,7 +37674,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="72"/>
+      <c r="A132" s="73"/>
       <c r="B132" s="59" t="s">
         <v>669</v>
       </c>
@@ -37663,7 +37693,7 @@
       <c r="I132" s="54"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="72"/>
+      <c r="A133" s="73"/>
       <c r="B133" s="51" t="s">
         <v>670</v>
       </c>
@@ -37681,7 +37711,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="72"/>
+      <c r="A134" s="73"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -37689,7 +37719,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="72"/>
+      <c r="A135" s="73"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -37697,7 +37727,7 @@
       <c r="F135" s="52"/>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="72"/>
+      <c r="A136" s="73"/>
       <c r="B136" s="51"/>
       <c r="C136" s="51"/>
       <c r="D136" s="52"/>
@@ -38481,7 +38511,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="73" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="59" t="s">
@@ -38508,7 +38538,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="72"/>
+      <c r="A18" s="73"/>
       <c r="B18" s="51" t="s">
         <v>689</v>
       </c>
@@ -38534,7 +38564,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="72"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="51" t="s">
         <v>690</v>
       </c>
@@ -38560,7 +38590,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="72"/>
+      <c r="A20" s="73"/>
       <c r="B20" s="51" t="s">
         <v>691</v>
       </c>
@@ -38586,7 +38616,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="72"/>
+      <c r="A21" s="73"/>
       <c r="B21" s="51" t="s">
         <v>309</v>
       </c>
@@ -38612,7 +38642,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="72"/>
+      <c r="A22" s="73"/>
       <c r="B22" s="51" t="s">
         <v>692</v>
       </c>
@@ -38638,7 +38668,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="72"/>
+      <c r="A23" s="73"/>
       <c r="B23" s="51" t="s">
         <v>329</v>
       </c>
@@ -38664,7 +38694,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="72"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="51" t="s">
         <v>693</v>
       </c>
@@ -38690,7 +38720,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="72"/>
+      <c r="A25" s="73"/>
       <c r="B25" s="51" t="s">
         <v>694</v>
       </c>
@@ -38710,7 +38740,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="72"/>
+      <c r="A26" s="73"/>
       <c r="B26" s="51" t="s">
         <v>695</v>
       </c>
@@ -38730,7 +38760,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="72"/>
+      <c r="A27" s="73"/>
       <c r="B27" s="51" t="s">
         <v>296</v>
       </c>
@@ -38749,7 +38779,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="72"/>
+      <c r="A28" s="73"/>
       <c r="B28" s="51" t="s">
         <v>696</v>
       </c>
@@ -38768,7 +38798,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="72"/>
+      <c r="A29" s="73"/>
       <c r="B29" s="51" t="s">
         <v>309</v>
       </c>
@@ -38787,7 +38817,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="72"/>
+      <c r="A30" s="73"/>
       <c r="B30" s="51" t="s">
         <v>697</v>
       </c>
@@ -38806,7 +38836,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="72"/>
+      <c r="A31" s="73"/>
       <c r="B31" s="51" t="s">
         <v>698</v>
       </c>
@@ -38825,7 +38855,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="72" t="s">
+      <c r="A32" s="73" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -38852,7 +38882,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="72"/>
+      <c r="A33" s="73"/>
       <c r="B33" s="51" t="s">
         <v>699</v>
       </c>
@@ -38878,7 +38908,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="72"/>
+      <c r="A34" s="73"/>
       <c r="B34" s="51" t="s">
         <v>309</v>
       </c>
@@ -38904,7 +38934,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="72"/>
+      <c r="A35" s="73"/>
       <c r="B35" s="51" t="s">
         <v>700</v>
       </c>
@@ -38930,7 +38960,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="72"/>
+      <c r="A36" s="73"/>
       <c r="B36" s="51" t="s">
         <v>311</v>
       </c>
@@ -38956,7 +38986,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="72"/>
+      <c r="A37" s="73"/>
       <c r="B37" s="51" t="s">
         <v>701</v>
       </c>
@@ -38982,7 +39012,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="72"/>
+      <c r="A38" s="73"/>
       <c r="B38" s="51" t="s">
         <v>329</v>
       </c>
@@ -39008,7 +39038,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="72"/>
+      <c r="A39" s="73"/>
       <c r="B39" s="51" t="s">
         <v>702</v>
       </c>
@@ -39034,7 +39064,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="72"/>
+      <c r="A40" s="73"/>
       <c r="B40" s="51" t="s">
         <v>703</v>
       </c>
@@ -39054,7 +39084,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="72"/>
+      <c r="A41" s="73"/>
       <c r="B41" s="51" t="s">
         <v>695</v>
       </c>
@@ -39074,7 +39104,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="72"/>
+      <c r="A42" s="73"/>
       <c r="B42" s="51" t="s">
         <v>454</v>
       </c>
@@ -39093,7 +39123,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="72"/>
+      <c r="A43" s="73"/>
       <c r="B43" s="51" t="s">
         <v>309</v>
       </c>
@@ -39112,7 +39142,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="72"/>
+      <c r="A44" s="73"/>
       <c r="B44" t="s">
         <v>704</v>
       </c>
@@ -39131,7 +39161,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="72"/>
+      <c r="A45" s="73"/>
       <c r="B45" s="51" t="s">
         <v>705</v>
       </c>
@@ -39479,7 +39509,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="76" t="s">
+      <c r="A62" s="72" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -39506,7 +39536,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="72"/>
+      <c r="A63" s="73"/>
       <c r="B63" s="51" t="s">
         <v>717</v>
       </c>
@@ -39532,7 +39562,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="72"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="51" t="s">
         <v>718</v>
       </c>
@@ -39558,7 +39588,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="72"/>
+      <c r="A65" s="73"/>
       <c r="B65" s="51" t="s">
         <v>342</v>
       </c>
@@ -39584,7 +39614,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="72"/>
+      <c r="A66" s="73"/>
       <c r="B66" s="51" t="s">
         <v>719</v>
       </c>
@@ -39610,7 +39640,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="72"/>
+      <c r="A67" s="73"/>
       <c r="B67" s="51" t="s">
         <v>329</v>
       </c>
@@ -39636,7 +39666,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="72"/>
+      <c r="A68" s="73"/>
       <c r="B68" s="56" t="s">
         <v>720</v>
       </c>
@@ -39662,7 +39692,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="72"/>
+      <c r="A69" s="73"/>
       <c r="B69" s="51" t="s">
         <v>342</v>
       </c>
@@ -39688,7 +39718,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="72"/>
+      <c r="A70" s="73"/>
       <c r="B70" s="51" t="s">
         <v>721</v>
       </c>
@@ -39708,7 +39738,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="72"/>
+      <c r="A71" s="73"/>
       <c r="B71" s="51" t="s">
         <v>685</v>
       </c>
@@ -39728,7 +39758,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="72"/>
+      <c r="A72" s="73"/>
       <c r="B72" s="51" t="s">
         <v>722</v>
       </c>
@@ -39747,7 +39777,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="72"/>
+      <c r="A73" s="73"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -39758,7 +39788,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="72"/>
+      <c r="A74" s="73"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -39769,7 +39799,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="72"/>
+      <c r="A75" s="73"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -39780,7 +39810,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="72"/>
+      <c r="A76" s="73"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -39791,7 +39821,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="72" t="s">
+      <c r="A77" s="73" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -39818,7 +39848,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="72"/>
+      <c r="A78" s="73"/>
       <c r="B78" s="51" t="s">
         <v>724</v>
       </c>
@@ -39844,7 +39874,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="72"/>
+      <c r="A79" s="73"/>
       <c r="B79" s="51" t="s">
         <v>725</v>
       </c>
@@ -39870,7 +39900,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="72"/>
+      <c r="A80" s="73"/>
       <c r="B80" s="65" t="s">
         <v>342</v>
       </c>
@@ -39896,7 +39926,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="72"/>
+      <c r="A81" s="73"/>
       <c r="B81" s="59" t="s">
         <v>726</v>
       </c>
@@ -39922,7 +39952,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="72"/>
+      <c r="A82" s="73"/>
       <c r="B82" s="58" t="s">
         <v>727</v>
       </c>
@@ -39974,7 +40004,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="72"/>
+      <c r="A84" s="73"/>
       <c r="B84" t="s">
         <v>728</v>
       </c>
@@ -40000,7 +40030,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="72"/>
+      <c r="A85" s="73"/>
       <c r="B85" s="51" t="s">
         <v>727</v>
       </c>
@@ -40020,7 +40050,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="72"/>
+      <c r="A86" s="73"/>
       <c r="B86" s="51" t="s">
         <v>729</v>
       </c>
@@ -40040,7 +40070,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="72"/>
+      <c r="A87" s="73"/>
       <c r="B87" s="51" t="s">
         <v>394</v>
       </c>
@@ -40060,7 +40090,7 @@
       <c r="I87" s="54"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="72"/>
+      <c r="A88" s="73"/>
       <c r="B88" s="51" t="s">
         <v>730</v>
       </c>
@@ -40079,7 +40109,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="72"/>
+      <c r="A89" s="73"/>
       <c r="B89" s="51" t="s">
         <v>731</v>
       </c>
@@ -40098,7 +40128,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="72"/>
+      <c r="A90" s="73"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -40109,7 +40139,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="72"/>
+      <c r="A91" s="73"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -40120,7 +40150,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="73"/>
+      <c r="A92" s="76"/>
       <c r="B92" s="51"/>
       <c r="C92" s="51"/>
       <c r="D92" s="52"/>
@@ -40131,7 +40161,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="76" t="s">
+      <c r="A93" s="72" t="s">
         <v>54</v>
       </c>
       <c r="B93" s="51" t="s">
@@ -40158,7 +40188,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="72"/>
+      <c r="A94" s="73"/>
       <c r="B94" s="51" t="s">
         <v>732</v>
       </c>
@@ -40184,7 +40214,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="72"/>
+      <c r="A95" s="73"/>
       <c r="B95" s="56" t="s">
         <v>309</v>
       </c>
@@ -40210,7 +40240,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="72"/>
+      <c r="A96" s="73"/>
       <c r="B96" s="51" t="s">
         <v>733</v>
       </c>
@@ -40236,7 +40266,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="72"/>
+      <c r="A97" s="73"/>
       <c r="B97" s="51" t="s">
         <v>653</v>
       </c>
@@ -40262,7 +40292,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="72"/>
+      <c r="A98" s="73"/>
       <c r="B98" s="51" t="s">
         <v>734</v>
       </c>
@@ -40288,7 +40318,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="72"/>
+      <c r="A99" s="73"/>
       <c r="B99" s="51" t="s">
         <v>735</v>
       </c>
@@ -40314,7 +40344,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="72"/>
+      <c r="A100" s="73"/>
       <c r="B100" s="51" t="s">
         <v>736</v>
       </c>
@@ -40340,7 +40370,7 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="72"/>
+      <c r="A101" s="73"/>
       <c r="B101" s="51" t="s">
         <v>737</v>
       </c>
@@ -40360,7 +40390,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="72"/>
+      <c r="A102" s="73"/>
       <c r="B102" s="51" t="s">
         <v>738</v>
       </c>
@@ -40380,7 +40410,7 @@
       <c r="I102" s="54"/>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="72"/>
+      <c r="A103" s="73"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51" t="s">
         <v>288</v>
@@ -40397,7 +40427,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="72"/>
+      <c r="A104" s="73"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51" t="s">
         <v>296</v>
@@ -40414,7 +40444,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="72"/>
+      <c r="A105" s="73"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51" t="s">
         <v>295</v>
@@ -40431,7 +40461,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="72"/>
+      <c r="A106" s="73"/>
       <c r="B106" s="51"/>
       <c r="C106" s="51" t="s">
         <v>288</v>
@@ -40795,7 +40825,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="76" t="s">
+      <c r="A123" s="72" t="s">
         <v>273</v>
       </c>
       <c r="B123" s="51" t="s">
@@ -40822,7 +40852,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="72"/>
+      <c r="A124" s="73"/>
       <c r="B124" s="51" t="s">
         <v>665</v>
       </c>
@@ -40848,7 +40878,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="72"/>
+      <c r="A125" s="73"/>
       <c r="B125" s="51" t="s">
         <v>342</v>
       </c>
@@ -40874,7 +40904,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="72"/>
+      <c r="A126" s="73"/>
       <c r="B126" s="51" t="s">
         <v>666</v>
       </c>
@@ -40900,7 +40930,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="72"/>
+      <c r="A127" s="73"/>
       <c r="B127" s="58" t="s">
         <v>645</v>
       </c>
@@ -41022,7 +41052,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="72"/>
+      <c r="A132" s="73"/>
       <c r="B132" s="59" t="s">
         <v>669</v>
       </c>
@@ -41041,7 +41071,7 @@
       <c r="I132" s="54"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="72"/>
+      <c r="A133" s="73"/>
       <c r="B133" s="51" t="s">
         <v>670</v>
       </c>
@@ -41059,7 +41089,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="72"/>
+      <c r="A134" s="73"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -41067,7 +41097,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="72"/>
+      <c r="A135" s="73"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -41075,7 +41105,7 @@
       <c r="F135" s="52"/>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="72"/>
+      <c r="A136" s="73"/>
       <c r="B136" s="51"/>
       <c r="C136" s="51"/>
       <c r="D136" s="52"/>
@@ -41471,8 +41501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FDA6F8B-4351-4F96-943E-CADFA321636C}">
   <dimension ref="A1:Q152"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="G119" sqref="G119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -41867,7 +41897,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="73" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="59" t="s">
@@ -41894,7 +41924,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="72"/>
+      <c r="A18" s="73"/>
       <c r="B18" s="51" t="s">
         <v>689</v>
       </c>
@@ -41920,7 +41950,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="72"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="51" t="s">
         <v>690</v>
       </c>
@@ -41946,7 +41976,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="72"/>
+      <c r="A20" s="73"/>
       <c r="B20" s="51" t="s">
         <v>691</v>
       </c>
@@ -41972,7 +42002,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="72"/>
+      <c r="A21" s="73"/>
       <c r="B21" s="51" t="s">
         <v>309</v>
       </c>
@@ -41998,7 +42028,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="72"/>
+      <c r="A22" s="73"/>
       <c r="B22" s="51" t="s">
         <v>692</v>
       </c>
@@ -42024,7 +42054,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="72"/>
+      <c r="A23" s="73"/>
       <c r="B23" s="51" t="s">
         <v>329</v>
       </c>
@@ -42050,7 +42080,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="72"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="51" t="s">
         <v>693</v>
       </c>
@@ -42076,7 +42106,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="72"/>
+      <c r="A25" s="73"/>
       <c r="B25" s="51" t="s">
         <v>694</v>
       </c>
@@ -42096,7 +42126,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="72"/>
+      <c r="A26" s="73"/>
       <c r="B26" s="51" t="s">
         <v>695</v>
       </c>
@@ -42116,7 +42146,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="72"/>
+      <c r="A27" s="73"/>
       <c r="B27" s="51" t="s">
         <v>296</v>
       </c>
@@ -42135,7 +42165,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="72"/>
+      <c r="A28" s="73"/>
       <c r="B28" s="51" t="s">
         <v>696</v>
       </c>
@@ -42154,7 +42184,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="72"/>
+      <c r="A29" s="73"/>
       <c r="B29" s="51" t="s">
         <v>309</v>
       </c>
@@ -42173,7 +42203,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="72"/>
+      <c r="A30" s="73"/>
       <c r="B30" s="51" t="s">
         <v>697</v>
       </c>
@@ -42192,7 +42222,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="72"/>
+      <c r="A31" s="73"/>
       <c r="B31" s="51" t="s">
         <v>698</v>
       </c>
@@ -42211,7 +42241,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="72" t="s">
+      <c r="A32" s="73" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -42238,7 +42268,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="72"/>
+      <c r="A33" s="73"/>
       <c r="B33" s="51" t="s">
         <v>699</v>
       </c>
@@ -42264,7 +42294,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="72"/>
+      <c r="A34" s="73"/>
       <c r="B34" s="51" t="s">
         <v>309</v>
       </c>
@@ -42290,7 +42320,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="72"/>
+      <c r="A35" s="73"/>
       <c r="B35" s="51" t="s">
         <v>700</v>
       </c>
@@ -42316,7 +42346,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="72"/>
+      <c r="A36" s="73"/>
       <c r="B36" s="51" t="s">
         <v>311</v>
       </c>
@@ -42342,7 +42372,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="72"/>
+      <c r="A37" s="73"/>
       <c r="B37" s="51" t="s">
         <v>701</v>
       </c>
@@ -42368,7 +42398,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="72"/>
+      <c r="A38" s="73"/>
       <c r="B38" s="51" t="s">
         <v>329</v>
       </c>
@@ -42394,7 +42424,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="72"/>
+      <c r="A39" s="73"/>
       <c r="B39" s="51" t="s">
         <v>702</v>
       </c>
@@ -42420,7 +42450,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="72"/>
+      <c r="A40" s="73"/>
       <c r="B40" s="51" t="s">
         <v>703</v>
       </c>
@@ -42440,7 +42470,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="72"/>
+      <c r="A41" s="73"/>
       <c r="B41" s="51" t="s">
         <v>695</v>
       </c>
@@ -42460,7 +42490,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="72"/>
+      <c r="A42" s="73"/>
       <c r="B42" s="51" t="s">
         <v>454</v>
       </c>
@@ -42479,7 +42509,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="72"/>
+      <c r="A43" s="73"/>
       <c r="B43" s="51" t="s">
         <v>309</v>
       </c>
@@ -42498,7 +42528,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="72"/>
+      <c r="A44" s="73"/>
       <c r="B44" t="s">
         <v>704</v>
       </c>
@@ -42517,7 +42547,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="72"/>
+      <c r="A45" s="73"/>
       <c r="B45" s="51" t="s">
         <v>705</v>
       </c>
@@ -42863,7 +42893,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="76" t="s">
+      <c r="A62" s="72" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -42890,7 +42920,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="72"/>
+      <c r="A63" s="73"/>
       <c r="B63" s="51" t="s">
         <v>717</v>
       </c>
@@ -42916,7 +42946,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="72"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="51" t="s">
         <v>718</v>
       </c>
@@ -42942,7 +42972,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="72"/>
+      <c r="A65" s="73"/>
       <c r="B65" s="51" t="s">
         <v>342</v>
       </c>
@@ -42968,7 +42998,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="72"/>
+      <c r="A66" s="73"/>
       <c r="B66" s="51" t="s">
         <v>719</v>
       </c>
@@ -42994,7 +43024,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="72"/>
+      <c r="A67" s="73"/>
       <c r="B67" s="51" t="s">
         <v>329</v>
       </c>
@@ -43020,7 +43050,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="72"/>
+      <c r="A68" s="73"/>
       <c r="B68" s="56" t="s">
         <v>720</v>
       </c>
@@ -43046,7 +43076,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="72"/>
+      <c r="A69" s="73"/>
       <c r="B69" s="51" t="s">
         <v>342</v>
       </c>
@@ -43072,7 +43102,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="72"/>
+      <c r="A70" s="73"/>
       <c r="B70" s="51" t="s">
         <v>721</v>
       </c>
@@ -43092,7 +43122,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="72"/>
+      <c r="A71" s="73"/>
       <c r="B71" s="51" t="s">
         <v>685</v>
       </c>
@@ -43112,7 +43142,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="72"/>
+      <c r="A72" s="73"/>
       <c r="B72" s="51" t="s">
         <v>722</v>
       </c>
@@ -43131,7 +43161,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="72"/>
+      <c r="A73" s="73"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -43142,7 +43172,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="72"/>
+      <c r="A74" s="73"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -43153,7 +43183,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="72"/>
+      <c r="A75" s="73"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -43164,7 +43194,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="72"/>
+      <c r="A76" s="73"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -43175,7 +43205,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="72" t="s">
+      <c r="A77" s="73" t="s">
         <v>27</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -43202,7 +43232,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="72"/>
+      <c r="A78" s="73"/>
       <c r="B78" s="51" t="s">
         <v>763</v>
       </c>
@@ -43228,7 +43258,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="72"/>
+      <c r="A79" s="73"/>
       <c r="B79" s="51" t="s">
         <v>342</v>
       </c>
@@ -43254,7 +43284,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="72"/>
+      <c r="A80" s="73"/>
       <c r="B80" s="65" t="s">
         <v>764</v>
       </c>
@@ -43280,7 +43310,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="72"/>
+      <c r="A81" s="73"/>
       <c r="B81" s="65" t="s">
         <v>765</v>
       </c>
@@ -43306,7 +43336,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="72"/>
+      <c r="A82" s="73"/>
       <c r="B82" s="51" t="s">
         <v>342</v>
       </c>
@@ -43358,7 +43388,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="72"/>
+      <c r="A84" s="73"/>
       <c r="B84" s="51" t="s">
         <v>766</v>
       </c>
@@ -43384,7 +43414,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="72"/>
+      <c r="A85" s="73"/>
       <c r="B85" s="51" t="s">
         <v>685</v>
       </c>
@@ -43404,7 +43434,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="72"/>
+      <c r="A86" s="73"/>
       <c r="B86" s="51" t="s">
         <v>767</v>
       </c>
@@ -43424,7 +43454,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="72"/>
+      <c r="A87" s="73"/>
       <c r="B87" s="51" t="s">
         <v>768</v>
       </c>
@@ -43444,7 +43474,7 @@
       <c r="I87" s="54"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="72"/>
+      <c r="A88" s="73"/>
       <c r="B88" s="51"/>
       <c r="C88" s="51"/>
       <c r="D88" s="52">
@@ -43458,7 +43488,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="72"/>
+      <c r="A89" s="73"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="52">
@@ -43472,7 +43502,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="72"/>
+      <c r="A90" s="73"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -43483,7 +43513,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="72"/>
+      <c r="A91" s="73"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -43494,7 +43524,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="73"/>
+      <c r="A92" s="76"/>
       <c r="B92" s="51"/>
       <c r="C92" s="51"/>
       <c r="D92" s="52"/>
@@ -43505,7 +43535,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="76" t="s">
+      <c r="A93" s="72" t="s">
         <v>54</v>
       </c>
       <c r="B93" s="51" t="s">
@@ -43532,7 +43562,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="72"/>
+      <c r="A94" s="73"/>
       <c r="B94" s="51" t="s">
         <v>769</v>
       </c>
@@ -43558,7 +43588,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="72"/>
+      <c r="A95" s="73"/>
       <c r="B95" s="56" t="s">
         <v>309</v>
       </c>
@@ -43584,7 +43614,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="72"/>
+      <c r="A96" s="73"/>
       <c r="B96" s="51" t="s">
         <v>770</v>
       </c>
@@ -43610,7 +43640,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="72"/>
+      <c r="A97" s="73"/>
       <c r="B97" s="51" t="s">
         <v>653</v>
       </c>
@@ -43636,7 +43666,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="72"/>
+      <c r="A98" s="73"/>
       <c r="B98" s="51" t="s">
         <v>771</v>
       </c>
@@ -43662,7 +43692,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="72"/>
+      <c r="A99" s="73"/>
       <c r="B99" s="51" t="s">
         <v>772</v>
       </c>
@@ -43688,7 +43718,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="72"/>
+      <c r="A100" s="73"/>
       <c r="B100" s="51" t="s">
         <v>736</v>
       </c>
@@ -43714,7 +43744,7 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="72"/>
+      <c r="A101" s="73"/>
       <c r="B101" s="51" t="s">
         <v>773</v>
       </c>
@@ -43734,7 +43764,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="72"/>
+      <c r="A102" s="73"/>
       <c r="B102" s="51"/>
       <c r="C102" s="51"/>
       <c r="D102" s="52"/>
@@ -43743,7 +43773,7 @@
       <c r="I102" s="54"/>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="72"/>
+      <c r="A103" s="73"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51"/>
       <c r="D103" s="52"/>
@@ -43751,7 +43781,7 @@
       <c r="F103" s="52"/>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="72"/>
+      <c r="A104" s="73"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51"/>
       <c r="D104" s="52"/>
@@ -43759,7 +43789,7 @@
       <c r="F104" s="52"/>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="72"/>
+      <c r="A105" s="73"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51"/>
       <c r="D105" s="52"/>
@@ -43767,7 +43797,7 @@
       <c r="F105" s="52"/>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="72"/>
+      <c r="A106" s="73"/>
       <c r="B106" s="51"/>
       <c r="C106" s="51"/>
       <c r="D106" s="52"/>
@@ -43777,12 +43807,8 @@
     <row r="107" spans="1:9">
       <c r="A107" s="74"/>
       <c r="B107" s="51"/>
-      <c r="C107" s="51" t="s">
-        <v>285</v>
-      </c>
-      <c r="D107" s="52">
-        <v>0</v>
-      </c>
+      <c r="C107" s="51"/>
+      <c r="D107" s="52"/>
       <c r="E107" s="52"/>
       <c r="F107" s="52"/>
     </row>
@@ -43791,7 +43817,7 @@
         <v>30</v>
       </c>
       <c r="B108" s="55" t="s">
-        <v>514</v>
+        <v>335</v>
       </c>
       <c r="C108" s="51" t="s">
         <v>288</v>
@@ -43799,10 +43825,12 @@
       <c r="D108" s="52">
         <v>0.36458333333333331</v>
       </c>
-      <c r="E108" s="52"/>
+      <c r="E108" s="52">
+        <v>0.375</v>
+      </c>
       <c r="F108" s="52">
         <f t="shared" si="1"/>
-        <v>-0.36458333333333331</v>
+        <v>1.0416666666666685E-2</v>
       </c>
       <c r="H108" s="49" t="s">
         <v>286</v>
@@ -43820,38 +43848,40 @@
         <v>288</v>
       </c>
       <c r="D109" s="52">
-        <v>0.36805555555555558</v>
-      </c>
-      <c r="E109" s="52"/>
+        <v>0.375</v>
+      </c>
+      <c r="E109" s="52">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="F109" s="52">
         <f t="shared" si="1"/>
-        <v>-0.36805555555555558</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="H109" s="53" t="s">
         <v>288</v>
       </c>
       <c r="I109" s="52">
         <f>SUMIFS(F108:F122, C108:C122,H109)</f>
-        <v>-0.44444444444444442</v>
+        <v>0.26041666666666669</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="75"/>
       <c r="B110" s="56" t="s">
-        <v>740</v>
+        <v>774</v>
       </c>
       <c r="C110" s="51" t="s">
         <v>288</v>
       </c>
       <c r="D110" s="52">
-        <v>0.375</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="E110" s="52">
-        <v>0.44444444444444442</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="F110" s="52">
         <f t="shared" si="1"/>
-        <v>6.944444444444442E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H110" s="53" t="s">
         <v>285</v>
@@ -43870,10 +43900,10 @@
         <v>295</v>
       </c>
       <c r="D111" s="52">
-        <v>0.44791666666666669</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="E111" s="52">
-        <v>0.45833333333333331</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="F111" s="52">
         <f t="shared" si="1"/>
@@ -43884,26 +43914,26 @@
       </c>
       <c r="I111" s="52">
         <f>SUMIFS(F108:F122, C108:C122,H111)</f>
-        <v>3.472222222222221E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="75"/>
       <c r="B112" s="55" t="s">
-        <v>741</v>
+        <v>775</v>
       </c>
       <c r="C112" s="51" t="s">
         <v>288</v>
       </c>
       <c r="D112" s="52">
-        <v>0.45833333333333331</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="E112" s="52">
         <v>0.52083333333333337</v>
       </c>
       <c r="F112" s="52">
         <f t="shared" si="1"/>
-        <v>6.2500000000000056E-2</v>
+        <v>3.1250000000000056E-2</v>
       </c>
       <c r="H112" s="53" t="s">
         <v>293</v>
@@ -43936,7 +43966,7 @@
       </c>
       <c r="I113" s="52">
         <f>SUMIFS(F108:F122, C108:C122,H113)</f>
-        <v>6.25E-2</v>
+        <v>6.9444444444444531E-2</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -43962,7 +43992,7 @@
       </c>
       <c r="I114" s="52">
         <f>SUMIFS(F108:F122, C108:C122,H114)</f>
-        <v>5.208333333333337E-2</v>
+        <v>5.9027777777777679E-2</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -43987,104 +44017,104 @@
       </c>
       <c r="I115" s="49">
         <f>SUM(I109:I114)</f>
-        <v>-0.29513888888888884</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="75"/>
       <c r="B116" s="55" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C116" s="51" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D116" s="52">
         <v>0.66666666666666663</v>
       </c>
       <c r="E116" s="52">
-        <v>0.70138888888888884</v>
+        <v>0.68055555555555547</v>
       </c>
       <c r="F116" s="52">
         <f>E116-D116</f>
-        <v>3.472222222222221E-2</v>
+        <v>1.388888888888884E-2</v>
       </c>
       <c r="I116" s="54"/>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="75"/>
       <c r="B117" s="55" t="s">
-        <v>296</v>
+        <v>345</v>
       </c>
       <c r="C117" s="51" t="s">
         <v>296</v>
       </c>
       <c r="D117" s="52">
-        <v>0.70833333333333337</v>
+        <v>0.6875</v>
       </c>
       <c r="E117" s="52">
-        <v>0.77083333333333337</v>
+        <v>0.75694444444444453</v>
       </c>
       <c r="F117" s="52">
         <f>E117-D117</f>
-        <v>6.25E-2</v>
+        <v>6.9444444444444531E-2</v>
       </c>
       <c r="I117" s="54"/>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="75"/>
       <c r="B118" s="55" t="s">
-        <v>746</v>
+        <v>421</v>
       </c>
       <c r="C118" s="51" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="D118" s="52">
-        <v>0.77777777777777779</v>
+        <v>0.75694444444444453</v>
       </c>
       <c r="E118" s="52">
-        <v>0.80208333333333337</v>
+        <v>0.76388888888888884</v>
       </c>
       <c r="F118" s="52">
         <f t="shared" si="1"/>
-        <v>2.430555555555558E-2</v>
+        <v>6.9444444444443088E-3</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="75"/>
       <c r="B119" s="55" t="s">
-        <v>747</v>
+        <v>776</v>
       </c>
       <c r="C119" s="51" t="s">
         <v>288</v>
       </c>
       <c r="D119" s="52">
-        <v>0.80208333333333337</v>
+        <v>0.76736111111111116</v>
       </c>
       <c r="E119" s="52">
-        <v>0.8125</v>
+        <v>0.78125</v>
       </c>
       <c r="F119" s="52">
         <f t="shared" si="1"/>
-        <v>1.041666666666663E-2</v>
+        <v>1.388888888888884E-2</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="75"/>
       <c r="B120" s="55" t="s">
-        <v>748</v>
+        <v>777</v>
       </c>
       <c r="C120" s="51" t="s">
         <v>288</v>
       </c>
       <c r="D120" s="52">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="E120" s="52">
         <v>0.8125</v>
-      </c>
-      <c r="E120" s="52">
-        <v>0.875</v>
       </c>
       <c r="F120" s="52">
         <f t="shared" si="1"/>
-        <v>6.25E-2</v>
+        <v>2.777777777777779E-2</v>
       </c>
       <c r="G120" t="s">
         <v>424</v>
@@ -44113,11 +44143,11 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="76" t="s">
+      <c r="A123" s="72" t="s">
         <v>273</v>
       </c>
       <c r="B123" s="51" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="C123" s="51" t="s">
         <v>288</v>
@@ -44140,9 +44170,9 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="72"/>
+      <c r="A124" s="73"/>
       <c r="B124" s="51" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="C124" s="51" t="s">
         <v>288</v>
@@ -44166,7 +44196,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="72"/>
+      <c r="A125" s="73"/>
       <c r="B125" s="51" t="s">
         <v>342</v>
       </c>
@@ -44192,9 +44222,9 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="72"/>
+      <c r="A126" s="73"/>
       <c r="B126" s="51" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="C126" s="51" t="s">
         <v>288</v>
@@ -44218,9 +44248,9 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="72"/>
+      <c r="A127" s="73"/>
       <c r="B127" s="58" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="C127" s="51" t="s">
         <v>288</v>
@@ -44272,7 +44302,7 @@
     <row r="129" spans="1:9">
       <c r="A129" s="77"/>
       <c r="B129" s="57" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="C129" s="55" t="s">
         <v>288</v>
@@ -44298,7 +44328,7 @@
     <row r="130" spans="1:9">
       <c r="A130" s="77"/>
       <c r="B130" s="57" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="C130" s="55" t="s">
         <v>288</v>
@@ -44340,9 +44370,9 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="72"/>
+      <c r="A132" s="73"/>
       <c r="B132" s="59" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="C132" s="51" t="s">
         <v>288</v>
@@ -44359,7 +44389,7 @@
       <c r="I132" s="54"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="72"/>
+      <c r="A133" s="73"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
@@ -44367,7 +44397,7 @@
       <c r="F133" s="52"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="72"/>
+      <c r="A134" s="73"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -44375,7 +44405,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="72"/>
+      <c r="A135" s="73"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -44383,7 +44413,7 @@
       <c r="F135" s="52"/>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="72"/>
+      <c r="A136" s="73"/>
       <c r="B136" s="51"/>
       <c r="C136" s="51"/>
       <c r="D136" s="52"/>
@@ -44779,8 +44809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7764F1B-A8E7-4FBB-88CE-929509A01D8F}">
   <dimension ref="A1:Q152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="J86" sqref="J86"/>
+    <sheetView tabSelected="1" topLeftCell="B105" workbookViewId="0">
+      <selection activeCell="J112" sqref="J112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -45175,7 +45205,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="73" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="59" t="s">
@@ -45202,7 +45232,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="72"/>
+      <c r="A18" s="73"/>
       <c r="B18" s="51" t="s">
         <v>689</v>
       </c>
@@ -45228,7 +45258,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="72"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="51" t="s">
         <v>690</v>
       </c>
@@ -45254,7 +45284,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="72"/>
+      <c r="A20" s="73"/>
       <c r="B20" s="51" t="s">
         <v>691</v>
       </c>
@@ -45280,7 +45310,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="72"/>
+      <c r="A21" s="73"/>
       <c r="B21" s="51" t="s">
         <v>309</v>
       </c>
@@ -45306,7 +45336,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="72"/>
+      <c r="A22" s="73"/>
       <c r="B22" s="51" t="s">
         <v>692</v>
       </c>
@@ -45332,7 +45362,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="72"/>
+      <c r="A23" s="73"/>
       <c r="B23" s="51" t="s">
         <v>329</v>
       </c>
@@ -45358,7 +45388,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="72"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="51" t="s">
         <v>693</v>
       </c>
@@ -45384,7 +45414,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="72"/>
+      <c r="A25" s="73"/>
       <c r="B25" s="51" t="s">
         <v>694</v>
       </c>
@@ -45404,7 +45434,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="72"/>
+      <c r="A26" s="73"/>
       <c r="B26" s="51" t="s">
         <v>695</v>
       </c>
@@ -45424,7 +45454,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="72"/>
+      <c r="A27" s="73"/>
       <c r="B27" s="51" t="s">
         <v>296</v>
       </c>
@@ -45443,7 +45473,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="72"/>
+      <c r="A28" s="73"/>
       <c r="B28" s="51" t="s">
         <v>696</v>
       </c>
@@ -45462,7 +45492,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="72"/>
+      <c r="A29" s="73"/>
       <c r="B29" s="51" t="s">
         <v>309</v>
       </c>
@@ -45481,7 +45511,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="72"/>
+      <c r="A30" s="73"/>
       <c r="B30" s="51" t="s">
         <v>697</v>
       </c>
@@ -45500,7 +45530,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="72"/>
+      <c r="A31" s="73"/>
       <c r="B31" s="51" t="s">
         <v>698</v>
       </c>
@@ -45519,7 +45549,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="72" t="s">
+      <c r="A32" s="73" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -45546,7 +45576,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="72"/>
+      <c r="A33" s="73"/>
       <c r="B33" s="51" t="s">
         <v>699</v>
       </c>
@@ -45572,7 +45602,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="72"/>
+      <c r="A34" s="73"/>
       <c r="B34" s="51" t="s">
         <v>309</v>
       </c>
@@ -45598,7 +45628,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="72"/>
+      <c r="A35" s="73"/>
       <c r="B35" s="51" t="s">
         <v>700</v>
       </c>
@@ -45624,7 +45654,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="72"/>
+      <c r="A36" s="73"/>
       <c r="B36" s="51" t="s">
         <v>311</v>
       </c>
@@ -45650,7 +45680,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="72"/>
+      <c r="A37" s="73"/>
       <c r="B37" s="51" t="s">
         <v>701</v>
       </c>
@@ -45676,7 +45706,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="72"/>
+      <c r="A38" s="73"/>
       <c r="B38" s="51" t="s">
         <v>329</v>
       </c>
@@ -45702,7 +45732,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="72"/>
+      <c r="A39" s="73"/>
       <c r="B39" s="51" t="s">
         <v>702</v>
       </c>
@@ -45728,7 +45758,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="72"/>
+      <c r="A40" s="73"/>
       <c r="B40" s="51" t="s">
         <v>703</v>
       </c>
@@ -45748,7 +45778,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="72"/>
+      <c r="A41" s="73"/>
       <c r="B41" s="51" t="s">
         <v>695</v>
       </c>
@@ -45768,7 +45798,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="72"/>
+      <c r="A42" s="73"/>
       <c r="B42" s="51" t="s">
         <v>454</v>
       </c>
@@ -45787,7 +45817,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="72"/>
+      <c r="A43" s="73"/>
       <c r="B43" s="51" t="s">
         <v>309</v>
       </c>
@@ -45806,7 +45836,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="72"/>
+      <c r="A44" s="73"/>
       <c r="B44" t="s">
         <v>704</v>
       </c>
@@ -45825,7 +45855,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="72"/>
+      <c r="A45" s="73"/>
       <c r="B45" s="51" t="s">
         <v>705</v>
       </c>
@@ -45891,7 +45921,7 @@
     <row r="48" spans="1:9">
       <c r="A48" s="75"/>
       <c r="B48" s="55" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="C48" s="51" t="s">
         <v>288</v>
@@ -46032,13 +46062,13 @@
         <v>295</v>
       </c>
       <c r="I53" s="52" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="75"/>
       <c r="B54" s="55" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="C54" s="51" t="s">
         <v>288</v>
@@ -46057,7 +46087,7 @@
         <v>300</v>
       </c>
       <c r="I54" s="49" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -46095,7 +46125,7 @@
         <v>0.625</v>
       </c>
       <c r="F56" s="52" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="I56" s="54"/>
     </row>
@@ -46157,7 +46187,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="76" t="s">
+      <c r="A62" s="72" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -46184,7 +46214,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="72"/>
+      <c r="A63" s="73"/>
       <c r="B63" s="51" t="s">
         <v>717</v>
       </c>
@@ -46210,7 +46240,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="72"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="51" t="s">
         <v>718</v>
       </c>
@@ -46236,7 +46266,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="72"/>
+      <c r="A65" s="73"/>
       <c r="B65" s="51" t="s">
         <v>342</v>
       </c>
@@ -46262,7 +46292,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="72"/>
+      <c r="A66" s="73"/>
       <c r="B66" s="51" t="s">
         <v>719</v>
       </c>
@@ -46288,7 +46318,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="72"/>
+      <c r="A67" s="73"/>
       <c r="B67" s="51" t="s">
         <v>329</v>
       </c>
@@ -46314,7 +46344,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="72"/>
+      <c r="A68" s="73"/>
       <c r="B68" s="56" t="s">
         <v>720</v>
       </c>
@@ -46340,7 +46370,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="72"/>
+      <c r="A69" s="73"/>
       <c r="B69" s="51" t="s">
         <v>342</v>
       </c>
@@ -46366,7 +46396,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="72"/>
+      <c r="A70" s="73"/>
       <c r="B70" s="51" t="s">
         <v>721</v>
       </c>
@@ -46386,7 +46416,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="72"/>
+      <c r="A71" s="73"/>
       <c r="B71" s="51" t="s">
         <v>685</v>
       </c>
@@ -46406,7 +46436,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="72"/>
+      <c r="A72" s="73"/>
       <c r="B72" s="51" t="s">
         <v>722</v>
       </c>
@@ -46425,7 +46455,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="72"/>
+      <c r="A73" s="73"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -46436,7 +46466,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="72"/>
+      <c r="A74" s="73"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -46447,7 +46477,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="72"/>
+      <c r="A75" s="73"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -46458,7 +46488,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="72"/>
+      <c r="A76" s="73"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -46469,7 +46499,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="72" t="s">
+      <c r="A77" s="73" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -46496,9 +46526,9 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="72"/>
+      <c r="A78" s="73"/>
       <c r="B78" s="51" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="C78" s="51" t="s">
         <v>288</v>
@@ -46522,9 +46552,9 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="72"/>
+      <c r="A79" s="73"/>
       <c r="B79" s="51" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="C79" s="51" t="s">
         <v>288</v>
@@ -46548,7 +46578,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="72"/>
+      <c r="A80" s="73"/>
       <c r="B80" s="65" t="s">
         <v>342</v>
       </c>
@@ -46574,9 +46604,9 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="72"/>
+      <c r="A81" s="73"/>
       <c r="B81" s="56" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="C81" s="51" t="s">
         <v>288</v>
@@ -46600,9 +46630,9 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="72"/>
+      <c r="A82" s="73"/>
       <c r="B82" s="51" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="C82" s="51" t="s">
         <v>288</v>
@@ -46628,7 +46658,7 @@
     <row r="83" spans="1:9">
       <c r="A83" s="77"/>
       <c r="B83" s="51" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="C83" s="55" t="s">
         <v>288</v>
@@ -46652,7 +46682,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="72"/>
+      <c r="A84" s="73"/>
       <c r="B84" s="51"/>
       <c r="C84" s="55" t="s">
         <v>295</v>
@@ -46676,9 +46706,9 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="72"/>
+      <c r="A85" s="73"/>
       <c r="B85" s="51" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="C85" s="55" t="s">
         <v>288</v>
@@ -46696,7 +46726,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="72"/>
+      <c r="A86" s="73"/>
       <c r="B86" s="51"/>
       <c r="C86" s="55" t="s">
         <v>295</v>
@@ -46714,7 +46744,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="72"/>
+      <c r="A87" s="73"/>
       <c r="B87" s="51"/>
       <c r="C87" s="55" t="s">
         <v>295</v>
@@ -46732,7 +46762,7 @@
       <c r="I87" s="54"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="72"/>
+      <c r="A88" s="73"/>
       <c r="B88" s="51"/>
       <c r="C88" s="55" t="s">
         <v>295</v>
@@ -46749,7 +46779,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="72"/>
+      <c r="A89" s="73"/>
       <c r="B89" s="51"/>
       <c r="C89" s="55" t="s">
         <v>295</v>
@@ -46766,7 +46796,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="72"/>
+      <c r="A90" s="73"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -46777,7 +46807,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="72"/>
+      <c r="A91" s="73"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -46788,7 +46818,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="73"/>
+      <c r="A92" s="76"/>
       <c r="B92" s="51"/>
       <c r="C92" s="51"/>
       <c r="D92" s="52"/>
@@ -46799,7 +46829,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="76" t="s">
+      <c r="A93" s="72" t="s">
         <v>54</v>
       </c>
       <c r="B93" s="51" t="s">
@@ -46826,9 +46856,9 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="72"/>
+      <c r="A94" s="73"/>
       <c r="B94" s="51" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="C94" s="51" t="s">
         <v>288</v>
@@ -46852,7 +46882,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="72"/>
+      <c r="A95" s="73"/>
       <c r="B95" s="56" t="s">
         <v>309</v>
       </c>
@@ -46878,9 +46908,9 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="72"/>
+      <c r="A96" s="73"/>
       <c r="B96" s="51" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="C96" s="51" t="s">
         <v>290</v>
@@ -46904,9 +46934,9 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="72"/>
+      <c r="A97" s="73"/>
       <c r="B97" s="51" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="C97" s="51" t="s">
         <v>295</v>
@@ -46930,9 +46960,9 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="72"/>
+      <c r="A98" s="73"/>
       <c r="B98" s="51" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="C98" s="51" t="s">
         <v>288</v>
@@ -46956,9 +46986,9 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="72"/>
+      <c r="A99" s="73"/>
       <c r="B99" s="51" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="C99" s="51" t="s">
         <v>290</v>
@@ -46982,7 +47012,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="72"/>
+      <c r="A100" s="73"/>
       <c r="B100" s="51"/>
       <c r="C100" s="51" t="s">
         <v>296</v>
@@ -47006,7 +47036,7 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="72"/>
+      <c r="A101" s="73"/>
       <c r="B101" s="51"/>
       <c r="C101" s="51" t="s">
         <v>288</v>
@@ -47024,7 +47054,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="72"/>
+      <c r="A102" s="73"/>
       <c r="B102" s="51"/>
       <c r="C102" s="51"/>
       <c r="D102" s="52"/>
@@ -47033,7 +47063,7 @@
       <c r="I102" s="54"/>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="72"/>
+      <c r="A103" s="73"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51"/>
       <c r="D103" s="52"/>
@@ -47041,7 +47071,7 @@
       <c r="F103" s="52"/>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="72"/>
+      <c r="A104" s="73"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51"/>
       <c r="D104" s="52"/>
@@ -47049,7 +47079,7 @@
       <c r="F104" s="52"/>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="72"/>
+      <c r="A105" s="73"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51"/>
       <c r="D105" s="52"/>
@@ -47057,7 +47087,7 @@
       <c r="F105" s="52"/>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="72"/>
+      <c r="A106" s="73"/>
       <c r="B106" s="51"/>
       <c r="C106" s="51"/>
       <c r="D106" s="52"/>
@@ -47067,12 +47097,8 @@
     <row r="107" spans="1:9">
       <c r="A107" s="74"/>
       <c r="B107" s="51"/>
-      <c r="C107" s="51" t="s">
-        <v>285</v>
-      </c>
-      <c r="D107" s="52">
-        <v>0</v>
-      </c>
+      <c r="C107" s="51"/>
+      <c r="D107" s="52"/>
       <c r="E107" s="52"/>
       <c r="F107" s="52"/>
     </row>
@@ -47089,10 +47115,12 @@
       <c r="D108" s="52">
         <v>0.36458333333333331</v>
       </c>
-      <c r="E108" s="52"/>
+      <c r="E108" s="52">
+        <v>0.375</v>
+      </c>
       <c r="F108" s="52">
         <f t="shared" si="1"/>
-        <v>-0.36458333333333331</v>
+        <v>1.0416666666666685E-2</v>
       </c>
       <c r="H108" s="49" t="s">
         <v>286</v>
@@ -47104,44 +47132,45 @@
     <row r="109" spans="1:9">
       <c r="A109" s="75"/>
       <c r="B109" s="55" t="s">
-        <v>739</v>
+        <v>801</v>
       </c>
       <c r="C109" s="51" t="s">
         <v>288</v>
       </c>
       <c r="D109" s="52">
-        <v>0.36805555555555558</v>
-      </c>
-      <c r="E109" s="52"/>
+        <v>0.375</v>
+      </c>
+      <c r="E109" s="52">
+        <v>0.4375</v>
+      </c>
       <c r="F109" s="52">
         <f t="shared" si="1"/>
-        <v>-0.36805555555555558</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H109" s="53" t="s">
         <v>288</v>
       </c>
       <c r="I109" s="52">
-        <f>SUMIFS(F108:F122, C108:C122,H109)</f>
-        <v>-0.44444444444444442</v>
+        <v>0.26041666666666669</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="75"/>
       <c r="B110" s="56" t="s">
-        <v>740</v>
+        <v>802</v>
       </c>
       <c r="C110" s="51" t="s">
         <v>288</v>
       </c>
       <c r="D110" s="52">
-        <v>0.375</v>
+        <v>0.4375</v>
       </c>
       <c r="E110" s="52">
-        <v>0.44444444444444442</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="F110" s="52">
         <f t="shared" si="1"/>
-        <v>6.944444444444442E-2</v>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="H110" s="53" t="s">
         <v>285</v>
@@ -47160,27 +47189,27 @@
         <v>295</v>
       </c>
       <c r="D111" s="52">
-        <v>0.44791666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="E111" s="52">
-        <v>0.45833333333333331</v>
+        <v>0.46875</v>
       </c>
       <c r="F111" s="52">
         <f t="shared" si="1"/>
-        <v>1.041666666666663E-2</v>
+        <v>1.0416666666666685E-2</v>
       </c>
       <c r="H111" s="53" t="s">
         <v>290</v>
       </c>
       <c r="I111" s="52">
         <f>SUMIFS(F108:F122, C108:C122,H111)</f>
-        <v>3.472222222222221E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="75"/>
       <c r="B112" s="55" t="s">
-        <v>741</v>
+        <v>803</v>
       </c>
       <c r="C112" s="51" t="s">
         <v>288</v>
@@ -47226,155 +47255,141 @@
       </c>
       <c r="I113" s="52">
         <f>SUMIFS(F108:F122, C108:C122,H113)</f>
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="75"/>
       <c r="B114" s="55" t="s">
-        <v>742</v>
+        <v>804</v>
       </c>
       <c r="C114" s="51" t="s">
         <v>288</v>
       </c>
       <c r="D114" s="52">
-        <v>0.58680555555555558</v>
+        <v>0.625</v>
       </c>
       <c r="E114" s="52">
         <v>0.64583333333333337</v>
       </c>
       <c r="F114" s="52">
         <f t="shared" si="1"/>
-        <v>5.902777777777779E-2</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="H114" s="53" t="s">
         <v>295</v>
       </c>
       <c r="I114" s="52">
         <f>SUMIFS(F108:F122, C108:C122,H114)</f>
-        <v>5.208333333333337E-2</v>
+        <v>5.2083333333333426E-2</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="75"/>
       <c r="B115" s="55" t="s">
-        <v>421</v>
+        <v>805</v>
       </c>
       <c r="C115" s="51" t="s">
-        <v>295</v>
-      </c>
-      <c r="D115" s="52" t="s">
-        <v>743</v>
+        <v>288</v>
+      </c>
+      <c r="D115" s="52">
+        <v>0.64583333333333337</v>
       </c>
       <c r="E115" s="52">
-        <v>0.65625</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="F115" s="52" t="s">
-        <v>744</v>
+        <v>806</v>
       </c>
       <c r="H115" s="48" t="s">
         <v>300</v>
       </c>
       <c r="I115" s="49">
         <f>SUM(I109:I114)</f>
-        <v>-0.29513888888888884</v>
+        <v>0.31250000000000011</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="75"/>
-      <c r="B116" s="55" t="s">
-        <v>745</v>
-      </c>
-      <c r="C116" s="51" t="s">
-        <v>290</v>
-      </c>
-      <c r="D116" s="52">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E116" s="52">
-        <v>0.70138888888888884</v>
-      </c>
-      <c r="F116" s="52">
+      <c r="B116" s="55"/>
+      <c r="C116" s="51"/>
+      <c r="D116" s="52" t="s">
+        <v>424</v>
+      </c>
+      <c r="E116" s="52" t="s">
+        <v>424</v>
+      </c>
+      <c r="F116" s="52" t="e">
         <f>E116-D116</f>
-        <v>3.472222222222221E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I116" s="54"/>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="75"/>
       <c r="B117" s="55" t="s">
-        <v>296</v>
-      </c>
-      <c r="C117" s="51" t="s">
-        <v>296</v>
-      </c>
-      <c r="D117" s="52">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="E117" s="52">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="F117" s="52">
+        <v>424</v>
+      </c>
+      <c r="C117" s="51"/>
+      <c r="D117" s="52" t="s">
+        <v>424</v>
+      </c>
+      <c r="E117" s="52" t="s">
+        <v>424</v>
+      </c>
+      <c r="F117" s="52" t="e">
         <f>E117-D117</f>
-        <v>6.25E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I117" s="54"/>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="75"/>
       <c r="B118" s="55" t="s">
-        <v>746</v>
-      </c>
-      <c r="C118" s="51" t="s">
-        <v>288</v>
-      </c>
-      <c r="D118" s="52">
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="E118" s="52">
-        <v>0.80208333333333337</v>
-      </c>
-      <c r="F118" s="52">
+        <v>424</v>
+      </c>
+      <c r="C118" s="51"/>
+      <c r="D118" s="52" t="s">
+        <v>424</v>
+      </c>
+      <c r="E118" s="52" t="s">
+        <v>424</v>
+      </c>
+      <c r="F118" s="52" t="e">
         <f t="shared" si="1"/>
-        <v>2.430555555555558E-2</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="75"/>
       <c r="B119" s="55" t="s">
-        <v>747</v>
-      </c>
-      <c r="C119" s="51" t="s">
-        <v>288</v>
-      </c>
-      <c r="D119" s="52">
-        <v>0.80208333333333337</v>
-      </c>
-      <c r="E119" s="52">
-        <v>0.8125</v>
-      </c>
-      <c r="F119" s="52">
+        <v>424</v>
+      </c>
+      <c r="C119" s="51"/>
+      <c r="D119" s="52" t="s">
+        <v>424</v>
+      </c>
+      <c r="E119" s="52" t="s">
+        <v>424</v>
+      </c>
+      <c r="F119" s="52" t="e">
         <f t="shared" si="1"/>
-        <v>1.041666666666663E-2</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="75"/>
       <c r="B120" s="55" t="s">
-        <v>748</v>
-      </c>
-      <c r="C120" s="51" t="s">
-        <v>288</v>
-      </c>
-      <c r="D120" s="52">
-        <v>0.8125</v>
-      </c>
-      <c r="E120" s="52">
-        <v>0.875</v>
-      </c>
-      <c r="F120" s="52">
+        <v>424</v>
+      </c>
+      <c r="C120" s="51"/>
+      <c r="D120" s="52"/>
+      <c r="E120" s="52" t="s">
+        <v>424</v>
+      </c>
+      <c r="F120" s="52" t="e">
         <f t="shared" si="1"/>
-        <v>6.25E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G120" t="s">
         <v>424</v>
@@ -47403,11 +47418,11 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="76" t="s">
+      <c r="A123" s="72" t="s">
         <v>273</v>
       </c>
       <c r="B123" s="51" t="s">
-        <v>797</v>
+        <v>807</v>
       </c>
       <c r="C123" s="51" t="s">
         <v>288</v>
@@ -47430,9 +47445,9 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="72"/>
+      <c r="A124" s="73"/>
       <c r="B124" s="51" t="s">
-        <v>798</v>
+        <v>808</v>
       </c>
       <c r="C124" s="51" t="s">
         <v>288</v>
@@ -47456,7 +47471,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="72"/>
+      <c r="A125" s="73"/>
       <c r="B125" s="51" t="s">
         <v>342</v>
       </c>
@@ -47482,9 +47497,9 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="72"/>
+      <c r="A126" s="73"/>
       <c r="B126" s="51" t="s">
-        <v>799</v>
+        <v>809</v>
       </c>
       <c r="C126" s="51" t="s">
         <v>288</v>
@@ -47508,9 +47523,9 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="72"/>
+      <c r="A127" s="73"/>
       <c r="B127" s="58" t="s">
-        <v>800</v>
+        <v>810</v>
       </c>
       <c r="C127" s="51" t="s">
         <v>288</v>
@@ -47536,7 +47551,7 @@
     <row r="128" spans="1:9">
       <c r="A128" s="77"/>
       <c r="B128" s="57" t="s">
-        <v>801</v>
+        <v>811</v>
       </c>
       <c r="C128" s="55" t="s">
         <v>290</v>
@@ -47588,7 +47603,7 @@
     <row r="130" spans="1:9">
       <c r="A130" s="77"/>
       <c r="B130" s="57" t="s">
-        <v>802</v>
+        <v>812</v>
       </c>
       <c r="C130" s="55" t="s">
         <v>290</v>
@@ -47620,7 +47635,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="72"/>
+      <c r="A132" s="73"/>
       <c r="B132" s="59"/>
       <c r="C132" s="51"/>
       <c r="D132" s="52"/>
@@ -47629,7 +47644,7 @@
       <c r="I132" s="54"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="72"/>
+      <c r="A133" s="73"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
@@ -47637,7 +47652,7 @@
       <c r="F133" s="52"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="72"/>
+      <c r="A134" s="73"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -47645,7 +47660,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="72"/>
+      <c r="A135" s="73"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -47653,7 +47668,7 @@
       <c r="F135" s="52"/>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="72"/>
+      <c r="A136" s="73"/>
       <c r="B136" s="51"/>
       <c r="C136" s="51"/>
       <c r="D136" s="52"/>

--- a/Process/Timesheet/Timesheet1-vis.xlsx
+++ b/Process/Timesheet/Timesheet1-vis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vinoth\GIT\TeamProject\Project\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E877F329-0564-4C7C-AAFD-4B491C3A9F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED427574-DBE5-4505-83E0-EF0F7DE691D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="19414" windowHeight="10303" firstSheet="25" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3529,10 +3529,10 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="21" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3541,7 +3541,7 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -16509,7 +16509,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -16539,7 +16539,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="72"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="51" t="s">
         <v>289</v>
       </c>
@@ -16568,7 +16568,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="72"/>
+      <c r="A4" s="73"/>
       <c r="B4" s="51" t="s">
         <v>291</v>
       </c>
@@ -16597,7 +16597,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="72"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="51" t="s">
         <v>292</v>
       </c>
@@ -16626,7 +16626,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="72"/>
+      <c r="A6" s="73"/>
       <c r="B6" s="51" t="s">
         <v>294</v>
       </c>
@@ -16655,7 +16655,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="72"/>
+      <c r="A7" s="73"/>
       <c r="B7" t="s">
         <v>297</v>
       </c>
@@ -16684,7 +16684,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="72"/>
+      <c r="A8" s="73"/>
       <c r="B8" s="51" t="s">
         <v>298</v>
       </c>
@@ -16710,7 +16710,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="72"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="51" t="s">
         <v>299</v>
       </c>
@@ -16736,7 +16736,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="72"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="51" t="s">
         <v>301</v>
       </c>
@@ -16756,7 +16756,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="72"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="51" t="s">
         <v>302</v>
       </c>
@@ -16776,7 +16776,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="72"/>
+      <c r="A12" s="73"/>
       <c r="B12" s="51" t="s">
         <v>303</v>
       </c>
@@ -16795,7 +16795,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="72"/>
+      <c r="A13" s="73"/>
       <c r="B13" s="51" t="s">
         <v>304</v>
       </c>
@@ -16814,7 +16814,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="72"/>
+      <c r="A14" s="73"/>
       <c r="B14" s="51" t="s">
         <v>305</v>
       </c>
@@ -16833,7 +16833,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="72"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="51" t="s">
         <v>306</v>
       </c>
@@ -16852,7 +16852,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="72"/>
+      <c r="A16" s="73"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
       <c r="D16" s="52"/>
@@ -16863,7 +16863,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="73" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51"/>
@@ -16886,7 +16886,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="72"/>
+      <c r="A18" s="73"/>
       <c r="B18" s="51"/>
       <c r="C18" s="51"/>
       <c r="D18" s="52">
@@ -16908,7 +16908,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="72"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="51"/>
       <c r="C19" s="51"/>
       <c r="D19" s="52">
@@ -16930,7 +16930,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="72"/>
+      <c r="A20" s="73"/>
       <c r="B20" s="51"/>
       <c r="C20" s="51"/>
       <c r="D20" s="52">
@@ -16952,7 +16952,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="72"/>
+      <c r="A21" s="73"/>
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
       <c r="D21" s="52">
@@ -16974,7 +16974,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="72"/>
+      <c r="A22" s="73"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
       <c r="D22" s="52">
@@ -16996,7 +16996,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="72"/>
+      <c r="A23" s="73"/>
       <c r="B23" s="51" t="s">
         <v>73</v>
       </c>
@@ -17020,7 +17020,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="72"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
       <c r="D24" s="52">
@@ -17042,7 +17042,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="72"/>
+      <c r="A25" s="73"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
       <c r="D25" s="52">
@@ -17058,7 +17058,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="72"/>
+      <c r="A26" s="73"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
       <c r="D26" s="52"/>
@@ -17070,7 +17070,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="72"/>
+      <c r="A27" s="73"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
       <c r="D27" s="52"/>
@@ -17081,7 +17081,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="72"/>
+      <c r="A28" s="73"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="52"/>
@@ -17092,7 +17092,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="72"/>
+      <c r="A29" s="73"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="52"/>
@@ -17103,7 +17103,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="72"/>
+      <c r="A30" s="73"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -17114,7 +17114,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="72"/>
+      <c r="A31" s="73"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -17125,7 +17125,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="72" t="s">
+      <c r="A32" s="73" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -17152,7 +17152,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="72"/>
+      <c r="A33" s="73"/>
       <c r="B33" s="51" t="s">
         <v>307</v>
       </c>
@@ -17178,7 +17178,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="72"/>
+      <c r="A34" s="73"/>
       <c r="B34" s="51" t="s">
         <v>308</v>
       </c>
@@ -17204,7 +17204,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="72"/>
+      <c r="A35" s="73"/>
       <c r="B35" s="51" t="s">
         <v>309</v>
       </c>
@@ -17230,7 +17230,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="72"/>
+      <c r="A36" s="73"/>
       <c r="B36" s="51" t="s">
         <v>310</v>
       </c>
@@ -17256,7 +17256,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="72"/>
+      <c r="A37" s="73"/>
       <c r="B37" s="51" t="s">
         <v>311</v>
       </c>
@@ -17282,7 +17282,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="72"/>
+      <c r="A38" s="73"/>
       <c r="B38" s="51" t="s">
         <v>312</v>
       </c>
@@ -17308,7 +17308,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="72"/>
+      <c r="A39" s="73"/>
       <c r="B39" s="51" t="s">
         <v>313</v>
       </c>
@@ -17334,7 +17334,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="72"/>
+      <c r="A40" s="73"/>
       <c r="B40" s="51" t="s">
         <v>314</v>
       </c>
@@ -17354,7 +17354,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="72"/>
+      <c r="A41" s="73"/>
       <c r="B41" s="51" t="s">
         <v>312</v>
       </c>
@@ -17374,7 +17374,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="72"/>
+      <c r="A42" s="73"/>
       <c r="B42" s="51" t="s">
         <v>315</v>
       </c>
@@ -17393,7 +17393,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="72"/>
+      <c r="A43" s="73"/>
       <c r="B43" s="51" t="s">
         <v>309</v>
       </c>
@@ -17412,7 +17412,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="72"/>
+      <c r="A44" s="73"/>
       <c r="B44" s="51" t="s">
         <v>316</v>
       </c>
@@ -17431,7 +17431,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="72"/>
+      <c r="A45" s="73"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -17677,7 +17677,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="76" t="s">
+      <c r="A62" s="72" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -17704,7 +17704,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="72"/>
+      <c r="A63" s="73"/>
       <c r="B63" s="51" t="s">
         <v>284</v>
       </c>
@@ -17729,7 +17729,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="72"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="51" t="s">
         <v>318</v>
       </c>
@@ -17755,7 +17755,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="72"/>
+      <c r="A65" s="73"/>
       <c r="B65" s="51" t="s">
         <v>313</v>
       </c>
@@ -17781,7 +17781,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="72"/>
+      <c r="A66" s="73"/>
       <c r="B66" s="51" t="s">
         <v>319</v>
       </c>
@@ -17807,7 +17807,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="72"/>
+      <c r="A67" s="73"/>
       <c r="B67" s="51" t="s">
         <v>302</v>
       </c>
@@ -17833,7 +17833,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="72"/>
+      <c r="A68" s="73"/>
       <c r="B68" s="51" t="s">
         <v>304</v>
       </c>
@@ -17859,7 +17859,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="72"/>
+      <c r="A69" s="73"/>
       <c r="B69" s="51" t="s">
         <v>315</v>
       </c>
@@ -17885,7 +17885,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="72"/>
+      <c r="A70" s="73"/>
       <c r="B70" s="51" t="s">
         <v>320</v>
       </c>
@@ -17905,7 +17905,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="72"/>
+      <c r="A71" s="73"/>
       <c r="B71" s="51" t="s">
         <v>306</v>
       </c>
@@ -17925,7 +17925,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="72"/>
+      <c r="A72" s="73"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -17936,7 +17936,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="72"/>
+      <c r="A73" s="73"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -17947,7 +17947,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="72"/>
+      <c r="A74" s="73"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -17958,7 +17958,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="72"/>
+      <c r="A75" s="73"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -17969,7 +17969,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="72"/>
+      <c r="A76" s="73"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -17980,7 +17980,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="72" t="s">
+      <c r="A77" s="73" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -18007,7 +18007,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="72"/>
+      <c r="A78" s="73"/>
       <c r="B78" s="51" t="s">
         <v>322</v>
       </c>
@@ -18033,7 +18033,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="72"/>
+      <c r="A79" s="73"/>
       <c r="B79" s="51" t="s">
         <v>323</v>
       </c>
@@ -18059,7 +18059,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="72"/>
+      <c r="A80" s="73"/>
       <c r="B80" s="51" t="s">
         <v>324</v>
       </c>
@@ -18085,7 +18085,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="72"/>
+      <c r="A81" s="73"/>
       <c r="B81" s="51" t="s">
         <v>325</v>
       </c>
@@ -18111,7 +18111,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="72"/>
+      <c r="A82" s="73"/>
       <c r="B82" s="51" t="s">
         <v>326</v>
       </c>
@@ -18137,7 +18137,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="72"/>
+      <c r="A83" s="73"/>
       <c r="B83" s="51" t="s">
         <v>327</v>
       </c>
@@ -18163,7 +18163,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="72"/>
+      <c r="A84" s="73"/>
       <c r="B84" s="51" t="s">
         <v>328</v>
       </c>
@@ -18189,7 +18189,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="72"/>
+      <c r="A85" s="73"/>
       <c r="B85" s="51" t="s">
         <v>294</v>
       </c>
@@ -18209,7 +18209,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="72"/>
+      <c r="A86" s="73"/>
       <c r="B86" s="51" t="s">
         <v>329</v>
       </c>
@@ -18229,7 +18229,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="72"/>
+      <c r="A87" s="73"/>
       <c r="B87" s="51" t="s">
         <v>304</v>
       </c>
@@ -18248,7 +18248,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="72"/>
+      <c r="A88" s="73"/>
       <c r="B88" s="51"/>
       <c r="C88" s="51"/>
       <c r="D88" s="52"/>
@@ -18259,7 +18259,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="72"/>
+      <c r="A89" s="73"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="52"/>
@@ -18270,7 +18270,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="72"/>
+      <c r="A90" s="73"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -18281,7 +18281,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="73"/>
+      <c r="A91" s="76"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -18292,7 +18292,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="76" t="s">
+      <c r="A92" s="72" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -18319,7 +18319,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="72"/>
+      <c r="A93" s="73"/>
       <c r="B93" s="51" t="s">
         <v>330</v>
       </c>
@@ -18345,7 +18345,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="72"/>
+      <c r="A94" s="73"/>
       <c r="B94" s="56" t="s">
         <v>331</v>
       </c>
@@ -18371,7 +18371,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="72"/>
+      <c r="A95" s="73"/>
       <c r="B95" s="51" t="s">
         <v>309</v>
       </c>
@@ -18397,7 +18397,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="72"/>
+      <c r="A96" s="73"/>
       <c r="B96" s="51" t="s">
         <v>332</v>
       </c>
@@ -18423,7 +18423,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="72"/>
+      <c r="A97" s="73"/>
       <c r="B97" s="51" t="s">
         <v>311</v>
       </c>
@@ -18449,7 +18449,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="72"/>
+      <c r="A98" s="73"/>
       <c r="B98" s="51" t="s">
         <v>313</v>
       </c>
@@ -18475,7 +18475,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="72"/>
+      <c r="A99" s="73"/>
       <c r="B99" s="51" t="s">
         <v>333</v>
       </c>
@@ -18501,7 +18501,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="72"/>
+      <c r="A100" s="73"/>
       <c r="B100" s="51" t="s">
         <v>334</v>
       </c>
@@ -18521,7 +18521,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="72"/>
+      <c r="A101" s="73"/>
       <c r="B101" s="51" t="s">
         <v>309</v>
       </c>
@@ -18541,7 +18541,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="72"/>
+      <c r="A102" s="73"/>
       <c r="B102" s="51" t="s">
         <v>316</v>
       </c>
@@ -18560,7 +18560,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="72"/>
+      <c r="A103" s="73"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51"/>
       <c r="D103" s="52"/>
@@ -18568,7 +18568,7 @@
       <c r="F103" s="52"/>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="72"/>
+      <c r="A104" s="73"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51"/>
       <c r="D104" s="52"/>
@@ -18576,7 +18576,7 @@
       <c r="F104" s="52"/>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="72"/>
+      <c r="A105" s="73"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51"/>
       <c r="D105" s="52"/>
@@ -18904,7 +18904,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="76" t="s">
+      <c r="A122" s="72" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51" t="s">
@@ -18931,7 +18931,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="72"/>
+      <c r="A123" s="73"/>
       <c r="B123" s="51" t="s">
         <v>322</v>
       </c>
@@ -18957,7 +18957,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="72"/>
+      <c r="A124" s="73"/>
       <c r="B124" s="51" t="s">
         <v>294</v>
       </c>
@@ -18983,7 +18983,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="72"/>
+      <c r="A125" s="73"/>
       <c r="B125" s="51" t="s">
         <v>344</v>
       </c>
@@ -19009,7 +19009,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="72"/>
+      <c r="A126" s="73"/>
       <c r="B126" s="51" t="s">
         <v>329</v>
       </c>
@@ -19035,7 +19035,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="72"/>
+      <c r="A127" s="73"/>
       <c r="B127" s="56" t="s">
         <v>345</v>
       </c>
@@ -19061,7 +19061,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="72"/>
+      <c r="A128" s="73"/>
       <c r="B128" s="51" t="s">
         <v>346</v>
       </c>
@@ -19087,7 +19087,7 @@
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="72"/>
+      <c r="A129" s="73"/>
       <c r="B129" s="56" t="s">
         <v>304</v>
       </c>
@@ -19113,7 +19113,7 @@
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="72"/>
+      <c r="A130" s="73"/>
       <c r="B130" s="56" t="s">
         <v>304</v>
       </c>
@@ -19133,7 +19133,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="72"/>
+      <c r="A131" s="73"/>
       <c r="B131" s="51" t="s">
         <v>347</v>
       </c>
@@ -19153,7 +19153,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="72"/>
+      <c r="A132" s="73"/>
       <c r="B132" s="51" t="s">
         <v>348</v>
       </c>
@@ -19172,7 +19172,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="72"/>
+      <c r="A133" s="73"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
@@ -19183,7 +19183,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="72"/>
+      <c r="A134" s="73"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -19194,7 +19194,7 @@
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="72"/>
+      <c r="A135" s="73"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -19520,7 +19520,7 @@
       </c>
     </row>
     <row r="152" spans="1:9">
-      <c r="A152" s="76" t="s">
+      <c r="A152" s="72" t="s">
         <v>355</v>
       </c>
       <c r="B152" s="51" t="s">
@@ -19547,7 +19547,7 @@
       </c>
     </row>
     <row r="153" spans="1:9">
-      <c r="A153" s="72"/>
+      <c r="A153" s="73"/>
       <c r="B153" s="51" t="s">
         <v>357</v>
       </c>
@@ -19573,7 +19573,7 @@
       </c>
     </row>
     <row r="154" spans="1:9">
-      <c r="A154" s="72"/>
+      <c r="A154" s="73"/>
       <c r="B154" s="51" t="s">
         <v>341</v>
       </c>
@@ -19599,7 +19599,7 @@
       </c>
     </row>
     <row r="155" spans="1:9">
-      <c r="A155" s="72"/>
+      <c r="A155" s="73"/>
       <c r="B155" s="51" t="s">
         <v>357</v>
       </c>
@@ -19625,7 +19625,7 @@
       </c>
     </row>
     <row r="156" spans="1:9">
-      <c r="A156" s="72"/>
+      <c r="A156" s="73"/>
       <c r="B156" s="51" t="s">
         <v>301</v>
       </c>
@@ -19651,7 +19651,7 @@
       </c>
     </row>
     <row r="157" spans="1:9">
-      <c r="A157" s="72"/>
+      <c r="A157" s="73"/>
       <c r="B157" s="51" t="s">
         <v>294</v>
       </c>
@@ -19677,7 +19677,7 @@
       </c>
     </row>
     <row r="158" spans="1:9">
-      <c r="A158" s="72"/>
+      <c r="A158" s="73"/>
       <c r="B158" s="51" t="s">
         <v>304</v>
       </c>
@@ -19703,7 +19703,7 @@
       </c>
     </row>
     <row r="159" spans="1:9">
-      <c r="A159" s="72"/>
+      <c r="A159" s="73"/>
       <c r="B159" s="51" t="s">
         <v>358</v>
       </c>
@@ -19729,7 +19729,7 @@
       </c>
     </row>
     <row r="160" spans="1:9">
-      <c r="A160" s="72"/>
+      <c r="A160" s="73"/>
       <c r="B160" s="51" t="s">
         <v>359</v>
       </c>
@@ -19749,7 +19749,7 @@
       <c r="I160" s="54"/>
     </row>
     <row r="161" spans="1:9">
-      <c r="A161" s="72"/>
+      <c r="A161" s="73"/>
       <c r="B161" s="51"/>
       <c r="C161" s="51"/>
       <c r="D161" s="52"/>
@@ -19761,7 +19761,7 @@
       <c r="I161" s="54"/>
     </row>
     <row r="162" spans="1:9">
-      <c r="A162" s="72"/>
+      <c r="A162" s="73"/>
       <c r="B162" s="51"/>
       <c r="C162" s="51"/>
       <c r="D162" s="52"/>
@@ -19772,7 +19772,7 @@
       </c>
     </row>
     <row r="163" spans="1:9">
-      <c r="A163" s="72"/>
+      <c r="A163" s="73"/>
       <c r="B163" s="51"/>
       <c r="C163" s="51"/>
       <c r="D163" s="52"/>
@@ -19783,7 +19783,7 @@
       </c>
     </row>
     <row r="164" spans="1:9">
-      <c r="A164" s="72"/>
+      <c r="A164" s="73"/>
       <c r="B164" s="51"/>
       <c r="C164" s="51"/>
       <c r="D164" s="52"/>
@@ -19794,7 +19794,7 @@
       </c>
     </row>
     <row r="165" spans="1:9">
-      <c r="A165" s="72"/>
+      <c r="A165" s="73"/>
       <c r="B165" s="51"/>
       <c r="C165" s="51"/>
       <c r="D165" s="52"/>
@@ -19805,7 +19805,7 @@
       </c>
     </row>
     <row r="166" spans="1:9">
-      <c r="A166" s="72"/>
+      <c r="A166" s="73"/>
       <c r="B166" s="51"/>
       <c r="C166" s="51"/>
       <c r="D166" s="52"/>
@@ -19817,17 +19817,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="129" priority="12" operator="greaterThan">
@@ -19933,7 +19933,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -19963,7 +19963,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="72"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="51" t="s">
         <v>360</v>
       </c>
@@ -19992,7 +19992,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="72"/>
+      <c r="A4" s="73"/>
       <c r="B4" s="51" t="s">
         <v>361</v>
       </c>
@@ -20021,7 +20021,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="72"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="51" t="s">
         <v>309</v>
       </c>
@@ -20050,7 +20050,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="72"/>
+      <c r="A6" s="73"/>
       <c r="B6" s="51" t="s">
         <v>311</v>
       </c>
@@ -20079,7 +20079,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="72"/>
+      <c r="A7" s="73"/>
       <c r="B7" t="s">
         <v>362</v>
       </c>
@@ -20108,7 +20108,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="72"/>
+      <c r="A8" s="73"/>
       <c r="B8" s="51" t="s">
         <v>363</v>
       </c>
@@ -20134,7 +20134,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="72"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="51" t="s">
         <v>364</v>
       </c>
@@ -20160,7 +20160,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="72"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="51" t="s">
         <v>329</v>
       </c>
@@ -20180,7 +20180,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="72"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="51" t="s">
         <v>365</v>
       </c>
@@ -20200,7 +20200,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="72"/>
+      <c r="A12" s="73"/>
       <c r="B12" s="51" t="s">
         <v>345</v>
       </c>
@@ -20219,7 +20219,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="72"/>
+      <c r="A13" s="73"/>
       <c r="B13" s="51" t="s">
         <v>309</v>
       </c>
@@ -20238,7 +20238,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="72"/>
+      <c r="A14" s="73"/>
       <c r="B14" s="51" t="s">
         <v>366</v>
       </c>
@@ -20257,7 +20257,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="72"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="51" t="s">
         <v>367</v>
       </c>
@@ -20276,7 +20276,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="72"/>
+      <c r="A16" s="73"/>
       <c r="B16" s="51" t="s">
         <v>368</v>
       </c>
@@ -20295,7 +20295,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="73" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -20322,7 +20322,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="72"/>
+      <c r="A18" s="73"/>
       <c r="B18" s="51" t="s">
         <v>370</v>
       </c>
@@ -20348,7 +20348,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="72"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="51" t="s">
         <v>342</v>
       </c>
@@ -20374,7 +20374,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="72"/>
+      <c r="A20" s="73"/>
       <c r="B20" s="51" t="s">
         <v>371</v>
       </c>
@@ -20400,7 +20400,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="72"/>
+      <c r="A21" s="73"/>
       <c r="B21" s="51" t="s">
         <v>372</v>
       </c>
@@ -20426,7 +20426,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="72"/>
+      <c r="A22" s="73"/>
       <c r="B22" s="51" t="s">
         <v>329</v>
       </c>
@@ -20452,7 +20452,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="72"/>
+      <c r="A23" s="73"/>
       <c r="B23" s="51" t="s">
         <v>373</v>
       </c>
@@ -20478,7 +20478,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="72"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="51" t="s">
         <v>374</v>
       </c>
@@ -20504,7 +20504,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="72"/>
+      <c r="A25" s="73"/>
       <c r="B25" s="51" t="s">
         <v>304</v>
       </c>
@@ -20524,7 +20524,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="72"/>
+      <c r="A26" s="73"/>
       <c r="B26" s="51" t="s">
         <v>375</v>
       </c>
@@ -20544,7 +20544,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="72"/>
+      <c r="A27" s="73"/>
       <c r="B27" s="51" t="s">
         <v>376</v>
       </c>
@@ -20563,7 +20563,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="72"/>
+      <c r="A28" s="73"/>
       <c r="B28" s="51" t="s">
         <v>377</v>
       </c>
@@ -20582,7 +20582,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="72"/>
+      <c r="A29" s="73"/>
       <c r="B29" s="51" t="s">
         <v>378</v>
       </c>
@@ -20601,7 +20601,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="72"/>
+      <c r="A30" s="73"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -20612,7 +20612,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="72"/>
+      <c r="A31" s="73"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -20623,7 +20623,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="72" t="s">
+      <c r="A32" s="73" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -20650,7 +20650,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="72"/>
+      <c r="A33" s="73"/>
       <c r="B33" s="51" t="s">
         <v>380</v>
       </c>
@@ -20676,7 +20676,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="72"/>
+      <c r="A34" s="73"/>
       <c r="B34" s="51" t="s">
         <v>370</v>
       </c>
@@ -20702,7 +20702,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="72"/>
+      <c r="A35" s="73"/>
       <c r="B35" s="51" t="s">
         <v>294</v>
       </c>
@@ -20728,7 +20728,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="72"/>
+      <c r="A36" s="73"/>
       <c r="B36" s="51" t="s">
         <v>381</v>
       </c>
@@ -20754,7 +20754,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="72"/>
+      <c r="A37" s="73"/>
       <c r="B37" s="51" t="s">
         <v>311</v>
       </c>
@@ -20780,7 +20780,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="72"/>
+      <c r="A38" s="73"/>
       <c r="B38" s="51" t="s">
         <v>382</v>
       </c>
@@ -20806,7 +20806,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="72"/>
+      <c r="A39" s="73"/>
       <c r="B39" s="51" t="s">
         <v>329</v>
       </c>
@@ -20832,7 +20832,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="72"/>
+      <c r="A40" s="73"/>
       <c r="B40" s="51" t="s">
         <v>383</v>
       </c>
@@ -20852,7 +20852,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="72"/>
+      <c r="A41" s="73"/>
       <c r="B41" s="51" t="s">
         <v>374</v>
       </c>
@@ -20872,7 +20872,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="72"/>
+      <c r="A42" s="73"/>
       <c r="B42" s="51" t="s">
         <v>304</v>
       </c>
@@ -20891,7 +20891,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="72"/>
+      <c r="A43" s="73"/>
       <c r="B43" s="51" t="s">
         <v>384</v>
       </c>
@@ -20910,7 +20910,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="72"/>
+      <c r="A44" s="73"/>
       <c r="B44" s="51" t="s">
         <v>385</v>
       </c>
@@ -20929,7 +20929,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="72"/>
+      <c r="A45" s="73"/>
       <c r="B45" s="51" t="s">
         <v>386</v>
       </c>
@@ -21193,7 +21193,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="76" t="s">
+      <c r="A62" s="72" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -21220,7 +21220,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="72"/>
+      <c r="A63" s="73"/>
       <c r="B63" s="51" t="s">
         <v>390</v>
       </c>
@@ -21245,7 +21245,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="72"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="51" t="s">
         <v>370</v>
       </c>
@@ -21271,7 +21271,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="72"/>
+      <c r="A65" s="73"/>
       <c r="B65" s="51" t="s">
         <v>309</v>
       </c>
@@ -21297,7 +21297,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="72"/>
+      <c r="A66" s="73"/>
       <c r="B66" s="51" t="s">
         <v>391</v>
       </c>
@@ -21323,7 +21323,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="72"/>
+      <c r="A67" s="73"/>
       <c r="B67" s="51" t="s">
         <v>392</v>
       </c>
@@ -21349,7 +21349,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="72"/>
+      <c r="A68" s="73"/>
       <c r="B68" s="56" t="s">
         <v>313</v>
       </c>
@@ -21375,7 +21375,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="72"/>
+      <c r="A69" s="73"/>
       <c r="B69" s="51" t="s">
         <v>393</v>
       </c>
@@ -21401,7 +21401,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="72"/>
+      <c r="A70" s="73"/>
       <c r="B70" s="51" t="s">
         <v>394</v>
       </c>
@@ -21421,7 +21421,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="72"/>
+      <c r="A71" s="73"/>
       <c r="B71" s="51" t="s">
         <v>342</v>
       </c>
@@ -21441,7 +21441,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="72"/>
+      <c r="A72" s="73"/>
       <c r="B72" s="51" t="s">
         <v>385</v>
       </c>
@@ -21460,7 +21460,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="72"/>
+      <c r="A73" s="73"/>
       <c r="B73" s="51" t="s">
         <v>395</v>
       </c>
@@ -21479,7 +21479,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="72"/>
+      <c r="A74" s="73"/>
       <c r="B74" s="51" t="s">
         <v>396</v>
       </c>
@@ -21498,7 +21498,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="72"/>
+      <c r="A75" s="73"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -21509,7 +21509,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="72"/>
+      <c r="A76" s="73"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -21520,7 +21520,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="72" t="s">
+      <c r="A77" s="73" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -21547,7 +21547,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="72"/>
+      <c r="A78" s="73"/>
       <c r="B78" s="51" t="s">
         <v>397</v>
       </c>
@@ -21573,7 +21573,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="72"/>
+      <c r="A79" s="73"/>
       <c r="B79" s="51" t="s">
         <v>398</v>
       </c>
@@ -21599,7 +21599,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="72"/>
+      <c r="A80" s="73"/>
       <c r="B80" s="51" t="s">
         <v>309</v>
       </c>
@@ -21625,7 +21625,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="72"/>
+      <c r="A81" s="73"/>
       <c r="B81" s="51" t="s">
         <v>399</v>
       </c>
@@ -21651,7 +21651,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="72"/>
+      <c r="A82" s="73"/>
       <c r="B82" s="51" t="s">
         <v>400</v>
       </c>
@@ -21677,7 +21677,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="72"/>
+      <c r="A83" s="73"/>
       <c r="B83" s="51" t="s">
         <v>329</v>
       </c>
@@ -21703,7 +21703,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="72"/>
+      <c r="A84" s="73"/>
       <c r="B84" s="51" t="s">
         <v>401</v>
       </c>
@@ -21729,7 +21729,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="72"/>
+      <c r="A85" s="73"/>
       <c r="B85" s="51" t="s">
         <v>394</v>
       </c>
@@ -21749,7 +21749,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="72"/>
+      <c r="A86" s="73"/>
       <c r="B86" s="51" t="s">
         <v>309</v>
       </c>
@@ -21769,7 +21769,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="72"/>
+      <c r="A87" s="73"/>
       <c r="B87" s="51" t="s">
         <v>385</v>
       </c>
@@ -21788,7 +21788,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="72"/>
+      <c r="A88" s="73"/>
       <c r="B88" s="51" t="s">
         <v>402</v>
       </c>
@@ -21807,7 +21807,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="72"/>
+      <c r="A89" s="73"/>
       <c r="B89" s="51" t="s">
         <v>403</v>
       </c>
@@ -21826,7 +21826,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="72"/>
+      <c r="A90" s="73"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -21837,7 +21837,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="73"/>
+      <c r="A91" s="76"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -21848,7 +21848,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="76" t="s">
+      <c r="A92" s="72" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -21875,7 +21875,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="72"/>
+      <c r="A93" s="73"/>
       <c r="B93" s="51" t="s">
         <v>405</v>
       </c>
@@ -21901,7 +21901,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="72"/>
+      <c r="A94" s="73"/>
       <c r="B94" s="56" t="s">
         <v>406</v>
       </c>
@@ -21927,7 +21927,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="72"/>
+      <c r="A95" s="73"/>
       <c r="B95" s="51" t="s">
         <v>407</v>
       </c>
@@ -21953,7 +21953,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="72"/>
+      <c r="A96" s="73"/>
       <c r="B96" s="51" t="s">
         <v>342</v>
       </c>
@@ -21979,7 +21979,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="72"/>
+      <c r="A97" s="73"/>
       <c r="B97" s="51" t="s">
         <v>408</v>
       </c>
@@ -22005,7 +22005,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="72"/>
+      <c r="A98" s="73"/>
       <c r="B98" s="51" t="s">
         <v>409</v>
       </c>
@@ -22031,7 +22031,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="72"/>
+      <c r="A99" s="73"/>
       <c r="B99" s="51" t="s">
         <v>410</v>
       </c>
@@ -22057,7 +22057,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="72"/>
+      <c r="A100" s="73"/>
       <c r="B100" s="51" t="s">
         <v>411</v>
       </c>
@@ -22077,7 +22077,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="72"/>
+      <c r="A101" s="73"/>
       <c r="B101" s="51" t="s">
         <v>412</v>
       </c>
@@ -22097,7 +22097,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="72"/>
+      <c r="A102" s="73"/>
       <c r="B102" s="51" t="s">
         <v>413</v>
       </c>
@@ -22116,7 +22116,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="72"/>
+      <c r="A103" s="73"/>
       <c r="B103" s="51" t="s">
         <v>414</v>
       </c>
@@ -22135,7 +22135,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="72"/>
+      <c r="A104" s="73"/>
       <c r="B104" s="51" t="s">
         <v>304</v>
       </c>
@@ -22154,7 +22154,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="72"/>
+      <c r="A105" s="73"/>
       <c r="B105" s="51" t="s">
         <v>415</v>
       </c>
@@ -22516,7 +22516,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="76" t="s">
+      <c r="A122" s="72" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51" t="s">
@@ -22543,7 +22543,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="72"/>
+      <c r="A123" s="73"/>
       <c r="B123" s="51" t="s">
         <v>426</v>
       </c>
@@ -22569,7 +22569,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="72"/>
+      <c r="A124" s="73"/>
       <c r="B124" s="51" t="s">
         <v>427</v>
       </c>
@@ -22595,7 +22595,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="72"/>
+      <c r="A125" s="73"/>
       <c r="B125" s="51" t="s">
         <v>428</v>
       </c>
@@ -22621,7 +22621,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="72"/>
+      <c r="A126" s="73"/>
       <c r="B126" s="51" t="s">
         <v>429</v>
       </c>
@@ -22647,7 +22647,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="72"/>
+      <c r="A127" s="73"/>
       <c r="B127" s="56" t="s">
         <v>430</v>
       </c>
@@ -22673,7 +22673,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="72"/>
+      <c r="A128" s="73"/>
       <c r="B128" s="51" t="s">
         <v>431</v>
       </c>
@@ -22699,7 +22699,7 @@
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="72"/>
+      <c r="A129" s="73"/>
       <c r="B129" s="56" t="s">
         <v>432</v>
       </c>
@@ -22725,7 +22725,7 @@
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="72"/>
+      <c r="A130" s="73"/>
       <c r="B130" s="56" t="s">
         <v>433</v>
       </c>
@@ -22745,7 +22745,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="72"/>
+      <c r="A131" s="73"/>
       <c r="B131" s="51" t="s">
         <v>294</v>
       </c>
@@ -22765,7 +22765,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="72"/>
+      <c r="A132" s="73"/>
       <c r="B132" s="51" t="s">
         <v>329</v>
       </c>
@@ -22784,7 +22784,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="72"/>
+      <c r="A133" s="73"/>
       <c r="B133" s="51" t="s">
         <v>304</v>
       </c>
@@ -22803,7 +22803,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="72"/>
+      <c r="A134" s="73"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -22814,7 +22814,7 @@
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="72"/>
+      <c r="A135" s="73"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -23272,7 +23272,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -23302,7 +23302,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="72"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="51" t="s">
         <v>311</v>
       </c>
@@ -23331,7 +23331,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="72"/>
+      <c r="A4" s="73"/>
       <c r="B4" s="51" t="s">
         <v>440</v>
       </c>
@@ -23360,7 +23360,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="72"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="56" t="s">
         <v>441</v>
       </c>
@@ -23389,7 +23389,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="72"/>
+      <c r="A6" s="73"/>
       <c r="B6" s="51" t="s">
         <v>342</v>
       </c>
@@ -23418,7 +23418,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="72"/>
+      <c r="A7" s="73"/>
       <c r="B7" t="s">
         <v>442</v>
       </c>
@@ -23447,7 +23447,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="72"/>
+      <c r="A8" s="73"/>
       <c r="B8" t="s">
         <v>443</v>
       </c>
@@ -23473,7 +23473,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="72"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="51" t="s">
         <v>329</v>
       </c>
@@ -23499,7 +23499,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="72"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="51" t="s">
         <v>444</v>
       </c>
@@ -23519,7 +23519,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="72"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="51" t="s">
         <v>445</v>
       </c>
@@ -23539,7 +23539,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="72"/>
+      <c r="A12" s="73"/>
       <c r="B12" s="51" t="s">
         <v>446</v>
       </c>
@@ -23558,7 +23558,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="72"/>
+      <c r="A13" s="73"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51" t="s">
         <v>295</v>
@@ -23571,7 +23571,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="72"/>
+      <c r="A14" s="73"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51" t="s">
         <v>288</v>
@@ -23584,7 +23584,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="72"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51" t="s">
         <v>293</v>
@@ -23597,7 +23597,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="72"/>
+      <c r="A16" s="73"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51" t="s">
         <v>290</v>
@@ -23610,7 +23610,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="73" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -23637,7 +23637,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="72"/>
+      <c r="A18" s="73"/>
       <c r="B18" s="51" t="s">
         <v>447</v>
       </c>
@@ -23663,7 +23663,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="72"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="51" t="s">
         <v>342</v>
       </c>
@@ -23689,7 +23689,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="72"/>
+      <c r="A20" s="73"/>
       <c r="B20" s="51" t="s">
         <v>371</v>
       </c>
@@ -23715,7 +23715,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="72"/>
+      <c r="A21" s="73"/>
       <c r="B21" s="51" t="s">
         <v>372</v>
       </c>
@@ -23741,7 +23741,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="72"/>
+      <c r="A22" s="73"/>
       <c r="B22" s="51" t="s">
         <v>329</v>
       </c>
@@ -23767,7 +23767,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="72"/>
+      <c r="A23" s="73"/>
       <c r="B23" s="51" t="s">
         <v>373</v>
       </c>
@@ -23793,7 +23793,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="72"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="51" t="s">
         <v>374</v>
       </c>
@@ -23819,7 +23819,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="72"/>
+      <c r="A25" s="73"/>
       <c r="B25" s="51" t="s">
         <v>304</v>
       </c>
@@ -23839,7 +23839,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="72"/>
+      <c r="A26" s="73"/>
       <c r="B26" s="51" t="s">
         <v>375</v>
       </c>
@@ -23859,7 +23859,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="72"/>
+      <c r="A27" s="73"/>
       <c r="B27" s="51" t="s">
         <v>376</v>
       </c>
@@ -23878,7 +23878,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="72"/>
+      <c r="A28" s="73"/>
       <c r="B28" s="51" t="s">
         <v>377</v>
       </c>
@@ -23897,7 +23897,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="72"/>
+      <c r="A29" s="73"/>
       <c r="B29" s="51" t="s">
         <v>378</v>
       </c>
@@ -23916,7 +23916,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="72"/>
+      <c r="A30" s="73"/>
       <c r="B30" s="51" t="s">
         <v>448</v>
       </c>
@@ -23935,7 +23935,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="72"/>
+      <c r="A31" s="73"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -23946,7 +23946,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="72" t="s">
+      <c r="A32" s="73" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -23973,7 +23973,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="72"/>
+      <c r="A33" s="73"/>
       <c r="B33" s="51" t="s">
         <v>449</v>
       </c>
@@ -23999,7 +23999,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="72"/>
+      <c r="A34" s="73"/>
       <c r="B34" s="51" t="s">
         <v>450</v>
       </c>
@@ -24025,7 +24025,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="72"/>
+      <c r="A35" s="73"/>
       <c r="B35" s="51" t="s">
         <v>294</v>
       </c>
@@ -24051,7 +24051,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="72"/>
+      <c r="A36" s="73"/>
       <c r="B36" s="51" t="s">
         <v>451</v>
       </c>
@@ -24077,7 +24077,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="72"/>
+      <c r="A37" s="73"/>
       <c r="B37" s="51" t="s">
         <v>311</v>
       </c>
@@ -24103,7 +24103,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="72"/>
+      <c r="A38" s="73"/>
       <c r="B38" s="51" t="s">
         <v>452</v>
       </c>
@@ -24129,7 +24129,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="72"/>
+      <c r="A39" s="73"/>
       <c r="B39" s="51" t="s">
         <v>329</v>
       </c>
@@ -24155,7 +24155,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="72"/>
+      <c r="A40" s="73"/>
       <c r="B40" s="51" t="s">
         <v>453</v>
       </c>
@@ -24175,7 +24175,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="72"/>
+      <c r="A41" s="73"/>
       <c r="B41" s="51" t="s">
         <v>454</v>
       </c>
@@ -24195,7 +24195,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="72"/>
+      <c r="A42" s="73"/>
       <c r="B42" s="51" t="s">
         <v>304</v>
       </c>
@@ -24214,7 +24214,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="72"/>
+      <c r="A43" s="73"/>
       <c r="B43" s="51" t="s">
         <v>455</v>
       </c>
@@ -24233,7 +24233,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="72"/>
+      <c r="A44" s="73"/>
       <c r="B44" s="51" t="s">
         <v>448</v>
       </c>
@@ -24252,7 +24252,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="72"/>
+      <c r="A45" s="73"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
       <c r="E45" s="52"/>
@@ -24499,7 +24499,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="76" t="s">
+      <c r="A62" s="72" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51"/>
@@ -24518,7 +24518,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="72"/>
+      <c r="A63" s="73"/>
       <c r="B63" s="51"/>
       <c r="C63" s="51"/>
       <c r="D63" s="52"/>
@@ -24535,7 +24535,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="72"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="51"/>
       <c r="C64" s="51"/>
       <c r="D64" s="52"/>
@@ -24553,7 +24553,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="72"/>
+      <c r="A65" s="73"/>
       <c r="B65" s="51"/>
       <c r="C65" s="51"/>
       <c r="D65" s="52"/>
@@ -24571,7 +24571,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="72"/>
+      <c r="A66" s="73"/>
       <c r="B66" s="51"/>
       <c r="C66" s="51"/>
       <c r="D66" s="52"/>
@@ -24589,7 +24589,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="72"/>
+      <c r="A67" s="73"/>
       <c r="B67" s="51"/>
       <c r="C67" s="51"/>
       <c r="D67" s="52"/>
@@ -24607,7 +24607,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="72"/>
+      <c r="A68" s="73"/>
       <c r="B68" s="56" t="s">
         <v>456</v>
       </c>
@@ -24627,7 +24627,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="72"/>
+      <c r="A69" s="73"/>
       <c r="B69" s="51"/>
       <c r="C69" s="51"/>
       <c r="D69" s="52"/>
@@ -24645,7 +24645,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="72"/>
+      <c r="A70" s="73"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51"/>
       <c r="D70" s="52"/>
@@ -24657,7 +24657,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="72"/>
+      <c r="A71" s="73"/>
       <c r="B71" s="51"/>
       <c r="C71" s="51"/>
       <c r="D71" s="52"/>
@@ -24669,7 +24669,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="72"/>
+      <c r="A72" s="73"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -24680,7 +24680,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="72"/>
+      <c r="A73" s="73"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -24691,7 +24691,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="72"/>
+      <c r="A74" s="73"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -24702,7 +24702,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="72"/>
+      <c r="A75" s="73"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -24713,7 +24713,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="72"/>
+      <c r="A76" s="73"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -24724,7 +24724,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="72" t="s">
+      <c r="A77" s="73" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -24751,7 +24751,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="72"/>
+      <c r="A78" s="73"/>
       <c r="B78" s="51" t="s">
         <v>457</v>
       </c>
@@ -24777,7 +24777,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="72"/>
+      <c r="A79" s="73"/>
       <c r="B79" s="51" t="s">
         <v>458</v>
       </c>
@@ -24803,7 +24803,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="72"/>
+      <c r="A80" s="73"/>
       <c r="B80" s="51" t="s">
         <v>309</v>
       </c>
@@ -24829,7 +24829,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="72"/>
+      <c r="A81" s="73"/>
       <c r="B81" s="51" t="s">
         <v>459</v>
       </c>
@@ -24855,7 +24855,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="72"/>
+      <c r="A82" s="73"/>
       <c r="B82" s="51" t="s">
         <v>400</v>
       </c>
@@ -24881,7 +24881,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="72"/>
+      <c r="A83" s="73"/>
       <c r="B83" s="51" t="s">
         <v>329</v>
       </c>
@@ -24907,7 +24907,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="72"/>
+      <c r="A84" s="73"/>
       <c r="B84" s="51" t="s">
         <v>401</v>
       </c>
@@ -24933,7 +24933,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="72"/>
+      <c r="A85" s="73"/>
       <c r="B85" s="51" t="s">
         <v>394</v>
       </c>
@@ -24953,7 +24953,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="72"/>
+      <c r="A86" s="73"/>
       <c r="B86" s="51" t="s">
         <v>309</v>
       </c>
@@ -24973,7 +24973,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="72"/>
+      <c r="A87" s="73"/>
       <c r="B87" s="51" t="s">
         <v>385</v>
       </c>
@@ -24992,7 +24992,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="72"/>
+      <c r="A88" s="73"/>
       <c r="B88" s="51" t="s">
         <v>402</v>
       </c>
@@ -25011,7 +25011,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="72"/>
+      <c r="A89" s="73"/>
       <c r="B89" s="51" t="s">
         <v>403</v>
       </c>
@@ -25030,7 +25030,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="72"/>
+      <c r="A90" s="73"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -25041,7 +25041,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="73"/>
+      <c r="A91" s="76"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -25052,7 +25052,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="76" t="s">
+      <c r="A92" s="72" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -25079,7 +25079,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="72"/>
+      <c r="A93" s="73"/>
       <c r="B93" s="51" t="s">
         <v>461</v>
       </c>
@@ -25105,7 +25105,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="72"/>
+      <c r="A94" s="73"/>
       <c r="B94" s="56" t="s">
         <v>309</v>
       </c>
@@ -25131,7 +25131,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="72"/>
+      <c r="A95" s="73"/>
       <c r="B95" s="51" t="s">
         <v>462</v>
       </c>
@@ -25157,7 +25157,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="72"/>
+      <c r="A96" s="73"/>
       <c r="B96" s="51" t="s">
         <v>463</v>
       </c>
@@ -25183,7 +25183,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="72"/>
+      <c r="A97" s="73"/>
       <c r="B97" s="51" t="s">
         <v>464</v>
       </c>
@@ -25209,7 +25209,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="72"/>
+      <c r="A98" s="73"/>
       <c r="B98" s="51" t="s">
         <v>465</v>
       </c>
@@ -25235,7 +25235,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="72"/>
+      <c r="A99" s="73"/>
       <c r="B99" s="51" t="s">
         <v>466</v>
       </c>
@@ -25261,7 +25261,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="72"/>
+      <c r="A100" s="73"/>
       <c r="B100" s="51" t="s">
         <v>421</v>
       </c>
@@ -25281,7 +25281,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="72"/>
+      <c r="A101" s="73"/>
       <c r="B101" s="51" t="s">
         <v>467</v>
       </c>
@@ -25301,7 +25301,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="72"/>
+      <c r="A102" s="73"/>
       <c r="B102" s="51" t="s">
         <v>468</v>
       </c>
@@ -25320,7 +25320,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="72"/>
+      <c r="A103" s="73"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51" t="s">
         <v>296</v>
@@ -25337,7 +25337,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="72"/>
+      <c r="A104" s="73"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51" t="s">
         <v>295</v>
@@ -25354,7 +25354,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="72"/>
+      <c r="A105" s="73"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51" t="s">
         <v>288</v>
@@ -25614,7 +25614,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="76" t="s">
+      <c r="A122" s="72" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51"/>
@@ -25639,7 +25639,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="72"/>
+      <c r="A123" s="73"/>
       <c r="B123" s="51"/>
       <c r="C123" s="51" t="s">
         <v>295</v>
@@ -25663,7 +25663,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="72"/>
+      <c r="A124" s="73"/>
       <c r="B124" s="51"/>
       <c r="C124" s="51" t="s">
         <v>288</v>
@@ -25687,7 +25687,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="72"/>
+      <c r="A125" s="73"/>
       <c r="B125" s="51"/>
       <c r="C125" s="51" t="s">
         <v>295</v>
@@ -25711,7 +25711,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="72"/>
+      <c r="A126" s="73"/>
       <c r="B126" s="58"/>
       <c r="C126" s="51" t="s">
         <v>288</v>
@@ -25807,7 +25807,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="72"/>
+      <c r="A131" s="73"/>
       <c r="B131" s="59"/>
       <c r="C131" s="51"/>
       <c r="D131" s="52"/>
@@ -25816,7 +25816,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="72"/>
+      <c r="A132" s="73"/>
       <c r="B132" s="51"/>
       <c r="C132" s="51"/>
       <c r="D132" s="52"/>
@@ -25824,7 +25824,7 @@
       <c r="F132" s="52"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="72"/>
+      <c r="A133" s="73"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
@@ -25832,7 +25832,7 @@
       <c r="F133" s="52"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="72"/>
+      <c r="A134" s="73"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -25840,7 +25840,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="72"/>
+      <c r="A135" s="73"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -26602,7 +26602,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -26632,7 +26632,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="72"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="51" t="s">
         <v>470</v>
       </c>
@@ -26661,7 +26661,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="72"/>
+      <c r="A4" s="73"/>
       <c r="B4" s="51" t="s">
         <v>471</v>
       </c>
@@ -26690,7 +26690,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="72"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="51" t="s">
         <v>472</v>
       </c>
@@ -26719,7 +26719,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="72"/>
+      <c r="A6" s="73"/>
       <c r="B6" s="51" t="s">
         <v>329</v>
       </c>
@@ -26748,7 +26748,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="72"/>
+      <c r="A7" s="73"/>
       <c r="B7" t="s">
         <v>473</v>
       </c>
@@ -26777,7 +26777,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="72"/>
+      <c r="A8" s="73"/>
       <c r="B8" s="51" t="s">
         <v>474</v>
       </c>
@@ -26803,7 +26803,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="72"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="51"/>
       <c r="C9" s="51" t="s">
         <v>288</v>
@@ -26823,7 +26823,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="72"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="51"/>
       <c r="C10" s="51" t="s">
         <v>295</v>
@@ -26837,7 +26837,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="72"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="51"/>
       <c r="C11" s="51" t="s">
         <v>288</v>
@@ -26851,7 +26851,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="72"/>
+      <c r="A12" s="73"/>
       <c r="B12" s="51"/>
       <c r="C12" s="51" t="s">
         <v>296</v>
@@ -26864,7 +26864,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="72"/>
+      <c r="A13" s="73"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51" t="s">
         <v>295</v>
@@ -26877,7 +26877,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="72"/>
+      <c r="A14" s="73"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51" t="s">
         <v>288</v>
@@ -26890,7 +26890,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="72"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51" t="s">
         <v>293</v>
@@ -26903,7 +26903,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="72"/>
+      <c r="A16" s="73"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51" t="s">
         <v>290</v>
@@ -26916,7 +26916,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="73" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -26943,7 +26943,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="72"/>
+      <c r="A18" s="73"/>
       <c r="B18" s="51" t="s">
         <v>476</v>
       </c>
@@ -26969,7 +26969,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="72"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="51" t="s">
         <v>329</v>
       </c>
@@ -26995,7 +26995,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="72"/>
+      <c r="A20" s="73"/>
       <c r="B20" s="51" t="s">
         <v>477</v>
       </c>
@@ -27021,7 +27021,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="72"/>
+      <c r="A21" s="73"/>
       <c r="B21" s="51" t="s">
         <v>309</v>
       </c>
@@ -27047,7 +27047,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="72"/>
+      <c r="A22" s="73"/>
       <c r="B22" s="51" t="s">
         <v>478</v>
       </c>
@@ -27073,7 +27073,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="72"/>
+      <c r="A23" s="73"/>
       <c r="B23" s="51"/>
       <c r="C23" s="51"/>
       <c r="D23" s="52"/>
@@ -27088,7 +27088,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="72"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
       <c r="D24" s="52"/>
@@ -27103,7 +27103,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="72"/>
+      <c r="A25" s="73"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
       <c r="D25" s="52"/>
@@ -27112,7 +27112,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="72"/>
+      <c r="A26" s="73"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
       <c r="D26" s="52"/>
@@ -27124,7 +27124,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="72"/>
+      <c r="A27" s="73"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
       <c r="D27" s="52"/>
@@ -27135,7 +27135,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="72"/>
+      <c r="A28" s="73"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="52"/>
@@ -27146,7 +27146,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="72"/>
+      <c r="A29" s="73"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="52"/>
@@ -27157,7 +27157,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="72"/>
+      <c r="A30" s="73"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -27168,7 +27168,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="72"/>
+      <c r="A31" s="73"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -27179,7 +27179,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="72" t="s">
+      <c r="A32" s="73" t="s">
         <v>263</v>
       </c>
       <c r="C32" s="51"/>
@@ -27197,7 +27197,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="72"/>
+      <c r="A33" s="73"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
       <c r="D33" s="52"/>
@@ -27215,7 +27215,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="72"/>
+      <c r="A34" s="73"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
       <c r="D34" s="52"/>
@@ -27233,7 +27233,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="72"/>
+      <c r="A35" s="73"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
       <c r="D35" s="52"/>
@@ -27251,7 +27251,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="72"/>
+      <c r="A36" s="73"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
       <c r="D36" s="52"/>
@@ -27269,7 +27269,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="72"/>
+      <c r="A37" s="73"/>
       <c r="B37" s="51" t="s">
         <v>479</v>
       </c>
@@ -27289,7 +27289,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="72"/>
+      <c r="A38" s="73"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
       <c r="D38" s="52"/>
@@ -27307,7 +27307,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="72"/>
+      <c r="A39" s="73"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
       <c r="D39" s="52"/>
@@ -27325,7 +27325,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="72"/>
+      <c r="A40" s="73"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
       <c r="D40" s="52"/>
@@ -27337,7 +27337,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="72"/>
+      <c r="A41" s="73"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
       <c r="D41" s="52"/>
@@ -27349,7 +27349,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="72"/>
+      <c r="A42" s="73"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
       <c r="D42" s="52"/>
@@ -27360,7 +27360,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="72"/>
+      <c r="A43" s="73"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
       <c r="D43" s="52"/>
@@ -27371,7 +27371,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="72"/>
+      <c r="A44" s="73"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
       <c r="D44" s="52"/>
@@ -27382,7 +27382,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="72"/>
+      <c r="A45" s="73"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -27674,7 +27674,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="76" t="s">
+      <c r="A62" s="72" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51"/>
@@ -27693,7 +27693,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="72"/>
+      <c r="A63" s="73"/>
       <c r="B63" s="51"/>
       <c r="C63" s="51"/>
       <c r="D63" s="52"/>
@@ -27710,7 +27710,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="72"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="51"/>
       <c r="C64" s="51"/>
       <c r="D64" s="52"/>
@@ -27728,7 +27728,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="72"/>
+      <c r="A65" s="73"/>
       <c r="B65" s="51"/>
       <c r="C65" s="51"/>
       <c r="D65" s="52"/>
@@ -27746,7 +27746,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="72"/>
+      <c r="A66" s="73"/>
       <c r="B66" s="51"/>
       <c r="C66" s="51"/>
       <c r="D66" s="52"/>
@@ -27764,7 +27764,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="72"/>
+      <c r="A67" s="73"/>
       <c r="B67" s="51"/>
       <c r="C67" s="51"/>
       <c r="D67" s="52"/>
@@ -27782,7 +27782,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="72"/>
+      <c r="A68" s="73"/>
       <c r="B68" s="56" t="s">
         <v>488</v>
       </c>
@@ -27802,7 +27802,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="72"/>
+      <c r="A69" s="73"/>
       <c r="B69" s="51"/>
       <c r="C69" s="51"/>
       <c r="D69" s="52"/>
@@ -27820,7 +27820,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="72"/>
+      <c r="A70" s="73"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51"/>
       <c r="D70" s="52"/>
@@ -27832,7 +27832,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="72"/>
+      <c r="A71" s="73"/>
       <c r="B71" s="51"/>
       <c r="C71" s="51"/>
       <c r="D71" s="52"/>
@@ -27844,7 +27844,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="72"/>
+      <c r="A72" s="73"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -27855,7 +27855,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="72"/>
+      <c r="A73" s="73"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -27866,7 +27866,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="72"/>
+      <c r="A74" s="73"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -27877,7 +27877,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="72"/>
+      <c r="A75" s="73"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -27888,7 +27888,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="72"/>
+      <c r="A76" s="73"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -27899,7 +27899,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="72" t="s">
+      <c r="A77" s="73" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -27920,7 +27920,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="72"/>
+      <c r="A78" s="73"/>
       <c r="B78" s="51"/>
       <c r="C78" s="51"/>
       <c r="D78" s="52"/>
@@ -27938,7 +27938,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="72"/>
+      <c r="A79" s="73"/>
       <c r="B79" s="51"/>
       <c r="C79" s="51"/>
       <c r="D79" s="52"/>
@@ -27956,7 +27956,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="72"/>
+      <c r="A80" s="73"/>
       <c r="B80" s="51"/>
       <c r="C80" s="51"/>
       <c r="D80" s="52"/>
@@ -27974,7 +27974,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="72"/>
+      <c r="A81" s="73"/>
       <c r="B81" s="51"/>
       <c r="C81" s="51"/>
       <c r="D81" s="52"/>
@@ -27992,7 +27992,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="72"/>
+      <c r="A82" s="73"/>
       <c r="B82" s="51"/>
       <c r="C82" s="51"/>
       <c r="D82" s="52"/>
@@ -28010,7 +28010,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="72"/>
+      <c r="A83" s="73"/>
       <c r="B83" s="51"/>
       <c r="C83" s="51"/>
       <c r="D83" s="52"/>
@@ -28028,7 +28028,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="72"/>
+      <c r="A84" s="73"/>
       <c r="B84" s="51"/>
       <c r="C84" s="51"/>
       <c r="D84" s="52"/>
@@ -28046,7 +28046,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="72"/>
+      <c r="A85" s="73"/>
       <c r="B85" s="51"/>
       <c r="C85" s="51"/>
       <c r="D85" s="52"/>
@@ -28058,7 +28058,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="72"/>
+      <c r="A86" s="73"/>
       <c r="B86" s="51"/>
       <c r="C86" s="51"/>
       <c r="D86" s="52"/>
@@ -28070,7 +28070,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="72"/>
+      <c r="A87" s="73"/>
       <c r="B87" s="51"/>
       <c r="C87" s="51"/>
       <c r="D87" s="52"/>
@@ -28081,7 +28081,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="72"/>
+      <c r="A88" s="73"/>
       <c r="B88" s="51"/>
       <c r="C88" s="51"/>
       <c r="D88" s="52"/>
@@ -28092,7 +28092,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="72"/>
+      <c r="A89" s="73"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="52"/>
@@ -28103,7 +28103,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="72"/>
+      <c r="A90" s="73"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -28114,7 +28114,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="73"/>
+      <c r="A91" s="76"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -28125,7 +28125,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="76" t="s">
+      <c r="A92" s="72" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -28152,7 +28152,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="72"/>
+      <c r="A93" s="73"/>
       <c r="B93" s="51" t="s">
         <v>491</v>
       </c>
@@ -28178,7 +28178,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="72"/>
+      <c r="A94" s="73"/>
       <c r="B94" s="56" t="s">
         <v>492</v>
       </c>
@@ -28204,7 +28204,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="72"/>
+      <c r="A95" s="73"/>
       <c r="B95" s="51"/>
       <c r="C95" s="51" t="s">
         <v>293</v>
@@ -28228,7 +28228,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="72"/>
+      <c r="A96" s="73"/>
       <c r="B96" s="51"/>
       <c r="C96" s="51" t="s">
         <v>295</v>
@@ -28252,7 +28252,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="72"/>
+      <c r="A97" s="73"/>
       <c r="B97" s="51"/>
       <c r="C97" s="51" t="s">
         <v>288</v>
@@ -28276,7 +28276,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="72"/>
+      <c r="A98" s="73"/>
       <c r="B98" s="51"/>
       <c r="C98" s="51" t="s">
         <v>285</v>
@@ -28300,7 +28300,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="72"/>
+      <c r="A99" s="73"/>
       <c r="B99" s="51"/>
       <c r="C99" s="51" t="s">
         <v>290</v>
@@ -28324,7 +28324,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="72"/>
+      <c r="A100" s="73"/>
       <c r="B100" s="51"/>
       <c r="C100" s="51" t="s">
         <v>288</v>
@@ -28342,7 +28342,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="72"/>
+      <c r="A101" s="73"/>
       <c r="B101" s="51"/>
       <c r="C101" s="51" t="s">
         <v>295</v>
@@ -28360,7 +28360,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="72"/>
+      <c r="A102" s="73"/>
       <c r="B102" s="51"/>
       <c r="C102" s="51" t="s">
         <v>288</v>
@@ -28377,7 +28377,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="72"/>
+      <c r="A103" s="73"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51" t="s">
         <v>296</v>
@@ -28394,7 +28394,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="72"/>
+      <c r="A104" s="73"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51" t="s">
         <v>295</v>
@@ -28411,7 +28411,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="72"/>
+      <c r="A105" s="73"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51" t="s">
         <v>288</v>
@@ -28671,7 +28671,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="76" t="s">
+      <c r="A122" s="72" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51" t="s">
@@ -28698,7 +28698,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="72"/>
+      <c r="A123" s="73"/>
       <c r="B123" s="51" t="s">
         <v>494</v>
       </c>
@@ -28724,7 +28724,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="72"/>
+      <c r="A124" s="73"/>
       <c r="B124" s="51" t="s">
         <v>495</v>
       </c>
@@ -28750,7 +28750,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="72"/>
+      <c r="A125" s="73"/>
       <c r="B125" s="51" t="s">
         <v>496</v>
       </c>
@@ -28776,7 +28776,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="72"/>
+      <c r="A126" s="73"/>
       <c r="B126" s="58" t="s">
         <v>497</v>
       </c>
@@ -28898,7 +28898,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="72"/>
+      <c r="A131" s="73"/>
       <c r="B131" s="59" t="s">
         <v>502</v>
       </c>
@@ -28917,7 +28917,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="72"/>
+      <c r="A132" s="73"/>
       <c r="B132" s="51" t="s">
         <v>503</v>
       </c>
@@ -28935,7 +28935,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="72"/>
+      <c r="A133" s="73"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
@@ -28943,7 +28943,7 @@
       <c r="F133" s="52"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="72"/>
+      <c r="A134" s="73"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -28951,7 +28951,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="72"/>
+      <c r="A135" s="73"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -29371,7 +29371,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51"/>
@@ -29395,7 +29395,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="72"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="51"/>
       <c r="C3" s="51" t="s">
         <v>288</v>
@@ -29418,7 +29418,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="72"/>
+      <c r="A4" s="73"/>
       <c r="B4" s="51"/>
       <c r="C4" s="51" t="s">
         <v>285</v>
@@ -29441,7 +29441,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="72"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="51"/>
       <c r="C5" s="51" t="s">
         <v>295</v>
@@ -29464,7 +29464,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="72"/>
+      <c r="A6" s="73"/>
       <c r="B6" s="51"/>
       <c r="C6" s="51" t="s">
         <v>285</v>
@@ -29487,7 +29487,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="72"/>
+      <c r="A7" s="73"/>
       <c r="C7" s="51" t="s">
         <v>288</v>
       </c>
@@ -29509,7 +29509,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="72"/>
+      <c r="A8" s="73"/>
       <c r="B8" s="51"/>
       <c r="C8" s="51" t="s">
         <v>288</v>
@@ -29529,7 +29529,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="72"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="51" t="s">
         <v>388</v>
       </c>
@@ -29551,7 +29551,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="72"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="51"/>
       <c r="C10" s="51" t="s">
         <v>295</v>
@@ -29565,7 +29565,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="72"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="51"/>
       <c r="C11" s="51" t="s">
         <v>288</v>
@@ -29579,7 +29579,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="72"/>
+      <c r="A12" s="73"/>
       <c r="B12" s="51"/>
       <c r="C12" s="51" t="s">
         <v>296</v>
@@ -29592,7 +29592,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="72"/>
+      <c r="A13" s="73"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51" t="s">
         <v>295</v>
@@ -29605,7 +29605,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="72"/>
+      <c r="A14" s="73"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51" t="s">
         <v>288</v>
@@ -29618,7 +29618,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="72"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51" t="s">
         <v>293</v>
@@ -29631,7 +29631,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="72"/>
+      <c r="A16" s="73"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51" t="s">
         <v>290</v>
@@ -29644,7 +29644,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="73" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -29671,7 +29671,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="72"/>
+      <c r="A18" s="73"/>
       <c r="B18" s="51" t="s">
         <v>510</v>
       </c>
@@ -29697,7 +29697,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="72"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="51" t="s">
         <v>329</v>
       </c>
@@ -29723,7 +29723,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="72"/>
+      <c r="A20" s="73"/>
       <c r="B20" s="51" t="s">
         <v>477</v>
       </c>
@@ -29749,7 +29749,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="72"/>
+      <c r="A21" s="73"/>
       <c r="B21" s="51" t="s">
         <v>511</v>
       </c>
@@ -29775,7 +29775,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="72"/>
+      <c r="A22" s="73"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
       <c r="D22" s="52"/>
@@ -29793,7 +29793,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="72"/>
+      <c r="A23" s="73"/>
       <c r="B23" s="51"/>
       <c r="C23" s="51"/>
       <c r="D23" s="52"/>
@@ -29808,7 +29808,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="72"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
       <c r="D24" s="52"/>
@@ -29823,7 +29823,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="72"/>
+      <c r="A25" s="73"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
       <c r="D25" s="52"/>
@@ -29832,7 +29832,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="72"/>
+      <c r="A26" s="73"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
       <c r="D26" s="52"/>
@@ -29844,7 +29844,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="72"/>
+      <c r="A27" s="73"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
       <c r="D27" s="52"/>
@@ -29855,7 +29855,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="72"/>
+      <c r="A28" s="73"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="52"/>
@@ -29866,7 +29866,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="72"/>
+      <c r="A29" s="73"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="52"/>
@@ -29877,7 +29877,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="72"/>
+      <c r="A30" s="73"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -29888,7 +29888,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="72"/>
+      <c r="A31" s="73"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -29899,7 +29899,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="72" t="s">
+      <c r="A32" s="73" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -29920,7 +29920,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="72"/>
+      <c r="A33" s="73"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
       <c r="D33" s="52"/>
@@ -29938,7 +29938,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="72"/>
+      <c r="A34" s="73"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
       <c r="D34" s="52"/>
@@ -29956,7 +29956,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="72"/>
+      <c r="A35" s="73"/>
       <c r="B35" s="51" t="s">
         <v>513</v>
       </c>
@@ -29982,7 +29982,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="72"/>
+      <c r="A36" s="73"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
       <c r="D36" s="52"/>
@@ -30000,7 +30000,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="72"/>
+      <c r="A37" s="73"/>
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
       <c r="D37" s="52"/>
@@ -30018,7 +30018,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="72"/>
+      <c r="A38" s="73"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
       <c r="D38" s="52"/>
@@ -30036,7 +30036,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="72"/>
+      <c r="A39" s="73"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
       <c r="D39" s="52"/>
@@ -30054,7 +30054,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="72"/>
+      <c r="A40" s="73"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
       <c r="D40" s="52"/>
@@ -30066,7 +30066,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="72"/>
+      <c r="A41" s="73"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
       <c r="D41" s="52"/>
@@ -30078,7 +30078,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="72"/>
+      <c r="A42" s="73"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
       <c r="D42" s="52"/>
@@ -30089,7 +30089,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="72"/>
+      <c r="A43" s="73"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
       <c r="D43" s="52"/>
@@ -30100,7 +30100,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="72"/>
+      <c r="A44" s="73"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
       <c r="D44" s="52"/>
@@ -30111,7 +30111,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="72"/>
+      <c r="A45" s="73"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -30371,7 +30371,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="76" t="s">
+      <c r="A62" s="72" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51"/>
@@ -30390,7 +30390,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="72"/>
+      <c r="A63" s="73"/>
       <c r="B63" s="51"/>
       <c r="C63" s="51"/>
       <c r="D63" s="52"/>
@@ -30407,7 +30407,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="72"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="51"/>
       <c r="C64" s="51"/>
       <c r="D64" s="52"/>
@@ -30425,7 +30425,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="72"/>
+      <c r="A65" s="73"/>
       <c r="B65" s="51"/>
       <c r="C65" s="51"/>
       <c r="D65" s="52"/>
@@ -30443,7 +30443,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="72"/>
+      <c r="A66" s="73"/>
       <c r="B66" s="51"/>
       <c r="C66" s="51"/>
       <c r="D66" s="52"/>
@@ -30461,7 +30461,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="72"/>
+      <c r="A67" s="73"/>
       <c r="B67" s="51"/>
       <c r="C67" s="51"/>
       <c r="D67" s="52"/>
@@ -30479,7 +30479,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="72"/>
+      <c r="A68" s="73"/>
       <c r="B68" s="56" t="s">
         <v>520</v>
       </c>
@@ -30499,7 +30499,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="72"/>
+      <c r="A69" s="73"/>
       <c r="B69" s="51"/>
       <c r="C69" s="51"/>
       <c r="D69" s="52"/>
@@ -30517,7 +30517,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="72"/>
+      <c r="A70" s="73"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51"/>
       <c r="D70" s="52"/>
@@ -30529,7 +30529,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="72"/>
+      <c r="A71" s="73"/>
       <c r="B71" s="51"/>
       <c r="C71" s="51"/>
       <c r="D71" s="52"/>
@@ -30541,7 +30541,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="72"/>
+      <c r="A72" s="73"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -30552,7 +30552,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="72"/>
+      <c r="A73" s="73"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -30563,7 +30563,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="72"/>
+      <c r="A74" s="73"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -30574,7 +30574,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="72"/>
+      <c r="A75" s="73"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -30585,7 +30585,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="72"/>
+      <c r="A76" s="73"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -30596,7 +30596,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="72" t="s">
+      <c r="A77" s="73" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -30623,7 +30623,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="72"/>
+      <c r="A78" s="73"/>
       <c r="B78" s="56" t="s">
         <v>522</v>
       </c>
@@ -30649,7 +30649,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="72"/>
+      <c r="A79" s="73"/>
       <c r="B79" s="51" t="s">
         <v>523</v>
       </c>
@@ -30675,7 +30675,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="72"/>
+      <c r="A80" s="73"/>
       <c r="B80" s="51" t="s">
         <v>524</v>
       </c>
@@ -30701,7 +30701,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="72"/>
+      <c r="A81" s="73"/>
       <c r="B81" s="51" t="s">
         <v>525</v>
       </c>
@@ -30727,7 +30727,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="72"/>
+      <c r="A82" s="73"/>
       <c r="B82" s="51" t="s">
         <v>329</v>
       </c>
@@ -30753,7 +30753,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="72"/>
+      <c r="A83" s="73"/>
       <c r="B83" s="56" t="s">
         <v>526</v>
       </c>
@@ -30779,7 +30779,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="72"/>
+      <c r="A84" s="73"/>
       <c r="B84" s="51"/>
       <c r="C84" s="51"/>
       <c r="D84" s="52"/>
@@ -30797,7 +30797,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="72"/>
+      <c r="A85" s="73"/>
       <c r="B85" s="51"/>
       <c r="C85" s="51"/>
       <c r="D85" s="52"/>
@@ -30809,7 +30809,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="72"/>
+      <c r="A86" s="73"/>
       <c r="B86" s="51"/>
       <c r="C86" s="51"/>
       <c r="D86" s="52"/>
@@ -30821,7 +30821,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="72"/>
+      <c r="A87" s="73"/>
       <c r="B87" s="51"/>
       <c r="C87" s="51"/>
       <c r="D87" s="52"/>
@@ -30832,7 +30832,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="72"/>
+      <c r="A88" s="73"/>
       <c r="B88" s="51"/>
       <c r="C88" s="51"/>
       <c r="D88" s="52"/>
@@ -30843,7 +30843,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="72"/>
+      <c r="A89" s="73"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="52"/>
@@ -30854,7 +30854,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="72"/>
+      <c r="A90" s="73"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -30865,7 +30865,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="73"/>
+      <c r="A91" s="76"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -30876,7 +30876,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="76" t="s">
+      <c r="A92" s="72" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51"/>
@@ -30901,7 +30901,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="72"/>
+      <c r="A93" s="73"/>
       <c r="B93" s="51"/>
       <c r="C93" s="51" t="s">
         <v>288</v>
@@ -30925,7 +30925,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="72"/>
+      <c r="A94" s="73"/>
       <c r="B94" s="56"/>
       <c r="C94" s="51" t="s">
         <v>288</v>
@@ -30949,7 +30949,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="72"/>
+      <c r="A95" s="73"/>
       <c r="B95" s="51"/>
       <c r="C95" s="51" t="s">
         <v>293</v>
@@ -30973,7 +30973,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="72"/>
+      <c r="A96" s="73"/>
       <c r="B96" s="51"/>
       <c r="C96" s="51" t="s">
         <v>295</v>
@@ -30997,7 +30997,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="72"/>
+      <c r="A97" s="73"/>
       <c r="B97" s="51"/>
       <c r="C97" s="51" t="s">
         <v>288</v>
@@ -31021,7 +31021,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="72"/>
+      <c r="A98" s="73"/>
       <c r="B98" s="51"/>
       <c r="C98" s="51" t="s">
         <v>285</v>
@@ -31045,7 +31045,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="72"/>
+      <c r="A99" s="73"/>
       <c r="B99" s="51" t="s">
         <v>388</v>
       </c>
@@ -31071,7 +31071,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="72"/>
+      <c r="A100" s="73"/>
       <c r="B100" s="51"/>
       <c r="C100" s="51" t="s">
         <v>288</v>
@@ -31089,7 +31089,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="72"/>
+      <c r="A101" s="73"/>
       <c r="B101" s="51"/>
       <c r="C101" s="51" t="s">
         <v>295</v>
@@ -31107,7 +31107,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="72"/>
+      <c r="A102" s="73"/>
       <c r="B102" s="51"/>
       <c r="C102" s="51" t="s">
         <v>288</v>
@@ -31124,7 +31124,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="72"/>
+      <c r="A103" s="73"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51" t="s">
         <v>296</v>
@@ -31141,7 +31141,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="72"/>
+      <c r="A104" s="73"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51" t="s">
         <v>295</v>
@@ -31158,7 +31158,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="72"/>
+      <c r="A105" s="73"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51" t="s">
         <v>288</v>
@@ -31418,7 +31418,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="76" t="s">
+      <c r="A122" s="72" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51" t="s">
@@ -31445,7 +31445,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="72"/>
+      <c r="A123" s="73"/>
       <c r="B123" s="51" t="s">
         <v>529</v>
       </c>
@@ -31471,7 +31471,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="72"/>
+      <c r="A124" s="73"/>
       <c r="B124" s="51" t="s">
         <v>530</v>
       </c>
@@ -31497,7 +31497,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="72"/>
+      <c r="A125" s="73"/>
       <c r="B125" s="51" t="s">
         <v>313</v>
       </c>
@@ -31523,7 +31523,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="72"/>
+      <c r="A126" s="73"/>
       <c r="B126" s="58" t="s">
         <v>531</v>
       </c>
@@ -31645,7 +31645,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="72"/>
+      <c r="A131" s="73"/>
       <c r="B131" s="59"/>
       <c r="C131" s="51"/>
       <c r="D131" s="52"/>
@@ -31654,7 +31654,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="72"/>
+      <c r="A132" s="73"/>
       <c r="B132" s="51"/>
       <c r="C132" s="51"/>
       <c r="D132" s="52"/>
@@ -31662,7 +31662,7 @@
       <c r="F132" s="52"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="72"/>
+      <c r="A133" s="73"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
@@ -31670,7 +31670,7 @@
       <c r="F133" s="52"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="72"/>
+      <c r="A134" s="73"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -31678,7 +31678,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="72"/>
+      <c r="A135" s="73"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -32106,7 +32106,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -32136,7 +32136,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="72"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="51" t="s">
         <v>545</v>
       </c>
@@ -32165,7 +32165,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="72"/>
+      <c r="A4" s="73"/>
       <c r="B4" s="51" t="s">
         <v>546</v>
       </c>
@@ -32194,7 +32194,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="72"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="51" t="s">
         <v>547</v>
       </c>
@@ -32223,7 +32223,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="72"/>
+      <c r="A6" s="73"/>
       <c r="B6" s="51" t="s">
         <v>342</v>
       </c>
@@ -32252,7 +32252,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="72"/>
+      <c r="A7" s="73"/>
       <c r="C7" s="51" t="s">
         <v>288</v>
       </c>
@@ -32274,7 +32274,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="72"/>
+      <c r="A8" s="73"/>
       <c r="B8" s="51" t="s">
         <v>465</v>
       </c>
@@ -32300,7 +32300,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="72"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="51"/>
       <c r="C9" s="51" t="s">
         <v>288</v>
@@ -32320,7 +32320,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="72"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="51" t="s">
         <v>548</v>
       </c>
@@ -32340,7 +32340,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="72"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="51"/>
       <c r="C11" s="51" t="s">
         <v>288</v>
@@ -32354,7 +32354,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="72"/>
+      <c r="A12" s="73"/>
       <c r="B12" s="51"/>
       <c r="C12" s="51" t="s">
         <v>296</v>
@@ -32367,7 +32367,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="72"/>
+      <c r="A13" s="73"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51" t="s">
         <v>295</v>
@@ -32380,7 +32380,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="72"/>
+      <c r="A14" s="73"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51" t="s">
         <v>288</v>
@@ -32393,7 +32393,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="72"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51" t="s">
         <v>293</v>
@@ -32406,7 +32406,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="72"/>
+      <c r="A16" s="73"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51" t="s">
         <v>290</v>
@@ -32419,7 +32419,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="73" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -32446,7 +32446,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="72"/>
+      <c r="A18" s="73"/>
       <c r="B18" s="51" t="s">
         <v>549</v>
       </c>
@@ -32472,7 +32472,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="72"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="51" t="s">
         <v>329</v>
       </c>
@@ -32498,7 +32498,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="72"/>
+      <c r="A20" s="73"/>
       <c r="B20" s="51" t="s">
         <v>550</v>
       </c>
@@ -32524,7 +32524,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="72"/>
+      <c r="A21" s="73"/>
       <c r="B21" s="51" t="s">
         <v>550</v>
       </c>
@@ -32550,7 +32550,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="72"/>
+      <c r="A22" s="73"/>
       <c r="B22" s="58" t="s">
         <v>551</v>
       </c>
@@ -32594,7 +32594,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="72"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="59"/>
       <c r="C24" s="59"/>
       <c r="D24" s="63"/>
@@ -32612,7 +32612,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="72"/>
+      <c r="A25" s="73"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
       <c r="D25" s="52"/>
@@ -32624,7 +32624,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="72"/>
+      <c r="A26" s="73"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
       <c r="D26" s="52"/>
@@ -32636,7 +32636,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="72"/>
+      <c r="A27" s="73"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
       <c r="D27" s="52"/>
@@ -32647,7 +32647,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="72"/>
+      <c r="A28" s="73"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="52"/>
@@ -32658,7 +32658,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="72"/>
+      <c r="A29" s="73"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="52"/>
@@ -32669,7 +32669,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="72"/>
+      <c r="A30" s="73"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -32680,7 +32680,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="72"/>
+      <c r="A31" s="73"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -32691,7 +32691,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="72" t="s">
+      <c r="A32" s="73" t="s">
         <v>263</v>
       </c>
       <c r="C32" s="51"/>
@@ -32709,7 +32709,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="72"/>
+      <c r="A33" s="73"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
       <c r="D33" s="52"/>
@@ -32727,7 +32727,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="72"/>
+      <c r="A34" s="73"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
       <c r="D34" s="52"/>
@@ -32745,7 +32745,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="72"/>
+      <c r="A35" s="73"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
       <c r="D35" s="52"/>
@@ -32763,7 +32763,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="72"/>
+      <c r="A36" s="73"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
       <c r="D36" s="52"/>
@@ -32781,7 +32781,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="72"/>
+      <c r="A37" s="73"/>
       <c r="B37" s="51" t="s">
         <v>73</v>
       </c>
@@ -32801,7 +32801,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="72"/>
+      <c r="A38" s="73"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
       <c r="D38" s="52"/>
@@ -32819,7 +32819,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="72"/>
+      <c r="A39" s="73"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
       <c r="D39" s="52"/>
@@ -32837,7 +32837,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="72"/>
+      <c r="A40" s="73"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
       <c r="D40" s="52"/>
@@ -32849,7 +32849,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="72"/>
+      <c r="A41" s="73"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
       <c r="D41" s="52"/>
@@ -32861,7 +32861,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="72"/>
+      <c r="A42" s="73"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
       <c r="D42" s="52"/>
@@ -32872,7 +32872,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="72"/>
+      <c r="A43" s="73"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
       <c r="D43" s="52"/>
@@ -32883,7 +32883,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="72"/>
+      <c r="A44" s="73"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
       <c r="D44" s="52"/>
@@ -32894,7 +32894,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="72"/>
+      <c r="A45" s="73"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -33213,7 +33213,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="76" t="s">
+      <c r="A62" s="72" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -33240,7 +33240,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="72"/>
+      <c r="A63" s="73"/>
       <c r="B63" s="51" t="s">
         <v>575</v>
       </c>
@@ -33266,7 +33266,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="72"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="51" t="s">
         <v>576</v>
       </c>
@@ -33292,7 +33292,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="72"/>
+      <c r="A65" s="73"/>
       <c r="B65" s="51" t="s">
         <v>309</v>
       </c>
@@ -33318,7 +33318,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="72"/>
+      <c r="A66" s="73"/>
       <c r="B66" s="51" t="s">
         <v>551</v>
       </c>
@@ -33344,7 +33344,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="72"/>
+      <c r="A67" s="73"/>
       <c r="B67" s="51" t="s">
         <v>577</v>
       </c>
@@ -33370,7 +33370,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="72"/>
+      <c r="A68" s="73"/>
       <c r="B68" s="56"/>
       <c r="C68" s="51"/>
       <c r="D68" s="52"/>
@@ -33388,7 +33388,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="72"/>
+      <c r="A69" s="73"/>
       <c r="B69" s="51"/>
       <c r="C69" s="51"/>
       <c r="D69" s="52"/>
@@ -33406,7 +33406,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="72"/>
+      <c r="A70" s="73"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51"/>
       <c r="D70" s="52"/>
@@ -33418,7 +33418,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="72"/>
+      <c r="A71" s="73"/>
       <c r="B71" s="51"/>
       <c r="C71" s="51"/>
       <c r="D71" s="52"/>
@@ -33430,7 +33430,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="72"/>
+      <c r="A72" s="73"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -33441,7 +33441,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="72"/>
+      <c r="A73" s="73"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -33452,7 +33452,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="72"/>
+      <c r="A74" s="73"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -33463,7 +33463,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="72"/>
+      <c r="A75" s="73"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -33474,7 +33474,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="72"/>
+      <c r="A76" s="73"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -33485,7 +33485,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="72" t="s">
+      <c r="A77" s="73" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -33512,7 +33512,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="72"/>
+      <c r="A78" s="73"/>
       <c r="B78" s="51" t="s">
         <v>579</v>
       </c>
@@ -33538,7 +33538,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="72"/>
+      <c r="A79" s="73"/>
       <c r="B79" s="51" t="s">
         <v>580</v>
       </c>
@@ -33564,7 +33564,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="72"/>
+      <c r="A80" s="73"/>
       <c r="B80" s="51" t="s">
         <v>581</v>
       </c>
@@ -33590,7 +33590,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="72"/>
+      <c r="A81" s="73"/>
       <c r="B81" s="51" t="s">
         <v>582</v>
       </c>
@@ -33616,7 +33616,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="72"/>
+      <c r="A82" s="73"/>
       <c r="B82" s="51" t="s">
         <v>583</v>
       </c>
@@ -33642,7 +33642,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="72"/>
+      <c r="A83" s="73"/>
       <c r="B83" s="51" t="s">
         <v>584</v>
       </c>
@@ -33668,7 +33668,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="72"/>
+      <c r="A84" s="73"/>
       <c r="B84" s="51" t="s">
         <v>585</v>
       </c>
@@ -33694,7 +33694,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="72"/>
+      <c r="A85" s="73"/>
       <c r="B85" s="51" t="s">
         <v>586</v>
       </c>
@@ -33714,7 +33714,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="72"/>
+      <c r="A86" s="73"/>
       <c r="B86" s="51" t="s">
         <v>551</v>
       </c>
@@ -33734,7 +33734,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="72"/>
+      <c r="A87" s="73"/>
       <c r="B87" s="51" t="s">
         <v>587</v>
       </c>
@@ -33753,7 +33753,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="72"/>
+      <c r="A88" s="73"/>
       <c r="B88" s="51" t="s">
         <v>588</v>
       </c>
@@ -33772,7 +33772,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="72"/>
+      <c r="A89" s="73"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="52"/>
@@ -33783,7 +33783,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="72"/>
+      <c r="A90" s="73"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -33794,7 +33794,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="73"/>
+      <c r="A91" s="76"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -33805,7 +33805,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="76" t="s">
+      <c r="A92" s="72" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -33832,7 +33832,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="72"/>
+      <c r="A93" s="73"/>
       <c r="B93" s="51" t="s">
         <v>589</v>
       </c>
@@ -33858,7 +33858,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="72"/>
+      <c r="A94" s="73"/>
       <c r="B94" s="56" t="s">
         <v>590</v>
       </c>
@@ -33884,7 +33884,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="72"/>
+      <c r="A95" s="73"/>
       <c r="B95" s="51" t="s">
         <v>591</v>
       </c>
@@ -33910,7 +33910,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="72"/>
+      <c r="A96" s="73"/>
       <c r="B96" s="51" t="s">
         <v>465</v>
       </c>
@@ -33936,7 +33936,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="72"/>
+      <c r="A97" s="73"/>
       <c r="B97" s="51" t="s">
         <v>592</v>
       </c>
@@ -33962,7 +33962,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="72"/>
+      <c r="A98" s="73"/>
       <c r="B98" s="51" t="s">
         <v>593</v>
       </c>
@@ -33988,7 +33988,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="72"/>
+      <c r="A99" s="73"/>
       <c r="B99" s="51" t="s">
         <v>309</v>
       </c>
@@ -34014,7 +34014,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="72"/>
+      <c r="A100" s="73"/>
       <c r="B100" s="51" t="s">
         <v>594</v>
       </c>
@@ -34034,7 +34034,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="72"/>
+      <c r="A101" s="73"/>
       <c r="B101" s="51" t="s">
         <v>595</v>
       </c>
@@ -34054,7 +34054,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="72"/>
+      <c r="A102" s="73"/>
       <c r="B102" s="51"/>
       <c r="C102" s="51" t="s">
         <v>288</v>
@@ -34071,7 +34071,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="72"/>
+      <c r="A103" s="73"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51" t="s">
         <v>296</v>
@@ -34088,7 +34088,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="72"/>
+      <c r="A104" s="73"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51" t="s">
         <v>295</v>
@@ -34105,7 +34105,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="72"/>
+      <c r="A105" s="73"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51" t="s">
         <v>288</v>
@@ -34363,7 +34363,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="76" t="s">
+      <c r="A122" s="72" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51"/>
@@ -34382,7 +34382,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="72"/>
+      <c r="A123" s="73"/>
       <c r="B123" s="51"/>
       <c r="C123" s="51"/>
       <c r="D123" s="52"/>
@@ -34400,7 +34400,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="72"/>
+      <c r="A124" s="73"/>
       <c r="B124" s="51"/>
       <c r="C124" s="51"/>
       <c r="D124" s="52"/>
@@ -34418,7 +34418,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="72"/>
+      <c r="A125" s="73"/>
       <c r="B125" s="51"/>
       <c r="C125" s="51"/>
       <c r="D125" s="52"/>
@@ -34436,7 +34436,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="72"/>
+      <c r="A126" s="73"/>
       <c r="B126" s="58"/>
       <c r="C126" s="51"/>
       <c r="D126" s="52"/>
@@ -34516,7 +34516,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="72"/>
+      <c r="A131" s="73"/>
       <c r="B131" s="59"/>
       <c r="C131" s="51"/>
       <c r="D131" s="52"/>
@@ -34525,7 +34525,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="72"/>
+      <c r="A132" s="73"/>
       <c r="B132" s="51"/>
       <c r="C132" s="51"/>
       <c r="D132" s="52"/>
@@ -34533,7 +34533,7 @@
       <c r="F132" s="52"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="72"/>
+      <c r="A133" s="73"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
@@ -34541,7 +34541,7 @@
       <c r="F133" s="52"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="72"/>
+      <c r="A134" s="73"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -34549,7 +34549,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="72"/>
+      <c r="A135" s="73"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -34983,7 +34983,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -35013,7 +35013,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="72"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="51" t="s">
         <v>604</v>
       </c>
@@ -35042,7 +35042,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="72"/>
+      <c r="A4" s="73"/>
       <c r="B4" s="51" t="s">
         <v>605</v>
       </c>
@@ -35071,7 +35071,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="72"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="51" t="s">
         <v>309</v>
       </c>
@@ -35100,7 +35100,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="72"/>
+      <c r="A6" s="73"/>
       <c r="B6" s="51" t="s">
         <v>606</v>
       </c>
@@ -35129,7 +35129,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="72"/>
+      <c r="A7" s="73"/>
       <c r="B7" t="s">
         <v>607</v>
       </c>
@@ -35158,7 +35158,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="72"/>
+      <c r="A8" s="73"/>
       <c r="B8" s="51" t="s">
         <v>608</v>
       </c>
@@ -35184,7 +35184,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="72"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="51" t="s">
         <v>329</v>
       </c>
@@ -35210,7 +35210,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="72"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="51" t="s">
         <v>608</v>
       </c>
@@ -35230,7 +35230,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="72"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="51" t="s">
         <v>609</v>
       </c>
@@ -35250,7 +35250,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="72"/>
+      <c r="A12" s="73"/>
       <c r="B12" s="51" t="s">
         <v>610</v>
       </c>
@@ -35269,7 +35269,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="72"/>
+      <c r="A13" s="73"/>
       <c r="B13" s="51" t="s">
         <v>309</v>
       </c>
@@ -35288,7 +35288,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="72"/>
+      <c r="A14" s="73"/>
       <c r="B14" s="51" t="s">
         <v>611</v>
       </c>
@@ -35307,7 +35307,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="72"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="51" t="s">
         <v>612</v>
       </c>
@@ -35326,7 +35326,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="72"/>
+      <c r="A16" s="73"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51" t="s">
         <v>290</v>
@@ -35339,7 +35339,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="73" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -35366,7 +35366,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="72"/>
+      <c r="A18" s="73"/>
       <c r="B18" s="51" t="s">
         <v>614</v>
       </c>
@@ -35392,7 +35392,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="72"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="51" t="s">
         <v>309</v>
       </c>
@@ -35418,7 +35418,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="72"/>
+      <c r="A20" s="73"/>
       <c r="B20" s="51" t="s">
         <v>615</v>
       </c>
@@ -35444,7 +35444,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="72"/>
+      <c r="A21" s="73"/>
       <c r="B21" s="51" t="s">
         <v>616</v>
       </c>
@@ -35470,7 +35470,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="72"/>
+      <c r="A22" s="73"/>
       <c r="B22" s="51" t="s">
         <v>329</v>
       </c>
@@ -35496,7 +35496,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="72"/>
+      <c r="A23" s="73"/>
       <c r="B23" s="51" t="s">
         <v>617</v>
       </c>
@@ -35522,7 +35522,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="72"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="51" t="s">
         <v>618</v>
       </c>
@@ -35548,7 +35548,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="72"/>
+      <c r="A25" s="73"/>
       <c r="B25" s="51" t="s">
         <v>309</v>
       </c>
@@ -35568,7 +35568,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="72"/>
+      <c r="A26" s="73"/>
       <c r="B26" s="51" t="s">
         <v>617</v>
       </c>
@@ -35588,7 +35588,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="72"/>
+      <c r="A27" s="73"/>
       <c r="B27" s="51" t="s">
         <v>619</v>
       </c>
@@ -35607,7 +35607,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="72"/>
+      <c r="A28" s="73"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="52"/>
@@ -35618,7 +35618,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="72"/>
+      <c r="A29" s="73"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="52"/>
@@ -35629,7 +35629,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="72"/>
+      <c r="A30" s="73"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -35640,7 +35640,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="72"/>
+      <c r="A31" s="73"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -35651,7 +35651,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="72" t="s">
+      <c r="A32" s="73" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -35678,7 +35678,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="72"/>
+      <c r="A33" s="73"/>
       <c r="B33" s="51" t="s">
         <v>620</v>
       </c>
@@ -35704,7 +35704,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="72"/>
+      <c r="A34" s="73"/>
       <c r="B34" s="51" t="s">
         <v>621</v>
       </c>
@@ -35730,7 +35730,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="72"/>
+      <c r="A35" s="73"/>
       <c r="B35" s="51" t="s">
         <v>622</v>
       </c>
@@ -35756,7 +35756,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="72"/>
+      <c r="A36" s="73"/>
       <c r="B36" s="51" t="s">
         <v>623</v>
       </c>
@@ -35782,7 +35782,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="72"/>
+      <c r="A37" s="73"/>
       <c r="B37" s="51" t="s">
         <v>607</v>
       </c>
@@ -35808,7 +35808,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="72"/>
+      <c r="A38" s="73"/>
       <c r="B38" s="51" t="s">
         <v>624</v>
       </c>
@@ -35834,7 +35834,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="72"/>
+      <c r="A39" s="73"/>
       <c r="B39" s="51" t="s">
         <v>329</v>
       </c>
@@ -35860,7 +35860,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="72"/>
+      <c r="A40" s="73"/>
       <c r="B40" s="51" t="s">
         <v>625</v>
       </c>
@@ -35880,7 +35880,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="72"/>
+      <c r="A41" s="73"/>
       <c r="B41" s="51" t="s">
         <v>626</v>
       </c>
@@ -35900,7 +35900,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="72"/>
+      <c r="A42" s="73"/>
       <c r="B42" s="51" t="s">
         <v>309</v>
       </c>
@@ -35919,7 +35919,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="72"/>
+      <c r="A43" s="73"/>
       <c r="B43" s="51" t="s">
         <v>627</v>
       </c>
@@ -35938,7 +35938,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="72"/>
+      <c r="A44" s="73"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
       <c r="D44" s="52"/>
@@ -35949,7 +35949,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="72"/>
+      <c r="A45" s="73"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -36219,7 +36219,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="76" t="s">
+      <c r="A62" s="72" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -36246,7 +36246,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="72"/>
+      <c r="A63" s="73"/>
       <c r="B63" s="51" t="s">
         <v>635</v>
       </c>
@@ -36271,7 +36271,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="72"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="51" t="s">
         <v>636</v>
       </c>
@@ -36297,7 +36297,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="72"/>
+      <c r="A65" s="73"/>
       <c r="B65" s="51" t="s">
         <v>637</v>
       </c>
@@ -36323,7 +36323,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="72"/>
+      <c r="A66" s="73"/>
       <c r="B66" s="51" t="s">
         <v>638</v>
       </c>
@@ -36349,7 +36349,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="72"/>
+      <c r="A67" s="73"/>
       <c r="B67" s="51" t="s">
         <v>599</v>
       </c>
@@ -36375,7 +36375,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="72"/>
+      <c r="A68" s="73"/>
       <c r="B68" s="56" t="s">
         <v>639</v>
       </c>
@@ -36401,7 +36401,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="72"/>
+      <c r="A69" s="73"/>
       <c r="B69" s="51" t="s">
         <v>342</v>
       </c>
@@ -36427,7 +36427,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="72"/>
+      <c r="A70" s="73"/>
       <c r="B70" s="51" t="s">
         <v>640</v>
       </c>
@@ -36447,7 +36447,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="72"/>
+      <c r="A71" s="73"/>
       <c r="B71" s="51" t="s">
         <v>641</v>
       </c>
@@ -36467,7 +36467,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="72"/>
+      <c r="A72" s="73"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -36478,7 +36478,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="72"/>
+      <c r="A73" s="73"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -36489,7 +36489,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="72"/>
+      <c r="A74" s="73"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -36500,7 +36500,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="72"/>
+      <c r="A75" s="73"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -36511,7 +36511,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="72"/>
+      <c r="A76" s="73"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -36522,7 +36522,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="72" t="s">
+      <c r="A77" s="73" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -36549,7 +36549,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="72"/>
+      <c r="A78" s="73"/>
       <c r="B78" s="51" t="s">
         <v>643</v>
       </c>
@@ -36575,7 +36575,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="72"/>
+      <c r="A79" s="73"/>
       <c r="B79" s="51" t="s">
         <v>309</v>
       </c>
@@ -36601,7 +36601,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="72"/>
+      <c r="A80" s="73"/>
       <c r="B80" s="51" t="s">
         <v>644</v>
       </c>
@@ -36627,7 +36627,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="72"/>
+      <c r="A81" s="73"/>
       <c r="B81" s="51" t="s">
         <v>645</v>
       </c>
@@ -36653,7 +36653,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="72"/>
+      <c r="A82" s="73"/>
       <c r="B82" s="51" t="s">
         <v>646</v>
       </c>
@@ -36679,7 +36679,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="72"/>
+      <c r="A83" s="73"/>
       <c r="B83" s="51" t="s">
         <v>647</v>
       </c>
@@ -36705,7 +36705,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="72"/>
+      <c r="A84" s="73"/>
       <c r="B84" s="51" t="s">
         <v>580</v>
       </c>
@@ -36731,7 +36731,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="72"/>
+      <c r="A85" s="73"/>
       <c r="B85" s="51" t="s">
         <v>648</v>
       </c>
@@ -36751,7 +36751,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="72"/>
+      <c r="A86" s="73"/>
       <c r="B86" s="51" t="s">
         <v>649</v>
       </c>
@@ -36771,7 +36771,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="72"/>
+      <c r="A87" s="73"/>
       <c r="B87" s="51" t="s">
         <v>650</v>
       </c>
@@ -36791,7 +36791,7 @@
       <c r="I87" s="54"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="72"/>
+      <c r="A88" s="73"/>
       <c r="B88" s="51"/>
       <c r="C88" s="51"/>
       <c r="D88" s="52"/>
@@ -36802,7 +36802,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="72"/>
+      <c r="A89" s="73"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="52"/>
@@ -36813,7 +36813,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="72"/>
+      <c r="A90" s="73"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -36824,7 +36824,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="72"/>
+      <c r="A91" s="73"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -36835,7 +36835,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="73"/>
+      <c r="A92" s="76"/>
       <c r="B92" s="51"/>
       <c r="C92" s="51"/>
       <c r="D92" s="52"/>
@@ -36846,7 +36846,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="76" t="s">
+      <c r="A93" s="72" t="s">
         <v>54</v>
       </c>
       <c r="B93" s="51" t="s">
@@ -36873,7 +36873,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="72"/>
+      <c r="A94" s="73"/>
       <c r="B94" s="51" t="s">
         <v>651</v>
       </c>
@@ -36899,7 +36899,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="72"/>
+      <c r="A95" s="73"/>
       <c r="B95" s="56" t="s">
         <v>586</v>
       </c>
@@ -36925,7 +36925,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="72"/>
+      <c r="A96" s="73"/>
       <c r="B96" s="51" t="s">
         <v>652</v>
       </c>
@@ -36951,7 +36951,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="72"/>
+      <c r="A97" s="73"/>
       <c r="B97" s="51" t="s">
         <v>653</v>
       </c>
@@ -36977,7 +36977,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="72"/>
+      <c r="A98" s="73"/>
       <c r="B98" s="51" t="s">
         <v>654</v>
       </c>
@@ -37003,7 +37003,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="72"/>
+      <c r="A99" s="73"/>
       <c r="B99" s="51" t="s">
         <v>342</v>
       </c>
@@ -37029,7 +37029,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="72"/>
+      <c r="A100" s="73"/>
       <c r="B100" s="51" t="s">
         <v>655</v>
       </c>
@@ -37055,7 +37055,7 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="72"/>
+      <c r="A101" s="73"/>
       <c r="B101" s="51"/>
       <c r="C101" s="51" t="s">
         <v>288</v>
@@ -37073,7 +37073,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="72"/>
+      <c r="A102" s="73"/>
       <c r="B102" s="51"/>
       <c r="C102" s="51" t="s">
         <v>295</v>
@@ -37091,7 +37091,7 @@
       <c r="I102" s="54"/>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="72"/>
+      <c r="A103" s="73"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51" t="s">
         <v>288</v>
@@ -37108,7 +37108,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="72"/>
+      <c r="A104" s="73"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51" t="s">
         <v>296</v>
@@ -37125,7 +37125,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="72"/>
+      <c r="A105" s="73"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51" t="s">
         <v>295</v>
@@ -37142,7 +37142,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="72"/>
+      <c r="A106" s="73"/>
       <c r="B106" s="51"/>
       <c r="C106" s="51" t="s">
         <v>288</v>
@@ -37504,7 +37504,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="76" t="s">
+      <c r="A123" s="72" t="s">
         <v>273</v>
       </c>
       <c r="B123" s="51" t="s">
@@ -37531,7 +37531,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="72"/>
+      <c r="A124" s="73"/>
       <c r="B124" s="51" t="s">
         <v>665</v>
       </c>
@@ -37557,7 +37557,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="72"/>
+      <c r="A125" s="73"/>
       <c r="B125" s="51" t="s">
         <v>342</v>
       </c>
@@ -37583,7 +37583,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="72"/>
+      <c r="A126" s="73"/>
       <c r="B126" s="51" t="s">
         <v>666</v>
       </c>
@@ -37609,7 +37609,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="72"/>
+      <c r="A127" s="73"/>
       <c r="B127" s="58" t="s">
         <v>645</v>
       </c>
@@ -37731,7 +37731,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="72"/>
+      <c r="A132" s="73"/>
       <c r="B132" s="59" t="s">
         <v>669</v>
       </c>
@@ -37750,7 +37750,7 @@
       <c r="I132" s="54"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="72"/>
+      <c r="A133" s="73"/>
       <c r="B133" s="51" t="s">
         <v>670</v>
       </c>
@@ -37768,7 +37768,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="72"/>
+      <c r="A134" s="73"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -37776,7 +37776,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="72"/>
+      <c r="A135" s="73"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -37784,7 +37784,7 @@
       <c r="F135" s="52"/>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="72"/>
+      <c r="A136" s="73"/>
       <c r="B136" s="51"/>
       <c r="C136" s="51"/>
       <c r="D136" s="52"/>
@@ -38568,7 +38568,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="73" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="59" t="s">
@@ -38595,7 +38595,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="72"/>
+      <c r="A18" s="73"/>
       <c r="B18" s="51" t="s">
         <v>689</v>
       </c>
@@ -38621,7 +38621,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="72"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="51" t="s">
         <v>690</v>
       </c>
@@ -38647,7 +38647,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="72"/>
+      <c r="A20" s="73"/>
       <c r="B20" s="51" t="s">
         <v>691</v>
       </c>
@@ -38673,7 +38673,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="72"/>
+      <c r="A21" s="73"/>
       <c r="B21" s="51" t="s">
         <v>309</v>
       </c>
@@ -38699,7 +38699,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="72"/>
+      <c r="A22" s="73"/>
       <c r="B22" s="51" t="s">
         <v>692</v>
       </c>
@@ -38725,7 +38725,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="72"/>
+      <c r="A23" s="73"/>
       <c r="B23" s="51" t="s">
         <v>329</v>
       </c>
@@ -38751,7 +38751,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="72"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="51" t="s">
         <v>693</v>
       </c>
@@ -38777,7 +38777,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="72"/>
+      <c r="A25" s="73"/>
       <c r="B25" s="51" t="s">
         <v>694</v>
       </c>
@@ -38797,7 +38797,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="72"/>
+      <c r="A26" s="73"/>
       <c r="B26" s="51" t="s">
         <v>695</v>
       </c>
@@ -38817,7 +38817,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="72"/>
+      <c r="A27" s="73"/>
       <c r="B27" s="51" t="s">
         <v>296</v>
       </c>
@@ -38836,7 +38836,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="72"/>
+      <c r="A28" s="73"/>
       <c r="B28" s="51" t="s">
         <v>696</v>
       </c>
@@ -38855,7 +38855,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="72"/>
+      <c r="A29" s="73"/>
       <c r="B29" s="51" t="s">
         <v>309</v>
       </c>
@@ -38874,7 +38874,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="72"/>
+      <c r="A30" s="73"/>
       <c r="B30" s="51" t="s">
         <v>697</v>
       </c>
@@ -38893,7 +38893,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="72"/>
+      <c r="A31" s="73"/>
       <c r="B31" s="51" t="s">
         <v>698</v>
       </c>
@@ -38912,7 +38912,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="72" t="s">
+      <c r="A32" s="73" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -38939,7 +38939,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="72"/>
+      <c r="A33" s="73"/>
       <c r="B33" s="51" t="s">
         <v>699</v>
       </c>
@@ -38965,7 +38965,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="72"/>
+      <c r="A34" s="73"/>
       <c r="B34" s="51" t="s">
         <v>309</v>
       </c>
@@ -38991,7 +38991,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="72"/>
+      <c r="A35" s="73"/>
       <c r="B35" s="51" t="s">
         <v>700</v>
       </c>
@@ -39017,7 +39017,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="72"/>
+      <c r="A36" s="73"/>
       <c r="B36" s="51" t="s">
         <v>311</v>
       </c>
@@ -39043,7 +39043,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="72"/>
+      <c r="A37" s="73"/>
       <c r="B37" s="51" t="s">
         <v>701</v>
       </c>
@@ -39069,7 +39069,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="72"/>
+      <c r="A38" s="73"/>
       <c r="B38" s="51" t="s">
         <v>329</v>
       </c>
@@ -39095,7 +39095,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="72"/>
+      <c r="A39" s="73"/>
       <c r="B39" s="51" t="s">
         <v>702</v>
       </c>
@@ -39121,7 +39121,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="72"/>
+      <c r="A40" s="73"/>
       <c r="B40" s="51" t="s">
         <v>703</v>
       </c>
@@ -39141,7 +39141,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="72"/>
+      <c r="A41" s="73"/>
       <c r="B41" s="51" t="s">
         <v>695</v>
       </c>
@@ -39161,7 +39161,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="72"/>
+      <c r="A42" s="73"/>
       <c r="B42" s="51" t="s">
         <v>454</v>
       </c>
@@ -39180,7 +39180,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="72"/>
+      <c r="A43" s="73"/>
       <c r="B43" s="51" t="s">
         <v>309</v>
       </c>
@@ -39199,7 +39199,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="72"/>
+      <c r="A44" s="73"/>
       <c r="B44" t="s">
         <v>704</v>
       </c>
@@ -39218,7 +39218,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="72"/>
+      <c r="A45" s="73"/>
       <c r="B45" s="51" t="s">
         <v>705</v>
       </c>
@@ -39566,7 +39566,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="76" t="s">
+      <c r="A62" s="72" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -39593,7 +39593,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="72"/>
+      <c r="A63" s="73"/>
       <c r="B63" s="51" t="s">
         <v>717</v>
       </c>
@@ -39619,7 +39619,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="72"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="51" t="s">
         <v>718</v>
       </c>
@@ -39645,7 +39645,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="72"/>
+      <c r="A65" s="73"/>
       <c r="B65" s="51" t="s">
         <v>342</v>
       </c>
@@ -39671,7 +39671,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="72"/>
+      <c r="A66" s="73"/>
       <c r="B66" s="51" t="s">
         <v>719</v>
       </c>
@@ -39697,7 +39697,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="72"/>
+      <c r="A67" s="73"/>
       <c r="B67" s="51" t="s">
         <v>329</v>
       </c>
@@ -39723,7 +39723,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="72"/>
+      <c r="A68" s="73"/>
       <c r="B68" s="56" t="s">
         <v>720</v>
       </c>
@@ -39749,7 +39749,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="72"/>
+      <c r="A69" s="73"/>
       <c r="B69" s="51" t="s">
         <v>342</v>
       </c>
@@ -39775,7 +39775,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="72"/>
+      <c r="A70" s="73"/>
       <c r="B70" s="51" t="s">
         <v>721</v>
       </c>
@@ -39795,7 +39795,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="72"/>
+      <c r="A71" s="73"/>
       <c r="B71" s="51" t="s">
         <v>685</v>
       </c>
@@ -39815,7 +39815,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="72"/>
+      <c r="A72" s="73"/>
       <c r="B72" s="51" t="s">
         <v>722</v>
       </c>
@@ -39834,7 +39834,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="72"/>
+      <c r="A73" s="73"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -39845,7 +39845,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="72"/>
+      <c r="A74" s="73"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -39856,7 +39856,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="72"/>
+      <c r="A75" s="73"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -39867,7 +39867,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="72"/>
+      <c r="A76" s="73"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -39878,7 +39878,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="72" t="s">
+      <c r="A77" s="73" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -39905,7 +39905,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="72"/>
+      <c r="A78" s="73"/>
       <c r="B78" s="51" t="s">
         <v>724</v>
       </c>
@@ -39931,7 +39931,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="72"/>
+      <c r="A79" s="73"/>
       <c r="B79" s="51" t="s">
         <v>725</v>
       </c>
@@ -39957,7 +39957,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="72"/>
+      <c r="A80" s="73"/>
       <c r="B80" s="65" t="s">
         <v>342</v>
       </c>
@@ -39983,7 +39983,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="72"/>
+      <c r="A81" s="73"/>
       <c r="B81" s="59" t="s">
         <v>726</v>
       </c>
@@ -40009,7 +40009,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="72"/>
+      <c r="A82" s="73"/>
       <c r="B82" s="58" t="s">
         <v>727</v>
       </c>
@@ -40061,7 +40061,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="72"/>
+      <c r="A84" s="73"/>
       <c r="B84" t="s">
         <v>728</v>
       </c>
@@ -40087,7 +40087,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="72"/>
+      <c r="A85" s="73"/>
       <c r="B85" s="51" t="s">
         <v>727</v>
       </c>
@@ -40107,7 +40107,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="72"/>
+      <c r="A86" s="73"/>
       <c r="B86" s="51" t="s">
         <v>729</v>
       </c>
@@ -40127,7 +40127,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="72"/>
+      <c r="A87" s="73"/>
       <c r="B87" s="51" t="s">
         <v>394</v>
       </c>
@@ -40147,7 +40147,7 @@
       <c r="I87" s="54"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="72"/>
+      <c r="A88" s="73"/>
       <c r="B88" s="51" t="s">
         <v>730</v>
       </c>
@@ -40166,7 +40166,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="72"/>
+      <c r="A89" s="73"/>
       <c r="B89" s="51" t="s">
         <v>731</v>
       </c>
@@ -40185,7 +40185,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="72"/>
+      <c r="A90" s="73"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -40196,7 +40196,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="72"/>
+      <c r="A91" s="73"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -40207,7 +40207,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="73"/>
+      <c r="A92" s="76"/>
       <c r="B92" s="51"/>
       <c r="C92" s="51"/>
       <c r="D92" s="52"/>
@@ -40218,7 +40218,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="76" t="s">
+      <c r="A93" s="72" t="s">
         <v>54</v>
       </c>
       <c r="B93" s="51" t="s">
@@ -40245,7 +40245,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="72"/>
+      <c r="A94" s="73"/>
       <c r="B94" s="51" t="s">
         <v>732</v>
       </c>
@@ -40271,7 +40271,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="72"/>
+      <c r="A95" s="73"/>
       <c r="B95" s="56" t="s">
         <v>309</v>
       </c>
@@ -40297,7 +40297,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="72"/>
+      <c r="A96" s="73"/>
       <c r="B96" s="51" t="s">
         <v>733</v>
       </c>
@@ -40323,7 +40323,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="72"/>
+      <c r="A97" s="73"/>
       <c r="B97" s="51" t="s">
         <v>653</v>
       </c>
@@ -40349,7 +40349,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="72"/>
+      <c r="A98" s="73"/>
       <c r="B98" s="51" t="s">
         <v>734</v>
       </c>
@@ -40375,7 +40375,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="72"/>
+      <c r="A99" s="73"/>
       <c r="B99" s="51" t="s">
         <v>735</v>
       </c>
@@ -40401,7 +40401,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="72"/>
+      <c r="A100" s="73"/>
       <c r="B100" s="51" t="s">
         <v>736</v>
       </c>
@@ -40427,7 +40427,7 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="72"/>
+      <c r="A101" s="73"/>
       <c r="B101" s="51" t="s">
         <v>737</v>
       </c>
@@ -40447,7 +40447,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="72"/>
+      <c r="A102" s="73"/>
       <c r="B102" s="51" t="s">
         <v>738</v>
       </c>
@@ -40467,7 +40467,7 @@
       <c r="I102" s="54"/>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="72"/>
+      <c r="A103" s="73"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51" t="s">
         <v>288</v>
@@ -40484,7 +40484,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="72"/>
+      <c r="A104" s="73"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51" t="s">
         <v>296</v>
@@ -40501,7 +40501,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="72"/>
+      <c r="A105" s="73"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51" t="s">
         <v>295</v>
@@ -40518,7 +40518,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="72"/>
+      <c r="A106" s="73"/>
       <c r="B106" s="51"/>
       <c r="C106" s="51" t="s">
         <v>288</v>
@@ -40882,7 +40882,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="76" t="s">
+      <c r="A123" s="72" t="s">
         <v>273</v>
       </c>
       <c r="B123" s="51" t="s">
@@ -40909,7 +40909,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="72"/>
+      <c r="A124" s="73"/>
       <c r="B124" s="51" t="s">
         <v>665</v>
       </c>
@@ -40935,7 +40935,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="72"/>
+      <c r="A125" s="73"/>
       <c r="B125" s="51" t="s">
         <v>342</v>
       </c>
@@ -40961,7 +40961,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="72"/>
+      <c r="A126" s="73"/>
       <c r="B126" s="51" t="s">
         <v>666</v>
       </c>
@@ -40987,7 +40987,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="72"/>
+      <c r="A127" s="73"/>
       <c r="B127" s="58" t="s">
         <v>645</v>
       </c>
@@ -41109,7 +41109,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="72"/>
+      <c r="A132" s="73"/>
       <c r="B132" s="59" t="s">
         <v>669</v>
       </c>
@@ -41128,7 +41128,7 @@
       <c r="I132" s="54"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="72"/>
+      <c r="A133" s="73"/>
       <c r="B133" s="51" t="s">
         <v>670</v>
       </c>
@@ -41146,7 +41146,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="72"/>
+      <c r="A134" s="73"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -41154,7 +41154,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="72"/>
+      <c r="A135" s="73"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -41162,7 +41162,7 @@
       <c r="F135" s="52"/>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="72"/>
+      <c r="A136" s="73"/>
       <c r="B136" s="51"/>
       <c r="C136" s="51"/>
       <c r="D136" s="52"/>
@@ -41954,7 +41954,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="73" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="59" t="s">
@@ -41981,7 +41981,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="72"/>
+      <c r="A18" s="73"/>
       <c r="B18" s="51" t="s">
         <v>342</v>
       </c>
@@ -42007,7 +42007,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="72"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="51" t="s">
         <v>690</v>
       </c>
@@ -42033,7 +42033,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="72"/>
+      <c r="A20" s="73"/>
       <c r="B20" s="51" t="s">
         <v>756</v>
       </c>
@@ -42059,7 +42059,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="72"/>
+      <c r="A21" s="73"/>
       <c r="B21" s="51" t="s">
         <v>313</v>
       </c>
@@ -42085,7 +42085,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="72"/>
+      <c r="A22" s="73"/>
       <c r="B22" s="51" t="s">
         <v>757</v>
       </c>
@@ -42111,7 +42111,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="72"/>
+      <c r="A23" s="73"/>
       <c r="B23" s="51" t="s">
         <v>309</v>
       </c>
@@ -42137,7 +42137,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="72"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="51" t="s">
         <v>296</v>
       </c>
@@ -42163,7 +42163,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="72"/>
+      <c r="A25" s="73"/>
       <c r="B25" s="51" t="s">
         <v>758</v>
       </c>
@@ -42183,7 +42183,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="72"/>
+      <c r="A26" s="73"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
       <c r="D26" s="52"/>
@@ -42192,7 +42192,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="72"/>
+      <c r="A27" s="73"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
       <c r="D27" s="52"/>
@@ -42200,7 +42200,7 @@
       <c r="F27" s="52"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="72"/>
+      <c r="A28" s="73"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="52"/>
@@ -42208,7 +42208,7 @@
       <c r="F28" s="52"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="72"/>
+      <c r="A29" s="73"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="52"/>
@@ -42216,7 +42216,7 @@
       <c r="F29" s="52"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="72"/>
+      <c r="A30" s="73"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -42224,7 +42224,7 @@
       <c r="F30" s="52"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="72"/>
+      <c r="A31" s="73"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -42232,7 +42232,7 @@
       <c r="F31" s="52"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="72" t="s">
+      <c r="A32" s="73" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -42259,7 +42259,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="72"/>
+      <c r="A33" s="73"/>
       <c r="B33" s="51" t="s">
         <v>759</v>
       </c>
@@ -42285,7 +42285,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="72"/>
+      <c r="A34" s="73"/>
       <c r="B34" s="51" t="s">
         <v>309</v>
       </c>
@@ -42311,7 +42311,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="72"/>
+      <c r="A35" s="73"/>
       <c r="B35" s="51" t="s">
         <v>760</v>
       </c>
@@ -42337,7 +42337,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="72"/>
+      <c r="A36" s="73"/>
       <c r="B36" s="51" t="s">
         <v>761</v>
       </c>
@@ -42363,7 +42363,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="72"/>
+      <c r="A37" s="73"/>
       <c r="B37" s="51" t="s">
         <v>301</v>
       </c>
@@ -42389,7 +42389,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="72"/>
+      <c r="A38" s="73"/>
       <c r="B38" s="51" t="s">
         <v>762</v>
       </c>
@@ -42415,7 +42415,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="72"/>
+      <c r="A39" s="73"/>
       <c r="B39" s="51" t="s">
         <v>763</v>
       </c>
@@ -42441,7 +42441,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="72"/>
+      <c r="A40" s="73"/>
       <c r="B40" s="51" t="s">
         <v>454</v>
       </c>
@@ -42461,7 +42461,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="72"/>
+      <c r="A41" s="73"/>
       <c r="B41" s="51" t="s">
         <v>309</v>
       </c>
@@ -42481,7 +42481,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="72"/>
+      <c r="A42" s="73"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
       <c r="D42" s="52"/>
@@ -42492,7 +42492,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="72"/>
+      <c r="A43" s="73"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
       <c r="D43" s="52"/>
@@ -42503,7 +42503,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="72"/>
+      <c r="A44" s="73"/>
       <c r="C44" s="51"/>
       <c r="D44" s="52"/>
       <c r="E44" s="52"/>
@@ -42513,7 +42513,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="72"/>
+      <c r="A45" s="73"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -42843,7 +42843,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="76" t="s">
+      <c r="A62" s="72" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -42870,7 +42870,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="72"/>
+      <c r="A63" s="73"/>
       <c r="B63" s="51" t="s">
         <v>717</v>
       </c>
@@ -42896,7 +42896,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="72"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="51" t="s">
         <v>718</v>
       </c>
@@ -42922,7 +42922,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="72"/>
+      <c r="A65" s="73"/>
       <c r="B65" s="51" t="s">
         <v>342</v>
       </c>
@@ -42948,7 +42948,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="72"/>
+      <c r="A66" s="73"/>
       <c r="B66" s="51" t="s">
         <v>719</v>
       </c>
@@ -42974,7 +42974,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="72"/>
+      <c r="A67" s="73"/>
       <c r="B67" s="51" t="s">
         <v>329</v>
       </c>
@@ -43000,7 +43000,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="72"/>
+      <c r="A68" s="73"/>
       <c r="B68" s="56" t="s">
         <v>720</v>
       </c>
@@ -43026,7 +43026,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="72"/>
+      <c r="A69" s="73"/>
       <c r="B69" s="51" t="s">
         <v>342</v>
       </c>
@@ -43052,7 +43052,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="72"/>
+      <c r="A70" s="73"/>
       <c r="B70" s="51" t="s">
         <v>721</v>
       </c>
@@ -43072,7 +43072,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="72"/>
+      <c r="A71" s="73"/>
       <c r="B71" s="51" t="s">
         <v>685</v>
       </c>
@@ -43092,7 +43092,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="72"/>
+      <c r="A72" s="73"/>
       <c r="B72" s="51" t="s">
         <v>722</v>
       </c>
@@ -43111,7 +43111,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="72"/>
+      <c r="A73" s="73"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -43122,7 +43122,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="72"/>
+      <c r="A74" s="73"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -43133,7 +43133,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="72"/>
+      <c r="A75" s="73"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -43144,7 +43144,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="72"/>
+      <c r="A76" s="73"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -43155,7 +43155,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="72" t="s">
+      <c r="A77" s="73" t="s">
         <v>27</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -43182,7 +43182,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="72"/>
+      <c r="A78" s="73"/>
       <c r="B78" s="51" t="s">
         <v>772</v>
       </c>
@@ -43208,7 +43208,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="72"/>
+      <c r="A79" s="73"/>
       <c r="B79" s="51" t="s">
         <v>342</v>
       </c>
@@ -43234,7 +43234,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="72"/>
+      <c r="A80" s="73"/>
       <c r="B80" s="65" t="s">
         <v>773</v>
       </c>
@@ -43260,7 +43260,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="72"/>
+      <c r="A81" s="73"/>
       <c r="B81" s="65" t="s">
         <v>774</v>
       </c>
@@ -43286,7 +43286,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="72"/>
+      <c r="A82" s="73"/>
       <c r="B82" s="51" t="s">
         <v>342</v>
       </c>
@@ -43338,7 +43338,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="72"/>
+      <c r="A84" s="73"/>
       <c r="B84" s="51" t="s">
         <v>775</v>
       </c>
@@ -43364,7 +43364,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="72"/>
+      <c r="A85" s="73"/>
       <c r="B85" s="51" t="s">
         <v>685</v>
       </c>
@@ -43384,7 +43384,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="72"/>
+      <c r="A86" s="73"/>
       <c r="B86" s="51" t="s">
         <v>776</v>
       </c>
@@ -43404,7 +43404,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="72"/>
+      <c r="A87" s="73"/>
       <c r="B87" s="51" t="s">
         <v>777</v>
       </c>
@@ -43424,7 +43424,7 @@
       <c r="I87" s="54"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="72"/>
+      <c r="A88" s="73"/>
       <c r="B88" s="51"/>
       <c r="C88" s="51"/>
       <c r="D88" s="52">
@@ -43438,7 +43438,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="72"/>
+      <c r="A89" s="73"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="52">
@@ -43452,7 +43452,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="72"/>
+      <c r="A90" s="73"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -43463,7 +43463,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="72"/>
+      <c r="A91" s="73"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -43474,7 +43474,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="73"/>
+      <c r="A92" s="76"/>
       <c r="B92" s="51"/>
       <c r="C92" s="51"/>
       <c r="D92" s="52"/>
@@ -43485,7 +43485,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="76" t="s">
+      <c r="A93" s="72" t="s">
         <v>54</v>
       </c>
       <c r="B93" s="51" t="s">
@@ -43512,7 +43512,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="72"/>
+      <c r="A94" s="73"/>
       <c r="B94" s="51" t="s">
         <v>778</v>
       </c>
@@ -43538,7 +43538,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="72"/>
+      <c r="A95" s="73"/>
       <c r="B95" s="56" t="s">
         <v>309</v>
       </c>
@@ -43564,7 +43564,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="72"/>
+      <c r="A96" s="73"/>
       <c r="B96" s="51" t="s">
         <v>779</v>
       </c>
@@ -43590,7 +43590,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="72"/>
+      <c r="A97" s="73"/>
       <c r="B97" s="51" t="s">
         <v>653</v>
       </c>
@@ -43616,7 +43616,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="72"/>
+      <c r="A98" s="73"/>
       <c r="B98" s="51" t="s">
         <v>780</v>
       </c>
@@ -43642,7 +43642,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="72"/>
+      <c r="A99" s="73"/>
       <c r="B99" s="51" t="s">
         <v>781</v>
       </c>
@@ -43668,7 +43668,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="72"/>
+      <c r="A100" s="73"/>
       <c r="B100" s="51" t="s">
         <v>736</v>
       </c>
@@ -43694,7 +43694,7 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="72"/>
+      <c r="A101" s="73"/>
       <c r="B101" s="51" t="s">
         <v>782</v>
       </c>
@@ -43714,7 +43714,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="72"/>
+      <c r="A102" s="73"/>
       <c r="B102" s="51"/>
       <c r="C102" s="51"/>
       <c r="D102" s="52"/>
@@ -43723,7 +43723,7 @@
       <c r="I102" s="54"/>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="72"/>
+      <c r="A103" s="73"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51"/>
       <c r="D103" s="52"/>
@@ -43731,7 +43731,7 @@
       <c r="F103" s="52"/>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="72"/>
+      <c r="A104" s="73"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51"/>
       <c r="D104" s="52"/>
@@ -43739,7 +43739,7 @@
       <c r="F104" s="52"/>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="72"/>
+      <c r="A105" s="73"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51"/>
       <c r="D105" s="52"/>
@@ -43747,7 +43747,7 @@
       <c r="F105" s="52"/>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="72"/>
+      <c r="A106" s="73"/>
       <c r="B106" s="51"/>
       <c r="C106" s="51"/>
       <c r="D106" s="52"/>
@@ -44093,7 +44093,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="76" t="s">
+      <c r="A123" s="72" t="s">
         <v>273</v>
       </c>
       <c r="B123" s="51" t="s">
@@ -44120,7 +44120,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="72"/>
+      <c r="A124" s="73"/>
       <c r="B124" s="51" t="s">
         <v>788</v>
       </c>
@@ -44146,7 +44146,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="72"/>
+      <c r="A125" s="73"/>
       <c r="B125" s="51" t="s">
         <v>342</v>
       </c>
@@ -44172,7 +44172,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="72"/>
+      <c r="A126" s="73"/>
       <c r="B126" s="51" t="s">
         <v>789</v>
       </c>
@@ -44198,7 +44198,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="72"/>
+      <c r="A127" s="73"/>
       <c r="B127" s="58" t="s">
         <v>790</v>
       </c>
@@ -44320,7 +44320,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="72"/>
+      <c r="A132" s="73"/>
       <c r="B132" s="59" t="s">
         <v>793</v>
       </c>
@@ -44339,7 +44339,7 @@
       <c r="I132" s="54"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="72"/>
+      <c r="A133" s="73"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
@@ -44347,7 +44347,7 @@
       <c r="F133" s="52"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="72"/>
+      <c r="A134" s="73"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -44355,7 +44355,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="72"/>
+      <c r="A135" s="73"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -44363,7 +44363,7 @@
       <c r="F135" s="52"/>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="72"/>
+      <c r="A136" s="73"/>
       <c r="B136" s="51"/>
       <c r="C136" s="51"/>
       <c r="D136" s="52"/>
@@ -44759,8 +44759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7764F1B-A8E7-4FBB-88CE-929509A01D8F}">
   <dimension ref="A1:Q152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -45155,7 +45155,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="73" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="59" t="s">
@@ -45182,7 +45182,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="72"/>
+      <c r="A18" s="73"/>
       <c r="B18" s="51" t="s">
         <v>342</v>
       </c>
@@ -45204,11 +45204,11 @@
       </c>
       <c r="I18" s="52">
         <f>SUMIFS(F17:F31, C17:C31,H18)</f>
-        <v>0.27083333333333331</v>
+        <v>0.28124999999999994</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="72"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="51" t="s">
         <v>795</v>
       </c>
@@ -45234,7 +45234,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="72"/>
+      <c r="A20" s="73"/>
       <c r="B20" s="51" t="s">
         <v>796</v>
       </c>
@@ -45260,7 +45260,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="72"/>
+      <c r="A21" s="73"/>
       <c r="B21" s="51" t="s">
         <v>309</v>
       </c>
@@ -45286,7 +45286,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="72"/>
+      <c r="A22" s="73"/>
       <c r="B22" s="51" t="s">
         <v>797</v>
       </c>
@@ -45297,11 +45297,11 @@
         <v>0.69791666666666663</v>
       </c>
       <c r="E22" s="52">
-        <v>0.73958333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="F22" s="52">
         <f t="shared" si="0"/>
-        <v>4.1666666666666741E-2</v>
+        <v>5.208333333333337E-2</v>
       </c>
       <c r="H22" s="53" t="s">
         <v>296</v>
@@ -45312,7 +45312,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="72"/>
+      <c r="A23" s="73"/>
       <c r="B23" s="51"/>
       <c r="C23" s="51"/>
       <c r="D23" s="52">
@@ -45334,7 +45334,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="72"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
       <c r="D24" s="52">
@@ -45352,11 +45352,11 @@
       </c>
       <c r="I24" s="49">
         <f>SUM(I18:I23)</f>
-        <v>0.29166666666666663</v>
+        <v>0.30208333333333326</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="72"/>
+      <c r="A25" s="73"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
       <c r="D25" s="52">
@@ -45372,7 +45372,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="72"/>
+      <c r="A26" s="73"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
       <c r="D26" s="52">
@@ -45388,7 +45388,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="72"/>
+      <c r="A27" s="73"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
       <c r="D27" s="52">
@@ -45403,7 +45403,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="72"/>
+      <c r="A28" s="73"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="52">
@@ -45418,7 +45418,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="72"/>
+      <c r="A29" s="73"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="52">
@@ -45433,7 +45433,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="72"/>
+      <c r="A30" s="73"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52">
@@ -45448,7 +45448,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="72"/>
+      <c r="A31" s="73"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52">
@@ -45463,7 +45463,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="72" t="s">
+      <c r="A32" s="73" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -45490,7 +45490,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="72"/>
+      <c r="A33" s="73"/>
       <c r="B33" s="51" t="s">
         <v>798</v>
       </c>
@@ -45516,7 +45516,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="72"/>
+      <c r="A34" s="73"/>
       <c r="B34" s="51" t="s">
         <v>309</v>
       </c>
@@ -45542,7 +45542,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="72"/>
+      <c r="A35" s="73"/>
       <c r="B35" s="51" t="s">
         <v>799</v>
       </c>
@@ -45568,7 +45568,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="72"/>
+      <c r="A36" s="73"/>
       <c r="B36" s="51" t="s">
         <v>800</v>
       </c>
@@ -45594,7 +45594,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="72"/>
+      <c r="A37" s="73"/>
       <c r="B37" t="s">
         <v>313</v>
       </c>
@@ -45620,7 +45620,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="72"/>
+      <c r="A38" s="73"/>
       <c r="B38" s="51" t="s">
         <v>801</v>
       </c>
@@ -45646,7 +45646,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="72"/>
+      <c r="A39" s="73"/>
       <c r="B39" s="51" t="s">
         <v>802</v>
       </c>
@@ -45672,7 +45672,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="72"/>
+      <c r="A40" s="73"/>
       <c r="B40" t="s">
         <v>342</v>
       </c>
@@ -45692,7 +45692,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="72"/>
+      <c r="A41" s="73"/>
       <c r="B41" s="51" t="s">
         <v>803</v>
       </c>
@@ -45712,7 +45712,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="72"/>
+      <c r="A42" s="73"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
       <c r="D42" s="52"/>
@@ -45723,7 +45723,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="72"/>
+      <c r="A43" s="73"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
       <c r="D43" s="52"/>
@@ -45734,7 +45734,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="72"/>
+      <c r="A44" s="73"/>
       <c r="C44" s="51"/>
       <c r="D44" s="52"/>
       <c r="E44" s="52"/>
@@ -45744,7 +45744,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="72"/>
+      <c r="A45" s="73"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -46060,7 +46060,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="76" t="s">
+      <c r="A62" s="72" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -46087,7 +46087,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="72"/>
+      <c r="A63" s="73"/>
       <c r="B63" s="51" t="s">
         <v>717</v>
       </c>
@@ -46113,7 +46113,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="72"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="51" t="s">
         <v>718</v>
       </c>
@@ -46139,7 +46139,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="72"/>
+      <c r="A65" s="73"/>
       <c r="B65" s="51" t="s">
         <v>342</v>
       </c>
@@ -46165,7 +46165,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="72"/>
+      <c r="A66" s="73"/>
       <c r="B66" s="51" t="s">
         <v>719</v>
       </c>
@@ -46191,7 +46191,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="72"/>
+      <c r="A67" s="73"/>
       <c r="B67" s="51" t="s">
         <v>329</v>
       </c>
@@ -46217,7 +46217,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="72"/>
+      <c r="A68" s="73"/>
       <c r="B68" s="56" t="s">
         <v>720</v>
       </c>
@@ -46243,7 +46243,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="72"/>
+      <c r="A69" s="73"/>
       <c r="B69" s="51" t="s">
         <v>342</v>
       </c>
@@ -46269,7 +46269,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="72"/>
+      <c r="A70" s="73"/>
       <c r="B70" s="51" t="s">
         <v>721</v>
       </c>
@@ -46289,7 +46289,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="72"/>
+      <c r="A71" s="73"/>
       <c r="B71" s="51" t="s">
         <v>685</v>
       </c>
@@ -46309,7 +46309,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="72"/>
+      <c r="A72" s="73"/>
       <c r="B72" s="51" t="s">
         <v>722</v>
       </c>
@@ -46328,7 +46328,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="72"/>
+      <c r="A73" s="73"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -46339,7 +46339,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="72"/>
+      <c r="A74" s="73"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -46350,7 +46350,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="72"/>
+      <c r="A75" s="73"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -46361,7 +46361,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="72"/>
+      <c r="A76" s="73"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -46372,7 +46372,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="72" t="s">
+      <c r="A77" s="73" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -46399,7 +46399,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="72"/>
+      <c r="A78" s="73"/>
       <c r="B78" s="51" t="s">
         <v>809</v>
       </c>
@@ -46425,7 +46425,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="72"/>
+      <c r="A79" s="73"/>
       <c r="B79" s="51" t="s">
         <v>810</v>
       </c>
@@ -46451,7 +46451,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="72"/>
+      <c r="A80" s="73"/>
       <c r="B80" s="65" t="s">
         <v>342</v>
       </c>
@@ -46477,7 +46477,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="72"/>
+      <c r="A81" s="73"/>
       <c r="B81" s="56" t="s">
         <v>811</v>
       </c>
@@ -46503,7 +46503,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="72"/>
+      <c r="A82" s="73"/>
       <c r="B82" s="51" t="s">
         <v>812</v>
       </c>
@@ -46555,7 +46555,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="72"/>
+      <c r="A84" s="73"/>
       <c r="B84" s="51"/>
       <c r="C84" s="55" t="s">
         <v>295</v>
@@ -46579,7 +46579,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="72"/>
+      <c r="A85" s="73"/>
       <c r="B85" s="51" t="s">
         <v>814</v>
       </c>
@@ -46599,7 +46599,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="72"/>
+      <c r="A86" s="73"/>
       <c r="B86" s="51"/>
       <c r="C86" s="55" t="s">
         <v>295</v>
@@ -46617,7 +46617,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="72"/>
+      <c r="A87" s="73"/>
       <c r="B87" s="51"/>
       <c r="C87" s="55" t="s">
         <v>295</v>
@@ -46635,7 +46635,7 @@
       <c r="I87" s="54"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="72"/>
+      <c r="A88" s="73"/>
       <c r="B88" s="51"/>
       <c r="C88" s="55" t="s">
         <v>295</v>
@@ -46652,7 +46652,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="72"/>
+      <c r="A89" s="73"/>
       <c r="B89" s="51"/>
       <c r="C89" s="55" t="s">
         <v>295</v>
@@ -46669,7 +46669,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="72"/>
+      <c r="A90" s="73"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -46680,7 +46680,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="72"/>
+      <c r="A91" s="73"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -46691,7 +46691,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="73"/>
+      <c r="A92" s="76"/>
       <c r="B92" s="51"/>
       <c r="C92" s="51"/>
       <c r="D92" s="52"/>
@@ -46702,7 +46702,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="76" t="s">
+      <c r="A93" s="72" t="s">
         <v>54</v>
       </c>
       <c r="B93" s="51" t="s">
@@ -46729,7 +46729,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="72"/>
+      <c r="A94" s="73"/>
       <c r="B94" s="51" t="s">
         <v>815</v>
       </c>
@@ -46755,7 +46755,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="72"/>
+      <c r="A95" s="73"/>
       <c r="B95" s="56" t="s">
         <v>309</v>
       </c>
@@ -46781,7 +46781,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="72"/>
+      <c r="A96" s="73"/>
       <c r="B96" s="51" t="s">
         <v>816</v>
       </c>
@@ -46807,7 +46807,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="72"/>
+      <c r="A97" s="73"/>
       <c r="B97" s="51" t="s">
         <v>817</v>
       </c>
@@ -46833,7 +46833,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="72"/>
+      <c r="A98" s="73"/>
       <c r="B98" s="51" t="s">
         <v>818</v>
       </c>
@@ -46859,7 +46859,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="72"/>
+      <c r="A99" s="73"/>
       <c r="B99" s="51" t="s">
         <v>819</v>
       </c>
@@ -46885,7 +46885,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="72"/>
+      <c r="A100" s="73"/>
       <c r="B100" s="51"/>
       <c r="C100" s="51" t="s">
         <v>296</v>
@@ -46909,7 +46909,7 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="72"/>
+      <c r="A101" s="73"/>
       <c r="B101" s="51"/>
       <c r="C101" s="51" t="s">
         <v>288</v>
@@ -46927,7 +46927,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="72"/>
+      <c r="A102" s="73"/>
       <c r="B102" s="51"/>
       <c r="C102" s="51"/>
       <c r="D102" s="52"/>
@@ -46936,7 +46936,7 @@
       <c r="I102" s="54"/>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="72"/>
+      <c r="A103" s="73"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51"/>
       <c r="D103" s="52"/>
@@ -46944,7 +46944,7 @@
       <c r="F103" s="52"/>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="72"/>
+      <c r="A104" s="73"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51"/>
       <c r="D104" s="52"/>
@@ -46952,7 +46952,7 @@
       <c r="F104" s="52"/>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="72"/>
+      <c r="A105" s="73"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51"/>
       <c r="D105" s="52"/>
@@ -46960,7 +46960,7 @@
       <c r="F105" s="52"/>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="72"/>
+      <c r="A106" s="73"/>
       <c r="B106" s="51"/>
       <c r="C106" s="51"/>
       <c r="D106" s="52"/>
@@ -47273,7 +47273,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="76" t="s">
+      <c r="A123" s="72" t="s">
         <v>273</v>
       </c>
       <c r="B123" s="51" t="s">
@@ -47300,7 +47300,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="72"/>
+      <c r="A124" s="73"/>
       <c r="B124" s="51" t="s">
         <v>827</v>
       </c>
@@ -47326,7 +47326,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="72"/>
+      <c r="A125" s="73"/>
       <c r="B125" s="51" t="s">
         <v>342</v>
       </c>
@@ -47352,7 +47352,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="72"/>
+      <c r="A126" s="73"/>
       <c r="B126" s="51" t="s">
         <v>828</v>
       </c>
@@ -47378,7 +47378,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="72"/>
+      <c r="A127" s="73"/>
       <c r="B127" s="58" t="s">
         <v>829</v>
       </c>
@@ -47490,7 +47490,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="72"/>
+      <c r="A132" s="73"/>
       <c r="B132" s="59"/>
       <c r="C132" s="51"/>
       <c r="D132" s="52"/>
@@ -47499,7 +47499,7 @@
       <c r="I132" s="54"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="72"/>
+      <c r="A133" s="73"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
@@ -47507,7 +47507,7 @@
       <c r="F133" s="52"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="72"/>
+      <c r="A134" s="73"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -47515,7 +47515,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="72"/>
+      <c r="A135" s="73"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -47523,7 +47523,7 @@
       <c r="F135" s="52"/>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="72"/>
+      <c r="A136" s="73"/>
       <c r="B136" s="51"/>
       <c r="C136" s="51"/>
       <c r="D136" s="52"/>

--- a/Process/Timesheet/Timesheet1-vis.xlsx
+++ b/Process/Timesheet/Timesheet1-vis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vinoth\GIT\TeamProject\Project\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B90B729-6A54-4FE1-8F52-141342962F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDBA3873-CA84-4C43-86C1-0F8B68DA5F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="19414" windowHeight="10303" firstSheet="25" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3906" uniqueCount="839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3895" uniqueCount="848">
   <si>
     <t>Column1</t>
   </si>
@@ -2775,6 +2775,24 @@
     <t>implementing cards on drive pages, navbar and created login page</t>
   </si>
   <si>
+    <t>Worked on veiw department page component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resolved routing issues in </t>
+  </si>
+  <si>
+    <t xml:space="preserve">changes in add and view department </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on admin add project </t>
+  </si>
+  <si>
+    <t>Worked on admin request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resolved conflicts and pushed the files in Git </t>
+  </si>
+  <si>
     <t>Pool Service validations and logging</t>
   </si>
   <si>
@@ -2905,6 +2923,15 @@
   </si>
   <si>
     <t>Continued testing on Department service</t>
+  </si>
+  <si>
+    <t>Resolved conflicts in GIT</t>
+  </si>
+  <si>
+    <t>Worked on View locations page integration</t>
+  </si>
+  <si>
+    <t>Refined View departments page</t>
   </si>
   <si>
     <t>Worked on Pool validations and logging</t>
@@ -3550,10 +3577,10 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="21" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3562,7 +3589,7 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -16530,7 +16557,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -16560,7 +16587,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="72"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="51" t="s">
         <v>289</v>
       </c>
@@ -16589,7 +16616,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="72"/>
+      <c r="A4" s="73"/>
       <c r="B4" s="51" t="s">
         <v>291</v>
       </c>
@@ -16618,7 +16645,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="72"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="51" t="s">
         <v>292</v>
       </c>
@@ -16647,7 +16674,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="72"/>
+      <c r="A6" s="73"/>
       <c r="B6" s="51" t="s">
         <v>294</v>
       </c>
@@ -16676,7 +16703,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="72"/>
+      <c r="A7" s="73"/>
       <c r="B7" t="s">
         <v>297</v>
       </c>
@@ -16705,7 +16732,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="72"/>
+      <c r="A8" s="73"/>
       <c r="B8" s="51" t="s">
         <v>298</v>
       </c>
@@ -16731,7 +16758,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="72"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="51" t="s">
         <v>299</v>
       </c>
@@ -16757,7 +16784,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="72"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="51" t="s">
         <v>301</v>
       </c>
@@ -16777,7 +16804,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="72"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="51" t="s">
         <v>302</v>
       </c>
@@ -16797,7 +16824,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="72"/>
+      <c r="A12" s="73"/>
       <c r="B12" s="51" t="s">
         <v>303</v>
       </c>
@@ -16816,7 +16843,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="72"/>
+      <c r="A13" s="73"/>
       <c r="B13" s="51" t="s">
         <v>304</v>
       </c>
@@ -16835,7 +16862,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="72"/>
+      <c r="A14" s="73"/>
       <c r="B14" s="51" t="s">
         <v>305</v>
       </c>
@@ -16854,7 +16881,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="72"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="51" t="s">
         <v>306</v>
       </c>
@@ -16873,7 +16900,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="72"/>
+      <c r="A16" s="73"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
       <c r="D16" s="52"/>
@@ -16884,7 +16911,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="73" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51"/>
@@ -16907,7 +16934,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="72"/>
+      <c r="A18" s="73"/>
       <c r="B18" s="51"/>
       <c r="C18" s="51"/>
       <c r="D18" s="52">
@@ -16929,7 +16956,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="72"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="51"/>
       <c r="C19" s="51"/>
       <c r="D19" s="52">
@@ -16951,7 +16978,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="72"/>
+      <c r="A20" s="73"/>
       <c r="B20" s="51"/>
       <c r="C20" s="51"/>
       <c r="D20" s="52">
@@ -16973,7 +17000,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="72"/>
+      <c r="A21" s="73"/>
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
       <c r="D21" s="52">
@@ -16995,7 +17022,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="72"/>
+      <c r="A22" s="73"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
       <c r="D22" s="52">
@@ -17017,7 +17044,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="72"/>
+      <c r="A23" s="73"/>
       <c r="B23" s="51" t="s">
         <v>73</v>
       </c>
@@ -17041,7 +17068,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="72"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
       <c r="D24" s="52">
@@ -17063,7 +17090,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="72"/>
+      <c r="A25" s="73"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
       <c r="D25" s="52">
@@ -17079,7 +17106,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="72"/>
+      <c r="A26" s="73"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
       <c r="D26" s="52"/>
@@ -17091,7 +17118,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="72"/>
+      <c r="A27" s="73"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
       <c r="D27" s="52"/>
@@ -17102,7 +17129,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="72"/>
+      <c r="A28" s="73"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="52"/>
@@ -17113,7 +17140,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="72"/>
+      <c r="A29" s="73"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="52"/>
@@ -17124,7 +17151,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="72"/>
+      <c r="A30" s="73"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -17135,7 +17162,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="72"/>
+      <c r="A31" s="73"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -17146,7 +17173,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="72" t="s">
+      <c r="A32" s="73" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -17173,7 +17200,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="72"/>
+      <c r="A33" s="73"/>
       <c r="B33" s="51" t="s">
         <v>307</v>
       </c>
@@ -17199,7 +17226,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="72"/>
+      <c r="A34" s="73"/>
       <c r="B34" s="51" t="s">
         <v>308</v>
       </c>
@@ -17225,7 +17252,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="72"/>
+      <c r="A35" s="73"/>
       <c r="B35" s="51" t="s">
         <v>309</v>
       </c>
@@ -17251,7 +17278,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="72"/>
+      <c r="A36" s="73"/>
       <c r="B36" s="51" t="s">
         <v>310</v>
       </c>
@@ -17277,7 +17304,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="72"/>
+      <c r="A37" s="73"/>
       <c r="B37" s="51" t="s">
         <v>311</v>
       </c>
@@ -17303,7 +17330,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="72"/>
+      <c r="A38" s="73"/>
       <c r="B38" s="51" t="s">
         <v>312</v>
       </c>
@@ -17329,7 +17356,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="72"/>
+      <c r="A39" s="73"/>
       <c r="B39" s="51" t="s">
         <v>313</v>
       </c>
@@ -17355,7 +17382,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="72"/>
+      <c r="A40" s="73"/>
       <c r="B40" s="51" t="s">
         <v>314</v>
       </c>
@@ -17375,7 +17402,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="72"/>
+      <c r="A41" s="73"/>
       <c r="B41" s="51" t="s">
         <v>312</v>
       </c>
@@ -17395,7 +17422,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="72"/>
+      <c r="A42" s="73"/>
       <c r="B42" s="51" t="s">
         <v>315</v>
       </c>
@@ -17414,7 +17441,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="72"/>
+      <c r="A43" s="73"/>
       <c r="B43" s="51" t="s">
         <v>309</v>
       </c>
@@ -17433,7 +17460,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="72"/>
+      <c r="A44" s="73"/>
       <c r="B44" s="51" t="s">
         <v>316</v>
       </c>
@@ -17452,7 +17479,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="72"/>
+      <c r="A45" s="73"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -17698,7 +17725,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="76" t="s">
+      <c r="A62" s="72" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -17725,7 +17752,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="72"/>
+      <c r="A63" s="73"/>
       <c r="B63" s="51" t="s">
         <v>284</v>
       </c>
@@ -17750,7 +17777,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="72"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="51" t="s">
         <v>318</v>
       </c>
@@ -17776,7 +17803,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="72"/>
+      <c r="A65" s="73"/>
       <c r="B65" s="51" t="s">
         <v>313</v>
       </c>
@@ -17802,7 +17829,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="72"/>
+      <c r="A66" s="73"/>
       <c r="B66" s="51" t="s">
         <v>319</v>
       </c>
@@ -17828,7 +17855,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="72"/>
+      <c r="A67" s="73"/>
       <c r="B67" s="51" t="s">
         <v>302</v>
       </c>
@@ -17854,7 +17881,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="72"/>
+      <c r="A68" s="73"/>
       <c r="B68" s="51" t="s">
         <v>304</v>
       </c>
@@ -17880,7 +17907,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="72"/>
+      <c r="A69" s="73"/>
       <c r="B69" s="51" t="s">
         <v>315</v>
       </c>
@@ -17906,7 +17933,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="72"/>
+      <c r="A70" s="73"/>
       <c r="B70" s="51" t="s">
         <v>320</v>
       </c>
@@ -17926,7 +17953,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="72"/>
+      <c r="A71" s="73"/>
       <c r="B71" s="51" t="s">
         <v>306</v>
       </c>
@@ -17946,7 +17973,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="72"/>
+      <c r="A72" s="73"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -17957,7 +17984,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="72"/>
+      <c r="A73" s="73"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -17968,7 +17995,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="72"/>
+      <c r="A74" s="73"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -17979,7 +18006,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="72"/>
+      <c r="A75" s="73"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -17990,7 +18017,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="72"/>
+      <c r="A76" s="73"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -18001,7 +18028,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="72" t="s">
+      <c r="A77" s="73" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -18028,7 +18055,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="72"/>
+      <c r="A78" s="73"/>
       <c r="B78" s="51" t="s">
         <v>322</v>
       </c>
@@ -18054,7 +18081,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="72"/>
+      <c r="A79" s="73"/>
       <c r="B79" s="51" t="s">
         <v>323</v>
       </c>
@@ -18080,7 +18107,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="72"/>
+      <c r="A80" s="73"/>
       <c r="B80" s="51" t="s">
         <v>324</v>
       </c>
@@ -18106,7 +18133,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="72"/>
+      <c r="A81" s="73"/>
       <c r="B81" s="51" t="s">
         <v>325</v>
       </c>
@@ -18132,7 +18159,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="72"/>
+      <c r="A82" s="73"/>
       <c r="B82" s="51" t="s">
         <v>326</v>
       </c>
@@ -18158,7 +18185,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="72"/>
+      <c r="A83" s="73"/>
       <c r="B83" s="51" t="s">
         <v>327</v>
       </c>
@@ -18184,7 +18211,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="72"/>
+      <c r="A84" s="73"/>
       <c r="B84" s="51" t="s">
         <v>328</v>
       </c>
@@ -18210,7 +18237,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="72"/>
+      <c r="A85" s="73"/>
       <c r="B85" s="51" t="s">
         <v>294</v>
       </c>
@@ -18230,7 +18257,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="72"/>
+      <c r="A86" s="73"/>
       <c r="B86" s="51" t="s">
         <v>329</v>
       </c>
@@ -18250,7 +18277,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="72"/>
+      <c r="A87" s="73"/>
       <c r="B87" s="51" t="s">
         <v>304</v>
       </c>
@@ -18269,7 +18296,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="72"/>
+      <c r="A88" s="73"/>
       <c r="B88" s="51"/>
       <c r="C88" s="51"/>
       <c r="D88" s="52"/>
@@ -18280,7 +18307,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="72"/>
+      <c r="A89" s="73"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="52"/>
@@ -18291,7 +18318,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="72"/>
+      <c r="A90" s="73"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -18302,7 +18329,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="73"/>
+      <c r="A91" s="76"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -18313,7 +18340,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="76" t="s">
+      <c r="A92" s="72" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -18340,7 +18367,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="72"/>
+      <c r="A93" s="73"/>
       <c r="B93" s="51" t="s">
         <v>330</v>
       </c>
@@ -18366,7 +18393,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="72"/>
+      <c r="A94" s="73"/>
       <c r="B94" s="56" t="s">
         <v>331</v>
       </c>
@@ -18392,7 +18419,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="72"/>
+      <c r="A95" s="73"/>
       <c r="B95" s="51" t="s">
         <v>309</v>
       </c>
@@ -18418,7 +18445,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="72"/>
+      <c r="A96" s="73"/>
       <c r="B96" s="51" t="s">
         <v>332</v>
       </c>
@@ -18444,7 +18471,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="72"/>
+      <c r="A97" s="73"/>
       <c r="B97" s="51" t="s">
         <v>311</v>
       </c>
@@ -18470,7 +18497,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="72"/>
+      <c r="A98" s="73"/>
       <c r="B98" s="51" t="s">
         <v>313</v>
       </c>
@@ -18496,7 +18523,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="72"/>
+      <c r="A99" s="73"/>
       <c r="B99" s="51" t="s">
         <v>333</v>
       </c>
@@ -18522,7 +18549,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="72"/>
+      <c r="A100" s="73"/>
       <c r="B100" s="51" t="s">
         <v>334</v>
       </c>
@@ -18542,7 +18569,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="72"/>
+      <c r="A101" s="73"/>
       <c r="B101" s="51" t="s">
         <v>309</v>
       </c>
@@ -18562,7 +18589,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="72"/>
+      <c r="A102" s="73"/>
       <c r="B102" s="51" t="s">
         <v>316</v>
       </c>
@@ -18581,7 +18608,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="72"/>
+      <c r="A103" s="73"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51"/>
       <c r="D103" s="52"/>
@@ -18589,7 +18616,7 @@
       <c r="F103" s="52"/>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="72"/>
+      <c r="A104" s="73"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51"/>
       <c r="D104" s="52"/>
@@ -18597,7 +18624,7 @@
       <c r="F104" s="52"/>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="72"/>
+      <c r="A105" s="73"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51"/>
       <c r="D105" s="52"/>
@@ -18925,7 +18952,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="76" t="s">
+      <c r="A122" s="72" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51" t="s">
@@ -18952,7 +18979,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="72"/>
+      <c r="A123" s="73"/>
       <c r="B123" s="51" t="s">
         <v>322</v>
       </c>
@@ -18978,7 +19005,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="72"/>
+      <c r="A124" s="73"/>
       <c r="B124" s="51" t="s">
         <v>294</v>
       </c>
@@ -19004,7 +19031,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="72"/>
+      <c r="A125" s="73"/>
       <c r="B125" s="51" t="s">
         <v>344</v>
       </c>
@@ -19030,7 +19057,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="72"/>
+      <c r="A126" s="73"/>
       <c r="B126" s="51" t="s">
         <v>329</v>
       </c>
@@ -19056,7 +19083,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="72"/>
+      <c r="A127" s="73"/>
       <c r="B127" s="56" t="s">
         <v>345</v>
       </c>
@@ -19082,7 +19109,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="72"/>
+      <c r="A128" s="73"/>
       <c r="B128" s="51" t="s">
         <v>346</v>
       </c>
@@ -19108,7 +19135,7 @@
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="72"/>
+      <c r="A129" s="73"/>
       <c r="B129" s="56" t="s">
         <v>304</v>
       </c>
@@ -19134,7 +19161,7 @@
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="72"/>
+      <c r="A130" s="73"/>
       <c r="B130" s="56" t="s">
         <v>304</v>
       </c>
@@ -19154,7 +19181,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="72"/>
+      <c r="A131" s="73"/>
       <c r="B131" s="51" t="s">
         <v>347</v>
       </c>
@@ -19174,7 +19201,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="72"/>
+      <c r="A132" s="73"/>
       <c r="B132" s="51" t="s">
         <v>348</v>
       </c>
@@ -19193,7 +19220,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="72"/>
+      <c r="A133" s="73"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
@@ -19204,7 +19231,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="72"/>
+      <c r="A134" s="73"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -19215,7 +19242,7 @@
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="72"/>
+      <c r="A135" s="73"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -19541,7 +19568,7 @@
       </c>
     </row>
     <row r="152" spans="1:9">
-      <c r="A152" s="76" t="s">
+      <c r="A152" s="72" t="s">
         <v>355</v>
       </c>
       <c r="B152" s="51" t="s">
@@ -19568,7 +19595,7 @@
       </c>
     </row>
     <row r="153" spans="1:9">
-      <c r="A153" s="72"/>
+      <c r="A153" s="73"/>
       <c r="B153" s="51" t="s">
         <v>357</v>
       </c>
@@ -19594,7 +19621,7 @@
       </c>
     </row>
     <row r="154" spans="1:9">
-      <c r="A154" s="72"/>
+      <c r="A154" s="73"/>
       <c r="B154" s="51" t="s">
         <v>341</v>
       </c>
@@ -19620,7 +19647,7 @@
       </c>
     </row>
     <row r="155" spans="1:9">
-      <c r="A155" s="72"/>
+      <c r="A155" s="73"/>
       <c r="B155" s="51" t="s">
         <v>357</v>
       </c>
@@ -19646,7 +19673,7 @@
       </c>
     </row>
     <row r="156" spans="1:9">
-      <c r="A156" s="72"/>
+      <c r="A156" s="73"/>
       <c r="B156" s="51" t="s">
         <v>301</v>
       </c>
@@ -19672,7 +19699,7 @@
       </c>
     </row>
     <row r="157" spans="1:9">
-      <c r="A157" s="72"/>
+      <c r="A157" s="73"/>
       <c r="B157" s="51" t="s">
         <v>294</v>
       </c>
@@ -19698,7 +19725,7 @@
       </c>
     </row>
     <row r="158" spans="1:9">
-      <c r="A158" s="72"/>
+      <c r="A158" s="73"/>
       <c r="B158" s="51" t="s">
         <v>304</v>
       </c>
@@ -19724,7 +19751,7 @@
       </c>
     </row>
     <row r="159" spans="1:9">
-      <c r="A159" s="72"/>
+      <c r="A159" s="73"/>
       <c r="B159" s="51" t="s">
         <v>358</v>
       </c>
@@ -19750,7 +19777,7 @@
       </c>
     </row>
     <row r="160" spans="1:9">
-      <c r="A160" s="72"/>
+      <c r="A160" s="73"/>
       <c r="B160" s="51" t="s">
         <v>359</v>
       </c>
@@ -19770,7 +19797,7 @@
       <c r="I160" s="54"/>
     </row>
     <row r="161" spans="1:9">
-      <c r="A161" s="72"/>
+      <c r="A161" s="73"/>
       <c r="B161" s="51"/>
       <c r="C161" s="51"/>
       <c r="D161" s="52"/>
@@ -19782,7 +19809,7 @@
       <c r="I161" s="54"/>
     </row>
     <row r="162" spans="1:9">
-      <c r="A162" s="72"/>
+      <c r="A162" s="73"/>
       <c r="B162" s="51"/>
       <c r="C162" s="51"/>
       <c r="D162" s="52"/>
@@ -19793,7 +19820,7 @@
       </c>
     </row>
     <row r="163" spans="1:9">
-      <c r="A163" s="72"/>
+      <c r="A163" s="73"/>
       <c r="B163" s="51"/>
       <c r="C163" s="51"/>
       <c r="D163" s="52"/>
@@ -19804,7 +19831,7 @@
       </c>
     </row>
     <row r="164" spans="1:9">
-      <c r="A164" s="72"/>
+      <c r="A164" s="73"/>
       <c r="B164" s="51"/>
       <c r="C164" s="51"/>
       <c r="D164" s="52"/>
@@ -19815,7 +19842,7 @@
       </c>
     </row>
     <row r="165" spans="1:9">
-      <c r="A165" s="72"/>
+      <c r="A165" s="73"/>
       <c r="B165" s="51"/>
       <c r="C165" s="51"/>
       <c r="D165" s="52"/>
@@ -19826,7 +19853,7 @@
       </c>
     </row>
     <row r="166" spans="1:9">
-      <c r="A166" s="72"/>
+      <c r="A166" s="73"/>
       <c r="B166" s="51"/>
       <c r="C166" s="51"/>
       <c r="D166" s="52"/>
@@ -19838,17 +19865,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="129" priority="12" operator="greaterThan">
@@ -19954,7 +19981,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -19984,7 +20011,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="72"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="51" t="s">
         <v>360</v>
       </c>
@@ -20013,7 +20040,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="72"/>
+      <c r="A4" s="73"/>
       <c r="B4" s="51" t="s">
         <v>361</v>
       </c>
@@ -20042,7 +20069,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="72"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="51" t="s">
         <v>309</v>
       </c>
@@ -20071,7 +20098,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="72"/>
+      <c r="A6" s="73"/>
       <c r="B6" s="51" t="s">
         <v>311</v>
       </c>
@@ -20100,7 +20127,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="72"/>
+      <c r="A7" s="73"/>
       <c r="B7" t="s">
         <v>362</v>
       </c>
@@ -20129,7 +20156,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="72"/>
+      <c r="A8" s="73"/>
       <c r="B8" s="51" t="s">
         <v>363</v>
       </c>
@@ -20155,7 +20182,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="72"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="51" t="s">
         <v>364</v>
       </c>
@@ -20181,7 +20208,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="72"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="51" t="s">
         <v>329</v>
       </c>
@@ -20201,7 +20228,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="72"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="51" t="s">
         <v>365</v>
       </c>
@@ -20221,7 +20248,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="72"/>
+      <c r="A12" s="73"/>
       <c r="B12" s="51" t="s">
         <v>345</v>
       </c>
@@ -20240,7 +20267,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="72"/>
+      <c r="A13" s="73"/>
       <c r="B13" s="51" t="s">
         <v>309</v>
       </c>
@@ -20259,7 +20286,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="72"/>
+      <c r="A14" s="73"/>
       <c r="B14" s="51" t="s">
         <v>366</v>
       </c>
@@ -20278,7 +20305,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="72"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="51" t="s">
         <v>367</v>
       </c>
@@ -20297,7 +20324,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="72"/>
+      <c r="A16" s="73"/>
       <c r="B16" s="51" t="s">
         <v>368</v>
       </c>
@@ -20316,7 +20343,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="73" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -20343,7 +20370,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="72"/>
+      <c r="A18" s="73"/>
       <c r="B18" s="51" t="s">
         <v>370</v>
       </c>
@@ -20369,7 +20396,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="72"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="51" t="s">
         <v>342</v>
       </c>
@@ -20395,7 +20422,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="72"/>
+      <c r="A20" s="73"/>
       <c r="B20" s="51" t="s">
         <v>371</v>
       </c>
@@ -20421,7 +20448,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="72"/>
+      <c r="A21" s="73"/>
       <c r="B21" s="51" t="s">
         <v>372</v>
       </c>
@@ -20447,7 +20474,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="72"/>
+      <c r="A22" s="73"/>
       <c r="B22" s="51" t="s">
         <v>329</v>
       </c>
@@ -20473,7 +20500,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="72"/>
+      <c r="A23" s="73"/>
       <c r="B23" s="51" t="s">
         <v>373</v>
       </c>
@@ -20499,7 +20526,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="72"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="51" t="s">
         <v>374</v>
       </c>
@@ -20525,7 +20552,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="72"/>
+      <c r="A25" s="73"/>
       <c r="B25" s="51" t="s">
         <v>304</v>
       </c>
@@ -20545,7 +20572,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="72"/>
+      <c r="A26" s="73"/>
       <c r="B26" s="51" t="s">
         <v>375</v>
       </c>
@@ -20565,7 +20592,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="72"/>
+      <c r="A27" s="73"/>
       <c r="B27" s="51" t="s">
         <v>376</v>
       </c>
@@ -20584,7 +20611,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="72"/>
+      <c r="A28" s="73"/>
       <c r="B28" s="51" t="s">
         <v>377</v>
       </c>
@@ -20603,7 +20630,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="72"/>
+      <c r="A29" s="73"/>
       <c r="B29" s="51" t="s">
         <v>378</v>
       </c>
@@ -20622,7 +20649,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="72"/>
+      <c r="A30" s="73"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -20633,7 +20660,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="72"/>
+      <c r="A31" s="73"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -20644,7 +20671,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="72" t="s">
+      <c r="A32" s="73" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -20671,7 +20698,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="72"/>
+      <c r="A33" s="73"/>
       <c r="B33" s="51" t="s">
         <v>380</v>
       </c>
@@ -20697,7 +20724,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="72"/>
+      <c r="A34" s="73"/>
       <c r="B34" s="51" t="s">
         <v>370</v>
       </c>
@@ -20723,7 +20750,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="72"/>
+      <c r="A35" s="73"/>
       <c r="B35" s="51" t="s">
         <v>294</v>
       </c>
@@ -20749,7 +20776,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="72"/>
+      <c r="A36" s="73"/>
       <c r="B36" s="51" t="s">
         <v>381</v>
       </c>
@@ -20775,7 +20802,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="72"/>
+      <c r="A37" s="73"/>
       <c r="B37" s="51" t="s">
         <v>311</v>
       </c>
@@ -20801,7 +20828,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="72"/>
+      <c r="A38" s="73"/>
       <c r="B38" s="51" t="s">
         <v>382</v>
       </c>
@@ -20827,7 +20854,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="72"/>
+      <c r="A39" s="73"/>
       <c r="B39" s="51" t="s">
         <v>329</v>
       </c>
@@ -20853,7 +20880,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="72"/>
+      <c r="A40" s="73"/>
       <c r="B40" s="51" t="s">
         <v>383</v>
       </c>
@@ -20873,7 +20900,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="72"/>
+      <c r="A41" s="73"/>
       <c r="B41" s="51" t="s">
         <v>374</v>
       </c>
@@ -20893,7 +20920,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="72"/>
+      <c r="A42" s="73"/>
       <c r="B42" s="51" t="s">
         <v>304</v>
       </c>
@@ -20912,7 +20939,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="72"/>
+      <c r="A43" s="73"/>
       <c r="B43" s="51" t="s">
         <v>384</v>
       </c>
@@ -20931,7 +20958,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="72"/>
+      <c r="A44" s="73"/>
       <c r="B44" s="51" t="s">
         <v>385</v>
       </c>
@@ -20950,7 +20977,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="72"/>
+      <c r="A45" s="73"/>
       <c r="B45" s="51" t="s">
         <v>386</v>
       </c>
@@ -21214,7 +21241,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="76" t="s">
+      <c r="A62" s="72" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -21241,7 +21268,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="72"/>
+      <c r="A63" s="73"/>
       <c r="B63" s="51" t="s">
         <v>390</v>
       </c>
@@ -21266,7 +21293,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="72"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="51" t="s">
         <v>370</v>
       </c>
@@ -21292,7 +21319,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="72"/>
+      <c r="A65" s="73"/>
       <c r="B65" s="51" t="s">
         <v>309</v>
       </c>
@@ -21318,7 +21345,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="72"/>
+      <c r="A66" s="73"/>
       <c r="B66" s="51" t="s">
         <v>391</v>
       </c>
@@ -21344,7 +21371,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="72"/>
+      <c r="A67" s="73"/>
       <c r="B67" s="51" t="s">
         <v>392</v>
       </c>
@@ -21370,7 +21397,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="72"/>
+      <c r="A68" s="73"/>
       <c r="B68" s="56" t="s">
         <v>313</v>
       </c>
@@ -21396,7 +21423,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="72"/>
+      <c r="A69" s="73"/>
       <c r="B69" s="51" t="s">
         <v>393</v>
       </c>
@@ -21422,7 +21449,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="72"/>
+      <c r="A70" s="73"/>
       <c r="B70" s="51" t="s">
         <v>394</v>
       </c>
@@ -21442,7 +21469,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="72"/>
+      <c r="A71" s="73"/>
       <c r="B71" s="51" t="s">
         <v>342</v>
       </c>
@@ -21462,7 +21489,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="72"/>
+      <c r="A72" s="73"/>
       <c r="B72" s="51" t="s">
         <v>385</v>
       </c>
@@ -21481,7 +21508,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="72"/>
+      <c r="A73" s="73"/>
       <c r="B73" s="51" t="s">
         <v>395</v>
       </c>
@@ -21500,7 +21527,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="72"/>
+      <c r="A74" s="73"/>
       <c r="B74" s="51" t="s">
         <v>396</v>
       </c>
@@ -21519,7 +21546,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="72"/>
+      <c r="A75" s="73"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -21530,7 +21557,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="72"/>
+      <c r="A76" s="73"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -21541,7 +21568,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="72" t="s">
+      <c r="A77" s="73" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -21568,7 +21595,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="72"/>
+      <c r="A78" s="73"/>
       <c r="B78" s="51" t="s">
         <v>397</v>
       </c>
@@ -21594,7 +21621,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="72"/>
+      <c r="A79" s="73"/>
       <c r="B79" s="51" t="s">
         <v>398</v>
       </c>
@@ -21620,7 +21647,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="72"/>
+      <c r="A80" s="73"/>
       <c r="B80" s="51" t="s">
         <v>309</v>
       </c>
@@ -21646,7 +21673,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="72"/>
+      <c r="A81" s="73"/>
       <c r="B81" s="51" t="s">
         <v>399</v>
       </c>
@@ -21672,7 +21699,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="72"/>
+      <c r="A82" s="73"/>
       <c r="B82" s="51" t="s">
         <v>400</v>
       </c>
@@ -21698,7 +21725,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="72"/>
+      <c r="A83" s="73"/>
       <c r="B83" s="51" t="s">
         <v>329</v>
       </c>
@@ -21724,7 +21751,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="72"/>
+      <c r="A84" s="73"/>
       <c r="B84" s="51" t="s">
         <v>401</v>
       </c>
@@ -21750,7 +21777,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="72"/>
+      <c r="A85" s="73"/>
       <c r="B85" s="51" t="s">
         <v>394</v>
       </c>
@@ -21770,7 +21797,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="72"/>
+      <c r="A86" s="73"/>
       <c r="B86" s="51" t="s">
         <v>309</v>
       </c>
@@ -21790,7 +21817,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="72"/>
+      <c r="A87" s="73"/>
       <c r="B87" s="51" t="s">
         <v>385</v>
       </c>
@@ -21809,7 +21836,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="72"/>
+      <c r="A88" s="73"/>
       <c r="B88" s="51" t="s">
         <v>402</v>
       </c>
@@ -21828,7 +21855,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="72"/>
+      <c r="A89" s="73"/>
       <c r="B89" s="51" t="s">
         <v>403</v>
       </c>
@@ -21847,7 +21874,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="72"/>
+      <c r="A90" s="73"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -21858,7 +21885,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="73"/>
+      <c r="A91" s="76"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -21869,7 +21896,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="76" t="s">
+      <c r="A92" s="72" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -21896,7 +21923,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="72"/>
+      <c r="A93" s="73"/>
       <c r="B93" s="51" t="s">
         <v>405</v>
       </c>
@@ -21922,7 +21949,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="72"/>
+      <c r="A94" s="73"/>
       <c r="B94" s="56" t="s">
         <v>406</v>
       </c>
@@ -21948,7 +21975,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="72"/>
+      <c r="A95" s="73"/>
       <c r="B95" s="51" t="s">
         <v>407</v>
       </c>
@@ -21974,7 +22001,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="72"/>
+      <c r="A96" s="73"/>
       <c r="B96" s="51" t="s">
         <v>342</v>
       </c>
@@ -22000,7 +22027,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="72"/>
+      <c r="A97" s="73"/>
       <c r="B97" s="51" t="s">
         <v>408</v>
       </c>
@@ -22026,7 +22053,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="72"/>
+      <c r="A98" s="73"/>
       <c r="B98" s="51" t="s">
         <v>409</v>
       </c>
@@ -22052,7 +22079,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="72"/>
+      <c r="A99" s="73"/>
       <c r="B99" s="51" t="s">
         <v>410</v>
       </c>
@@ -22078,7 +22105,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="72"/>
+      <c r="A100" s="73"/>
       <c r="B100" s="51" t="s">
         <v>411</v>
       </c>
@@ -22098,7 +22125,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="72"/>
+      <c r="A101" s="73"/>
       <c r="B101" s="51" t="s">
         <v>412</v>
       </c>
@@ -22118,7 +22145,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="72"/>
+      <c r="A102" s="73"/>
       <c r="B102" s="51" t="s">
         <v>413</v>
       </c>
@@ -22137,7 +22164,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="72"/>
+      <c r="A103" s="73"/>
       <c r="B103" s="51" t="s">
         <v>414</v>
       </c>
@@ -22156,7 +22183,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="72"/>
+      <c r="A104" s="73"/>
       <c r="B104" s="51" t="s">
         <v>304</v>
       </c>
@@ -22175,7 +22202,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="72"/>
+      <c r="A105" s="73"/>
       <c r="B105" s="51" t="s">
         <v>415</v>
       </c>
@@ -22537,7 +22564,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="76" t="s">
+      <c r="A122" s="72" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51" t="s">
@@ -22564,7 +22591,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="72"/>
+      <c r="A123" s="73"/>
       <c r="B123" s="51" t="s">
         <v>426</v>
       </c>
@@ -22590,7 +22617,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="72"/>
+      <c r="A124" s="73"/>
       <c r="B124" s="51" t="s">
         <v>427</v>
       </c>
@@ -22616,7 +22643,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="72"/>
+      <c r="A125" s="73"/>
       <c r="B125" s="51" t="s">
         <v>428</v>
       </c>
@@ -22642,7 +22669,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="72"/>
+      <c r="A126" s="73"/>
       <c r="B126" s="51" t="s">
         <v>429</v>
       </c>
@@ -22668,7 +22695,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="72"/>
+      <c r="A127" s="73"/>
       <c r="B127" s="56" t="s">
         <v>430</v>
       </c>
@@ -22694,7 +22721,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="72"/>
+      <c r="A128" s="73"/>
       <c r="B128" s="51" t="s">
         <v>431</v>
       </c>
@@ -22720,7 +22747,7 @@
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="72"/>
+      <c r="A129" s="73"/>
       <c r="B129" s="56" t="s">
         <v>432</v>
       </c>
@@ -22746,7 +22773,7 @@
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="72"/>
+      <c r="A130" s="73"/>
       <c r="B130" s="56" t="s">
         <v>433</v>
       </c>
@@ -22766,7 +22793,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="72"/>
+      <c r="A131" s="73"/>
       <c r="B131" s="51" t="s">
         <v>294</v>
       </c>
@@ -22786,7 +22813,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="72"/>
+      <c r="A132" s="73"/>
       <c r="B132" s="51" t="s">
         <v>329</v>
       </c>
@@ -22805,7 +22832,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="72"/>
+      <c r="A133" s="73"/>
       <c r="B133" s="51" t="s">
         <v>304</v>
       </c>
@@ -22824,7 +22851,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="72"/>
+      <c r="A134" s="73"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -22835,7 +22862,7 @@
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="72"/>
+      <c r="A135" s="73"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -23293,7 +23320,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -23323,7 +23350,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="72"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="51" t="s">
         <v>311</v>
       </c>
@@ -23352,7 +23379,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="72"/>
+      <c r="A4" s="73"/>
       <c r="B4" s="51" t="s">
         <v>440</v>
       </c>
@@ -23381,7 +23408,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="72"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="56" t="s">
         <v>441</v>
       </c>
@@ -23410,7 +23437,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="72"/>
+      <c r="A6" s="73"/>
       <c r="B6" s="51" t="s">
         <v>342</v>
       </c>
@@ -23439,7 +23466,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="72"/>
+      <c r="A7" s="73"/>
       <c r="B7" t="s">
         <v>442</v>
       </c>
@@ -23468,7 +23495,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="72"/>
+      <c r="A8" s="73"/>
       <c r="B8" t="s">
         <v>443</v>
       </c>
@@ -23494,7 +23521,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="72"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="51" t="s">
         <v>329</v>
       </c>
@@ -23520,7 +23547,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="72"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="51" t="s">
         <v>444</v>
       </c>
@@ -23540,7 +23567,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="72"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="51" t="s">
         <v>445</v>
       </c>
@@ -23560,7 +23587,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="72"/>
+      <c r="A12" s="73"/>
       <c r="B12" s="51" t="s">
         <v>446</v>
       </c>
@@ -23579,7 +23606,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="72"/>
+      <c r="A13" s="73"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51" t="s">
         <v>295</v>
@@ -23592,7 +23619,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="72"/>
+      <c r="A14" s="73"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51" t="s">
         <v>288</v>
@@ -23605,7 +23632,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="72"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51" t="s">
         <v>293</v>
@@ -23618,7 +23645,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="72"/>
+      <c r="A16" s="73"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51" t="s">
         <v>290</v>
@@ -23631,7 +23658,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="73" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -23658,7 +23685,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="72"/>
+      <c r="A18" s="73"/>
       <c r="B18" s="51" t="s">
         <v>447</v>
       </c>
@@ -23684,7 +23711,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="72"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="51" t="s">
         <v>342</v>
       </c>
@@ -23710,7 +23737,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="72"/>
+      <c r="A20" s="73"/>
       <c r="B20" s="51" t="s">
         <v>371</v>
       </c>
@@ -23736,7 +23763,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="72"/>
+      <c r="A21" s="73"/>
       <c r="B21" s="51" t="s">
         <v>372</v>
       </c>
@@ -23762,7 +23789,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="72"/>
+      <c r="A22" s="73"/>
       <c r="B22" s="51" t="s">
         <v>329</v>
       </c>
@@ -23788,7 +23815,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="72"/>
+      <c r="A23" s="73"/>
       <c r="B23" s="51" t="s">
         <v>373</v>
       </c>
@@ -23814,7 +23841,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="72"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="51" t="s">
         <v>374</v>
       </c>
@@ -23840,7 +23867,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="72"/>
+      <c r="A25" s="73"/>
       <c r="B25" s="51" t="s">
         <v>304</v>
       </c>
@@ -23860,7 +23887,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="72"/>
+      <c r="A26" s="73"/>
       <c r="B26" s="51" t="s">
         <v>375</v>
       </c>
@@ -23880,7 +23907,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="72"/>
+      <c r="A27" s="73"/>
       <c r="B27" s="51" t="s">
         <v>376</v>
       </c>
@@ -23899,7 +23926,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="72"/>
+      <c r="A28" s="73"/>
       <c r="B28" s="51" t="s">
         <v>377</v>
       </c>
@@ -23918,7 +23945,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="72"/>
+      <c r="A29" s="73"/>
       <c r="B29" s="51" t="s">
         <v>378</v>
       </c>
@@ -23937,7 +23964,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="72"/>
+      <c r="A30" s="73"/>
       <c r="B30" s="51" t="s">
         <v>448</v>
       </c>
@@ -23956,7 +23983,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="72"/>
+      <c r="A31" s="73"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -23967,7 +23994,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="72" t="s">
+      <c r="A32" s="73" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -23994,7 +24021,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="72"/>
+      <c r="A33" s="73"/>
       <c r="B33" s="51" t="s">
         <v>449</v>
       </c>
@@ -24020,7 +24047,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="72"/>
+      <c r="A34" s="73"/>
       <c r="B34" s="51" t="s">
         <v>450</v>
       </c>
@@ -24046,7 +24073,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="72"/>
+      <c r="A35" s="73"/>
       <c r="B35" s="51" t="s">
         <v>294</v>
       </c>
@@ -24072,7 +24099,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="72"/>
+      <c r="A36" s="73"/>
       <c r="B36" s="51" t="s">
         <v>451</v>
       </c>
@@ -24098,7 +24125,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="72"/>
+      <c r="A37" s="73"/>
       <c r="B37" s="51" t="s">
         <v>311</v>
       </c>
@@ -24124,7 +24151,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="72"/>
+      <c r="A38" s="73"/>
       <c r="B38" s="51" t="s">
         <v>452</v>
       </c>
@@ -24150,7 +24177,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="72"/>
+      <c r="A39" s="73"/>
       <c r="B39" s="51" t="s">
         <v>329</v>
       </c>
@@ -24176,7 +24203,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="72"/>
+      <c r="A40" s="73"/>
       <c r="B40" s="51" t="s">
         <v>453</v>
       </c>
@@ -24196,7 +24223,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="72"/>
+      <c r="A41" s="73"/>
       <c r="B41" s="51" t="s">
         <v>454</v>
       </c>
@@ -24216,7 +24243,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="72"/>
+      <c r="A42" s="73"/>
       <c r="B42" s="51" t="s">
         <v>304</v>
       </c>
@@ -24235,7 +24262,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="72"/>
+      <c r="A43" s="73"/>
       <c r="B43" s="51" t="s">
         <v>455</v>
       </c>
@@ -24254,7 +24281,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="72"/>
+      <c r="A44" s="73"/>
       <c r="B44" s="51" t="s">
         <v>448</v>
       </c>
@@ -24273,7 +24300,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="72"/>
+      <c r="A45" s="73"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
       <c r="E45" s="52"/>
@@ -24520,7 +24547,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="76" t="s">
+      <c r="A62" s="72" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51"/>
@@ -24539,7 +24566,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="72"/>
+      <c r="A63" s="73"/>
       <c r="B63" s="51"/>
       <c r="C63" s="51"/>
       <c r="D63" s="52"/>
@@ -24556,7 +24583,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="72"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="51"/>
       <c r="C64" s="51"/>
       <c r="D64" s="52"/>
@@ -24574,7 +24601,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="72"/>
+      <c r="A65" s="73"/>
       <c r="B65" s="51"/>
       <c r="C65" s="51"/>
       <c r="D65" s="52"/>
@@ -24592,7 +24619,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="72"/>
+      <c r="A66" s="73"/>
       <c r="B66" s="51"/>
       <c r="C66" s="51"/>
       <c r="D66" s="52"/>
@@ -24610,7 +24637,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="72"/>
+      <c r="A67" s="73"/>
       <c r="B67" s="51"/>
       <c r="C67" s="51"/>
       <c r="D67" s="52"/>
@@ -24628,7 +24655,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="72"/>
+      <c r="A68" s="73"/>
       <c r="B68" s="56" t="s">
         <v>456</v>
       </c>
@@ -24648,7 +24675,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="72"/>
+      <c r="A69" s="73"/>
       <c r="B69" s="51"/>
       <c r="C69" s="51"/>
       <c r="D69" s="52"/>
@@ -24666,7 +24693,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="72"/>
+      <c r="A70" s="73"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51"/>
       <c r="D70" s="52"/>
@@ -24678,7 +24705,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="72"/>
+      <c r="A71" s="73"/>
       <c r="B71" s="51"/>
       <c r="C71" s="51"/>
       <c r="D71" s="52"/>
@@ -24690,7 +24717,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="72"/>
+      <c r="A72" s="73"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -24701,7 +24728,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="72"/>
+      <c r="A73" s="73"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -24712,7 +24739,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="72"/>
+      <c r="A74" s="73"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -24723,7 +24750,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="72"/>
+      <c r="A75" s="73"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -24734,7 +24761,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="72"/>
+      <c r="A76" s="73"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -24745,7 +24772,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="72" t="s">
+      <c r="A77" s="73" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -24772,7 +24799,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="72"/>
+      <c r="A78" s="73"/>
       <c r="B78" s="51" t="s">
         <v>457</v>
       </c>
@@ -24798,7 +24825,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="72"/>
+      <c r="A79" s="73"/>
       <c r="B79" s="51" t="s">
         <v>458</v>
       </c>
@@ -24824,7 +24851,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="72"/>
+      <c r="A80" s="73"/>
       <c r="B80" s="51" t="s">
         <v>309</v>
       </c>
@@ -24850,7 +24877,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="72"/>
+      <c r="A81" s="73"/>
       <c r="B81" s="51" t="s">
         <v>459</v>
       </c>
@@ -24876,7 +24903,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="72"/>
+      <c r="A82" s="73"/>
       <c r="B82" s="51" t="s">
         <v>400</v>
       </c>
@@ -24902,7 +24929,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="72"/>
+      <c r="A83" s="73"/>
       <c r="B83" s="51" t="s">
         <v>329</v>
       </c>
@@ -24928,7 +24955,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="72"/>
+      <c r="A84" s="73"/>
       <c r="B84" s="51" t="s">
         <v>401</v>
       </c>
@@ -24954,7 +24981,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="72"/>
+      <c r="A85" s="73"/>
       <c r="B85" s="51" t="s">
         <v>394</v>
       </c>
@@ -24974,7 +25001,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="72"/>
+      <c r="A86" s="73"/>
       <c r="B86" s="51" t="s">
         <v>309</v>
       </c>
@@ -24994,7 +25021,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="72"/>
+      <c r="A87" s="73"/>
       <c r="B87" s="51" t="s">
         <v>385</v>
       </c>
@@ -25013,7 +25040,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="72"/>
+      <c r="A88" s="73"/>
       <c r="B88" s="51" t="s">
         <v>402</v>
       </c>
@@ -25032,7 +25059,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="72"/>
+      <c r="A89" s="73"/>
       <c r="B89" s="51" t="s">
         <v>403</v>
       </c>
@@ -25051,7 +25078,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="72"/>
+      <c r="A90" s="73"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -25062,7 +25089,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="73"/>
+      <c r="A91" s="76"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -25073,7 +25100,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="76" t="s">
+      <c r="A92" s="72" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -25100,7 +25127,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="72"/>
+      <c r="A93" s="73"/>
       <c r="B93" s="51" t="s">
         <v>461</v>
       </c>
@@ -25126,7 +25153,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="72"/>
+      <c r="A94" s="73"/>
       <c r="B94" s="56" t="s">
         <v>309</v>
       </c>
@@ -25152,7 +25179,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="72"/>
+      <c r="A95" s="73"/>
       <c r="B95" s="51" t="s">
         <v>462</v>
       </c>
@@ -25178,7 +25205,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="72"/>
+      <c r="A96" s="73"/>
       <c r="B96" s="51" t="s">
         <v>463</v>
       </c>
@@ -25204,7 +25231,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="72"/>
+      <c r="A97" s="73"/>
       <c r="B97" s="51" t="s">
         <v>464</v>
       </c>
@@ -25230,7 +25257,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="72"/>
+      <c r="A98" s="73"/>
       <c r="B98" s="51" t="s">
         <v>465</v>
       </c>
@@ -25256,7 +25283,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="72"/>
+      <c r="A99" s="73"/>
       <c r="B99" s="51" t="s">
         <v>466</v>
       </c>
@@ -25282,7 +25309,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="72"/>
+      <c r="A100" s="73"/>
       <c r="B100" s="51" t="s">
         <v>421</v>
       </c>
@@ -25302,7 +25329,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="72"/>
+      <c r="A101" s="73"/>
       <c r="B101" s="51" t="s">
         <v>467</v>
       </c>
@@ -25322,7 +25349,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="72"/>
+      <c r="A102" s="73"/>
       <c r="B102" s="51" t="s">
         <v>468</v>
       </c>
@@ -25341,7 +25368,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="72"/>
+      <c r="A103" s="73"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51" t="s">
         <v>296</v>
@@ -25358,7 +25385,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="72"/>
+      <c r="A104" s="73"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51" t="s">
         <v>295</v>
@@ -25375,7 +25402,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="72"/>
+      <c r="A105" s="73"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51" t="s">
         <v>288</v>
@@ -25635,7 +25662,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="76" t="s">
+      <c r="A122" s="72" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51"/>
@@ -25660,7 +25687,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="72"/>
+      <c r="A123" s="73"/>
       <c r="B123" s="51"/>
       <c r="C123" s="51" t="s">
         <v>295</v>
@@ -25684,7 +25711,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="72"/>
+      <c r="A124" s="73"/>
       <c r="B124" s="51"/>
       <c r="C124" s="51" t="s">
         <v>288</v>
@@ -25708,7 +25735,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="72"/>
+      <c r="A125" s="73"/>
       <c r="B125" s="51"/>
       <c r="C125" s="51" t="s">
         <v>295</v>
@@ -25732,7 +25759,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="72"/>
+      <c r="A126" s="73"/>
       <c r="B126" s="58"/>
       <c r="C126" s="51" t="s">
         <v>288</v>
@@ -25828,7 +25855,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="72"/>
+      <c r="A131" s="73"/>
       <c r="B131" s="59"/>
       <c r="C131" s="51"/>
       <c r="D131" s="52"/>
@@ -25837,7 +25864,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="72"/>
+      <c r="A132" s="73"/>
       <c r="B132" s="51"/>
       <c r="C132" s="51"/>
       <c r="D132" s="52"/>
@@ -25845,7 +25872,7 @@
       <c r="F132" s="52"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="72"/>
+      <c r="A133" s="73"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
@@ -25853,7 +25880,7 @@
       <c r="F133" s="52"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="72"/>
+      <c r="A134" s="73"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -25861,7 +25888,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="72"/>
+      <c r="A135" s="73"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -26623,7 +26650,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -26653,7 +26680,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="72"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="51" t="s">
         <v>470</v>
       </c>
@@ -26682,7 +26709,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="72"/>
+      <c r="A4" s="73"/>
       <c r="B4" s="51" t="s">
         <v>471</v>
       </c>
@@ -26711,7 +26738,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="72"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="51" t="s">
         <v>472</v>
       </c>
@@ -26740,7 +26767,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="72"/>
+      <c r="A6" s="73"/>
       <c r="B6" s="51" t="s">
         <v>329</v>
       </c>
@@ -26769,7 +26796,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="72"/>
+      <c r="A7" s="73"/>
       <c r="B7" t="s">
         <v>473</v>
       </c>
@@ -26798,7 +26825,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="72"/>
+      <c r="A8" s="73"/>
       <c r="B8" s="51" t="s">
         <v>474</v>
       </c>
@@ -26824,7 +26851,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="72"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="51"/>
       <c r="C9" s="51" t="s">
         <v>288</v>
@@ -26844,7 +26871,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="72"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="51"/>
       <c r="C10" s="51" t="s">
         <v>295</v>
@@ -26858,7 +26885,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="72"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="51"/>
       <c r="C11" s="51" t="s">
         <v>288</v>
@@ -26872,7 +26899,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="72"/>
+      <c r="A12" s="73"/>
       <c r="B12" s="51"/>
       <c r="C12" s="51" t="s">
         <v>296</v>
@@ -26885,7 +26912,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="72"/>
+      <c r="A13" s="73"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51" t="s">
         <v>295</v>
@@ -26898,7 +26925,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="72"/>
+      <c r="A14" s="73"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51" t="s">
         <v>288</v>
@@ -26911,7 +26938,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="72"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51" t="s">
         <v>293</v>
@@ -26924,7 +26951,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="72"/>
+      <c r="A16" s="73"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51" t="s">
         <v>290</v>
@@ -26937,7 +26964,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="73" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -26964,7 +26991,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="72"/>
+      <c r="A18" s="73"/>
       <c r="B18" s="51" t="s">
         <v>476</v>
       </c>
@@ -26990,7 +27017,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="72"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="51" t="s">
         <v>329</v>
       </c>
@@ -27016,7 +27043,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="72"/>
+      <c r="A20" s="73"/>
       <c r="B20" s="51" t="s">
         <v>477</v>
       </c>
@@ -27042,7 +27069,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="72"/>
+      <c r="A21" s="73"/>
       <c r="B21" s="51" t="s">
         <v>309</v>
       </c>
@@ -27068,7 +27095,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="72"/>
+      <c r="A22" s="73"/>
       <c r="B22" s="51" t="s">
         <v>478</v>
       </c>
@@ -27094,7 +27121,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="72"/>
+      <c r="A23" s="73"/>
       <c r="B23" s="51"/>
       <c r="C23" s="51"/>
       <c r="D23" s="52"/>
@@ -27109,7 +27136,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="72"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
       <c r="D24" s="52"/>
@@ -27124,7 +27151,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="72"/>
+      <c r="A25" s="73"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
       <c r="D25" s="52"/>
@@ -27133,7 +27160,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="72"/>
+      <c r="A26" s="73"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
       <c r="D26" s="52"/>
@@ -27145,7 +27172,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="72"/>
+      <c r="A27" s="73"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
       <c r="D27" s="52"/>
@@ -27156,7 +27183,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="72"/>
+      <c r="A28" s="73"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="52"/>
@@ -27167,7 +27194,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="72"/>
+      <c r="A29" s="73"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="52"/>
@@ -27178,7 +27205,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="72"/>
+      <c r="A30" s="73"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -27189,7 +27216,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="72"/>
+      <c r="A31" s="73"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -27200,7 +27227,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="72" t="s">
+      <c r="A32" s="73" t="s">
         <v>263</v>
       </c>
       <c r="C32" s="51"/>
@@ -27218,7 +27245,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="72"/>
+      <c r="A33" s="73"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
       <c r="D33" s="52"/>
@@ -27236,7 +27263,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="72"/>
+      <c r="A34" s="73"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
       <c r="D34" s="52"/>
@@ -27254,7 +27281,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="72"/>
+      <c r="A35" s="73"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
       <c r="D35" s="52"/>
@@ -27272,7 +27299,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="72"/>
+      <c r="A36" s="73"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
       <c r="D36" s="52"/>
@@ -27290,7 +27317,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="72"/>
+      <c r="A37" s="73"/>
       <c r="B37" s="51" t="s">
         <v>479</v>
       </c>
@@ -27310,7 +27337,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="72"/>
+      <c r="A38" s="73"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
       <c r="D38" s="52"/>
@@ -27328,7 +27355,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="72"/>
+      <c r="A39" s="73"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
       <c r="D39" s="52"/>
@@ -27346,7 +27373,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="72"/>
+      <c r="A40" s="73"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
       <c r="D40" s="52"/>
@@ -27358,7 +27385,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="72"/>
+      <c r="A41" s="73"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
       <c r="D41" s="52"/>
@@ -27370,7 +27397,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="72"/>
+      <c r="A42" s="73"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
       <c r="D42" s="52"/>
@@ -27381,7 +27408,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="72"/>
+      <c r="A43" s="73"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
       <c r="D43" s="52"/>
@@ -27392,7 +27419,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="72"/>
+      <c r="A44" s="73"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
       <c r="D44" s="52"/>
@@ -27403,7 +27430,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="72"/>
+      <c r="A45" s="73"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -27695,7 +27722,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="76" t="s">
+      <c r="A62" s="72" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51"/>
@@ -27714,7 +27741,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="72"/>
+      <c r="A63" s="73"/>
       <c r="B63" s="51"/>
       <c r="C63" s="51"/>
       <c r="D63" s="52"/>
@@ -27731,7 +27758,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="72"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="51"/>
       <c r="C64" s="51"/>
       <c r="D64" s="52"/>
@@ -27749,7 +27776,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="72"/>
+      <c r="A65" s="73"/>
       <c r="B65" s="51"/>
       <c r="C65" s="51"/>
       <c r="D65" s="52"/>
@@ -27767,7 +27794,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="72"/>
+      <c r="A66" s="73"/>
       <c r="B66" s="51"/>
       <c r="C66" s="51"/>
       <c r="D66" s="52"/>
@@ -27785,7 +27812,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="72"/>
+      <c r="A67" s="73"/>
       <c r="B67" s="51"/>
       <c r="C67" s="51"/>
       <c r="D67" s="52"/>
@@ -27803,7 +27830,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="72"/>
+      <c r="A68" s="73"/>
       <c r="B68" s="56" t="s">
         <v>488</v>
       </c>
@@ -27823,7 +27850,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="72"/>
+      <c r="A69" s="73"/>
       <c r="B69" s="51"/>
       <c r="C69" s="51"/>
       <c r="D69" s="52"/>
@@ -27841,7 +27868,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="72"/>
+      <c r="A70" s="73"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51"/>
       <c r="D70" s="52"/>
@@ -27853,7 +27880,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="72"/>
+      <c r="A71" s="73"/>
       <c r="B71" s="51"/>
       <c r="C71" s="51"/>
       <c r="D71" s="52"/>
@@ -27865,7 +27892,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="72"/>
+      <c r="A72" s="73"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -27876,7 +27903,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="72"/>
+      <c r="A73" s="73"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -27887,7 +27914,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="72"/>
+      <c r="A74" s="73"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -27898,7 +27925,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="72"/>
+      <c r="A75" s="73"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -27909,7 +27936,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="72"/>
+      <c r="A76" s="73"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -27920,7 +27947,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="72" t="s">
+      <c r="A77" s="73" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -27941,7 +27968,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="72"/>
+      <c r="A78" s="73"/>
       <c r="B78" s="51"/>
       <c r="C78" s="51"/>
       <c r="D78" s="52"/>
@@ -27959,7 +27986,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="72"/>
+      <c r="A79" s="73"/>
       <c r="B79" s="51"/>
       <c r="C79" s="51"/>
       <c r="D79" s="52"/>
@@ -27977,7 +28004,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="72"/>
+      <c r="A80" s="73"/>
       <c r="B80" s="51"/>
       <c r="C80" s="51"/>
       <c r="D80" s="52"/>
@@ -27995,7 +28022,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="72"/>
+      <c r="A81" s="73"/>
       <c r="B81" s="51"/>
       <c r="C81" s="51"/>
       <c r="D81" s="52"/>
@@ -28013,7 +28040,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="72"/>
+      <c r="A82" s="73"/>
       <c r="B82" s="51"/>
       <c r="C82" s="51"/>
       <c r="D82" s="52"/>
@@ -28031,7 +28058,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="72"/>
+      <c r="A83" s="73"/>
       <c r="B83" s="51"/>
       <c r="C83" s="51"/>
       <c r="D83" s="52"/>
@@ -28049,7 +28076,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="72"/>
+      <c r="A84" s="73"/>
       <c r="B84" s="51"/>
       <c r="C84" s="51"/>
       <c r="D84" s="52"/>
@@ -28067,7 +28094,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="72"/>
+      <c r="A85" s="73"/>
       <c r="B85" s="51"/>
       <c r="C85" s="51"/>
       <c r="D85" s="52"/>
@@ -28079,7 +28106,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="72"/>
+      <c r="A86" s="73"/>
       <c r="B86" s="51"/>
       <c r="C86" s="51"/>
       <c r="D86" s="52"/>
@@ -28091,7 +28118,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="72"/>
+      <c r="A87" s="73"/>
       <c r="B87" s="51"/>
       <c r="C87" s="51"/>
       <c r="D87" s="52"/>
@@ -28102,7 +28129,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="72"/>
+      <c r="A88" s="73"/>
       <c r="B88" s="51"/>
       <c r="C88" s="51"/>
       <c r="D88" s="52"/>
@@ -28113,7 +28140,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="72"/>
+      <c r="A89" s="73"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="52"/>
@@ -28124,7 +28151,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="72"/>
+      <c r="A90" s="73"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -28135,7 +28162,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="73"/>
+      <c r="A91" s="76"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -28146,7 +28173,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="76" t="s">
+      <c r="A92" s="72" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -28173,7 +28200,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="72"/>
+      <c r="A93" s="73"/>
       <c r="B93" s="51" t="s">
         <v>491</v>
       </c>
@@ -28199,7 +28226,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="72"/>
+      <c r="A94" s="73"/>
       <c r="B94" s="56" t="s">
         <v>492</v>
       </c>
@@ -28225,7 +28252,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="72"/>
+      <c r="A95" s="73"/>
       <c r="B95" s="51"/>
       <c r="C95" s="51" t="s">
         <v>293</v>
@@ -28249,7 +28276,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="72"/>
+      <c r="A96" s="73"/>
       <c r="B96" s="51"/>
       <c r="C96" s="51" t="s">
         <v>295</v>
@@ -28273,7 +28300,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="72"/>
+      <c r="A97" s="73"/>
       <c r="B97" s="51"/>
       <c r="C97" s="51" t="s">
         <v>288</v>
@@ -28297,7 +28324,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="72"/>
+      <c r="A98" s="73"/>
       <c r="B98" s="51"/>
       <c r="C98" s="51" t="s">
         <v>285</v>
@@ -28321,7 +28348,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="72"/>
+      <c r="A99" s="73"/>
       <c r="B99" s="51"/>
       <c r="C99" s="51" t="s">
         <v>290</v>
@@ -28345,7 +28372,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="72"/>
+      <c r="A100" s="73"/>
       <c r="B100" s="51"/>
       <c r="C100" s="51" t="s">
         <v>288</v>
@@ -28363,7 +28390,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="72"/>
+      <c r="A101" s="73"/>
       <c r="B101" s="51"/>
       <c r="C101" s="51" t="s">
         <v>295</v>
@@ -28381,7 +28408,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="72"/>
+      <c r="A102" s="73"/>
       <c r="B102" s="51"/>
       <c r="C102" s="51" t="s">
         <v>288</v>
@@ -28398,7 +28425,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="72"/>
+      <c r="A103" s="73"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51" t="s">
         <v>296</v>
@@ -28415,7 +28442,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="72"/>
+      <c r="A104" s="73"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51" t="s">
         <v>295</v>
@@ -28432,7 +28459,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="72"/>
+      <c r="A105" s="73"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51" t="s">
         <v>288</v>
@@ -28692,7 +28719,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="76" t="s">
+      <c r="A122" s="72" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51" t="s">
@@ -28719,7 +28746,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="72"/>
+      <c r="A123" s="73"/>
       <c r="B123" s="51" t="s">
         <v>494</v>
       </c>
@@ -28745,7 +28772,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="72"/>
+      <c r="A124" s="73"/>
       <c r="B124" s="51" t="s">
         <v>495</v>
       </c>
@@ -28771,7 +28798,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="72"/>
+      <c r="A125" s="73"/>
       <c r="B125" s="51" t="s">
         <v>496</v>
       </c>
@@ -28797,7 +28824,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="72"/>
+      <c r="A126" s="73"/>
       <c r="B126" s="58" t="s">
         <v>497</v>
       </c>
@@ -28919,7 +28946,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="72"/>
+      <c r="A131" s="73"/>
       <c r="B131" s="59" t="s">
         <v>502</v>
       </c>
@@ -28938,7 +28965,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="72"/>
+      <c r="A132" s="73"/>
       <c r="B132" s="51" t="s">
         <v>503</v>
       </c>
@@ -28956,7 +28983,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="72"/>
+      <c r="A133" s="73"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
@@ -28964,7 +28991,7 @@
       <c r="F133" s="52"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="72"/>
+      <c r="A134" s="73"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -28972,7 +28999,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="72"/>
+      <c r="A135" s="73"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -29392,7 +29419,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51"/>
@@ -29416,7 +29443,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="72"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="51"/>
       <c r="C3" s="51" t="s">
         <v>288</v>
@@ -29439,7 +29466,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="72"/>
+      <c r="A4" s="73"/>
       <c r="B4" s="51"/>
       <c r="C4" s="51" t="s">
         <v>285</v>
@@ -29462,7 +29489,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="72"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="51"/>
       <c r="C5" s="51" t="s">
         <v>295</v>
@@ -29485,7 +29512,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="72"/>
+      <c r="A6" s="73"/>
       <c r="B6" s="51"/>
       <c r="C6" s="51" t="s">
         <v>285</v>
@@ -29508,7 +29535,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="72"/>
+      <c r="A7" s="73"/>
       <c r="C7" s="51" t="s">
         <v>288</v>
       </c>
@@ -29530,7 +29557,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="72"/>
+      <c r="A8" s="73"/>
       <c r="B8" s="51"/>
       <c r="C8" s="51" t="s">
         <v>288</v>
@@ -29550,7 +29577,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="72"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="51" t="s">
         <v>388</v>
       </c>
@@ -29572,7 +29599,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="72"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="51"/>
       <c r="C10" s="51" t="s">
         <v>295</v>
@@ -29586,7 +29613,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="72"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="51"/>
       <c r="C11" s="51" t="s">
         <v>288</v>
@@ -29600,7 +29627,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="72"/>
+      <c r="A12" s="73"/>
       <c r="B12" s="51"/>
       <c r="C12" s="51" t="s">
         <v>296</v>
@@ -29613,7 +29640,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="72"/>
+      <c r="A13" s="73"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51" t="s">
         <v>295</v>
@@ -29626,7 +29653,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="72"/>
+      <c r="A14" s="73"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51" t="s">
         <v>288</v>
@@ -29639,7 +29666,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="72"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51" t="s">
         <v>293</v>
@@ -29652,7 +29679,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="72"/>
+      <c r="A16" s="73"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51" t="s">
         <v>290</v>
@@ -29665,7 +29692,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="73" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -29692,7 +29719,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="72"/>
+      <c r="A18" s="73"/>
       <c r="B18" s="51" t="s">
         <v>510</v>
       </c>
@@ -29718,7 +29745,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="72"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="51" t="s">
         <v>329</v>
       </c>
@@ -29744,7 +29771,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="72"/>
+      <c r="A20" s="73"/>
       <c r="B20" s="51" t="s">
         <v>477</v>
       </c>
@@ -29770,7 +29797,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="72"/>
+      <c r="A21" s="73"/>
       <c r="B21" s="51" t="s">
         <v>511</v>
       </c>
@@ -29796,7 +29823,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="72"/>
+      <c r="A22" s="73"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
       <c r="D22" s="52"/>
@@ -29814,7 +29841,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="72"/>
+      <c r="A23" s="73"/>
       <c r="B23" s="51"/>
       <c r="C23" s="51"/>
       <c r="D23" s="52"/>
@@ -29829,7 +29856,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="72"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
       <c r="D24" s="52"/>
@@ -29844,7 +29871,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="72"/>
+      <c r="A25" s="73"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
       <c r="D25" s="52"/>
@@ -29853,7 +29880,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="72"/>
+      <c r="A26" s="73"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
       <c r="D26" s="52"/>
@@ -29865,7 +29892,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="72"/>
+      <c r="A27" s="73"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
       <c r="D27" s="52"/>
@@ -29876,7 +29903,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="72"/>
+      <c r="A28" s="73"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="52"/>
@@ -29887,7 +29914,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="72"/>
+      <c r="A29" s="73"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="52"/>
@@ -29898,7 +29925,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="72"/>
+      <c r="A30" s="73"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -29909,7 +29936,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="72"/>
+      <c r="A31" s="73"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -29920,7 +29947,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="72" t="s">
+      <c r="A32" s="73" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -29941,7 +29968,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="72"/>
+      <c r="A33" s="73"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
       <c r="D33" s="52"/>
@@ -29959,7 +29986,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="72"/>
+      <c r="A34" s="73"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
       <c r="D34" s="52"/>
@@ -29977,7 +30004,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="72"/>
+      <c r="A35" s="73"/>
       <c r="B35" s="51" t="s">
         <v>513</v>
       </c>
@@ -30003,7 +30030,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="72"/>
+      <c r="A36" s="73"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
       <c r="D36" s="52"/>
@@ -30021,7 +30048,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="72"/>
+      <c r="A37" s="73"/>
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
       <c r="D37" s="52"/>
@@ -30039,7 +30066,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="72"/>
+      <c r="A38" s="73"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
       <c r="D38" s="52"/>
@@ -30057,7 +30084,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="72"/>
+      <c r="A39" s="73"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
       <c r="D39" s="52"/>
@@ -30075,7 +30102,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="72"/>
+      <c r="A40" s="73"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
       <c r="D40" s="52"/>
@@ -30087,7 +30114,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="72"/>
+      <c r="A41" s="73"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
       <c r="D41" s="52"/>
@@ -30099,7 +30126,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="72"/>
+      <c r="A42" s="73"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
       <c r="D42" s="52"/>
@@ -30110,7 +30137,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="72"/>
+      <c r="A43" s="73"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
       <c r="D43" s="52"/>
@@ -30121,7 +30148,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="72"/>
+      <c r="A44" s="73"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
       <c r="D44" s="52"/>
@@ -30132,7 +30159,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="72"/>
+      <c r="A45" s="73"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -30392,7 +30419,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="76" t="s">
+      <c r="A62" s="72" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51"/>
@@ -30411,7 +30438,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="72"/>
+      <c r="A63" s="73"/>
       <c r="B63" s="51"/>
       <c r="C63" s="51"/>
       <c r="D63" s="52"/>
@@ -30428,7 +30455,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="72"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="51"/>
       <c r="C64" s="51"/>
       <c r="D64" s="52"/>
@@ -30446,7 +30473,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="72"/>
+      <c r="A65" s="73"/>
       <c r="B65" s="51"/>
       <c r="C65" s="51"/>
       <c r="D65" s="52"/>
@@ -30464,7 +30491,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="72"/>
+      <c r="A66" s="73"/>
       <c r="B66" s="51"/>
       <c r="C66" s="51"/>
       <c r="D66" s="52"/>
@@ -30482,7 +30509,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="72"/>
+      <c r="A67" s="73"/>
       <c r="B67" s="51"/>
       <c r="C67" s="51"/>
       <c r="D67" s="52"/>
@@ -30500,7 +30527,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="72"/>
+      <c r="A68" s="73"/>
       <c r="B68" s="56" t="s">
         <v>520</v>
       </c>
@@ -30520,7 +30547,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="72"/>
+      <c r="A69" s="73"/>
       <c r="B69" s="51"/>
       <c r="C69" s="51"/>
       <c r="D69" s="52"/>
@@ -30538,7 +30565,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="72"/>
+      <c r="A70" s="73"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51"/>
       <c r="D70" s="52"/>
@@ -30550,7 +30577,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="72"/>
+      <c r="A71" s="73"/>
       <c r="B71" s="51"/>
       <c r="C71" s="51"/>
       <c r="D71" s="52"/>
@@ -30562,7 +30589,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="72"/>
+      <c r="A72" s="73"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -30573,7 +30600,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="72"/>
+      <c r="A73" s="73"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -30584,7 +30611,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="72"/>
+      <c r="A74" s="73"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -30595,7 +30622,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="72"/>
+      <c r="A75" s="73"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -30606,7 +30633,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="72"/>
+      <c r="A76" s="73"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -30617,7 +30644,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="72" t="s">
+      <c r="A77" s="73" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -30644,7 +30671,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="72"/>
+      <c r="A78" s="73"/>
       <c r="B78" s="56" t="s">
         <v>522</v>
       </c>
@@ -30670,7 +30697,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="72"/>
+      <c r="A79" s="73"/>
       <c r="B79" s="51" t="s">
         <v>523</v>
       </c>
@@ -30696,7 +30723,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="72"/>
+      <c r="A80" s="73"/>
       <c r="B80" s="51" t="s">
         <v>524</v>
       </c>
@@ -30722,7 +30749,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="72"/>
+      <c r="A81" s="73"/>
       <c r="B81" s="51" t="s">
         <v>525</v>
       </c>
@@ -30748,7 +30775,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="72"/>
+      <c r="A82" s="73"/>
       <c r="B82" s="51" t="s">
         <v>329</v>
       </c>
@@ -30774,7 +30801,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="72"/>
+      <c r="A83" s="73"/>
       <c r="B83" s="56" t="s">
         <v>526</v>
       </c>
@@ -30800,7 +30827,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="72"/>
+      <c r="A84" s="73"/>
       <c r="B84" s="51"/>
       <c r="C84" s="51"/>
       <c r="D84" s="52"/>
@@ -30818,7 +30845,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="72"/>
+      <c r="A85" s="73"/>
       <c r="B85" s="51"/>
       <c r="C85" s="51"/>
       <c r="D85" s="52"/>
@@ -30830,7 +30857,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="72"/>
+      <c r="A86" s="73"/>
       <c r="B86" s="51"/>
       <c r="C86" s="51"/>
       <c r="D86" s="52"/>
@@ -30842,7 +30869,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="72"/>
+      <c r="A87" s="73"/>
       <c r="B87" s="51"/>
       <c r="C87" s="51"/>
       <c r="D87" s="52"/>
@@ -30853,7 +30880,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="72"/>
+      <c r="A88" s="73"/>
       <c r="B88" s="51"/>
       <c r="C88" s="51"/>
       <c r="D88" s="52"/>
@@ -30864,7 +30891,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="72"/>
+      <c r="A89" s="73"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="52"/>
@@ -30875,7 +30902,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="72"/>
+      <c r="A90" s="73"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -30886,7 +30913,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="73"/>
+      <c r="A91" s="76"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -30897,7 +30924,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="76" t="s">
+      <c r="A92" s="72" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51"/>
@@ -30922,7 +30949,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="72"/>
+      <c r="A93" s="73"/>
       <c r="B93" s="51"/>
       <c r="C93" s="51" t="s">
         <v>288</v>
@@ -30946,7 +30973,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="72"/>
+      <c r="A94" s="73"/>
       <c r="B94" s="56"/>
       <c r="C94" s="51" t="s">
         <v>288</v>
@@ -30970,7 +30997,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="72"/>
+      <c r="A95" s="73"/>
       <c r="B95" s="51"/>
       <c r="C95" s="51" t="s">
         <v>293</v>
@@ -30994,7 +31021,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="72"/>
+      <c r="A96" s="73"/>
       <c r="B96" s="51"/>
       <c r="C96" s="51" t="s">
         <v>295</v>
@@ -31018,7 +31045,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="72"/>
+      <c r="A97" s="73"/>
       <c r="B97" s="51"/>
       <c r="C97" s="51" t="s">
         <v>288</v>
@@ -31042,7 +31069,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="72"/>
+      <c r="A98" s="73"/>
       <c r="B98" s="51"/>
       <c r="C98" s="51" t="s">
         <v>285</v>
@@ -31066,7 +31093,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="72"/>
+      <c r="A99" s="73"/>
       <c r="B99" s="51" t="s">
         <v>388</v>
       </c>
@@ -31092,7 +31119,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="72"/>
+      <c r="A100" s="73"/>
       <c r="B100" s="51"/>
       <c r="C100" s="51" t="s">
         <v>288</v>
@@ -31110,7 +31137,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="72"/>
+      <c r="A101" s="73"/>
       <c r="B101" s="51"/>
       <c r="C101" s="51" t="s">
         <v>295</v>
@@ -31128,7 +31155,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="72"/>
+      <c r="A102" s="73"/>
       <c r="B102" s="51"/>
       <c r="C102" s="51" t="s">
         <v>288</v>
@@ -31145,7 +31172,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="72"/>
+      <c r="A103" s="73"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51" t="s">
         <v>296</v>
@@ -31162,7 +31189,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="72"/>
+      <c r="A104" s="73"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51" t="s">
         <v>295</v>
@@ -31179,7 +31206,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="72"/>
+      <c r="A105" s="73"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51" t="s">
         <v>288</v>
@@ -31439,7 +31466,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="76" t="s">
+      <c r="A122" s="72" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51" t="s">
@@ -31466,7 +31493,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="72"/>
+      <c r="A123" s="73"/>
       <c r="B123" s="51" t="s">
         <v>529</v>
       </c>
@@ -31492,7 +31519,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="72"/>
+      <c r="A124" s="73"/>
       <c r="B124" s="51" t="s">
         <v>530</v>
       </c>
@@ -31518,7 +31545,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="72"/>
+      <c r="A125" s="73"/>
       <c r="B125" s="51" t="s">
         <v>313</v>
       </c>
@@ -31544,7 +31571,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="72"/>
+      <c r="A126" s="73"/>
       <c r="B126" s="58" t="s">
         <v>531</v>
       </c>
@@ -31666,7 +31693,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="72"/>
+      <c r="A131" s="73"/>
       <c r="B131" s="59"/>
       <c r="C131" s="51"/>
       <c r="D131" s="52"/>
@@ -31675,7 +31702,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="72"/>
+      <c r="A132" s="73"/>
       <c r="B132" s="51"/>
       <c r="C132" s="51"/>
       <c r="D132" s="52"/>
@@ -31683,7 +31710,7 @@
       <c r="F132" s="52"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="72"/>
+      <c r="A133" s="73"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
@@ -31691,7 +31718,7 @@
       <c r="F133" s="52"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="72"/>
+      <c r="A134" s="73"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -31699,7 +31726,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="72"/>
+      <c r="A135" s="73"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -32127,7 +32154,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -32157,7 +32184,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="72"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="51" t="s">
         <v>545</v>
       </c>
@@ -32186,7 +32213,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="72"/>
+      <c r="A4" s="73"/>
       <c r="B4" s="51" t="s">
         <v>546</v>
       </c>
@@ -32215,7 +32242,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="72"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="51" t="s">
         <v>547</v>
       </c>
@@ -32244,7 +32271,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="72"/>
+      <c r="A6" s="73"/>
       <c r="B6" s="51" t="s">
         <v>342</v>
       </c>
@@ -32273,7 +32300,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="72"/>
+      <c r="A7" s="73"/>
       <c r="C7" s="51" t="s">
         <v>288</v>
       </c>
@@ -32295,7 +32322,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="72"/>
+      <c r="A8" s="73"/>
       <c r="B8" s="51" t="s">
         <v>465</v>
       </c>
@@ -32321,7 +32348,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="72"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="51"/>
       <c r="C9" s="51" t="s">
         <v>288</v>
@@ -32341,7 +32368,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="72"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="51" t="s">
         <v>548</v>
       </c>
@@ -32361,7 +32388,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="72"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="51"/>
       <c r="C11" s="51" t="s">
         <v>288</v>
@@ -32375,7 +32402,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="72"/>
+      <c r="A12" s="73"/>
       <c r="B12" s="51"/>
       <c r="C12" s="51" t="s">
         <v>296</v>
@@ -32388,7 +32415,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="72"/>
+      <c r="A13" s="73"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51" t="s">
         <v>295</v>
@@ -32401,7 +32428,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="72"/>
+      <c r="A14" s="73"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51" t="s">
         <v>288</v>
@@ -32414,7 +32441,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="72"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51" t="s">
         <v>293</v>
@@ -32427,7 +32454,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="72"/>
+      <c r="A16" s="73"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51" t="s">
         <v>290</v>
@@ -32440,7 +32467,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="73" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -32467,7 +32494,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="72"/>
+      <c r="A18" s="73"/>
       <c r="B18" s="51" t="s">
         <v>549</v>
       </c>
@@ -32493,7 +32520,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="72"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="51" t="s">
         <v>329</v>
       </c>
@@ -32519,7 +32546,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="72"/>
+      <c r="A20" s="73"/>
       <c r="B20" s="51" t="s">
         <v>550</v>
       </c>
@@ -32545,7 +32572,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="72"/>
+      <c r="A21" s="73"/>
       <c r="B21" s="51" t="s">
         <v>550</v>
       </c>
@@ -32571,7 +32598,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="72"/>
+      <c r="A22" s="73"/>
       <c r="B22" s="58" t="s">
         <v>551</v>
       </c>
@@ -32615,7 +32642,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="72"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="59"/>
       <c r="C24" s="59"/>
       <c r="D24" s="63"/>
@@ -32633,7 +32660,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="72"/>
+      <c r="A25" s="73"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
       <c r="D25" s="52"/>
@@ -32645,7 +32672,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="72"/>
+      <c r="A26" s="73"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
       <c r="D26" s="52"/>
@@ -32657,7 +32684,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="72"/>
+      <c r="A27" s="73"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
       <c r="D27" s="52"/>
@@ -32668,7 +32695,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="72"/>
+      <c r="A28" s="73"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="52"/>
@@ -32679,7 +32706,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="72"/>
+      <c r="A29" s="73"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="52"/>
@@ -32690,7 +32717,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="72"/>
+      <c r="A30" s="73"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -32701,7 +32728,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="72"/>
+      <c r="A31" s="73"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -32712,7 +32739,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="72" t="s">
+      <c r="A32" s="73" t="s">
         <v>263</v>
       </c>
       <c r="C32" s="51"/>
@@ -32730,7 +32757,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="72"/>
+      <c r="A33" s="73"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
       <c r="D33" s="52"/>
@@ -32748,7 +32775,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="72"/>
+      <c r="A34" s="73"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
       <c r="D34" s="52"/>
@@ -32766,7 +32793,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="72"/>
+      <c r="A35" s="73"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
       <c r="D35" s="52"/>
@@ -32784,7 +32811,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="72"/>
+      <c r="A36" s="73"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
       <c r="D36" s="52"/>
@@ -32802,7 +32829,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="72"/>
+      <c r="A37" s="73"/>
       <c r="B37" s="51" t="s">
         <v>73</v>
       </c>
@@ -32822,7 +32849,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="72"/>
+      <c r="A38" s="73"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
       <c r="D38" s="52"/>
@@ -32840,7 +32867,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="72"/>
+      <c r="A39" s="73"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
       <c r="D39" s="52"/>
@@ -32858,7 +32885,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="72"/>
+      <c r="A40" s="73"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
       <c r="D40" s="52"/>
@@ -32870,7 +32897,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="72"/>
+      <c r="A41" s="73"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
       <c r="D41" s="52"/>
@@ -32882,7 +32909,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="72"/>
+      <c r="A42" s="73"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
       <c r="D42" s="52"/>
@@ -32893,7 +32920,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="72"/>
+      <c r="A43" s="73"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
       <c r="D43" s="52"/>
@@ -32904,7 +32931,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="72"/>
+      <c r="A44" s="73"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
       <c r="D44" s="52"/>
@@ -32915,7 +32942,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="72"/>
+      <c r="A45" s="73"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -33234,7 +33261,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="76" t="s">
+      <c r="A62" s="72" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -33261,7 +33288,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="72"/>
+      <c r="A63" s="73"/>
       <c r="B63" s="51" t="s">
         <v>575</v>
       </c>
@@ -33287,7 +33314,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="72"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="51" t="s">
         <v>576</v>
       </c>
@@ -33313,7 +33340,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="72"/>
+      <c r="A65" s="73"/>
       <c r="B65" s="51" t="s">
         <v>309</v>
       </c>
@@ -33339,7 +33366,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="72"/>
+      <c r="A66" s="73"/>
       <c r="B66" s="51" t="s">
         <v>551</v>
       </c>
@@ -33365,7 +33392,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="72"/>
+      <c r="A67" s="73"/>
       <c r="B67" s="51" t="s">
         <v>577</v>
       </c>
@@ -33391,7 +33418,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="72"/>
+      <c r="A68" s="73"/>
       <c r="B68" s="56"/>
       <c r="C68" s="51"/>
       <c r="D68" s="52"/>
@@ -33409,7 +33436,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="72"/>
+      <c r="A69" s="73"/>
       <c r="B69" s="51"/>
       <c r="C69" s="51"/>
       <c r="D69" s="52"/>
@@ -33427,7 +33454,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="72"/>
+      <c r="A70" s="73"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51"/>
       <c r="D70" s="52"/>
@@ -33439,7 +33466,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="72"/>
+      <c r="A71" s="73"/>
       <c r="B71" s="51"/>
       <c r="C71" s="51"/>
       <c r="D71" s="52"/>
@@ -33451,7 +33478,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="72"/>
+      <c r="A72" s="73"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -33462,7 +33489,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="72"/>
+      <c r="A73" s="73"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -33473,7 +33500,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="72"/>
+      <c r="A74" s="73"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -33484,7 +33511,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="72"/>
+      <c r="A75" s="73"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -33495,7 +33522,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="72"/>
+      <c r="A76" s="73"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -33506,7 +33533,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="72" t="s">
+      <c r="A77" s="73" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -33533,7 +33560,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="72"/>
+      <c r="A78" s="73"/>
       <c r="B78" s="51" t="s">
         <v>579</v>
       </c>
@@ -33559,7 +33586,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="72"/>
+      <c r="A79" s="73"/>
       <c r="B79" s="51" t="s">
         <v>580</v>
       </c>
@@ -33585,7 +33612,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="72"/>
+      <c r="A80" s="73"/>
       <c r="B80" s="51" t="s">
         <v>581</v>
       </c>
@@ -33611,7 +33638,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="72"/>
+      <c r="A81" s="73"/>
       <c r="B81" s="51" t="s">
         <v>582</v>
       </c>
@@ -33637,7 +33664,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="72"/>
+      <c r="A82" s="73"/>
       <c r="B82" s="51" t="s">
         <v>583</v>
       </c>
@@ -33663,7 +33690,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="72"/>
+      <c r="A83" s="73"/>
       <c r="B83" s="51" t="s">
         <v>584</v>
       </c>
@@ -33689,7 +33716,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="72"/>
+      <c r="A84" s="73"/>
       <c r="B84" s="51" t="s">
         <v>585</v>
       </c>
@@ -33715,7 +33742,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="72"/>
+      <c r="A85" s="73"/>
       <c r="B85" s="51" t="s">
         <v>586</v>
       </c>
@@ -33735,7 +33762,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="72"/>
+      <c r="A86" s="73"/>
       <c r="B86" s="51" t="s">
         <v>551</v>
       </c>
@@ -33755,7 +33782,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="72"/>
+      <c r="A87" s="73"/>
       <c r="B87" s="51" t="s">
         <v>587</v>
       </c>
@@ -33774,7 +33801,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="72"/>
+      <c r="A88" s="73"/>
       <c r="B88" s="51" t="s">
         <v>588</v>
       </c>
@@ -33793,7 +33820,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="72"/>
+      <c r="A89" s="73"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="52"/>
@@ -33804,7 +33831,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="72"/>
+      <c r="A90" s="73"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -33815,7 +33842,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="73"/>
+      <c r="A91" s="76"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -33826,7 +33853,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="76" t="s">
+      <c r="A92" s="72" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -33853,7 +33880,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="72"/>
+      <c r="A93" s="73"/>
       <c r="B93" s="51" t="s">
         <v>589</v>
       </c>
@@ -33879,7 +33906,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="72"/>
+      <c r="A94" s="73"/>
       <c r="B94" s="56" t="s">
         <v>590</v>
       </c>
@@ -33905,7 +33932,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="72"/>
+      <c r="A95" s="73"/>
       <c r="B95" s="51" t="s">
         <v>591</v>
       </c>
@@ -33931,7 +33958,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="72"/>
+      <c r="A96" s="73"/>
       <c r="B96" s="51" t="s">
         <v>465</v>
       </c>
@@ -33957,7 +33984,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="72"/>
+      <c r="A97" s="73"/>
       <c r="B97" s="51" t="s">
         <v>592</v>
       </c>
@@ -33983,7 +34010,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="72"/>
+      <c r="A98" s="73"/>
       <c r="B98" s="51" t="s">
         <v>593</v>
       </c>
@@ -34009,7 +34036,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="72"/>
+      <c r="A99" s="73"/>
       <c r="B99" s="51" t="s">
         <v>309</v>
       </c>
@@ -34035,7 +34062,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="72"/>
+      <c r="A100" s="73"/>
       <c r="B100" s="51" t="s">
         <v>594</v>
       </c>
@@ -34055,7 +34082,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="72"/>
+      <c r="A101" s="73"/>
       <c r="B101" s="51" t="s">
         <v>595</v>
       </c>
@@ -34075,7 +34102,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="72"/>
+      <c r="A102" s="73"/>
       <c r="B102" s="51"/>
       <c r="C102" s="51" t="s">
         <v>288</v>
@@ -34092,7 +34119,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="72"/>
+      <c r="A103" s="73"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51" t="s">
         <v>296</v>
@@ -34109,7 +34136,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="72"/>
+      <c r="A104" s="73"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51" t="s">
         <v>295</v>
@@ -34126,7 +34153,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="72"/>
+      <c r="A105" s="73"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51" t="s">
         <v>288</v>
@@ -34384,7 +34411,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="76" t="s">
+      <c r="A122" s="72" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51"/>
@@ -34403,7 +34430,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="72"/>
+      <c r="A123" s="73"/>
       <c r="B123" s="51"/>
       <c r="C123" s="51"/>
       <c r="D123" s="52"/>
@@ -34421,7 +34448,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="72"/>
+      <c r="A124" s="73"/>
       <c r="B124" s="51"/>
       <c r="C124" s="51"/>
       <c r="D124" s="52"/>
@@ -34439,7 +34466,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="72"/>
+      <c r="A125" s="73"/>
       <c r="B125" s="51"/>
       <c r="C125" s="51"/>
       <c r="D125" s="52"/>
@@ -34457,7 +34484,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="72"/>
+      <c r="A126" s="73"/>
       <c r="B126" s="58"/>
       <c r="C126" s="51"/>
       <c r="D126" s="52"/>
@@ -34537,7 +34564,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="72"/>
+      <c r="A131" s="73"/>
       <c r="B131" s="59"/>
       <c r="C131" s="51"/>
       <c r="D131" s="52"/>
@@ -34546,7 +34573,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="72"/>
+      <c r="A132" s="73"/>
       <c r="B132" s="51"/>
       <c r="C132" s="51"/>
       <c r="D132" s="52"/>
@@ -34554,7 +34581,7 @@
       <c r="F132" s="52"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="72"/>
+      <c r="A133" s="73"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
@@ -34562,7 +34589,7 @@
       <c r="F133" s="52"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="72"/>
+      <c r="A134" s="73"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -34570,7 +34597,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="72"/>
+      <c r="A135" s="73"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -35004,7 +35031,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -35034,7 +35061,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="72"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="51" t="s">
         <v>604</v>
       </c>
@@ -35063,7 +35090,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="72"/>
+      <c r="A4" s="73"/>
       <c r="B4" s="51" t="s">
         <v>605</v>
       </c>
@@ -35092,7 +35119,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="72"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="51" t="s">
         <v>309</v>
       </c>
@@ -35121,7 +35148,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="72"/>
+      <c r="A6" s="73"/>
       <c r="B6" s="51" t="s">
         <v>606</v>
       </c>
@@ -35150,7 +35177,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="72"/>
+      <c r="A7" s="73"/>
       <c r="B7" t="s">
         <v>607</v>
       </c>
@@ -35179,7 +35206,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="72"/>
+      <c r="A8" s="73"/>
       <c r="B8" s="51" t="s">
         <v>608</v>
       </c>
@@ -35205,7 +35232,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="72"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="51" t="s">
         <v>329</v>
       </c>
@@ -35231,7 +35258,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="72"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="51" t="s">
         <v>608</v>
       </c>
@@ -35251,7 +35278,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="72"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="51" t="s">
         <v>609</v>
       </c>
@@ -35271,7 +35298,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="72"/>
+      <c r="A12" s="73"/>
       <c r="B12" s="51" t="s">
         <v>610</v>
       </c>
@@ -35290,7 +35317,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="72"/>
+      <c r="A13" s="73"/>
       <c r="B13" s="51" t="s">
         <v>309</v>
       </c>
@@ -35309,7 +35336,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="72"/>
+      <c r="A14" s="73"/>
       <c r="B14" s="51" t="s">
         <v>611</v>
       </c>
@@ -35328,7 +35355,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="72"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="51" t="s">
         <v>612</v>
       </c>
@@ -35347,7 +35374,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="72"/>
+      <c r="A16" s="73"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51" t="s">
         <v>290</v>
@@ -35360,7 +35387,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="73" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -35387,7 +35414,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="72"/>
+      <c r="A18" s="73"/>
       <c r="B18" s="51" t="s">
         <v>614</v>
       </c>
@@ -35413,7 +35440,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="72"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="51" t="s">
         <v>309</v>
       </c>
@@ -35439,7 +35466,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="72"/>
+      <c r="A20" s="73"/>
       <c r="B20" s="51" t="s">
         <v>615</v>
       </c>
@@ -35465,7 +35492,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="72"/>
+      <c r="A21" s="73"/>
       <c r="B21" s="51" t="s">
         <v>616</v>
       </c>
@@ -35491,7 +35518,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="72"/>
+      <c r="A22" s="73"/>
       <c r="B22" s="51" t="s">
         <v>329</v>
       </c>
@@ -35517,7 +35544,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="72"/>
+      <c r="A23" s="73"/>
       <c r="B23" s="51" t="s">
         <v>617</v>
       </c>
@@ -35543,7 +35570,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="72"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="51" t="s">
         <v>618</v>
       </c>
@@ -35569,7 +35596,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="72"/>
+      <c r="A25" s="73"/>
       <c r="B25" s="51" t="s">
         <v>309</v>
       </c>
@@ -35589,7 +35616,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="72"/>
+      <c r="A26" s="73"/>
       <c r="B26" s="51" t="s">
         <v>617</v>
       </c>
@@ -35609,7 +35636,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="72"/>
+      <c r="A27" s="73"/>
       <c r="B27" s="51" t="s">
         <v>619</v>
       </c>
@@ -35628,7 +35655,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="72"/>
+      <c r="A28" s="73"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="52"/>
@@ -35639,7 +35666,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="72"/>
+      <c r="A29" s="73"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="52"/>
@@ -35650,7 +35677,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="72"/>
+      <c r="A30" s="73"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -35661,7 +35688,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="72"/>
+      <c r="A31" s="73"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -35672,7 +35699,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="72" t="s">
+      <c r="A32" s="73" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -35699,7 +35726,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="72"/>
+      <c r="A33" s="73"/>
       <c r="B33" s="51" t="s">
         <v>620</v>
       </c>
@@ -35725,7 +35752,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="72"/>
+      <c r="A34" s="73"/>
       <c r="B34" s="51" t="s">
         <v>621</v>
       </c>
@@ -35751,7 +35778,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="72"/>
+      <c r="A35" s="73"/>
       <c r="B35" s="51" t="s">
         <v>622</v>
       </c>
@@ -35777,7 +35804,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="72"/>
+      <c r="A36" s="73"/>
       <c r="B36" s="51" t="s">
         <v>623</v>
       </c>
@@ -35803,7 +35830,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="72"/>
+      <c r="A37" s="73"/>
       <c r="B37" s="51" t="s">
         <v>607</v>
       </c>
@@ -35829,7 +35856,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="72"/>
+      <c r="A38" s="73"/>
       <c r="B38" s="51" t="s">
         <v>624</v>
       </c>
@@ -35855,7 +35882,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="72"/>
+      <c r="A39" s="73"/>
       <c r="B39" s="51" t="s">
         <v>329</v>
       </c>
@@ -35881,7 +35908,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="72"/>
+      <c r="A40" s="73"/>
       <c r="B40" s="51" t="s">
         <v>625</v>
       </c>
@@ -35901,7 +35928,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="72"/>
+      <c r="A41" s="73"/>
       <c r="B41" s="51" t="s">
         <v>626</v>
       </c>
@@ -35921,7 +35948,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="72"/>
+      <c r="A42" s="73"/>
       <c r="B42" s="51" t="s">
         <v>309</v>
       </c>
@@ -35940,7 +35967,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="72"/>
+      <c r="A43" s="73"/>
       <c r="B43" s="51" t="s">
         <v>627</v>
       </c>
@@ -35959,7 +35986,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="72"/>
+      <c r="A44" s="73"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
       <c r="D44" s="52"/>
@@ -35970,7 +35997,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="72"/>
+      <c r="A45" s="73"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -36240,7 +36267,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="76" t="s">
+      <c r="A62" s="72" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -36267,7 +36294,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="72"/>
+      <c r="A63" s="73"/>
       <c r="B63" s="51" t="s">
         <v>635</v>
       </c>
@@ -36292,7 +36319,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="72"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="51" t="s">
         <v>636</v>
       </c>
@@ -36318,7 +36345,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="72"/>
+      <c r="A65" s="73"/>
       <c r="B65" s="51" t="s">
         <v>637</v>
       </c>
@@ -36344,7 +36371,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="72"/>
+      <c r="A66" s="73"/>
       <c r="B66" s="51" t="s">
         <v>638</v>
       </c>
@@ -36370,7 +36397,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="72"/>
+      <c r="A67" s="73"/>
       <c r="B67" s="51" t="s">
         <v>599</v>
       </c>
@@ -36396,7 +36423,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="72"/>
+      <c r="A68" s="73"/>
       <c r="B68" s="56" t="s">
         <v>639</v>
       </c>
@@ -36422,7 +36449,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="72"/>
+      <c r="A69" s="73"/>
       <c r="B69" s="51" t="s">
         <v>342</v>
       </c>
@@ -36448,7 +36475,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="72"/>
+      <c r="A70" s="73"/>
       <c r="B70" s="51" t="s">
         <v>640</v>
       </c>
@@ -36468,7 +36495,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="72"/>
+      <c r="A71" s="73"/>
       <c r="B71" s="51" t="s">
         <v>641</v>
       </c>
@@ -36488,7 +36515,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="72"/>
+      <c r="A72" s="73"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -36499,7 +36526,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="72"/>
+      <c r="A73" s="73"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -36510,7 +36537,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="72"/>
+      <c r="A74" s="73"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -36521,7 +36548,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="72"/>
+      <c r="A75" s="73"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -36532,7 +36559,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="72"/>
+      <c r="A76" s="73"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -36543,7 +36570,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="72" t="s">
+      <c r="A77" s="73" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -36570,7 +36597,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="72"/>
+      <c r="A78" s="73"/>
       <c r="B78" s="51" t="s">
         <v>643</v>
       </c>
@@ -36596,7 +36623,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="72"/>
+      <c r="A79" s="73"/>
       <c r="B79" s="51" t="s">
         <v>309</v>
       </c>
@@ -36622,7 +36649,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="72"/>
+      <c r="A80" s="73"/>
       <c r="B80" s="51" t="s">
         <v>644</v>
       </c>
@@ -36648,7 +36675,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="72"/>
+      <c r="A81" s="73"/>
       <c r="B81" s="51" t="s">
         <v>645</v>
       </c>
@@ -36674,7 +36701,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="72"/>
+      <c r="A82" s="73"/>
       <c r="B82" s="51" t="s">
         <v>646</v>
       </c>
@@ -36700,7 +36727,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="72"/>
+      <c r="A83" s="73"/>
       <c r="B83" s="51" t="s">
         <v>647</v>
       </c>
@@ -36726,7 +36753,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="72"/>
+      <c r="A84" s="73"/>
       <c r="B84" s="51" t="s">
         <v>580</v>
       </c>
@@ -36752,7 +36779,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="72"/>
+      <c r="A85" s="73"/>
       <c r="B85" s="51" t="s">
         <v>648</v>
       </c>
@@ -36772,7 +36799,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="72"/>
+      <c r="A86" s="73"/>
       <c r="B86" s="51" t="s">
         <v>649</v>
       </c>
@@ -36792,7 +36819,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="72"/>
+      <c r="A87" s="73"/>
       <c r="B87" s="51" t="s">
         <v>650</v>
       </c>
@@ -36812,7 +36839,7 @@
       <c r="I87" s="54"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="72"/>
+      <c r="A88" s="73"/>
       <c r="B88" s="51"/>
       <c r="C88" s="51"/>
       <c r="D88" s="52"/>
@@ -36823,7 +36850,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="72"/>
+      <c r="A89" s="73"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="52"/>
@@ -36834,7 +36861,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="72"/>
+      <c r="A90" s="73"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -36845,7 +36872,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="72"/>
+      <c r="A91" s="73"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -36856,7 +36883,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="73"/>
+      <c r="A92" s="76"/>
       <c r="B92" s="51"/>
       <c r="C92" s="51"/>
       <c r="D92" s="52"/>
@@ -36867,7 +36894,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="76" t="s">
+      <c r="A93" s="72" t="s">
         <v>54</v>
       </c>
       <c r="B93" s="51" t="s">
@@ -36894,7 +36921,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="72"/>
+      <c r="A94" s="73"/>
       <c r="B94" s="51" t="s">
         <v>651</v>
       </c>
@@ -36920,7 +36947,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="72"/>
+      <c r="A95" s="73"/>
       <c r="B95" s="56" t="s">
         <v>586</v>
       </c>
@@ -36946,7 +36973,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="72"/>
+      <c r="A96" s="73"/>
       <c r="B96" s="51" t="s">
         <v>652</v>
       </c>
@@ -36972,7 +36999,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="72"/>
+      <c r="A97" s="73"/>
       <c r="B97" s="51" t="s">
         <v>653</v>
       </c>
@@ -36998,7 +37025,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="72"/>
+      <c r="A98" s="73"/>
       <c r="B98" s="51" t="s">
         <v>654</v>
       </c>
@@ -37024,7 +37051,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="72"/>
+      <c r="A99" s="73"/>
       <c r="B99" s="51" t="s">
         <v>342</v>
       </c>
@@ -37050,7 +37077,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="72"/>
+      <c r="A100" s="73"/>
       <c r="B100" s="51" t="s">
         <v>655</v>
       </c>
@@ -37076,7 +37103,7 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="72"/>
+      <c r="A101" s="73"/>
       <c r="B101" s="51"/>
       <c r="C101" s="51" t="s">
         <v>288</v>
@@ -37094,7 +37121,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="72"/>
+      <c r="A102" s="73"/>
       <c r="B102" s="51"/>
       <c r="C102" s="51" t="s">
         <v>295</v>
@@ -37112,7 +37139,7 @@
       <c r="I102" s="54"/>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="72"/>
+      <c r="A103" s="73"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51" t="s">
         <v>288</v>
@@ -37129,7 +37156,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="72"/>
+      <c r="A104" s="73"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51" t="s">
         <v>296</v>
@@ -37146,7 +37173,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="72"/>
+      <c r="A105" s="73"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51" t="s">
         <v>295</v>
@@ -37163,7 +37190,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="72"/>
+      <c r="A106" s="73"/>
       <c r="B106" s="51"/>
       <c r="C106" s="51" t="s">
         <v>288</v>
@@ -37525,7 +37552,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="76" t="s">
+      <c r="A123" s="72" t="s">
         <v>273</v>
       </c>
       <c r="B123" s="51" t="s">
@@ -37552,7 +37579,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="72"/>
+      <c r="A124" s="73"/>
       <c r="B124" s="51" t="s">
         <v>665</v>
       </c>
@@ -37578,7 +37605,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="72"/>
+      <c r="A125" s="73"/>
       <c r="B125" s="51" t="s">
         <v>342</v>
       </c>
@@ -37604,7 +37631,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="72"/>
+      <c r="A126" s="73"/>
       <c r="B126" s="51" t="s">
         <v>666</v>
       </c>
@@ -37630,7 +37657,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="72"/>
+      <c r="A127" s="73"/>
       <c r="B127" s="58" t="s">
         <v>645</v>
       </c>
@@ -37752,7 +37779,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="72"/>
+      <c r="A132" s="73"/>
       <c r="B132" s="59" t="s">
         <v>669</v>
       </c>
@@ -37771,7 +37798,7 @@
       <c r="I132" s="54"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="72"/>
+      <c r="A133" s="73"/>
       <c r="B133" s="51" t="s">
         <v>670</v>
       </c>
@@ -37789,7 +37816,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="72"/>
+      <c r="A134" s="73"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -37797,7 +37824,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="72"/>
+      <c r="A135" s="73"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -37805,7 +37832,7 @@
       <c r="F135" s="52"/>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="72"/>
+      <c r="A136" s="73"/>
       <c r="B136" s="51"/>
       <c r="C136" s="51"/>
       <c r="D136" s="52"/>
@@ -38589,7 +38616,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="73" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="59" t="s">
@@ -38616,7 +38643,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="72"/>
+      <c r="A18" s="73"/>
       <c r="B18" s="51" t="s">
         <v>689</v>
       </c>
@@ -38642,7 +38669,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="72"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="51" t="s">
         <v>690</v>
       </c>
@@ -38668,7 +38695,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="72"/>
+      <c r="A20" s="73"/>
       <c r="B20" s="51" t="s">
         <v>691</v>
       </c>
@@ -38694,7 +38721,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="72"/>
+      <c r="A21" s="73"/>
       <c r="B21" s="51" t="s">
         <v>309</v>
       </c>
@@ -38720,7 +38747,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="72"/>
+      <c r="A22" s="73"/>
       <c r="B22" s="51" t="s">
         <v>692</v>
       </c>
@@ -38746,7 +38773,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="72"/>
+      <c r="A23" s="73"/>
       <c r="B23" s="51" t="s">
         <v>329</v>
       </c>
@@ -38772,7 +38799,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="72"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="51" t="s">
         <v>693</v>
       </c>
@@ -38798,7 +38825,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="72"/>
+      <c r="A25" s="73"/>
       <c r="B25" s="51" t="s">
         <v>694</v>
       </c>
@@ -38818,7 +38845,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="72"/>
+      <c r="A26" s="73"/>
       <c r="B26" s="51" t="s">
         <v>695</v>
       </c>
@@ -38838,7 +38865,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="72"/>
+      <c r="A27" s="73"/>
       <c r="B27" s="51" t="s">
         <v>296</v>
       </c>
@@ -38857,7 +38884,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="72"/>
+      <c r="A28" s="73"/>
       <c r="B28" s="51" t="s">
         <v>696</v>
       </c>
@@ -38876,7 +38903,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="72"/>
+      <c r="A29" s="73"/>
       <c r="B29" s="51" t="s">
         <v>309</v>
       </c>
@@ -38895,7 +38922,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="72"/>
+      <c r="A30" s="73"/>
       <c r="B30" s="51" t="s">
         <v>697</v>
       </c>
@@ -38914,7 +38941,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="72"/>
+      <c r="A31" s="73"/>
       <c r="B31" s="51" t="s">
         <v>698</v>
       </c>
@@ -38933,7 +38960,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="72" t="s">
+      <c r="A32" s="73" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -38960,7 +38987,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="72"/>
+      <c r="A33" s="73"/>
       <c r="B33" s="51" t="s">
         <v>699</v>
       </c>
@@ -38986,7 +39013,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="72"/>
+      <c r="A34" s="73"/>
       <c r="B34" s="51" t="s">
         <v>309</v>
       </c>
@@ -39012,7 +39039,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="72"/>
+      <c r="A35" s="73"/>
       <c r="B35" s="51" t="s">
         <v>700</v>
       </c>
@@ -39038,7 +39065,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="72"/>
+      <c r="A36" s="73"/>
       <c r="B36" s="51" t="s">
         <v>311</v>
       </c>
@@ -39064,7 +39091,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="72"/>
+      <c r="A37" s="73"/>
       <c r="B37" s="51" t="s">
         <v>701</v>
       </c>
@@ -39090,7 +39117,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="72"/>
+      <c r="A38" s="73"/>
       <c r="B38" s="51" t="s">
         <v>329</v>
       </c>
@@ -39116,7 +39143,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="72"/>
+      <c r="A39" s="73"/>
       <c r="B39" s="51" t="s">
         <v>702</v>
       </c>
@@ -39142,7 +39169,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="72"/>
+      <c r="A40" s="73"/>
       <c r="B40" s="51" t="s">
         <v>703</v>
       </c>
@@ -39162,7 +39189,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="72"/>
+      <c r="A41" s="73"/>
       <c r="B41" s="51" t="s">
         <v>695</v>
       </c>
@@ -39182,7 +39209,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="72"/>
+      <c r="A42" s="73"/>
       <c r="B42" s="51" t="s">
         <v>454</v>
       </c>
@@ -39201,7 +39228,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="72"/>
+      <c r="A43" s="73"/>
       <c r="B43" s="51" t="s">
         <v>309</v>
       </c>
@@ -39220,7 +39247,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="72"/>
+      <c r="A44" s="73"/>
       <c r="B44" t="s">
         <v>704</v>
       </c>
@@ -39239,7 +39266,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="72"/>
+      <c r="A45" s="73"/>
       <c r="B45" s="51" t="s">
         <v>705</v>
       </c>
@@ -39587,7 +39614,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="76" t="s">
+      <c r="A62" s="72" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -39614,7 +39641,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="72"/>
+      <c r="A63" s="73"/>
       <c r="B63" s="51" t="s">
         <v>717</v>
       </c>
@@ -39640,7 +39667,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="72"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="51" t="s">
         <v>718</v>
       </c>
@@ -39666,7 +39693,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="72"/>
+      <c r="A65" s="73"/>
       <c r="B65" s="51" t="s">
         <v>342</v>
       </c>
@@ -39692,7 +39719,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="72"/>
+      <c r="A66" s="73"/>
       <c r="B66" s="51" t="s">
         <v>719</v>
       </c>
@@ -39718,7 +39745,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="72"/>
+      <c r="A67" s="73"/>
       <c r="B67" s="51" t="s">
         <v>329</v>
       </c>
@@ -39744,7 +39771,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="72"/>
+      <c r="A68" s="73"/>
       <c r="B68" s="56" t="s">
         <v>720</v>
       </c>
@@ -39770,7 +39797,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="72"/>
+      <c r="A69" s="73"/>
       <c r="B69" s="51" t="s">
         <v>342</v>
       </c>
@@ -39796,7 +39823,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="72"/>
+      <c r="A70" s="73"/>
       <c r="B70" s="51" t="s">
         <v>721</v>
       </c>
@@ -39816,7 +39843,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="72"/>
+      <c r="A71" s="73"/>
       <c r="B71" s="51" t="s">
         <v>685</v>
       </c>
@@ -39836,7 +39863,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="72"/>
+      <c r="A72" s="73"/>
       <c r="B72" s="51" t="s">
         <v>722</v>
       </c>
@@ -39855,7 +39882,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="72"/>
+      <c r="A73" s="73"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -39866,7 +39893,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="72"/>
+      <c r="A74" s="73"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -39877,7 +39904,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="72"/>
+      <c r="A75" s="73"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -39888,7 +39915,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="72"/>
+      <c r="A76" s="73"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -39899,7 +39926,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="72" t="s">
+      <c r="A77" s="73" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -39926,7 +39953,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="72"/>
+      <c r="A78" s="73"/>
       <c r="B78" s="51" t="s">
         <v>724</v>
       </c>
@@ -39952,7 +39979,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="72"/>
+      <c r="A79" s="73"/>
       <c r="B79" s="51" t="s">
         <v>725</v>
       </c>
@@ -39978,7 +40005,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="72"/>
+      <c r="A80" s="73"/>
       <c r="B80" s="65" t="s">
         <v>342</v>
       </c>
@@ -40004,7 +40031,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="72"/>
+      <c r="A81" s="73"/>
       <c r="B81" s="59" t="s">
         <v>726</v>
       </c>
@@ -40030,7 +40057,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="72"/>
+      <c r="A82" s="73"/>
       <c r="B82" s="58" t="s">
         <v>727</v>
       </c>
@@ -40082,7 +40109,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="72"/>
+      <c r="A84" s="73"/>
       <c r="B84" t="s">
         <v>728</v>
       </c>
@@ -40108,7 +40135,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="72"/>
+      <c r="A85" s="73"/>
       <c r="B85" s="51" t="s">
         <v>727</v>
       </c>
@@ -40128,7 +40155,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="72"/>
+      <c r="A86" s="73"/>
       <c r="B86" s="51" t="s">
         <v>729</v>
       </c>
@@ -40148,7 +40175,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="72"/>
+      <c r="A87" s="73"/>
       <c r="B87" s="51" t="s">
         <v>394</v>
       </c>
@@ -40168,7 +40195,7 @@
       <c r="I87" s="54"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="72"/>
+      <c r="A88" s="73"/>
       <c r="B88" s="51" t="s">
         <v>730</v>
       </c>
@@ -40187,7 +40214,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="72"/>
+      <c r="A89" s="73"/>
       <c r="B89" s="51" t="s">
         <v>731</v>
       </c>
@@ -40206,7 +40233,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="72"/>
+      <c r="A90" s="73"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -40217,7 +40244,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="72"/>
+      <c r="A91" s="73"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -40228,7 +40255,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="73"/>
+      <c r="A92" s="76"/>
       <c r="B92" s="51"/>
       <c r="C92" s="51"/>
       <c r="D92" s="52"/>
@@ -40239,7 +40266,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="76" t="s">
+      <c r="A93" s="72" t="s">
         <v>54</v>
       </c>
       <c r="B93" s="51" t="s">
@@ -40266,7 +40293,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="72"/>
+      <c r="A94" s="73"/>
       <c r="B94" s="51" t="s">
         <v>732</v>
       </c>
@@ -40292,7 +40319,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="72"/>
+      <c r="A95" s="73"/>
       <c r="B95" s="56" t="s">
         <v>309</v>
       </c>
@@ -40318,7 +40345,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="72"/>
+      <c r="A96" s="73"/>
       <c r="B96" s="51" t="s">
         <v>733</v>
       </c>
@@ -40344,7 +40371,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="72"/>
+      <c r="A97" s="73"/>
       <c r="B97" s="51" t="s">
         <v>653</v>
       </c>
@@ -40370,7 +40397,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="72"/>
+      <c r="A98" s="73"/>
       <c r="B98" s="51" t="s">
         <v>734</v>
       </c>
@@ -40396,7 +40423,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="72"/>
+      <c r="A99" s="73"/>
       <c r="B99" s="51" t="s">
         <v>735</v>
       </c>
@@ -40422,7 +40449,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="72"/>
+      <c r="A100" s="73"/>
       <c r="B100" s="51" t="s">
         <v>736</v>
       </c>
@@ -40448,7 +40475,7 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="72"/>
+      <c r="A101" s="73"/>
       <c r="B101" s="51" t="s">
         <v>737</v>
       </c>
@@ -40468,7 +40495,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="72"/>
+      <c r="A102" s="73"/>
       <c r="B102" s="51" t="s">
         <v>738</v>
       </c>
@@ -40488,7 +40515,7 @@
       <c r="I102" s="54"/>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="72"/>
+      <c r="A103" s="73"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51" t="s">
         <v>288</v>
@@ -40505,7 +40532,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="72"/>
+      <c r="A104" s="73"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51" t="s">
         <v>296</v>
@@ -40522,7 +40549,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="72"/>
+      <c r="A105" s="73"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51" t="s">
         <v>295</v>
@@ -40539,7 +40566,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="72"/>
+      <c r="A106" s="73"/>
       <c r="B106" s="51"/>
       <c r="C106" s="51" t="s">
         <v>288</v>
@@ -40903,7 +40930,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="76" t="s">
+      <c r="A123" s="72" t="s">
         <v>273</v>
       </c>
       <c r="B123" s="51" t="s">
@@ -40930,7 +40957,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="72"/>
+      <c r="A124" s="73"/>
       <c r="B124" s="51" t="s">
         <v>665</v>
       </c>
@@ -40956,7 +40983,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="72"/>
+      <c r="A125" s="73"/>
       <c r="B125" s="51" t="s">
         <v>342</v>
       </c>
@@ -40982,7 +41009,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="72"/>
+      <c r="A126" s="73"/>
       <c r="B126" s="51" t="s">
         <v>666</v>
       </c>
@@ -41008,7 +41035,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="72"/>
+      <c r="A127" s="73"/>
       <c r="B127" s="58" t="s">
         <v>645</v>
       </c>
@@ -41130,7 +41157,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="72"/>
+      <c r="A132" s="73"/>
       <c r="B132" s="59" t="s">
         <v>669</v>
       </c>
@@ -41149,7 +41176,7 @@
       <c r="I132" s="54"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="72"/>
+      <c r="A133" s="73"/>
       <c r="B133" s="51" t="s">
         <v>670</v>
       </c>
@@ -41167,7 +41194,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="72"/>
+      <c r="A134" s="73"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -41175,7 +41202,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="72"/>
+      <c r="A135" s="73"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -41183,7 +41210,7 @@
       <c r="F135" s="52"/>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="72"/>
+      <c r="A136" s="73"/>
       <c r="B136" s="51"/>
       <c r="C136" s="51"/>
       <c r="D136" s="52"/>
@@ -41579,8 +41606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FDA6F8B-4351-4F96-943E-CADFA321636C}">
   <dimension ref="A1:Q152"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="K73" sqref="K73"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -41651,7 +41678,7 @@
     <row r="3" spans="1:17">
       <c r="A3" s="77"/>
       <c r="B3" s="60" t="s">
-        <v>678</v>
+        <v>755</v>
       </c>
       <c r="C3" s="60" t="s">
         <v>288</v>
@@ -41671,7 +41698,7 @@
       </c>
       <c r="I3" s="52">
         <f>SUMIFS(F2:F16, C2:C16,H3)</f>
-        <v>0.3263888888888889</v>
+        <v>0.34375000000000006</v>
       </c>
       <c r="Q3" t="s">
         <v>285</v>
@@ -41680,7 +41707,7 @@
     <row r="4" spans="1:17">
       <c r="A4" s="77"/>
       <c r="B4" s="60" t="s">
-        <v>679</v>
+        <v>756</v>
       </c>
       <c r="C4" s="60" t="s">
         <v>288</v>
@@ -41700,7 +41727,7 @@
       </c>
       <c r="I4" s="52">
         <f>SUMIFS(F2:F16, C2:C16,H4)</f>
-        <v>4.166666666666663E-2</v>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="Q4" t="s">
         <v>290</v>
@@ -41729,7 +41756,7 @@
       </c>
       <c r="I5" s="52">
         <f>SUMIFS(F2:F16, C2:C16,H5)</f>
-        <v>2.2222222222222143E-2</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="s">
         <v>293</v>
@@ -41738,7 +41765,7 @@
     <row r="6" spans="1:17">
       <c r="A6" s="77"/>
       <c r="B6" s="60" t="s">
-        <v>680</v>
+        <v>757</v>
       </c>
       <c r="C6" s="60" t="s">
         <v>288</v>
@@ -41767,7 +41794,7 @@
     <row r="7" spans="1:17">
       <c r="A7" s="77"/>
       <c r="B7" s="60" t="s">
-        <v>681</v>
+        <v>757</v>
       </c>
       <c r="C7" s="60" t="s">
         <v>288</v>
@@ -41787,7 +41814,7 @@
       </c>
       <c r="I7" s="52">
         <f>SUMIFS(F2:F16, C2:C16,H7)</f>
-        <v>6.25E-2</v>
+        <v>7.2916666666666741E-2</v>
       </c>
       <c r="Q7" t="s">
         <v>295</v>
@@ -41822,7 +41849,7 @@
     <row r="9" spans="1:17">
       <c r="A9" s="77"/>
       <c r="B9" s="60" t="s">
-        <v>682</v>
+        <v>758</v>
       </c>
       <c r="C9" s="60" t="s">
         <v>288</v>
@@ -41842,13 +41869,13 @@
       </c>
       <c r="I9" s="49">
         <f>SUM(I3:I8)</f>
-        <v>0.49791666666666656</v>
+        <v>0.46875000000000011</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="77"/>
       <c r="B10" s="60" t="s">
-        <v>683</v>
+        <v>759</v>
       </c>
       <c r="C10" s="60" t="s">
         <v>288</v>
@@ -41868,20 +41895,20 @@
     <row r="11" spans="1:17">
       <c r="A11" s="77"/>
       <c r="B11" s="60" t="s">
-        <v>684</v>
+        <v>760</v>
       </c>
       <c r="C11" s="60" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D11" s="61">
         <v>0.66666666666666663</v>
       </c>
       <c r="E11" s="61">
-        <v>0.70138888888888884</v>
+        <v>0.68402777777777779</v>
       </c>
       <c r="F11" s="61">
         <f t="shared" si="0"/>
-        <v>3.472222222222221E-2</v>
+        <v>1.736111111111116E-2</v>
       </c>
       <c r="I11" s="54"/>
     </row>
@@ -41894,14 +41921,14 @@
         <v>296</v>
       </c>
       <c r="D12" s="61">
-        <v>0.70833333333333337</v>
+        <v>0.68402777777777779</v>
       </c>
       <c r="E12" s="61">
-        <v>0.77083333333333337</v>
+        <v>0.75694444444444453</v>
       </c>
       <c r="F12" s="61">
         <f t="shared" si="0"/>
-        <v>6.25E-2</v>
+        <v>7.2916666666666741E-2</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -41925,9 +41952,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="77"/>
-      <c r="B14" s="60" t="s">
-        <v>686</v>
-      </c>
+      <c r="B14" s="60"/>
       <c r="C14" s="60" t="s">
         <v>288</v>
       </c>
@@ -41944,21 +41969,15 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="77"/>
-      <c r="B15" s="60" t="s">
-        <v>687</v>
-      </c>
+      <c r="B15" s="60"/>
       <c r="C15" s="60" t="s">
         <v>290</v>
       </c>
-      <c r="D15" s="61">
-        <v>0.81944444444444453</v>
-      </c>
-      <c r="E15" s="61">
-        <v>0.84166666666666667</v>
-      </c>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
       <c r="F15" s="61">
         <f t="shared" si="0"/>
-        <v>2.2222222222222143E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -41975,11 +41994,11 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="73" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
       <c r="C17" s="59" t="s">
         <v>288</v>
@@ -42002,7 +42021,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="72"/>
+      <c r="A18" s="73"/>
       <c r="B18" s="51" t="s">
         <v>342</v>
       </c>
@@ -42028,7 +42047,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="72"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="51" t="s">
         <v>690</v>
       </c>
@@ -42054,9 +42073,9 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="72"/>
+      <c r="A20" s="73"/>
       <c r="B20" s="51" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
       <c r="C20" s="51" t="s">
         <v>288</v>
@@ -42080,7 +42099,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="72"/>
+      <c r="A21" s="73"/>
       <c r="B21" s="51" t="s">
         <v>313</v>
       </c>
@@ -42106,9 +42125,9 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="72"/>
+      <c r="A22" s="73"/>
       <c r="B22" s="51" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="C22" s="51" t="s">
         <v>288</v>
@@ -42132,7 +42151,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="72"/>
+      <c r="A23" s="73"/>
       <c r="B23" s="51" t="s">
         <v>309</v>
       </c>
@@ -42158,7 +42177,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="72"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="51" t="s">
         <v>296</v>
       </c>
@@ -42184,9 +42203,9 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="72"/>
+      <c r="A25" s="73"/>
       <c r="B25" s="51" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="C25" s="51" t="s">
         <v>288</v>
@@ -42204,7 +42223,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="72"/>
+      <c r="A26" s="73"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
       <c r="D26" s="52"/>
@@ -42213,7 +42232,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="72"/>
+      <c r="A27" s="73"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
       <c r="D27" s="52"/>
@@ -42221,7 +42240,7 @@
       <c r="F27" s="52"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="72"/>
+      <c r="A28" s="73"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="52"/>
@@ -42229,7 +42248,7 @@
       <c r="F28" s="52"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="72"/>
+      <c r="A29" s="73"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="52"/>
@@ -42237,7 +42256,7 @@
       <c r="F29" s="52"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="72"/>
+      <c r="A30" s="73"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -42245,7 +42264,7 @@
       <c r="F30" s="52"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="72"/>
+      <c r="A31" s="73"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -42253,7 +42272,7 @@
       <c r="F31" s="52"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="72" t="s">
+      <c r="A32" s="73" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -42280,9 +42299,9 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="72"/>
+      <c r="A33" s="73"/>
       <c r="B33" s="51" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="C33" s="51" t="s">
         <v>288</v>
@@ -42306,7 +42325,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="72"/>
+      <c r="A34" s="73"/>
       <c r="B34" s="51" t="s">
         <v>309</v>
       </c>
@@ -42332,9 +42351,9 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="72"/>
+      <c r="A35" s="73"/>
       <c r="B35" s="51" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="C35" s="51" t="s">
         <v>288</v>
@@ -42358,9 +42377,9 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="72"/>
+      <c r="A36" s="73"/>
       <c r="B36" s="51" t="s">
-        <v>761</v>
+        <v>767</v>
       </c>
       <c r="C36" s="51" t="s">
         <v>288</v>
@@ -42384,7 +42403,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="72"/>
+      <c r="A37" s="73"/>
       <c r="B37" s="51" t="s">
         <v>301</v>
       </c>
@@ -42410,9 +42429,9 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="72"/>
+      <c r="A38" s="73"/>
       <c r="B38" s="51" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="C38" s="51" t="s">
         <v>288</v>
@@ -42436,9 +42455,9 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="72"/>
+      <c r="A39" s="73"/>
       <c r="B39" s="51" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="C39" s="51" t="s">
         <v>288</v>
@@ -42462,7 +42481,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="72"/>
+      <c r="A40" s="73"/>
       <c r="B40" s="51" t="s">
         <v>454</v>
       </c>
@@ -42482,7 +42501,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="72"/>
+      <c r="A41" s="73"/>
       <c r="B41" s="51" t="s">
         <v>309</v>
       </c>
@@ -42502,7 +42521,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="72"/>
+      <c r="A42" s="73"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
       <c r="D42" s="52"/>
@@ -42513,7 +42532,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="72"/>
+      <c r="A43" s="73"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
       <c r="D43" s="52"/>
@@ -42524,7 +42543,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="72"/>
+      <c r="A44" s="73"/>
       <c r="C44" s="51"/>
       <c r="D44" s="52"/>
       <c r="E44" s="52"/>
@@ -42534,7 +42553,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="72"/>
+      <c r="A45" s="73"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -42584,7 +42603,7 @@
     <row r="48" spans="1:9">
       <c r="A48" s="75"/>
       <c r="B48" s="55" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="C48" s="51" t="s">
         <v>288</v>
@@ -42602,7 +42621,7 @@
         <v>288</v>
       </c>
       <c r="I48" s="52" t="s">
-        <v>765</v>
+        <v>771</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -42633,7 +42652,7 @@
     <row r="50" spans="1:9">
       <c r="A50" s="75"/>
       <c r="B50" s="51" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
       <c r="C50" s="51" t="s">
         <v>288</v>
@@ -42651,13 +42670,13 @@
         <v>290</v>
       </c>
       <c r="I50" s="52" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="75"/>
       <c r="B51" s="55" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
       <c r="C51" s="51" t="s">
         <v>288</v>
@@ -42682,7 +42701,7 @@
     <row r="52" spans="1:9">
       <c r="A52" s="75"/>
       <c r="B52" s="55" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="C52" s="51" t="s">
         <v>288</v>
@@ -42731,7 +42750,7 @@
     <row r="54" spans="1:9">
       <c r="A54" s="75"/>
       <c r="B54" s="55" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="C54" s="51" t="s">
         <v>288</v>
@@ -42750,7 +42769,7 @@
         <v>300</v>
       </c>
       <c r="I54" s="49" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -42814,7 +42833,7 @@
     <row r="58" spans="1:9">
       <c r="A58" s="75"/>
       <c r="B58" s="55" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="C58" s="51" t="s">
         <v>288</v>
@@ -42864,7 +42883,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="76" t="s">
+      <c r="A62" s="72" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -42891,9 +42910,9 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="72"/>
+      <c r="A63" s="73"/>
       <c r="B63" s="51" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="C63" s="51" t="s">
         <v>288</v>
@@ -42917,9 +42936,9 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="72"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="51" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="C64" s="51" t="s">
         <v>288</v>
@@ -42943,7 +42962,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="72"/>
+      <c r="A65" s="73"/>
       <c r="B65" s="51" t="s">
         <v>342</v>
       </c>
@@ -42969,9 +42988,9 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="72"/>
+      <c r="A66" s="73"/>
       <c r="B66" s="51" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="C66" s="51" t="s">
         <v>288</v>
@@ -42995,7 +43014,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="72"/>
+      <c r="A67" s="73"/>
       <c r="B67" s="51" t="s">
         <v>329</v>
       </c>
@@ -43021,9 +43040,9 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="72"/>
+      <c r="A68" s="73"/>
       <c r="B68" s="56" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="C68" s="51" t="s">
         <v>288</v>
@@ -43047,7 +43066,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="72"/>
+      <c r="A69" s="73"/>
       <c r="B69" s="51" t="s">
         <v>342</v>
       </c>
@@ -43073,9 +43092,9 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="72"/>
+      <c r="A70" s="73"/>
       <c r="B70" s="51" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="C70" s="51" t="s">
         <v>288</v>
@@ -43093,7 +43112,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="72"/>
+      <c r="A71" s="73"/>
       <c r="B71" s="51" t="s">
         <v>685</v>
       </c>
@@ -43113,9 +43132,9 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="72"/>
+      <c r="A72" s="73"/>
       <c r="B72" s="51" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="C72" s="51" t="s">
         <v>288</v>
@@ -43132,7 +43151,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="72"/>
+      <c r="A73" s="73"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -43143,7 +43162,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="72"/>
+      <c r="A74" s="73"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -43154,7 +43173,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="72"/>
+      <c r="A75" s="73"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -43165,7 +43184,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="72"/>
+      <c r="A76" s="73"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -43176,7 +43195,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="72" t="s">
+      <c r="A77" s="73" t="s">
         <v>27</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -43203,9 +43222,9 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="72"/>
+      <c r="A78" s="73"/>
       <c r="B78" s="51" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="C78" s="51" t="s">
         <v>288</v>
@@ -43229,7 +43248,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="72"/>
+      <c r="A79" s="73"/>
       <c r="B79" s="51" t="s">
         <v>342</v>
       </c>
@@ -43255,9 +43274,9 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="72"/>
+      <c r="A80" s="73"/>
       <c r="B80" s="65" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="C80" s="51" t="s">
         <v>288</v>
@@ -43281,9 +43300,9 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="72"/>
+      <c r="A81" s="73"/>
       <c r="B81" s="65" t="s">
-        <v>779</v>
+        <v>785</v>
       </c>
       <c r="C81" s="51" t="s">
         <v>288</v>
@@ -43307,7 +43326,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="72"/>
+      <c r="A82" s="73"/>
       <c r="B82" s="51" t="s">
         <v>342</v>
       </c>
@@ -43335,7 +43354,7 @@
     <row r="83" spans="1:9">
       <c r="A83" s="77"/>
       <c r="B83" s="51" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="C83" s="55" t="s">
         <v>288</v>
@@ -43359,9 +43378,9 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="72"/>
+      <c r="A84" s="73"/>
       <c r="B84" s="51" t="s">
-        <v>780</v>
+        <v>786</v>
       </c>
       <c r="C84" s="51" t="s">
         <v>288</v>
@@ -43385,7 +43404,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="72"/>
+      <c r="A85" s="73"/>
       <c r="B85" s="51" t="s">
         <v>685</v>
       </c>
@@ -43405,9 +43424,9 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="72"/>
+      <c r="A86" s="73"/>
       <c r="B86" s="51" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="C86" s="51" t="s">
         <v>288</v>
@@ -43425,9 +43444,9 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="72"/>
+      <c r="A87" s="73"/>
       <c r="B87" s="51" t="s">
-        <v>782</v>
+        <v>788</v>
       </c>
       <c r="C87" s="51" t="s">
         <v>290</v>
@@ -43445,7 +43464,7 @@
       <c r="I87" s="54"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="72"/>
+      <c r="A88" s="73"/>
       <c r="B88" s="51"/>
       <c r="C88" s="51"/>
       <c r="D88" s="52">
@@ -43459,7 +43478,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="72"/>
+      <c r="A89" s="73"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="52">
@@ -43473,7 +43492,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="72"/>
+      <c r="A90" s="73"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -43484,7 +43503,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="72"/>
+      <c r="A91" s="73"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -43495,7 +43514,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="73"/>
+      <c r="A92" s="76"/>
       <c r="B92" s="51"/>
       <c r="C92" s="51"/>
       <c r="D92" s="52"/>
@@ -43506,7 +43525,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="76" t="s">
+      <c r="A93" s="72" t="s">
         <v>54</v>
       </c>
       <c r="B93" s="51" t="s">
@@ -43533,9 +43552,9 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="72"/>
+      <c r="A94" s="73"/>
       <c r="B94" s="51" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="C94" s="51" t="s">
         <v>288</v>
@@ -43559,7 +43578,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="72"/>
+      <c r="A95" s="73"/>
       <c r="B95" s="56" t="s">
         <v>309</v>
       </c>
@@ -43585,9 +43604,9 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="72"/>
+      <c r="A96" s="73"/>
       <c r="B96" s="51" t="s">
-        <v>784</v>
+        <v>790</v>
       </c>
       <c r="C96" s="51" t="s">
         <v>288</v>
@@ -43611,7 +43630,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="72"/>
+      <c r="A97" s="73"/>
       <c r="B97" s="51" t="s">
         <v>653</v>
       </c>
@@ -43637,9 +43656,9 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="72"/>
+      <c r="A98" s="73"/>
       <c r="B98" s="51" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
       <c r="C98" s="51" t="s">
         <v>288</v>
@@ -43663,9 +43682,9 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="72"/>
+      <c r="A99" s="73"/>
       <c r="B99" s="51" t="s">
-        <v>786</v>
+        <v>792</v>
       </c>
       <c r="C99" s="51" t="s">
         <v>293</v>
@@ -43689,7 +43708,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="72"/>
+      <c r="A100" s="73"/>
       <c r="B100" s="51" t="s">
         <v>736</v>
       </c>
@@ -43715,9 +43734,9 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="72"/>
+      <c r="A101" s="73"/>
       <c r="B101" s="51" t="s">
-        <v>787</v>
+        <v>793</v>
       </c>
       <c r="C101" s="51" t="s">
         <v>288</v>
@@ -43735,7 +43754,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="72"/>
+      <c r="A102" s="73"/>
       <c r="B102" s="51"/>
       <c r="C102" s="51"/>
       <c r="D102" s="52"/>
@@ -43744,7 +43763,7 @@
       <c r="I102" s="54"/>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="72"/>
+      <c r="A103" s="73"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51"/>
       <c r="D103" s="52"/>
@@ -43752,7 +43771,7 @@
       <c r="F103" s="52"/>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="72"/>
+      <c r="A104" s="73"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51"/>
       <c r="D104" s="52"/>
@@ -43760,7 +43779,7 @@
       <c r="F104" s="52"/>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="72"/>
+      <c r="A105" s="73"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51"/>
       <c r="D105" s="52"/>
@@ -43768,7 +43787,7 @@
       <c r="F105" s="52"/>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="72"/>
+      <c r="A106" s="73"/>
       <c r="B106" s="51"/>
       <c r="C106" s="51"/>
       <c r="D106" s="52"/>
@@ -43839,7 +43858,7 @@
     <row r="110" spans="1:9">
       <c r="A110" s="75"/>
       <c r="B110" s="56" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="C110" s="51" t="s">
         <v>288</v>
@@ -43891,7 +43910,7 @@
     <row r="112" spans="1:9">
       <c r="A112" s="75"/>
       <c r="B112" s="55" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
       <c r="C112" s="51" t="s">
         <v>288</v>
@@ -44053,7 +44072,7 @@
     <row r="119" spans="1:9">
       <c r="A119" s="75"/>
       <c r="B119" s="55" t="s">
-        <v>790</v>
+        <v>796</v>
       </c>
       <c r="C119" s="51" t="s">
         <v>288</v>
@@ -44072,7 +44091,7 @@
     <row r="120" spans="1:9">
       <c r="A120" s="75"/>
       <c r="B120" s="55" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="C120" s="51" t="s">
         <v>288</v>
@@ -44114,11 +44133,11 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="76" t="s">
+      <c r="A123" s="72" t="s">
         <v>273</v>
       </c>
       <c r="B123" s="51" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="C123" s="51" t="s">
         <v>288</v>
@@ -44141,9 +44160,9 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="72"/>
+      <c r="A124" s="73"/>
       <c r="B124" s="51" t="s">
-        <v>793</v>
+        <v>799</v>
       </c>
       <c r="C124" s="51" t="s">
         <v>288</v>
@@ -44167,7 +44186,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="72"/>
+      <c r="A125" s="73"/>
       <c r="B125" s="51" t="s">
         <v>342</v>
       </c>
@@ -44193,9 +44212,9 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="72"/>
+      <c r="A126" s="73"/>
       <c r="B126" s="51" t="s">
-        <v>794</v>
+        <v>800</v>
       </c>
       <c r="C126" s="51" t="s">
         <v>288</v>
@@ -44219,9 +44238,9 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="72"/>
+      <c r="A127" s="73"/>
       <c r="B127" s="58" t="s">
-        <v>795</v>
+        <v>801</v>
       </c>
       <c r="C127" s="51" t="s">
         <v>288</v>
@@ -44273,7 +44292,7 @@
     <row r="129" spans="1:9">
       <c r="A129" s="77"/>
       <c r="B129" s="57" t="s">
-        <v>796</v>
+        <v>802</v>
       </c>
       <c r="C129" s="55" t="s">
         <v>288</v>
@@ -44299,7 +44318,7 @@
     <row r="130" spans="1:9">
       <c r="A130" s="77"/>
       <c r="B130" s="57" t="s">
-        <v>797</v>
+        <v>803</v>
       </c>
       <c r="C130" s="55" t="s">
         <v>288</v>
@@ -44341,9 +44360,9 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="72"/>
+      <c r="A132" s="73"/>
       <c r="B132" s="59" t="s">
-        <v>798</v>
+        <v>804</v>
       </c>
       <c r="C132" s="51" t="s">
         <v>288</v>
@@ -44360,7 +44379,7 @@
       <c r="I132" s="54"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="72"/>
+      <c r="A133" s="73"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
@@ -44368,7 +44387,7 @@
       <c r="F133" s="52"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="72"/>
+      <c r="A134" s="73"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -44376,7 +44395,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="72"/>
+      <c r="A135" s="73"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -44384,7 +44403,7 @@
       <c r="F135" s="52"/>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="72"/>
+      <c r="A136" s="73"/>
       <c r="B136" s="51"/>
       <c r="C136" s="51"/>
       <c r="D136" s="52"/>
@@ -44780,8 +44799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7764F1B-A8E7-4FBB-88CE-929509A01D8F}">
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="L67" sqref="L67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -44852,7 +44871,7 @@
     <row r="3" spans="1:17">
       <c r="A3" s="77"/>
       <c r="B3" s="60" t="s">
-        <v>678</v>
+        <v>805</v>
       </c>
       <c r="C3" s="60" t="s">
         <v>288</v>
@@ -44872,7 +44891,7 @@
       </c>
       <c r="I3" s="52">
         <f>SUMIFS(F2:F16, C2:C16,H3)</f>
-        <v>0.3263888888888889</v>
+        <v>0.18402777777777773</v>
       </c>
       <c r="Q3" t="s">
         <v>285</v>
@@ -44881,7 +44900,7 @@
     <row r="4" spans="1:17">
       <c r="A4" s="77"/>
       <c r="B4" s="60" t="s">
-        <v>679</v>
+        <v>806</v>
       </c>
       <c r="C4" s="60" t="s">
         <v>288</v>
@@ -44890,18 +44909,18 @@
         <v>0.3888888888888889</v>
       </c>
       <c r="E4" s="61">
-        <v>0.42708333333333331</v>
+        <v>0.46875</v>
       </c>
       <c r="F4" s="61">
         <f t="shared" si="0"/>
-        <v>3.819444444444442E-2</v>
+        <v>7.9861111111111105E-2</v>
       </c>
       <c r="H4" s="53" t="s">
         <v>285</v>
       </c>
       <c r="I4" s="52">
         <f>SUMIFS(F2:F16, C2:C16,H4)</f>
-        <v>4.166666666666663E-2</v>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="Q4" t="s">
         <v>290</v>
@@ -44916,10 +44935,10 @@
         <v>295</v>
       </c>
       <c r="D5" s="61">
-        <v>0.42708333333333331</v>
+        <v>0.46875</v>
       </c>
       <c r="E5" s="61">
-        <v>0.4375</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="F5" s="61">
         <f t="shared" si="0"/>
@@ -44930,7 +44949,7 @@
       </c>
       <c r="I5" s="52">
         <f>SUMIFS(F2:F16, C2:C16,H5)</f>
-        <v>2.2222222222222143E-2</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="s">
         <v>293</v>
@@ -44939,20 +44958,20 @@
     <row r="6" spans="1:17">
       <c r="A6" s="77"/>
       <c r="B6" s="60" t="s">
-        <v>680</v>
+        <v>807</v>
       </c>
       <c r="C6" s="60" t="s">
         <v>288</v>
       </c>
       <c r="D6" s="61">
-        <v>0.4375</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="E6" s="61">
-        <v>0.47916666666666669</v>
+        <v>0.53125</v>
       </c>
       <c r="F6" s="61">
         <f t="shared" si="0"/>
-        <v>4.1666666666666685E-2</v>
+        <v>5.2083333333333315E-2</v>
       </c>
       <c r="H6" s="53" t="s">
         <v>293</v>
@@ -44967,28 +44986,22 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="77"/>
-      <c r="B7" s="60" t="s">
-        <v>681</v>
-      </c>
+      <c r="B7" s="60"/>
       <c r="C7" s="60" t="s">
         <v>288</v>
       </c>
-      <c r="D7" s="61">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="E7" s="61">
-        <v>0.53472222222222221</v>
-      </c>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
       <c r="F7" s="61">
         <f t="shared" si="0"/>
-        <v>5.5555555555555525E-2</v>
+        <v>0</v>
       </c>
       <c r="H7" s="53" t="s">
         <v>296</v>
       </c>
       <c r="I7" s="52">
         <f>SUMIFS(F2:F16, C2:C16,H7)</f>
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="s">
         <v>295</v>
@@ -44996,170 +45009,122 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="77"/>
-      <c r="B8" s="60" t="s">
-        <v>313</v>
-      </c>
+      <c r="B8" s="60"/>
       <c r="C8" s="60" t="s">
         <v>295</v>
       </c>
-      <c r="D8" s="61">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="E8" s="61">
-        <v>0.56944444444444442</v>
-      </c>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
       <c r="F8" s="61">
         <f t="shared" si="0"/>
-        <v>2.777777777777779E-2</v>
+        <v>0</v>
       </c>
       <c r="H8" s="53" t="s">
         <v>295</v>
       </c>
       <c r="I8" s="52">
         <f>SUMIFS(F2:F16, C2:C16,H8)</f>
-        <v>4.5138888888888895E-2</v>
+        <v>1.0416666666666685E-2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="77"/>
-      <c r="B9" s="60" t="s">
-        <v>682</v>
-      </c>
+      <c r="B9" s="60"/>
       <c r="C9" s="60" t="s">
         <v>288</v>
       </c>
-      <c r="D9" s="61">
-        <v>0.56944444444444442</v>
-      </c>
-      <c r="E9" s="61">
-        <v>0.61805555555555558</v>
-      </c>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
       <c r="F9" s="61">
         <f t="shared" si="0"/>
-        <v>4.861111111111116E-2</v>
+        <v>0</v>
       </c>
       <c r="H9" s="48" t="s">
         <v>300</v>
       </c>
       <c r="I9" s="49">
         <f>SUM(I3:I8)</f>
-        <v>0.49791666666666656</v>
+        <v>0.20138888888888884</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="77"/>
-      <c r="B10" s="60" t="s">
-        <v>683</v>
-      </c>
+      <c r="B10" s="60"/>
       <c r="C10" s="60" t="s">
         <v>288</v>
       </c>
-      <c r="D10" s="61">
-        <v>0.61805555555555558</v>
-      </c>
-      <c r="E10" s="61">
-        <v>0.66666666666666663</v>
-      </c>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
       <c r="F10" s="61">
         <f t="shared" si="0"/>
-        <v>4.8611111111111049E-2</v>
+        <v>0</v>
       </c>
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="77"/>
-      <c r="B11" s="60" t="s">
-        <v>684</v>
-      </c>
+      <c r="B11" s="60"/>
       <c r="C11" s="60" t="s">
         <v>285</v>
       </c>
-      <c r="D11" s="61">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E11" s="61">
-        <v>0.70138888888888884</v>
-      </c>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
       <c r="F11" s="61">
         <f t="shared" si="0"/>
-        <v>3.472222222222221E-2</v>
+        <v>0</v>
       </c>
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="77"/>
-      <c r="B12" s="60" t="s">
-        <v>685</v>
-      </c>
+      <c r="B12" s="60"/>
       <c r="C12" s="60" t="s">
         <v>296</v>
       </c>
-      <c r="D12" s="61">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="E12" s="61">
-        <v>0.77083333333333337</v>
-      </c>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
       <c r="F12" s="61">
         <f t="shared" si="0"/>
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="77"/>
-      <c r="B13" s="60" t="s">
-        <v>309</v>
-      </c>
+      <c r="B13" s="60"/>
       <c r="C13" s="60" t="s">
         <v>295</v>
       </c>
-      <c r="D13" s="61">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="E13" s="61">
-        <v>0.77777777777777779</v>
-      </c>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
       <c r="F13" s="61">
         <f t="shared" si="0"/>
-        <v>6.9444444444444198E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="77"/>
-      <c r="B14" s="60" t="s">
-        <v>686</v>
-      </c>
+      <c r="B14" s="60"/>
       <c r="C14" s="60" t="s">
         <v>288</v>
       </c>
-      <c r="D14" s="61">
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="E14" s="61">
-        <v>0.81944444444444453</v>
-      </c>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
       <c r="F14" s="61">
         <f>E14-D14</f>
-        <v>4.1666666666666741E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="77"/>
-      <c r="B15" s="60" t="s">
-        <v>687</v>
-      </c>
+      <c r="B15" s="60"/>
       <c r="C15" s="60" t="s">
         <v>290</v>
       </c>
-      <c r="D15" s="61">
-        <v>0.81944444444444453</v>
-      </c>
-      <c r="E15" s="61">
-        <v>0.84166666666666667</v>
-      </c>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
       <c r="F15" s="61">
         <f t="shared" si="0"/>
-        <v>2.2222222222222143E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -45176,11 +45141,11 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="73" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>799</v>
+        <v>808</v>
       </c>
       <c r="C17" s="59" t="s">
         <v>288</v>
@@ -45203,7 +45168,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="72"/>
+      <c r="A18" s="73"/>
       <c r="B18" s="51" t="s">
         <v>342</v>
       </c>
@@ -45229,9 +45194,9 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="72"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="51" t="s">
-        <v>800</v>
+        <v>809</v>
       </c>
       <c r="C19" s="51" t="s">
         <v>288</v>
@@ -45255,9 +45220,9 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="72"/>
+      <c r="A20" s="73"/>
       <c r="B20" s="51" t="s">
-        <v>801</v>
+        <v>810</v>
       </c>
       <c r="C20" s="51" t="s">
         <v>288</v>
@@ -45281,7 +45246,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="72"/>
+      <c r="A21" s="73"/>
       <c r="B21" s="51" t="s">
         <v>309</v>
       </c>
@@ -45307,9 +45272,9 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="72"/>
+      <c r="A22" s="73"/>
       <c r="B22" s="51" t="s">
-        <v>802</v>
+        <v>811</v>
       </c>
       <c r="C22" s="51" t="s">
         <v>288</v>
@@ -45333,7 +45298,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="72"/>
+      <c r="A23" s="73"/>
       <c r="B23" s="51"/>
       <c r="C23" s="51"/>
       <c r="D23" s="52">
@@ -45355,7 +45320,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="72"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
       <c r="D24" s="52">
@@ -45377,7 +45342,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="72"/>
+      <c r="A25" s="73"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
       <c r="D25" s="52">
@@ -45393,7 +45358,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="72"/>
+      <c r="A26" s="73"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
       <c r="D26" s="52">
@@ -45409,7 +45374,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="72"/>
+      <c r="A27" s="73"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
       <c r="D27" s="52">
@@ -45424,7 +45389,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="72"/>
+      <c r="A28" s="73"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="52">
@@ -45439,7 +45404,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="72"/>
+      <c r="A29" s="73"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="52">
@@ -45454,7 +45419,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="72"/>
+      <c r="A30" s="73"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52">
@@ -45469,7 +45434,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="72"/>
+      <c r="A31" s="73"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52">
@@ -45484,7 +45449,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="72" t="s">
+      <c r="A32" s="73" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -45511,9 +45476,9 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="72"/>
+      <c r="A33" s="73"/>
       <c r="B33" s="51" t="s">
-        <v>803</v>
+        <v>812</v>
       </c>
       <c r="C33" s="51" t="s">
         <v>288</v>
@@ -45537,7 +45502,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="72"/>
+      <c r="A34" s="73"/>
       <c r="B34" s="51" t="s">
         <v>309</v>
       </c>
@@ -45563,9 +45528,9 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="72"/>
+      <c r="A35" s="73"/>
       <c r="B35" s="51" t="s">
-        <v>804</v>
+        <v>813</v>
       </c>
       <c r="C35" s="51" t="s">
         <v>288</v>
@@ -45589,9 +45554,9 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="72"/>
+      <c r="A36" s="73"/>
       <c r="B36" s="51" t="s">
-        <v>805</v>
+        <v>814</v>
       </c>
       <c r="C36" s="51" t="s">
         <v>288</v>
@@ -45615,7 +45580,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="72"/>
+      <c r="A37" s="73"/>
       <c r="B37" t="s">
         <v>313</v>
       </c>
@@ -45641,9 +45606,9 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="72"/>
+      <c r="A38" s="73"/>
       <c r="B38" s="51" t="s">
-        <v>806</v>
+        <v>815</v>
       </c>
       <c r="C38" s="51" t="s">
         <v>288</v>
@@ -45667,9 +45632,9 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="72"/>
+      <c r="A39" s="73"/>
       <c r="B39" s="51" t="s">
-        <v>807</v>
+        <v>816</v>
       </c>
       <c r="C39" s="51" t="s">
         <v>288</v>
@@ -45693,7 +45658,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="72"/>
+      <c r="A40" s="73"/>
       <c r="B40" t="s">
         <v>342</v>
       </c>
@@ -45713,9 +45678,9 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="72"/>
+      <c r="A41" s="73"/>
       <c r="B41" s="51" t="s">
-        <v>808</v>
+        <v>817</v>
       </c>
       <c r="C41" s="51" t="s">
         <v>288</v>
@@ -45733,7 +45698,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="72"/>
+      <c r="A42" s="73"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
       <c r="D42" s="52"/>
@@ -45744,7 +45709,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="72"/>
+      <c r="A43" s="73"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
       <c r="D43" s="52"/>
@@ -45755,7 +45720,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="72"/>
+      <c r="A44" s="73"/>
       <c r="C44" s="51"/>
       <c r="D44" s="52"/>
       <c r="E44" s="52"/>
@@ -45765,7 +45730,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="72"/>
+      <c r="A45" s="73"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -45815,7 +45780,7 @@
     <row r="48" spans="1:9">
       <c r="A48" s="75"/>
       <c r="B48" s="55" t="s">
-        <v>809</v>
+        <v>818</v>
       </c>
       <c r="C48" s="51" t="s">
         <v>288</v>
@@ -45839,7 +45804,7 @@
     <row r="49" spans="1:9">
       <c r="A49" s="75"/>
       <c r="B49" s="55" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
       <c r="C49" s="51" t="s">
         <v>288</v>
@@ -45882,13 +45847,13 @@
         <v>290</v>
       </c>
       <c r="I50" s="52" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="75"/>
       <c r="B51" s="55" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="C51" s="51" t="s">
         <v>288</v>
@@ -45938,7 +45903,7 @@
     <row r="53" spans="1:9">
       <c r="A53" s="75"/>
       <c r="B53" s="55" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="C53" s="51" t="s">
         <v>288</v>
@@ -45956,13 +45921,13 @@
         <v>295</v>
       </c>
       <c r="I53" s="52" t="s">
-        <v>810</v>
+        <v>819</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="75"/>
       <c r="B54" s="55" t="s">
-        <v>811</v>
+        <v>820</v>
       </c>
       <c r="C54" s="51" t="s">
         <v>288</v>
@@ -45981,7 +45946,7 @@
         <v>300</v>
       </c>
       <c r="I54" s="49" t="s">
-        <v>812</v>
+        <v>821</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -46007,7 +45972,7 @@
     <row r="56" spans="1:9">
       <c r="A56" s="75"/>
       <c r="B56" s="55" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="C56" s="51" t="s">
         <v>288</v>
@@ -46019,7 +45984,7 @@
         <v>0.625</v>
       </c>
       <c r="F56" s="52" t="s">
-        <v>813</v>
+        <v>822</v>
       </c>
       <c r="I56" s="54"/>
     </row>
@@ -46081,7 +46046,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="76" t="s">
+      <c r="A62" s="72" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -46108,9 +46073,9 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="72"/>
+      <c r="A63" s="73"/>
       <c r="B63" s="51" t="s">
-        <v>814</v>
+        <v>823</v>
       </c>
       <c r="C63" s="51" t="s">
         <v>288</v>
@@ -46134,9 +46099,9 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="72"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="51" t="s">
-        <v>815</v>
+        <v>824</v>
       </c>
       <c r="C64" s="51" t="s">
         <v>288</v>
@@ -46160,7 +46125,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="72"/>
+      <c r="A65" s="73"/>
       <c r="B65" s="51" t="s">
         <v>342</v>
       </c>
@@ -46186,7 +46151,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="72"/>
+      <c r="A66" s="73"/>
       <c r="B66" s="51" t="s">
         <v>720</v>
       </c>
@@ -46212,7 +46177,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="72"/>
+      <c r="A67" s="73"/>
       <c r="B67" s="51"/>
       <c r="C67" s="51"/>
       <c r="D67" s="51"/>
@@ -46230,7 +46195,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="72"/>
+      <c r="A68" s="73"/>
       <c r="B68" s="51"/>
       <c r="C68" s="51"/>
       <c r="D68" s="52"/>
@@ -46248,7 +46213,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="72"/>
+      <c r="A69" s="73"/>
       <c r="B69" s="51"/>
       <c r="C69" s="51"/>
       <c r="D69" s="52"/>
@@ -46260,7 +46225,7 @@
       <c r="I69" s="54"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="72"/>
+      <c r="A70" s="73"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51"/>
       <c r="D70" s="52"/>
@@ -46272,7 +46237,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="72"/>
+      <c r="A71" s="73"/>
       <c r="B71" s="51"/>
       <c r="C71" s="51"/>
       <c r="D71" s="52"/>
@@ -46283,7 +46248,7 @@
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="72"/>
+      <c r="A72" s="73"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -46294,7 +46259,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="72"/>
+      <c r="A73" s="73"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -46305,7 +46270,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="72"/>
+      <c r="A74" s="73"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -46316,7 +46281,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="72"/>
+      <c r="A75" s="73"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -46327,7 +46292,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="72" t="s">
+      <c r="A76" s="73" t="s">
         <v>269</v>
       </c>
       <c r="B76" s="51" t="s">
@@ -46354,9 +46319,9 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="72"/>
+      <c r="A77" s="73"/>
       <c r="B77" s="51" t="s">
-        <v>816</v>
+        <v>825</v>
       </c>
       <c r="C77" s="51" t="s">
         <v>288</v>
@@ -46380,9 +46345,9 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="72"/>
+      <c r="A78" s="73"/>
       <c r="B78" s="51" t="s">
-        <v>817</v>
+        <v>826</v>
       </c>
       <c r="C78" s="51" t="s">
         <v>288</v>
@@ -46406,7 +46371,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="72"/>
+      <c r="A79" s="73"/>
       <c r="B79" s="65" t="s">
         <v>342</v>
       </c>
@@ -46432,9 +46397,9 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="72"/>
+      <c r="A80" s="73"/>
       <c r="B80" s="56" t="s">
-        <v>818</v>
+        <v>827</v>
       </c>
       <c r="C80" s="51" t="s">
         <v>288</v>
@@ -46458,9 +46423,9 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="72"/>
+      <c r="A81" s="73"/>
       <c r="B81" s="51" t="s">
-        <v>819</v>
+        <v>828</v>
       </c>
       <c r="C81" s="51" t="s">
         <v>288</v>
@@ -46486,7 +46451,7 @@
     <row r="82" spans="1:9">
       <c r="A82" s="77"/>
       <c r="B82" s="51" t="s">
-        <v>820</v>
+        <v>829</v>
       </c>
       <c r="C82" s="55" t="s">
         <v>288</v>
@@ -46510,7 +46475,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="72"/>
+      <c r="A83" s="73"/>
       <c r="B83" s="51"/>
       <c r="C83" s="55" t="s">
         <v>295</v>
@@ -46534,9 +46499,9 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="72"/>
+      <c r="A84" s="73"/>
       <c r="B84" s="51" t="s">
-        <v>821</v>
+        <v>830</v>
       </c>
       <c r="C84" s="55" t="s">
         <v>288</v>
@@ -46554,7 +46519,7 @@
       <c r="I84" s="54"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="72"/>
+      <c r="A85" s="73"/>
       <c r="B85" s="51"/>
       <c r="C85" s="55" t="s">
         <v>295</v>
@@ -46572,7 +46537,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="72"/>
+      <c r="A86" s="73"/>
       <c r="B86" s="51"/>
       <c r="C86" s="55" t="s">
         <v>295</v>
@@ -46590,7 +46555,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="72"/>
+      <c r="A87" s="73"/>
       <c r="B87" s="51"/>
       <c r="C87" s="55" t="s">
         <v>295</v>
@@ -46607,7 +46572,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="72"/>
+      <c r="A88" s="73"/>
       <c r="B88" s="51"/>
       <c r="C88" s="55" t="s">
         <v>295</v>
@@ -46624,7 +46589,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="72"/>
+      <c r="A89" s="73"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="52"/>
@@ -46635,7 +46600,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="72"/>
+      <c r="A90" s="73"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -46646,7 +46611,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="73"/>
+      <c r="A91" s="76"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -46657,7 +46622,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="76" t="s">
+      <c r="A92" s="72" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -46684,9 +46649,9 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="72"/>
+      <c r="A93" s="73"/>
       <c r="B93" s="51" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="C93" s="51" t="s">
         <v>288</v>
@@ -46710,7 +46675,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="72"/>
+      <c r="A94" s="73"/>
       <c r="B94" s="56" t="s">
         <v>309</v>
       </c>
@@ -46736,9 +46701,9 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="72"/>
+      <c r="A95" s="73"/>
       <c r="B95" s="51" t="s">
-        <v>823</v>
+        <v>832</v>
       </c>
       <c r="C95" s="51" t="s">
         <v>290</v>
@@ -46762,9 +46727,9 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="72"/>
+      <c r="A96" s="73"/>
       <c r="B96" s="51" t="s">
-        <v>824</v>
+        <v>833</v>
       </c>
       <c r="C96" s="51" t="s">
         <v>295</v>
@@ -46788,9 +46753,9 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="72"/>
+      <c r="A97" s="73"/>
       <c r="B97" s="51" t="s">
-        <v>825</v>
+        <v>834</v>
       </c>
       <c r="C97" s="51" t="s">
         <v>288</v>
@@ -46814,9 +46779,9 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="72"/>
+      <c r="A98" s="73"/>
       <c r="B98" s="51" t="s">
-        <v>826</v>
+        <v>835</v>
       </c>
       <c r="C98" s="51" t="s">
         <v>290</v>
@@ -46840,7 +46805,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="72"/>
+      <c r="A99" s="73"/>
       <c r="B99" s="51"/>
       <c r="C99" s="51" t="s">
         <v>296</v>
@@ -46864,7 +46829,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="72"/>
+      <c r="A100" s="73"/>
       <c r="B100" s="51"/>
       <c r="C100" s="51" t="s">
         <v>288</v>
@@ -46882,7 +46847,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="72"/>
+      <c r="A101" s="73"/>
       <c r="B101" s="51"/>
       <c r="C101" s="51"/>
       <c r="D101" s="52"/>
@@ -46891,7 +46856,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="72"/>
+      <c r="A102" s="73"/>
       <c r="B102" s="51"/>
       <c r="C102" s="51"/>
       <c r="D102" s="52"/>
@@ -46899,7 +46864,7 @@
       <c r="F102" s="52"/>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="72"/>
+      <c r="A103" s="73"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51"/>
       <c r="D103" s="52"/>
@@ -46907,7 +46872,7 @@
       <c r="F103" s="52"/>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="72"/>
+      <c r="A104" s="73"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51"/>
       <c r="D104" s="52"/>
@@ -46915,7 +46880,7 @@
       <c r="F104" s="52"/>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="72"/>
+      <c r="A105" s="73"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51"/>
       <c r="D105" s="52"/>
@@ -46960,7 +46925,7 @@
     <row r="108" spans="1:9">
       <c r="A108" s="75"/>
       <c r="B108" s="55" t="s">
-        <v>827</v>
+        <v>836</v>
       </c>
       <c r="C108" s="51" t="s">
         <v>288</v>
@@ -46985,7 +46950,7 @@
     <row r="109" spans="1:9">
       <c r="A109" s="75"/>
       <c r="B109" s="56" t="s">
-        <v>828</v>
+        <v>837</v>
       </c>
       <c r="C109" s="51" t="s">
         <v>288</v>
@@ -47037,7 +47002,7 @@
     <row r="111" spans="1:9">
       <c r="A111" s="75"/>
       <c r="B111" s="55" t="s">
-        <v>829</v>
+        <v>838</v>
       </c>
       <c r="C111" s="51" t="s">
         <v>288</v>
@@ -47089,7 +47054,7 @@
     <row r="113" spans="1:9">
       <c r="A113" s="75"/>
       <c r="B113" s="55" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
       <c r="C113" s="51" t="s">
         <v>288</v>
@@ -47115,7 +47080,7 @@
     <row r="114" spans="1:9">
       <c r="A114" s="75"/>
       <c r="B114" s="55" t="s">
-        <v>831</v>
+        <v>840</v>
       </c>
       <c r="C114" s="51" t="s">
         <v>288</v>
@@ -47127,7 +47092,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="F114" s="52" t="s">
-        <v>832</v>
+        <v>841</v>
       </c>
       <c r="H114" s="48" t="s">
         <v>300</v>
@@ -47228,11 +47193,11 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="76" t="s">
+      <c r="A122" s="72" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51" t="s">
-        <v>833</v>
+        <v>842</v>
       </c>
       <c r="C122" s="51" t="s">
         <v>288</v>
@@ -47255,9 +47220,9 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="72"/>
+      <c r="A123" s="73"/>
       <c r="B123" s="51" t="s">
-        <v>834</v>
+        <v>843</v>
       </c>
       <c r="C123" s="51" t="s">
         <v>288</v>
@@ -47281,7 +47246,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="72"/>
+      <c r="A124" s="73"/>
       <c r="B124" s="51" t="s">
         <v>342</v>
       </c>
@@ -47307,9 +47272,9 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="72"/>
+      <c r="A125" s="73"/>
       <c r="B125" s="51" t="s">
-        <v>835</v>
+        <v>844</v>
       </c>
       <c r="C125" s="51" t="s">
         <v>288</v>
@@ -47333,9 +47298,9 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="72"/>
+      <c r="A126" s="73"/>
       <c r="B126" s="58" t="s">
-        <v>836</v>
+        <v>845</v>
       </c>
       <c r="C126" s="51" t="s">
         <v>288</v>
@@ -47361,7 +47326,7 @@
     <row r="127" spans="1:9">
       <c r="A127" s="77"/>
       <c r="B127" s="57" t="s">
-        <v>837</v>
+        <v>846</v>
       </c>
       <c r="C127" s="55" t="s">
         <v>290</v>
@@ -47413,7 +47378,7 @@
     <row r="129" spans="1:9">
       <c r="A129" s="77"/>
       <c r="B129" s="57" t="s">
-        <v>838</v>
+        <v>847</v>
       </c>
       <c r="C129" s="55" t="s">
         <v>290</v>
@@ -47445,7 +47410,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="72"/>
+      <c r="A131" s="73"/>
       <c r="B131" s="59"/>
       <c r="C131" s="51"/>
       <c r="D131" s="52"/>
@@ -47454,7 +47419,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="72"/>
+      <c r="A132" s="73"/>
       <c r="B132" s="51"/>
       <c r="C132" s="51"/>
       <c r="D132" s="52"/>
@@ -47462,7 +47427,7 @@
       <c r="F132" s="52"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="72"/>
+      <c r="A133" s="73"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
@@ -47470,7 +47435,7 @@
       <c r="F133" s="52"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="72"/>
+      <c r="A134" s="73"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -47478,7 +47443,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="72"/>
+      <c r="A135" s="73"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
